--- a/PLTR/PLTR.xlsx
+++ b/PLTR/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PLTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1060" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302FAEED-084B-478A-8B6A-57DD3F44E6AD}"/>
+  <xr:revisionPtr revIDLastSave="1061" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67CAC3E-686F-47A7-AA04-BE807D99D04A}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="1960" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8150" yWindow="1770" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1762,6 +1762,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1896,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1923,29 +1924,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1955,15 +1945,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1986,6 +1971,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2469,23 +2458,23 @@
   <dimension ref="B1:AZ130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="K98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC133" sqref="AC133"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="12" width="10.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="31" customWidth="1"/>
     <col min="14" max="16" width="10.6328125" customWidth="1"/>
-    <col min="17" max="17" width="10.6328125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" style="31" customWidth="1"/>
     <col min="18" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="10.6328125" style="42" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" style="31" customWidth="1"/>
     <col min="22" max="24" width="10.6328125" customWidth="1"/>
-    <col min="25" max="25" width="10.6328125" style="42" customWidth="1"/>
+    <col min="25" max="25" width="10.6328125" style="31" customWidth="1"/>
     <col min="26" max="47" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2493,7 +2482,7 @@
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="31" t="s">
         <v>543</v>
       </c>
       <c r="N1" t="s">
@@ -2505,7 +2494,7 @@
       <c r="P1" t="s">
         <v>546</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="31" t="s">
         <v>532</v>
       </c>
       <c r="R1" t="s">
@@ -2517,7 +2506,7 @@
       <c r="T1" t="s">
         <v>535</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="31" t="s">
         <v>536</v>
       </c>
       <c r="V1" t="s">
@@ -2529,7 +2518,7 @@
       <c r="X1" t="s">
         <v>539</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="31" t="s">
         <v>540</v>
       </c>
       <c r="Z1" t="s">
@@ -2549,7 +2538,7 @@
       <c r="P2" s="21">
         <v>44253</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="32">
         <v>44328</v>
       </c>
       <c r="R2" s="21">
@@ -2561,7 +2550,7 @@
       <c r="T2" s="21">
         <v>44616</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="32">
         <v>44690</v>
       </c>
       <c r="V2" s="21">
@@ -2573,7 +2562,7 @@
       <c r="X2" s="21">
         <v>44978</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="32">
         <v>45055</v>
       </c>
       <c r="Z2" s="21">
@@ -2593,7 +2582,7 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="32">
         <v>43921</v>
       </c>
       <c r="N3" s="21">
@@ -2605,7 +2594,7 @@
       <c r="P3" s="21">
         <v>44196</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="32">
         <v>44286</v>
       </c>
       <c r="R3" s="21">
@@ -2617,7 +2606,7 @@
       <c r="T3" s="21">
         <v>44561</v>
       </c>
-      <c r="U3" s="43">
+      <c r="U3" s="32">
         <v>44651</v>
       </c>
       <c r="V3" s="21">
@@ -2629,7 +2618,7 @@
       <c r="X3" s="21">
         <v>44926</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="32">
         <v>45016</v>
       </c>
       <c r="Z3" s="21">
@@ -2658,162 +2647,162 @@
       <c r="B4" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="38"/>
-    </row>
-    <row r="5" spans="2:52" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="27"/>
+    </row>
+    <row r="5" spans="2:52" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="P5" s="39">
+      <c r="M5" s="34"/>
+      <c r="P5" s="28">
         <v>33.5</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="34">
         <v>45</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="28">
         <v>27.5</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="28">
         <v>29.29</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="28">
         <v>27.11</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="34">
         <v>18.84</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="28">
         <v>14.86</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="28">
         <v>11.62</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="28">
         <v>9.06</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="34">
         <v>10.31</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="28">
         <v>17.16</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="28">
         <v>33.5</v>
       </c>
-      <c r="AN5" s="39">
+      <c r="AN5" s="28">
         <v>29.29</v>
       </c>
-      <c r="AO5" s="39">
+      <c r="AO5" s="28">
         <v>14.86</v>
       </c>
     </row>
-    <row r="6" spans="2:52" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:52" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="P6" s="39">
+      <c r="M6" s="34"/>
+      <c r="P6" s="28">
         <v>8.9</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="34">
         <v>20.18</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="28">
         <v>17.059999999999999</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="28">
         <v>20.55</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="28">
         <v>17.809999999999999</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="34">
         <v>9.74</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="28">
         <v>6.44</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="28">
         <v>7.13</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="28">
         <v>5.82</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="34">
         <v>6.09</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="28">
         <v>7.28</v>
       </c>
-      <c r="AM6" s="39">
+      <c r="AM6" s="28">
         <v>8.9</v>
       </c>
-      <c r="AN6" s="39">
+      <c r="AN6" s="28">
         <v>17.059999999999999</v>
       </c>
-      <c r="AO6" s="39">
+      <c r="AO6" s="28">
         <v>5.92</v>
       </c>
     </row>
-    <row r="7" spans="2:52" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="2:52" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="P7" s="40">
+      <c r="M7" s="35"/>
+      <c r="P7" s="29">
         <v>17.8</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="35">
         <v>27.49</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="29">
         <v>23.08</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="29">
         <v>24.4</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="29">
         <v>22.15</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="35">
         <v>13.33</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="29">
         <v>9.9</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="29">
         <v>8.9</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="29">
         <v>7.58</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="35">
         <v>7.82</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="29">
         <v>11.3</v>
       </c>
-      <c r="AM7" s="40">
+      <c r="AM7" s="29">
         <v>17.670000000000002</v>
       </c>
-      <c r="AN7" s="40">
+      <c r="AN7" s="29">
         <v>23.23</v>
       </c>
-      <c r="AO7" s="40">
+      <c r="AO7" s="29">
         <v>8.81</v>
       </c>
     </row>
@@ -2821,10 +2810,10 @@
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="Y8" s="47"/>
+      <c r="M8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="Y8" s="36"/>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -2840,7 +2829,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="48">
+      <c r="M9" s="37">
         <v>118127</v>
       </c>
       <c r="N9" s="3">
@@ -2849,11 +2838,11 @@
       <c r="O9" s="3">
         <v>162561</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="3">
         <f>AM9-O9-N9-M9</f>
         <v>189941</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="37">
         <v>208420</v>
       </c>
       <c r="R9" s="3">
@@ -2862,11 +2851,11 @@
       <c r="S9" s="3">
         <v>217836</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="3">
         <f>AN9-S9-R9-Q9</f>
         <v>238981</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="37">
         <v>241790</v>
       </c>
       <c r="V9" s="3">
@@ -2875,11 +2864,11 @@
       <c r="W9" s="3">
         <v>273834</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="3">
         <f>AO9-W9-V9-U9</f>
         <v>293154</v>
       </c>
-      <c r="Y9" s="48">
+      <c r="Y9" s="37">
         <v>289070</v>
       </c>
       <c r="Z9" s="3">
@@ -2923,7 +2912,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="49">
+      <c r="M10" s="38">
         <v>111200</v>
       </c>
       <c r="N10" s="11">
@@ -2932,11 +2921,11 @@
       <c r="O10" s="11">
         <v>126805</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="11">
         <f>AM10-O10-N10-M10</f>
         <v>132150</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="38">
         <v>132814</v>
       </c>
       <c r="R10" s="11">
@@ -2945,11 +2934,11 @@
       <c r="S10" s="11">
         <v>174310</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="11">
         <f>AN10-S10-R10-Q10</f>
         <v>193886</v>
       </c>
-      <c r="U10" s="49">
+      <c r="U10" s="38">
         <v>204567</v>
       </c>
       <c r="V10" s="11">
@@ -2958,11 +2947,11 @@
       <c r="W10" s="11">
         <v>204046</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="11">
         <f>AO10-W10-V10-U10</f>
         <v>215470</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y10" s="38">
         <v>236116</v>
       </c>
       <c r="Z10" s="11">
@@ -2992,168 +2981,168 @@
         <v>834095</v>
       </c>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="11" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
         <f>SUM(I9:I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="13">
         <f t="shared" ref="J11:O11" si="0">SUM(J9:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="44">
         <f t="shared" si="0"/>
         <v>229327</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="13">
         <f t="shared" si="0"/>
         <v>251889</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>289366</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="13">
         <f>SUM(P9:P10)</f>
         <v>322091</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="44">
         <f t="shared" ref="Q11:AD11" si="1">SUM(Q9:Q10)</f>
         <v>341234</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="13">
         <f t="shared" si="1"/>
         <v>375642</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="13">
         <f t="shared" si="1"/>
         <v>392146</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="13">
         <f t="shared" si="1"/>
         <v>432867</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="44">
         <f t="shared" si="1"/>
         <v>446357</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="13">
         <f t="shared" si="1"/>
         <v>473010</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="13">
         <f t="shared" si="1"/>
         <v>477880</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="13">
         <f t="shared" si="1"/>
         <v>508624</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="44">
         <f t="shared" si="1"/>
         <v>525186</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="13">
         <f t="shared" si="1"/>
         <v>533317</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3">
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13">
         <f>SUM(AL9:AL10)</f>
         <v>742555</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="13">
         <f>SUM(AM9:AM10)</f>
         <v>1092673</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="13">
         <f>SUM(AN9:AN10)</f>
         <v>1541889</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="13">
         <f t="shared" ref="AO11:AZ11" si="2">SUM(AO9:AO10)</f>
         <v>1905871</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AY11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3178,7 +3167,7 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="50" t="e">
+      <c r="M12" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3194,7 +3183,7 @@
         <f>(P11-L11)/ABS(L11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="39">
         <f t="shared" ref="Q12:AD12" si="4">(Q11-M11)/ABS(M11)</f>
         <v>0.4879800459605716</v>
       </c>
@@ -3210,7 +3199,7 @@
         <f t="shared" si="4"/>
         <v>0.34392764777656004</v>
       </c>
-      <c r="U12" s="50">
+      <c r="U12" s="39">
         <f t="shared" si="4"/>
         <v>0.30806719142875566</v>
       </c>
@@ -3226,7 +3215,7 @@
         <f t="shared" si="4"/>
         <v>0.17501218619113953</v>
       </c>
-      <c r="Y12" s="50">
+      <c r="Y12" s="39">
         <f t="shared" si="4"/>
         <v>0.17660527335742465</v>
       </c>
@@ -3321,19 +3310,19 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="51"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="51"/>
+      <c r="U13" s="40"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="51"/>
+      <c r="Y13" s="40"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
@@ -3370,7 +3359,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="39">
         <f t="shared" si="6"/>
         <v>0.51510288801580273</v>
       </c>
@@ -3386,7 +3375,7 @@
         <f>P9/P11</f>
         <v>0.58971222418509051</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="39">
         <f t="shared" ref="Q14:AD14" si="7">Q9/Q11</f>
         <v>0.61078321620940468</v>
       </c>
@@ -3402,7 +3391,7 @@
         <f t="shared" si="7"/>
         <v>0.55208874781399364</v>
       </c>
-      <c r="U14" s="50">
+      <c r="U14" s="39">
         <f t="shared" si="7"/>
         <v>0.54169644477402612</v>
       </c>
@@ -3418,7 +3407,7 @@
         <f t="shared" si="7"/>
         <v>0.57636682500235936</v>
       </c>
-      <c r="Y14" s="50">
+      <c r="Y14" s="39">
         <f t="shared" si="7"/>
         <v>0.55041451980822031</v>
       </c>
@@ -3523,7 +3512,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="41">
         <f t="shared" si="9"/>
         <v>0.48489711198419722</v>
       </c>
@@ -3539,7 +3528,7 @@
         <f>P10/P11</f>
         <v>0.41028777581490944</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="41">
         <f t="shared" ref="Q15:AD15" si="10">Q10/Q11</f>
         <v>0.38921678379059532</v>
       </c>
@@ -3555,7 +3544,7 @@
         <f t="shared" si="10"/>
         <v>0.4479112521860063</v>
       </c>
-      <c r="U15" s="52">
+      <c r="U15" s="41">
         <f t="shared" si="10"/>
         <v>0.45830355522597382</v>
       </c>
@@ -3571,7 +3560,7 @@
         <f t="shared" si="10"/>
         <v>0.42363317499764069</v>
       </c>
-      <c r="Y15" s="52">
+      <c r="Y15" s="41">
         <f t="shared" si="10"/>
         <v>0.44958548019177969</v>
       </c>
@@ -3676,7 +3665,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="42">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -3692,7 +3681,7 @@
         <f>SUM(P14:P15)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="42">
         <f t="shared" ref="Q16:AD16" si="13">SUM(Q14:Q15)</f>
         <v>1</v>
       </c>
@@ -3708,7 +3697,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="42">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -3724,7 +3713,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="53">
+      <c r="Y16" s="42">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -3814,25 +3803,25 @@
       </c>
     </row>
     <row r="17" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="Y17" s="53"/>
+      <c r="M17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="Y17" s="42"/>
     </row>
     <row r="18" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="Y18" s="54"/>
+      <c r="M18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="Y18" s="43"/>
     </row>
     <row r="19" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="37">
         <v>109777</v>
       </c>
       <c r="N19" s="3">
@@ -3841,11 +3830,11 @@
       <c r="O19" s="3">
         <v>156336</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="3">
         <f>AM19-O19-N19-M19</f>
         <v>182443</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="37">
         <v>198447</v>
       </c>
       <c r="R19" s="3">
@@ -3854,11 +3843,11 @@
       <c r="S19" s="3">
         <v>227285</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="3">
         <f>AN19-S19-R19-Q19</f>
         <v>253494</v>
       </c>
-      <c r="U19" s="48">
+      <c r="U19" s="37">
         <v>272913</v>
       </c>
       <c r="V19" s="3">
@@ -3867,11 +3856,11 @@
       <c r="W19" s="3">
         <v>296650</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="3">
         <f>AO19-W19-V19-U19</f>
         <v>301630</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="37">
         <v>336845</v>
       </c>
       <c r="Z19" s="3">
@@ -3894,7 +3883,7 @@
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="37">
         <v>28975</v>
       </c>
       <c r="N20" s="3">
@@ -3903,11 +3892,11 @@
       <c r="O20" s="3">
         <v>35432</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="3">
         <f>AM20-O20-N20-M20</f>
         <v>37987</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="37">
         <v>34385</v>
       </c>
       <c r="R20" s="3">
@@ -3916,11 +3905,11 @@
       <c r="S20" s="3">
         <v>47914</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="3">
         <f>AN20-S20-R20-Q20</f>
         <v>51128</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="37">
         <v>49902</v>
       </c>
       <c r="V20" s="3">
@@ -3929,11 +3918,11 @@
       <c r="W20" s="3">
         <v>59435</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="3">
         <f>AO20-W20-V20-U20</f>
         <v>59465</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="37">
         <v>49579</v>
       </c>
       <c r="Z20" s="3">
@@ -3956,7 +3945,7 @@
       <c r="B21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="38">
         <f>25730+64845</f>
         <v>90575</v>
       </c>
@@ -3967,11 +3956,11 @@
       <c r="O21" s="11">
         <v>97598</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="11">
         <f>AM21-O21-N21-M21</f>
         <v>101661</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="38">
         <v>108402</v>
       </c>
       <c r="R21" s="11">
@@ -3980,11 +3969,11 @@
       <c r="S21" s="11">
         <v>116947</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="11">
         <f>AN21-S21-R21-Q21</f>
         <v>128245</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="38">
         <v>123542</v>
       </c>
       <c r="V21" s="11">
@@ -3993,11 +3982,11 @@
       <c r="W21" s="11">
         <v>121795</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="11">
         <f>AO21-W21-V21-U21</f>
         <v>147529</v>
       </c>
-      <c r="Y21" s="49">
+      <c r="Y21" s="38">
         <v>138762</v>
       </c>
       <c r="Z21" s="11">
@@ -4037,7 +4026,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="44">
         <f t="shared" si="15"/>
         <v>229327</v>
       </c>
@@ -4053,7 +4042,7 @@
         <f>SUM(P19:P21)</f>
         <v>322091</v>
       </c>
-      <c r="Q22" s="55">
+      <c r="Q22" s="44">
         <f t="shared" ref="Q22:AD22" si="16">SUM(Q19:Q21)</f>
         <v>341234</v>
       </c>
@@ -4069,7 +4058,7 @@
         <f t="shared" si="16"/>
         <v>432867</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="44">
         <f t="shared" si="16"/>
         <v>446357</v>
       </c>
@@ -4085,7 +4074,7 @@
         <f t="shared" si="16"/>
         <v>508624</v>
       </c>
-      <c r="Y22" s="55">
+      <c r="Y22" s="44">
         <f t="shared" si="16"/>
         <v>525186</v>
       </c>
@@ -4174,95 +4163,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="30" t="e">
+      <c r="I23" s="10" t="e">
         <f>(I22-E22)/ABS(E22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="30" t="e">
+      <c r="J23" s="10" t="e">
         <f t="shared" ref="J23:O23" si="18">(J22-F22)/ABS(F22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="30" t="e">
+      <c r="K23" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="30" t="e">
+      <c r="L23" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="56" t="e">
+      <c r="M23" s="39" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="30" t="e">
+      <c r="N23" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="30" t="e">
+      <c r="O23" s="10" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="30" t="e">
+      <c r="P23" s="10" t="e">
         <f>(P22-L22)/ABS(L22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="56">
+      <c r="Q23" s="39">
         <f t="shared" ref="Q23:AD23" si="19">(Q22-M22)/ABS(M22)</f>
         <v>0.4879800459605716</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="10">
         <f t="shared" si="19"/>
         <v>0.49129973917082526</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S23" s="10">
         <f t="shared" si="19"/>
         <v>0.35519031261447442</v>
       </c>
-      <c r="T23" s="30">
+      <c r="T23" s="10">
         <f t="shared" si="19"/>
         <v>0.34392764777656004</v>
       </c>
-      <c r="U23" s="56">
+      <c r="U23" s="39">
         <f t="shared" si="19"/>
         <v>0.30806719142875566</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="10">
         <f t="shared" si="19"/>
         <v>0.25920424233711886</v>
       </c>
-      <c r="W23" s="30">
+      <c r="W23" s="10">
         <f t="shared" si="19"/>
         <v>0.21862775598884088</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="10">
         <f t="shared" si="19"/>
         <v>0.17501218619113953</v>
       </c>
-      <c r="Y23" s="56">
+      <c r="Y23" s="39">
         <f t="shared" si="19"/>
         <v>0.17660527335742465</v>
       </c>
-      <c r="Z23" s="30">
+      <c r="Z23" s="10">
         <f t="shared" si="19"/>
         <v>0.12749624743662924</v>
       </c>
-      <c r="AA23" s="30">
+      <c r="AA23" s="10">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="AB23" s="30">
+      <c r="AB23" s="10">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="AC23" s="30">
+      <c r="AC23" s="10">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="AD23" s="30">
+      <c r="AD23" s="10">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
@@ -4331,658 +4320,658 @@
       <c r="B24" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="Y24" s="51"/>
-    </row>
-    <row r="25" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="30" t="s">
+      <c r="M24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="Y24" s="40"/>
+    </row>
+    <row r="25" spans="2:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="I25" s="30" t="e">
+      <c r="I25" s="10" t="e">
         <f>I19/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="30" t="e">
+      <c r="J25" s="10" t="e">
         <f t="shared" ref="J25:O25" si="21">J19/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="30" t="e">
+      <c r="K25" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="30" t="e">
+      <c r="L25" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M25" s="39">
         <f t="shared" si="21"/>
         <v>0.47869199876159368</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="10">
         <f t="shared" si="21"/>
         <v>0.49622254246910347</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="10">
         <f t="shared" si="21"/>
         <v>0.54027079891901608</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="10">
         <f>P19/P22</f>
         <v>0.5664330887854675</v>
       </c>
-      <c r="Q25" s="56">
+      <c r="Q25" s="39">
         <f t="shared" ref="Q25:AD25" si="22">Q19/Q22</f>
         <v>0.58155693746813042</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="10">
         <f t="shared" si="22"/>
         <v>0.53223547952571859</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="10">
         <f t="shared" si="22"/>
         <v>0.57959280472069075</v>
       </c>
-      <c r="T25" s="30">
+      <c r="T25" s="10">
         <f t="shared" si="22"/>
         <v>0.58561636715203513</v>
       </c>
-      <c r="U25" s="56">
+      <c r="U25" s="39">
         <f t="shared" si="22"/>
         <v>0.61142314335834325</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="10">
         <f t="shared" si="22"/>
         <v>0.61356630938035139</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="10">
         <f t="shared" si="22"/>
         <v>0.62076253452749641</v>
       </c>
-      <c r="X25" s="30">
+      <c r="X25" s="10">
         <f t="shared" si="22"/>
         <v>0.59303139450753406</v>
       </c>
-      <c r="Y25" s="56">
+      <c r="Y25" s="39">
         <f t="shared" si="22"/>
         <v>0.64138229122634649</v>
       </c>
-      <c r="Z25" s="30">
+      <c r="Z25" s="10">
         <f t="shared" si="22"/>
         <v>0.61504133564090402</v>
       </c>
-      <c r="AA25" s="30" t="e">
+      <c r="AA25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB25" s="30" t="e">
+      <c r="AB25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="30" t="e">
+      <c r="AC25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="30" t="e">
+      <c r="AD25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL25" s="30">
+      <c r="AL25" s="10">
         <f>AL19/AL22</f>
         <v>0.39829103568085866</v>
       </c>
-      <c r="AM25" s="30">
+      <c r="AM25" s="10">
         <f>AM19/AM22</f>
         <v>0.52490452312814539</v>
       </c>
-      <c r="AN25" s="30">
+      <c r="AN25" s="10">
         <f t="shared" ref="AN25:AZ25" si="23">AN19/AN22</f>
         <v>0.57018112198738047</v>
       </c>
-      <c r="AO25" s="30">
+      <c r="AO25" s="10">
         <f t="shared" si="23"/>
         <v>0.60938856827140975</v>
       </c>
-      <c r="AP25" s="30" t="e">
+      <c r="AP25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ25" s="30" t="e">
+      <c r="AQ25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR25" s="30" t="e">
+      <c r="AR25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS25" s="30" t="e">
+      <c r="AS25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT25" s="30" t="e">
+      <c r="AT25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU25" s="30" t="e">
+      <c r="AU25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV25" s="30" t="e">
+      <c r="AV25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW25" s="30" t="e">
+      <c r="AW25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX25" s="30" t="e">
+      <c r="AX25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY25" s="30" t="e">
+      <c r="AY25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ25" s="30" t="e">
+      <c r="AZ25" s="10" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="I26" s="30" t="e">
+      <c r="I26" s="10" t="e">
         <f>I20/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="30" t="e">
+      <c r="J26" s="10" t="e">
         <f t="shared" ref="J26:O26" si="24">J20/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="30" t="e">
+      <c r="K26" s="10" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="30" t="e">
+      <c r="L26" s="10" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M26" s="39">
         <f t="shared" si="24"/>
         <v>0.12634796600487513</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="10">
         <f t="shared" si="24"/>
         <v>0.11923108988483022</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="10">
         <f t="shared" si="24"/>
         <v>0.12244700483125177</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="10">
         <f>P20/P22</f>
         <v>0.11793871918184612</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26" s="39">
         <f t="shared" ref="Q26:AD26" si="25">Q20/Q22</f>
         <v>0.10076662935111975</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="10">
         <f t="shared" si="25"/>
         <v>0.1063113283392166</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26" s="10">
         <f t="shared" si="25"/>
         <v>0.12218408449914063</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="10">
         <f t="shared" si="25"/>
         <v>0.11811480200615894</v>
       </c>
-      <c r="U26" s="56">
+      <c r="U26" s="39">
         <f t="shared" si="25"/>
         <v>0.11179840352005234</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="10">
         <f t="shared" si="25"/>
         <v>0.1102302276907465</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="10">
         <f t="shared" si="25"/>
         <v>0.12437222733740688</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="10">
         <f t="shared" si="25"/>
         <v>0.11691347635974708</v>
       </c>
-      <c r="Y26" s="56">
+      <c r="Y26" s="39">
         <f t="shared" si="25"/>
         <v>9.4402744932271618E-2</v>
       </c>
-      <c r="Z26" s="30">
+      <c r="Z26" s="10">
         <f t="shared" si="25"/>
         <v>0.11855800583892882</v>
       </c>
-      <c r="AA26" s="30" t="e">
+      <c r="AA26" s="10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="30" t="e">
+      <c r="AB26" s="10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="30" t="e">
+      <c r="AC26" s="10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="30" t="e">
+      <c r="AD26" s="10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL26" s="30">
+      <c r="AL26" s="10">
         <f>AL20/AL22</f>
         <v>0.16185333072971025</v>
       </c>
-      <c r="AM26" s="30">
+      <c r="AM26" s="10">
         <f>AM20/AM22</f>
         <v>0.12119545371762641</v>
       </c>
-      <c r="AN26" s="30">
+      <c r="AN26" s="10">
         <f t="shared" ref="AN26:AZ26" si="26">AN20/AN22</f>
         <v>0.11243481210385443</v>
       </c>
-      <c r="AO26" s="30">
+      <c r="AO26" s="10">
         <f t="shared" si="26"/>
         <v>0.11592704857778936</v>
       </c>
-      <c r="AP26" s="30" t="e">
+      <c r="AP26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ26" s="30" t="e">
+      <c r="AQ26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR26" s="30" t="e">
+      <c r="AR26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS26" s="30" t="e">
+      <c r="AS26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT26" s="30" t="e">
+      <c r="AT26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU26" s="30" t="e">
+      <c r="AU26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV26" s="30" t="e">
+      <c r="AV26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW26" s="30" t="e">
+      <c r="AW26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX26" s="30" t="e">
+      <c r="AX26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY26" s="30" t="e">
+      <c r="AY26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ26" s="30" t="e">
+      <c r="AZ26" s="10" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:52" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="2:52" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="I27" s="31" t="e">
+      <c r="I27" s="18" t="e">
         <f>I21/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="31" t="e">
+      <c r="J27" s="18" t="e">
         <f t="shared" ref="J27:O27" si="27">J21/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="31" t="e">
+      <c r="K27" s="18" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="31" t="e">
+      <c r="L27" s="18" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="41">
         <f t="shared" si="27"/>
         <v>0.39496003523353118</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="18">
         <f t="shared" si="27"/>
         <v>0.38454636764606631</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="18">
         <f t="shared" si="27"/>
         <v>0.33728219624973216</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="18">
         <f>P21/P22</f>
         <v>0.31562819203268644</v>
       </c>
-      <c r="Q27" s="57">
+      <c r="Q27" s="41">
         <f t="shared" ref="Q27:AD27" si="28">Q21/Q22</f>
         <v>0.31767643318074984</v>
       </c>
-      <c r="R27" s="31">
+      <c r="R27" s="18">
         <f t="shared" si="28"/>
         <v>0.36145319213506477</v>
       </c>
-      <c r="S27" s="31">
+      <c r="S27" s="18">
         <f t="shared" si="28"/>
         <v>0.29822311078016861</v>
       </c>
-      <c r="T27" s="31">
+      <c r="T27" s="18">
         <f t="shared" si="28"/>
         <v>0.29626883084180589</v>
       </c>
-      <c r="U27" s="57">
+      <c r="U27" s="41">
         <f t="shared" si="28"/>
         <v>0.27677845312160443</v>
       </c>
-      <c r="V27" s="31">
+      <c r="V27" s="18">
         <f t="shared" si="28"/>
         <v>0.27620346292890213</v>
       </c>
-      <c r="W27" s="31">
+      <c r="W27" s="18">
         <f t="shared" si="28"/>
         <v>0.25486523813509665</v>
       </c>
-      <c r="X27" s="31">
+      <c r="X27" s="18">
         <f t="shared" si="28"/>
         <v>0.29005512913271886</v>
       </c>
-      <c r="Y27" s="57">
+      <c r="Y27" s="41">
         <f t="shared" si="28"/>
         <v>0.26421496384138193</v>
       </c>
-      <c r="Z27" s="31">
+      <c r="Z27" s="18">
         <f t="shared" si="28"/>
         <v>0.2664006585201672</v>
       </c>
-      <c r="AA27" s="31" t="e">
+      <c r="AA27" s="18" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB27" s="31" t="e">
+      <c r="AB27" s="18" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="31" t="e">
+      <c r="AC27" s="18" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="31" t="e">
+      <c r="AD27" s="18" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL27" s="31">
+      <c r="AL27" s="18">
         <f>AL21/AL22</f>
         <v>0.43985563358943108</v>
       </c>
-      <c r="AM27" s="31">
+      <c r="AM27" s="18">
         <f>AM21/AM22</f>
         <v>0.35390002315422819</v>
       </c>
-      <c r="AN27" s="31">
+      <c r="AN27" s="18">
         <f t="shared" ref="AN27:AZ27" si="29">AN21/AN22</f>
         <v>0.31738406590876517</v>
       </c>
-      <c r="AO27" s="31">
+      <c r="AO27" s="18">
         <f t="shared" si="29"/>
         <v>0.27468438315080085</v>
       </c>
-      <c r="AP27" s="31" t="e">
+      <c r="AP27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ27" s="31" t="e">
+      <c r="AQ27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR27" s="31" t="e">
+      <c r="AR27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS27" s="31" t="e">
+      <c r="AS27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT27" s="31" t="e">
+      <c r="AT27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU27" s="31" t="e">
+      <c r="AU27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV27" s="31" t="e">
+      <c r="AV27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW27" s="31" t="e">
+      <c r="AW27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX27" s="31" t="e">
+      <c r="AX27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY27" s="31" t="e">
+      <c r="AY27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ27" s="31" t="e">
+      <c r="AZ27" s="18" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:52" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="2:52" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="I28" s="32" t="e">
+      <c r="I28" s="17" t="e">
         <f>SUM(I25:I27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="32" t="e">
+      <c r="J28" s="17" t="e">
         <f t="shared" ref="J28:O28" si="30">SUM(J25:J27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="32" t="e">
+      <c r="K28" s="17" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="32" t="e">
+      <c r="L28" s="17" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="45">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="17">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="17">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="17">
         <f>SUM(P25:P27)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="58">
+      <c r="Q28" s="45">
         <f t="shared" ref="Q28:AD28" si="31">SUM(Q25:Q27)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="U28" s="58">
+      <c r="U28" s="45">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="W28" s="32">
+      <c r="W28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="X28" s="32">
+      <c r="X28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="58">
+      <c r="Y28" s="45">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="32">
+      <c r="Z28" s="17">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AA28" s="32" t="e">
+      <c r="AA28" s="17" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="32" t="e">
+      <c r="AB28" s="17" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="32" t="e">
+      <c r="AC28" s="17" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="32" t="e">
+      <c r="AD28" s="17" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL28" s="32">
+      <c r="AL28" s="17">
         <f>SUM(AL25:AL27)</f>
         <v>1</v>
       </c>
-      <c r="AM28" s="32">
+      <c r="AM28" s="17">
         <f>SUM(AM25:AM27)</f>
         <v>1</v>
       </c>
-      <c r="AN28" s="32">
+      <c r="AN28" s="17">
         <f t="shared" ref="AN28:AZ28" si="32">SUM(AN25:AN27)</f>
         <v>1</v>
       </c>
-      <c r="AO28" s="32">
+      <c r="AO28" s="17">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AP28" s="32" t="e">
+      <c r="AP28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ28" s="32" t="e">
+      <c r="AQ28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR28" s="32" t="e">
+      <c r="AR28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS28" s="32" t="e">
+      <c r="AS28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT28" s="32" t="e">
+      <c r="AT28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="32" t="e">
+      <c r="AU28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV28" s="32" t="e">
+      <c r="AV28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW28" s="32" t="e">
+      <c r="AW28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX28" s="32" t="e">
+      <c r="AX28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY28" s="32" t="e">
+      <c r="AY28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ28" s="32" t="e">
+      <c r="AZ28" s="17" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:52" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="Y29" s="59"/>
+    <row r="29" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="Y30" s="53"/>
+      <c r="M30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="Y30" s="42"/>
     </row>
     <row r="31" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="Y31" s="60"/>
+      <c r="M31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="Y31" s="46"/>
     </row>
     <row r="32" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="Y32" s="53"/>
+      <c r="M32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="Y32" s="42"/>
     </row>
     <row r="33" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="Y33" s="53"/>
+      <c r="M33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="Y33" s="42"/>
     </row>
     <row r="34" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="Y34" s="53"/>
+      <c r="M34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="Y34" s="42"/>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
@@ -4995,19 +4984,19 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="48"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="48"/>
+      <c r="Q35" s="37"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="48"/>
+      <c r="U35" s="37"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="48"/>
+      <c r="Y35" s="37"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -5038,19 +5027,19 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="61"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="61"/>
+      <c r="Q36" s="47"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="61"/>
+      <c r="U36" s="47"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
-      <c r="Y36" s="61"/>
+      <c r="Y36" s="47"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
@@ -5081,7 +5070,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="55">
+      <c r="M37" s="44">
         <v>229327</v>
       </c>
       <c r="N37" s="13">
@@ -5094,7 +5083,7 @@
         <f>AM37-O37-N37-M37</f>
         <v>322091</v>
       </c>
-      <c r="Q37" s="55">
+      <c r="Q37" s="44">
         <v>341234</v>
       </c>
       <c r="R37" s="13">
@@ -5107,7 +5096,7 @@
         <f>AN37-S37-R37-Q37</f>
         <v>432867</v>
       </c>
-      <c r="U37" s="55">
+      <c r="U37" s="44">
         <v>446357</v>
       </c>
       <c r="V37" s="13">
@@ -5120,7 +5109,7 @@
         <f>AO37-W37-V37-U37</f>
         <v>508624</v>
       </c>
-      <c r="Y37" s="55">
+      <c r="Y37" s="44">
         <v>525186</v>
       </c>
       <c r="Z37" s="13">
@@ -5166,7 +5155,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="49">
+      <c r="M38" s="38">
         <v>64294</v>
       </c>
       <c r="N38" s="11">
@@ -5175,11 +5164,11 @@
       <c r="O38" s="11">
         <v>149340</v>
       </c>
-      <c r="P38" s="29">
+      <c r="P38" s="11">
         <f>AM38-O38-N38-M38</f>
         <v>70503</v>
       </c>
-      <c r="Q38" s="49">
+      <c r="Q38" s="38">
         <v>74111</v>
       </c>
       <c r="R38" s="11">
@@ -5188,11 +5177,11 @@
       <c r="S38" s="11">
         <v>86804</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="11">
         <f>AN38-S38-R38-Q38</f>
         <v>87563</v>
       </c>
-      <c r="U38" s="49">
+      <c r="U38" s="38">
         <v>94403</v>
       </c>
       <c r="V38" s="11">
@@ -5201,11 +5190,11 @@
       <c r="W38" s="11">
         <v>107611</v>
       </c>
-      <c r="X38" s="29">
+      <c r="X38" s="11">
         <f>AO38-W38-V38-U38</f>
         <v>104311</v>
       </c>
-      <c r="Y38" s="49">
+      <c r="Y38" s="38">
         <v>107645</v>
       </c>
       <c r="Z38" s="11">
@@ -5263,7 +5252,7 @@
         <f t="shared" ref="L39" si="36">L37-L38</f>
         <v>0</v>
       </c>
-      <c r="M39" s="55">
+      <c r="M39" s="44">
         <f t="shared" ref="M39" si="37">M37-M38</f>
         <v>165033</v>
       </c>
@@ -5279,7 +5268,7 @@
         <f t="shared" ref="P39" si="40">P37-P38</f>
         <v>251588</v>
       </c>
-      <c r="Q39" s="55">
+      <c r="Q39" s="44">
         <f t="shared" ref="Q39" si="41">Q37-Q38</f>
         <v>267123</v>
       </c>
@@ -5295,7 +5284,7 @@
         <f t="shared" ref="T39" si="44">T37-T38</f>
         <v>345304</v>
       </c>
-      <c r="U39" s="55">
+      <c r="U39" s="44">
         <f t="shared" ref="U39" si="45">U37-U38</f>
         <v>351954</v>
       </c>
@@ -5311,7 +5300,7 @@
         <f t="shared" ref="X39" si="48">X37-X38</f>
         <v>404313</v>
       </c>
-      <c r="Y39" s="55">
+      <c r="Y39" s="44">
         <f t="shared" ref="Y39" si="49">Y37-Y38</f>
         <v>417541</v>
       </c>
@@ -5432,7 +5421,7 @@
         <f t="shared" ref="L40" si="71">L39/L37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="39">
         <f t="shared" ref="M40" si="72">M39/M37</f>
         <v>0.71964051332812973</v>
       </c>
@@ -5448,7 +5437,7 @@
         <f t="shared" ref="P40" si="75">P39/P37</f>
         <v>0.78110844450791861</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q40" s="39">
         <f t="shared" ref="Q40" si="76">Q39/Q37</f>
         <v>0.78281472537906538</v>
       </c>
@@ -5464,7 +5453,7 @@
         <f t="shared" ref="T40" si="79">T39/T37</f>
         <v>0.79771384744043783</v>
       </c>
-      <c r="U40" s="50">
+      <c r="U40" s="39">
         <f t="shared" ref="U40" si="80">U39/U37</f>
         <v>0.78850337286073702</v>
       </c>
@@ -5480,7 +5469,7 @@
         <f t="shared" ref="X40" si="83">X39/X37</f>
         <v>0.79491530089024509</v>
       </c>
-      <c r="Y40" s="50">
+      <c r="Y40" s="39">
         <f t="shared" ref="Y40" si="84">Y39/Y37</f>
         <v>0.79503452110299966</v>
       </c>
@@ -5591,19 +5580,19 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="51"/>
+      <c r="M41" s="40"/>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="51"/>
+      <c r="Q41" s="40"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="51"/>
+      <c r="U41" s="40"/>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="51"/>
+      <c r="Y41" s="40"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
@@ -5634,7 +5623,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="48">
+      <c r="M42" s="37">
         <v>98653</v>
       </c>
       <c r="N42" s="3">
@@ -5643,11 +5632,11 @@
       <c r="O42" s="3">
         <v>334911</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P42" s="3">
         <f>AM42-O42-N42-M42</f>
         <v>147619</v>
       </c>
-      <c r="Q42" s="48">
+      <c r="Q42" s="37">
         <v>136097</v>
       </c>
       <c r="R42" s="3">
@@ -5656,11 +5645,11 @@
       <c r="S42" s="3">
         <v>153443</v>
       </c>
-      <c r="T42" s="28">
+      <c r="T42" s="3">
         <f>AN42-S42-R42-Q42</f>
         <v>162593</v>
       </c>
-      <c r="U42" s="48">
+      <c r="U42" s="37">
         <v>160485</v>
       </c>
       <c r="V42" s="3">
@@ -5669,11 +5658,11 @@
       <c r="W42" s="3">
         <v>182918</v>
       </c>
-      <c r="X42" s="28">
+      <c r="X42" s="3">
         <f>AO42-W42-V42-U42</f>
         <v>190233</v>
       </c>
-      <c r="Y42" s="48">
+      <c r="Y42" s="37">
         <v>187093</v>
       </c>
       <c r="Z42" s="3">
@@ -5719,7 +5708,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="48">
+      <c r="M43" s="37">
         <v>65800</v>
       </c>
       <c r="N43" s="3">
@@ -5728,11 +5717,11 @@
       <c r="O43" s="3">
         <v>313915</v>
       </c>
-      <c r="P43" s="28">
+      <c r="P43" s="3">
         <f>AM43-O43-N43-M43</f>
         <v>94130</v>
       </c>
-      <c r="Q43" s="48">
+      <c r="Q43" s="37">
         <v>98471</v>
       </c>
       <c r="R43" s="3">
@@ -5741,11 +5730,11 @@
       <c r="S43" s="3">
         <v>94316</v>
       </c>
-      <c r="T43" s="28">
+      <c r="T43" s="3">
         <f>AN43-S43-R43-Q43</f>
         <v>84176</v>
       </c>
-      <c r="U43" s="48">
+      <c r="U43" s="37">
         <v>88601</v>
       </c>
       <c r="V43" s="3">
@@ -5754,11 +5743,11 @@
       <c r="W43" s="3">
         <v>100863</v>
       </c>
-      <c r="X43" s="28">
+      <c r="X43" s="3">
         <f>AO43-W43-V43-U43</f>
         <v>82044</v>
       </c>
-      <c r="Y43" s="48">
+      <c r="Y43" s="37">
         <v>90100</v>
       </c>
       <c r="Z43" s="3">
@@ -5804,7 +5793,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="49">
+      <c r="M44" s="38">
         <v>70765</v>
       </c>
       <c r="N44" s="11">
@@ -5813,11 +5802,11 @@
       <c r="O44" s="11">
         <v>338977</v>
       </c>
-      <c r="P44" s="28">
+      <c r="P44" s="3">
         <f>AM44-O44-N44-M44</f>
         <v>166411</v>
       </c>
-      <c r="Q44" s="49">
+      <c r="Q44" s="38">
         <v>146569</v>
       </c>
       <c r="R44" s="11">
@@ -5826,11 +5815,11 @@
       <c r="S44" s="11">
         <v>149524</v>
       </c>
-      <c r="T44" s="28">
+      <c r="T44" s="3">
         <f>AN44-S44-R44-Q44</f>
         <v>157478</v>
       </c>
-      <c r="U44" s="49">
+      <c r="U44" s="38">
         <v>142307</v>
       </c>
       <c r="V44" s="11">
@@ -5839,11 +5828,11 @@
       <c r="W44" s="11">
         <v>148679</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X44" s="3">
         <f>AO44-W44-V44-U44</f>
         <v>149862</v>
       </c>
-      <c r="Y44" s="49">
+      <c r="Y44" s="38">
         <v>136233</v>
       </c>
       <c r="Z44" s="11">
@@ -5901,7 +5890,7 @@
         <f t="shared" ref="L45" si="106">SUM(L42:L44)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="62">
+      <c r="M45" s="48">
         <f t="shared" ref="M45" si="107">SUM(M42:M44)</f>
         <v>235218</v>
       </c>
@@ -5917,7 +5906,7 @@
         <f t="shared" ref="P45" si="110">SUM(P42:P44)</f>
         <v>408160</v>
       </c>
-      <c r="Q45" s="62">
+      <c r="Q45" s="48">
         <f t="shared" ref="Q45" si="111">SUM(Q42:Q44)</f>
         <v>381137</v>
       </c>
@@ -5933,7 +5922,7 @@
         <f t="shared" ref="T45" si="114">SUM(T42:T44)</f>
         <v>404247</v>
       </c>
-      <c r="U45" s="62">
+      <c r="U45" s="48">
         <f t="shared" ref="U45" si="115">SUM(U42:U44)</f>
         <v>391393</v>
       </c>
@@ -5949,7 +5938,7 @@
         <f t="shared" ref="X45" si="118">SUM(X42:X44)</f>
         <v>422139</v>
       </c>
-      <c r="Y45" s="62">
+      <c r="Y45" s="48">
         <f t="shared" ref="Y45" si="119">SUM(Y42:Y44)</f>
         <v>413426</v>
       </c>
@@ -6076,7 +6065,7 @@
         <f t="shared" ref="L46" si="141">L39-L45</f>
         <v>0</v>
       </c>
-      <c r="M46" s="55">
+      <c r="M46" s="44">
         <f t="shared" ref="M46" si="142">M39-M45</f>
         <v>-70185</v>
       </c>
@@ -6092,7 +6081,7 @@
         <f t="shared" ref="P46" si="145">P39-P45</f>
         <v>-156572</v>
       </c>
-      <c r="Q46" s="55">
+      <c r="Q46" s="44">
         <f t="shared" ref="Q46" si="146">Q39-Q45</f>
         <v>-114014</v>
       </c>
@@ -6108,7 +6097,7 @@
         <f t="shared" ref="T46" si="149">T39-T45</f>
         <v>-58943</v>
       </c>
-      <c r="U46" s="55">
+      <c r="U46" s="44">
         <f t="shared" ref="U46" si="150">U39-U45</f>
         <v>-39439</v>
       </c>
@@ -6124,7 +6113,7 @@
         <f t="shared" ref="X46" si="153">X39-X45</f>
         <v>-17826</v>
       </c>
-      <c r="Y46" s="55">
+      <c r="Y46" s="44">
         <f t="shared" ref="Y46" si="154">Y39-Y45</f>
         <v>4115</v>
       </c>
@@ -6251,7 +6240,7 @@
         <f t="shared" ref="L47" si="176">L46/L37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="63">
+      <c r="M47" s="45">
         <f t="shared" ref="M47" si="177">M46/M37</f>
         <v>-0.30604769608463023</v>
       </c>
@@ -6267,7 +6256,7 @@
         <f t="shared" ref="P47" si="180">P46/P37</f>
         <v>-0.48611106799010217</v>
       </c>
-      <c r="Q47" s="63">
+      <c r="Q47" s="45">
         <f t="shared" ref="Q47" si="181">Q46/Q37</f>
         <v>-0.33412262552969518</v>
       </c>
@@ -6283,7 +6272,7 @@
         <f t="shared" ref="T47" si="184">T46/T37</f>
         <v>-0.13616884632000129</v>
       </c>
-      <c r="U47" s="63">
+      <c r="U47" s="45">
         <f t="shared" ref="U47" si="185">U46/U37</f>
         <v>-8.8357525478484716E-2</v>
       </c>
@@ -6299,7 +6288,7 @@
         <f t="shared" ref="X47" si="188">X46/X37</f>
         <v>-3.5047500707792001E-2</v>
       </c>
-      <c r="Y47" s="63">
+      <c r="Y47" s="45">
         <f t="shared" ref="Y47" si="189">Y46/Y37</f>
         <v>7.8353192964016553E-3</v>
       </c>
@@ -6414,19 +6403,19 @@
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-      <c r="M48" s="51"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
-      <c r="Q48" s="51"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
-      <c r="U48" s="51"/>
+      <c r="U48" s="40"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
-      <c r="Y48" s="51"/>
+      <c r="Y48" s="40"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
@@ -6457,7 +6446,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="48">
+      <c r="M49" s="37">
         <v>3267</v>
       </c>
       <c r="N49" s="3">
@@ -6466,11 +6455,11 @@
       <c r="O49" s="3">
         <v>494</v>
       </c>
-      <c r="P49" s="28">
+      <c r="P49" s="3">
         <f>AM49-O49-N49-M49</f>
         <v>368</v>
       </c>
-      <c r="Q49" s="48">
+      <c r="Q49" s="37">
         <v>376</v>
       </c>
       <c r="R49" s="3">
@@ -6479,11 +6468,11 @@
       <c r="S49" s="3">
         <v>379</v>
       </c>
-      <c r="T49" s="28">
+      <c r="T49" s="3">
         <f>AN49-S49-R49-Q49</f>
         <v>480</v>
       </c>
-      <c r="U49" s="48">
+      <c r="U49" s="37">
         <v>547</v>
       </c>
       <c r="V49" s="3">
@@ -6492,11 +6481,11 @@
       <c r="W49" s="3">
         <v>5540</v>
       </c>
-      <c r="X49" s="28">
+      <c r="X49" s="3">
         <f>AO49-W49-V49-U49</f>
         <v>12750</v>
       </c>
-      <c r="Y49" s="48">
+      <c r="Y49" s="37">
         <v>20853</v>
       </c>
       <c r="Z49" s="3">
@@ -6542,7 +6531,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="48">
+      <c r="M50" s="37">
         <v>-4594</v>
       </c>
       <c r="N50" s="3">
@@ -6551,11 +6540,11 @@
       <c r="O50" s="3">
         <v>-2085</v>
       </c>
-      <c r="P50" s="28">
+      <c r="P50" s="3">
         <f>AM50-O50-N50-M50</f>
         <v>-1814</v>
       </c>
-      <c r="Q50" s="48">
+      <c r="Q50" s="37">
         <v>-1840</v>
       </c>
       <c r="R50" s="3">
@@ -6564,11 +6553,11 @@
       <c r="S50" s="3">
         <v>-609</v>
       </c>
-      <c r="T50" s="28">
+      <c r="T50" s="3">
         <f>AN50-S50-R50-Q50</f>
         <v>-601</v>
       </c>
-      <c r="U50" s="48">
+      <c r="U50" s="37">
         <v>-594</v>
       </c>
       <c r="V50" s="3">
@@ -6577,11 +6566,11 @@
       <c r="W50" s="3">
         <v>-1082</v>
       </c>
-      <c r="X50" s="28">
+      <c r="X50" s="3">
         <f>AO50-W50-V50-U50</f>
         <v>-1712</v>
       </c>
-      <c r="Y50" s="48">
+      <c r="Y50" s="37">
         <v>-1275</v>
       </c>
       <c r="Z50" s="3">
@@ -6627,7 +6616,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="49">
+      <c r="M51" s="38">
         <f>13695+6100</f>
         <v>19795</v>
       </c>
@@ -6639,11 +6628,11 @@
         <f>-9201-3293</f>
         <v>-12494</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="11">
         <f>AM51-O51-N51-M51</f>
         <v>2082</v>
       </c>
-      <c r="Q51" s="49">
+      <c r="Q51" s="38">
         <v>-4894</v>
       </c>
       <c r="R51" s="11">
@@ -6652,11 +6641,11 @@
       <c r="S51" s="11">
         <v>-8528</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="11">
         <f>AN51-S51-R51-Q51</f>
         <v>-64118</v>
       </c>
-      <c r="U51" s="49">
+      <c r="U51" s="38">
         <v>-59870</v>
       </c>
       <c r="V51" s="11">
@@ -6665,11 +6654,11 @@
       <c r="W51" s="11">
         <v>-65046</v>
       </c>
-      <c r="X51" s="29">
+      <c r="X51" s="11">
         <f>AO51-W51-V51-U51</f>
         <v>44637</v>
       </c>
-      <c r="Y51" s="49">
+      <c r="Y51" s="38">
         <v>-2861</v>
       </c>
       <c r="Z51" s="11">
@@ -6728,7 +6717,7 @@
         <f t="shared" ref="L52" si="211">L46+SUM(L49:L51)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="55">
+      <c r="M52" s="44">
         <f t="shared" ref="M52" si="212">M46+SUM(M49:M51)</f>
         <v>-51717</v>
       </c>
@@ -6744,7 +6733,7 @@
         <f t="shared" ref="P52" si="215">P46+SUM(P49:P51)</f>
         <v>-155936</v>
       </c>
-      <c r="Q52" s="55">
+      <c r="Q52" s="44">
         <f t="shared" ref="Q52" si="216">Q46+SUM(Q49:Q51)</f>
         <v>-120372</v>
       </c>
@@ -6760,7 +6749,7 @@
         <f t="shared" ref="T52" si="219">T46+SUM(T49:T51)</f>
         <v>-123182</v>
       </c>
-      <c r="U52" s="55">
+      <c r="U52" s="44">
         <f t="shared" ref="U52" si="220">U46+SUM(U49:U51)</f>
         <v>-99356</v>
       </c>
@@ -6776,7 +6765,7 @@
         <f t="shared" ref="X52" si="223">X46+SUM(X49:X51)</f>
         <v>37849</v>
       </c>
-      <c r="Y52" s="55">
+      <c r="Y52" s="44">
         <f t="shared" ref="Y52" si="224">Y46+SUM(Y49:Y51)</f>
         <v>20832</v>
       </c>
@@ -6891,7 +6880,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="49">
+      <c r="M53" s="38">
         <v>2557</v>
       </c>
       <c r="N53" s="11">
@@ -6900,11 +6889,11 @@
       <c r="O53" s="11">
         <v>-8543</v>
       </c>
-      <c r="P53" s="29">
+      <c r="P53" s="11">
         <f>AM53-O53-N53-M53</f>
         <v>-7593</v>
       </c>
-      <c r="Q53" s="49">
+      <c r="Q53" s="38">
         <v>3102</v>
       </c>
       <c r="R53" s="11">
@@ -6913,11 +6902,11 @@
       <c r="S53" s="11">
         <v>1438</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T53" s="11">
         <f>AN53-S53-R53-Q53</f>
         <v>33006</v>
       </c>
-      <c r="U53" s="49">
+      <c r="U53" s="38">
         <v>2023</v>
       </c>
       <c r="V53" s="11">
@@ -6926,11 +6915,11 @@
       <c r="W53" s="11">
         <v>1096</v>
       </c>
-      <c r="X53" s="29">
+      <c r="X53" s="11">
         <f>AO53-W53-V53-U53</f>
         <v>4360</v>
       </c>
-      <c r="Y53" s="49">
+      <c r="Y53" s="38">
         <v>1681</v>
       </c>
       <c r="Z53" s="11">
@@ -6988,7 +6977,7 @@
         <f t="shared" ref="L54" si="246">L52-L53</f>
         <v>0</v>
       </c>
-      <c r="M54" s="55">
+      <c r="M54" s="44">
         <f t="shared" ref="M54" si="247">M52-M53</f>
         <v>-54274</v>
       </c>
@@ -7004,7 +6993,7 @@
         <f t="shared" ref="P54" si="250">P52-P53</f>
         <v>-148343</v>
       </c>
-      <c r="Q54" s="55">
+      <c r="Q54" s="44">
         <f t="shared" ref="Q54" si="251">Q52-Q53</f>
         <v>-123474</v>
       </c>
@@ -7020,7 +7009,7 @@
         <f t="shared" ref="T54" si="254">T52-T53</f>
         <v>-156188</v>
       </c>
-      <c r="U54" s="55">
+      <c r="U54" s="44">
         <f t="shared" ref="U54" si="255">U52-U53</f>
         <v>-101379</v>
       </c>
@@ -7036,7 +7025,7 @@
         <f t="shared" ref="X54" si="258">X52-X53</f>
         <v>33489</v>
       </c>
-      <c r="Y54" s="55">
+      <c r="Y54" s="44">
         <f t="shared" ref="Y54" si="259">Y52-Y53</f>
         <v>19151</v>
       </c>
@@ -7137,101 +7126,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:52" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="36" t="s">
+    <row r="55" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="64">
-        <v>0</v>
-      </c>
-      <c r="N55" s="29">
-        <v>0</v>
-      </c>
-      <c r="O55" s="29">
-        <v>0</v>
-      </c>
-      <c r="P55" s="29">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="38">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11">
         <f>AM55-O55-N55-M55</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="64">
-        <v>0</v>
-      </c>
-      <c r="R55" s="29">
-        <v>0</v>
-      </c>
-      <c r="S55" s="29">
-        <v>0</v>
-      </c>
-      <c r="T55" s="29">
+      <c r="Q55" s="38">
+        <v>0</v>
+      </c>
+      <c r="R55" s="11">
+        <v>0</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0</v>
+      </c>
+      <c r="T55" s="11">
         <f>AN55-S55-R55-Q55</f>
         <v>0</v>
       </c>
-      <c r="U55" s="64">
-        <v>0</v>
-      </c>
-      <c r="V55" s="29">
-        <v>0</v>
-      </c>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29">
+      <c r="U55" s="38">
+        <v>0</v>
+      </c>
+      <c r="V55" s="11">
+        <v>0</v>
+      </c>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11">
         <f>AO55-W55-V55-U55</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="64">
+      <c r="Y55" s="38">
         <v>2349</v>
       </c>
-      <c r="Z55" s="29">
+      <c r="Z55" s="11">
         <v>-255</v>
       </c>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="29"/>
-      <c r="AI55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AN55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AO55" s="29">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="29"/>
-      <c r="AQ55" s="29"/>
-      <c r="AR55" s="29"/>
-      <c r="AS55" s="29"/>
-      <c r="AT55" s="29"/>
-      <c r="AU55" s="29"/>
-      <c r="AV55" s="29"/>
-      <c r="AW55" s="29"/>
-      <c r="AX55" s="29"/>
-      <c r="AY55" s="29"/>
-      <c r="AZ55" s="29"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="11"/>
+      <c r="AZ55" s="11"/>
     </row>
     <row r="56" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7" t="s">
@@ -7259,7 +7248,7 @@
         <f t="shared" si="278"/>
         <v>0</v>
       </c>
-      <c r="M56" s="55">
+      <c r="M56" s="44">
         <f t="shared" si="278"/>
         <v>-54274</v>
       </c>
@@ -7275,7 +7264,7 @@
         <f t="shared" si="278"/>
         <v>-148343</v>
       </c>
-      <c r="Q56" s="55">
+      <c r="Q56" s="44">
         <f t="shared" si="278"/>
         <v>-123474</v>
       </c>
@@ -7291,7 +7280,7 @@
         <f t="shared" si="278"/>
         <v>-156188</v>
       </c>
-      <c r="U56" s="55">
+      <c r="U56" s="44">
         <f t="shared" si="278"/>
         <v>-101379</v>
       </c>
@@ -7307,7 +7296,7 @@
         <f t="shared" si="278"/>
         <v>33489</v>
       </c>
-      <c r="Y56" s="55">
+      <c r="Y56" s="44">
         <f t="shared" si="278"/>
         <v>16802</v>
       </c>
@@ -7401,7 +7390,7 @@
         <f t="shared" ref="L57" si="289">L54/L37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="50">
+      <c r="M57" s="39">
         <f t="shared" ref="M57" si="290">M54/M37</f>
         <v>-0.23666641956681944</v>
       </c>
@@ -7417,7 +7406,7 @@
         <f t="shared" ref="P57:W57" si="293">P54/P37</f>
         <v>-0.46056238764821122</v>
       </c>
-      <c r="Q57" s="50">
+      <c r="Q57" s="39">
         <f t="shared" si="293"/>
         <v>-0.36184553708012684</v>
       </c>
@@ -7433,7 +7422,7 @@
         <f t="shared" si="293"/>
         <v>-0.36082214629435833</v>
       </c>
-      <c r="U57" s="50">
+      <c r="U57" s="39">
         <f t="shared" si="293"/>
         <v>-0.22712537273975764</v>
       </c>
@@ -7449,7 +7438,7 @@
         <f t="shared" ref="X57" si="294">X54/X37</f>
         <v>6.5842351127748597E-2</v>
       </c>
-      <c r="Y57" s="50">
+      <c r="Y57" s="39">
         <f t="shared" ref="Y57" si="295">Y54/Y37</f>
         <v>3.6465176147117404E-2</v>
       </c>
@@ -7478,7 +7467,7 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="10" t="e">
-        <f t="shared" ref="AI57:AN57" si="301">AI54/AI37</f>
+        <f t="shared" ref="AI57:AK57" si="301">AI54/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ57" s="10" t="e">
@@ -7570,7 +7559,7 @@
         <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="65">
+      <c r="M58" s="49">
         <f t="shared" si="317"/>
         <v>-9.1702289431443776E-2</v>
       </c>
@@ -7586,7 +7575,7 @@
         <f t="shared" ref="P58:W58" si="318">P54/P60</f>
         <v>-8.140578817801572E-2</v>
       </c>
-      <c r="Q58" s="65">
+      <c r="Q58" s="49">
         <f t="shared" si="318"/>
         <v>-6.7799718640557269E-2</v>
       </c>
@@ -7602,7 +7591,7 @@
         <f t="shared" si="318"/>
         <v>-7.6935467266172342E-2</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U58" s="49">
         <f t="shared" si="318"/>
         <v>-4.9785715022341914E-2</v>
       </c>
@@ -7618,7 +7607,7 @@
         <f t="shared" ref="X58:AD58" si="319">X54/X60</f>
         <v>1.5936617100990917E-2</v>
       </c>
-      <c r="Y58" s="65">
+      <c r="Y58" s="49">
         <f t="shared" si="319"/>
         <v>9.0858628509616745E-3</v>
       </c>
@@ -7727,7 +7716,7 @@
         <f t="shared" si="321"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="65">
+      <c r="M59" s="49">
         <f t="shared" si="321"/>
         <v>-9.1314567023855792E-2</v>
       </c>
@@ -7743,7 +7732,7 @@
         <f t="shared" ref="P59:W59" si="322">P54/P61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q59" s="65">
+      <c r="Q59" s="49">
         <f t="shared" si="322"/>
         <v>-6.7799718640557269E-2</v>
       </c>
@@ -7759,7 +7748,7 @@
         <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U59" s="65">
+      <c r="U59" s="49">
         <f t="shared" si="322"/>
         <v>-4.9785715022341914E-2</v>
       </c>
@@ -7775,7 +7764,7 @@
         <f t="shared" ref="X59:AD59" si="323">X54/X61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y59" s="65">
+      <c r="Y59" s="49">
         <f t="shared" si="323"/>
         <v>8.636539719920143E-3</v>
       </c>
@@ -7868,7 +7857,7 @@
       <c r="B60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M60" s="48">
+      <c r="M60" s="37">
         <v>591850</v>
       </c>
       <c r="N60" s="3">
@@ -7881,7 +7870,7 @@
         <f>1752006+69255+1005</f>
         <v>1822266</v>
       </c>
-      <c r="Q60" s="48">
+      <c r="Q60" s="37">
         <v>1821158</v>
       </c>
       <c r="R60" s="3">
@@ -7894,7 +7883,7 @@
         <f>1929183+99929+1005</f>
         <v>2030117</v>
       </c>
-      <c r="U60" s="48">
+      <c r="U60" s="37">
         <v>2036307</v>
       </c>
       <c r="V60" s="3">
@@ -7907,7 +7896,7 @@
         <f>1997726+102656+1005</f>
         <v>2101387</v>
       </c>
-      <c r="Y60" s="48">
+      <c r="Y60" s="37">
         <v>2107780</v>
       </c>
       <c r="Z60" s="3">
@@ -7933,7 +7922,7 @@
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M61" s="48">
+      <c r="M61" s="37">
         <v>594363</v>
       </c>
       <c r="N61" s="3">
@@ -7942,7 +7931,7 @@
       <c r="O61" s="3">
         <v>905462</v>
       </c>
-      <c r="Q61" s="48">
+      <c r="Q61" s="37">
         <v>1821158</v>
       </c>
       <c r="R61" s="3">
@@ -7951,7 +7940,7 @@
       <c r="S61" s="3">
         <v>1964395</v>
       </c>
-      <c r="U61" s="48">
+      <c r="U61" s="37">
         <v>2036307</v>
       </c>
       <c r="V61" s="3">
@@ -7960,7 +7949,7 @@
       <c r="W61" s="3">
         <v>2073265</v>
       </c>
-      <c r="Y61" s="48">
+      <c r="Y61" s="37">
         <v>2217439</v>
       </c>
       <c r="Z61" s="3">
@@ -7986,10 +7975,10 @@
       <c r="B62" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="M62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="U62" s="65"/>
-      <c r="Y62" s="65"/>
+      <c r="M62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="Y62" s="49"/>
       <c r="AL62" s="10">
         <f>(AL60-AK60)/ABS(AK60)</f>
         <v>7.3850804050029889E-2</v>
@@ -8062,19 +8051,19 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="48"/>
+      <c r="M63" s="37"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="48"/>
+      <c r="Q63" s="37"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="48"/>
+      <c r="U63" s="37"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-      <c r="Y63" s="48"/>
+      <c r="Y63" s="37"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
@@ -8105,19 +8094,19 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="66"/>
+      <c r="M64" s="50"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
-      <c r="Q64" s="66"/>
+      <c r="Q64" s="50"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
       <c r="T64" s="16"/>
-      <c r="U64" s="66"/>
+      <c r="U64" s="50"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
       <c r="X64" s="16"/>
-      <c r="Y64" s="66"/>
+      <c r="Y64" s="50"/>
       <c r="Z64" s="16"/>
       <c r="AA64" s="16"/>
       <c r="AB64" s="16"/>
@@ -8148,19 +8137,19 @@
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
-      <c r="M65" s="51"/>
+      <c r="M65" s="40"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
-      <c r="Q65" s="51"/>
+      <c r="Q65" s="40"/>
       <c r="R65" s="14"/>
       <c r="S65" s="14"/>
       <c r="T65" s="14"/>
-      <c r="U65" s="51"/>
+      <c r="U65" s="40"/>
       <c r="V65" s="14"/>
       <c r="W65" s="14"/>
       <c r="X65" s="14"/>
-      <c r="Y65" s="51"/>
+      <c r="Y65" s="40"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
       <c r="AB65" s="14"/>
@@ -8191,7 +8180,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="48"/>
+      <c r="M66" s="37"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3">
         <v>1800190</v>
@@ -8200,7 +8189,7 @@
         <f>AM66</f>
         <v>2011323</v>
       </c>
-      <c r="Q66" s="48">
+      <c r="Q66" s="37">
         <v>2339437</v>
       </c>
       <c r="R66" s="3">
@@ -8212,7 +8201,7 @@
       <c r="T66" s="3">
         <v>2290674</v>
       </c>
-      <c r="U66" s="48">
+      <c r="U66" s="37">
         <v>2269411</v>
       </c>
       <c r="V66" s="3">
@@ -8225,7 +8214,7 @@
         <f>AO66</f>
         <v>2598540</v>
       </c>
-      <c r="Y66" s="48">
+      <c r="Y66" s="37">
         <v>1264738</v>
       </c>
       <c r="Z66" s="3">
@@ -8269,7 +8258,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="48"/>
+      <c r="M67" s="37"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3">
         <v>43800</v>
@@ -8278,7 +8267,7 @@
         <f>AM67</f>
         <v>37285</v>
       </c>
-      <c r="Q67" s="48">
+      <c r="Q67" s="37">
         <v>37106</v>
       </c>
       <c r="R67" s="3">
@@ -8290,7 +8279,7 @@
       <c r="T67" s="3">
         <v>36628</v>
       </c>
-      <c r="U67" s="48">
+      <c r="U67" s="37">
         <v>33804</v>
       </c>
       <c r="V67" s="3">
@@ -8303,7 +8292,7 @@
         <f>AO67</f>
         <v>16244</v>
       </c>
-      <c r="Y67" s="48">
+      <c r="Y67" s="37">
         <v>11946</v>
       </c>
       <c r="Z67" s="3">
@@ -8347,7 +8336,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="48"/>
+      <c r="M68" s="37"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3">
         <v>162269</v>
@@ -8356,7 +8345,7 @@
         <f>AM68</f>
         <v>156932</v>
       </c>
-      <c r="Q68" s="48">
+      <c r="Q68" s="37">
         <v>151400</v>
       </c>
       <c r="R68" s="3">
@@ -8368,7 +8357,7 @@
       <c r="T68" s="3">
         <v>190923</v>
       </c>
-      <c r="U68" s="48">
+      <c r="U68" s="37">
         <v>256554</v>
       </c>
       <c r="V68" s="3">
@@ -8381,7 +8370,7 @@
         <f>AO68</f>
         <v>258346</v>
       </c>
-      <c r="Y68" s="48">
+      <c r="Y68" s="37">
         <v>254041</v>
       </c>
       <c r="Z68" s="3">
@@ -8425,7 +8414,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="37"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3">
         <v>0</v>
@@ -8434,7 +8423,7 @@
         <f>AM69</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="48">
+      <c r="Q69" s="37">
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -8446,7 +8435,7 @@
       <c r="T69" s="3">
         <v>234153</v>
       </c>
-      <c r="U69" s="48">
+      <c r="U69" s="37">
         <v>252563</v>
       </c>
       <c r="V69" s="3">
@@ -8459,7 +8448,7 @@
         <f>AO69</f>
         <v>35135</v>
       </c>
-      <c r="Y69" s="48">
+      <c r="Y69" s="37">
         <v>1639797</v>
       </c>
       <c r="Z69" s="3">
@@ -8503,7 +8492,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="49"/>
+      <c r="M70" s="38"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11">
         <v>388165</v>
@@ -8512,7 +8501,7 @@
         <f>AM70</f>
         <v>51889</v>
       </c>
-      <c r="Q70" s="49">
+      <c r="Q70" s="38">
         <v>61755</v>
       </c>
       <c r="R70" s="11">
@@ -8524,7 +8513,7 @@
       <c r="T70" s="11">
         <v>110872</v>
       </c>
-      <c r="U70" s="49">
+      <c r="U70" s="38">
         <v>115042</v>
       </c>
       <c r="V70" s="11">
@@ -8537,7 +8526,7 @@
         <f>AO70</f>
         <v>133312</v>
       </c>
-      <c r="Y70" s="49">
+      <c r="Y70" s="38">
         <v>85625</v>
       </c>
       <c r="Z70" s="11">
@@ -8593,7 +8582,7 @@
         <f t="shared" ref="L71" si="327">SUM(L66:L70)</f>
         <v>0</v>
       </c>
-      <c r="M71" s="55">
+      <c r="M71" s="44">
         <f>SUM(M66:M70)</f>
         <v>0</v>
       </c>
@@ -8609,7 +8598,7 @@
         <f t="shared" si="328"/>
         <v>2257429</v>
       </c>
-      <c r="Q71" s="55">
+      <c r="Q71" s="44">
         <f t="shared" si="328"/>
         <v>2589698</v>
       </c>
@@ -8625,7 +8614,7 @@
         <f t="shared" si="328"/>
         <v>2863250</v>
       </c>
-      <c r="U71" s="55">
+      <c r="U71" s="44">
         <f t="shared" si="328"/>
         <v>2927374</v>
       </c>
@@ -8641,7 +8630,7 @@
         <f t="shared" si="328"/>
         <v>3041577</v>
       </c>
-      <c r="Y71" s="55">
+      <c r="Y71" s="44">
         <f t="shared" si="328"/>
         <v>3256147</v>
       </c>
@@ -8747,19 +8736,19 @@
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
-      <c r="M72" s="51"/>
+      <c r="M72" s="40"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
-      <c r="Q72" s="51"/>
+      <c r="Q72" s="40"/>
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="51"/>
+      <c r="U72" s="40"/>
       <c r="V72" s="14"/>
       <c r="W72" s="14"/>
       <c r="X72" s="14"/>
-      <c r="Y72" s="51"/>
+      <c r="Y72" s="40"/>
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
       <c r="AB72" s="14"/>
@@ -8790,7 +8779,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="37"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3">
         <v>29369</v>
@@ -8799,7 +8788,7 @@
         <f>AM73</f>
         <v>29541</v>
       </c>
-      <c r="Q73" s="48">
+      <c r="Q73" s="37">
         <v>27378</v>
       </c>
       <c r="R73" s="3">
@@ -8811,7 +8800,7 @@
       <c r="T73" s="3">
         <v>31304</v>
       </c>
-      <c r="U73" s="48">
+      <c r="U73" s="37">
         <v>41866</v>
       </c>
       <c r="V73" s="3">
@@ -8824,7 +8813,7 @@
         <f>AO73</f>
         <v>69170</v>
       </c>
-      <c r="Y73" s="48">
+      <c r="Y73" s="37">
         <v>63115</v>
       </c>
       <c r="Z73" s="3">
@@ -8868,7 +8857,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="37"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3">
         <v>86343</v>
@@ -8877,7 +8866,7 @@
         <f>AM74</f>
         <v>79538</v>
       </c>
-      <c r="Q74" s="48">
+      <c r="Q74" s="37">
         <v>71933</v>
       </c>
       <c r="R74" s="3">
@@ -8889,7 +8878,7 @@
       <c r="T74" s="3">
         <v>39612</v>
       </c>
-      <c r="U74" s="48">
+      <c r="U74" s="37">
         <v>29222</v>
       </c>
       <c r="V74" s="3">
@@ -8902,7 +8891,7 @@
         <f>AO74</f>
         <v>12551</v>
       </c>
-      <c r="Y74" s="48">
+      <c r="Y74" s="37">
         <v>12095</v>
       </c>
       <c r="Z74" s="3">
@@ -8946,7 +8935,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="48"/>
+      <c r="M75" s="37"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3">
         <v>0</v>
@@ -8955,7 +8944,7 @@
         <f>AM75</f>
         <v>217075</v>
       </c>
-      <c r="Q75" s="48">
+      <c r="Q75" s="37">
         <v>213331</v>
       </c>
       <c r="R75" s="3">
@@ -8967,7 +8956,7 @@
       <c r="T75" s="3">
         <v>216898</v>
       </c>
-      <c r="U75" s="48">
+      <c r="U75" s="37">
         <v>224888</v>
       </c>
       <c r="V75" s="3">
@@ -8980,7 +8969,7 @@
         <f>AO75</f>
         <v>200240</v>
       </c>
-      <c r="Y75" s="48">
+      <c r="Y75" s="37">
         <v>210019</v>
       </c>
       <c r="Z75" s="3">
@@ -9024,7 +9013,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
-      <c r="M76" s="49"/>
+      <c r="M76" s="38"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11">
         <v>93576</v>
@@ -9033,7 +9022,7 @@
         <f>AM76</f>
         <v>106921</v>
       </c>
-      <c r="Q76" s="49">
+      <c r="Q76" s="38">
         <v>111845</v>
       </c>
       <c r="R76" s="11">
@@ -9045,7 +9034,7 @@
       <c r="T76" s="11">
         <v>96386</v>
       </c>
-      <c r="U76" s="49">
+      <c r="U76" s="38">
         <v>95829</v>
       </c>
       <c r="V76" s="11">
@@ -9058,7 +9047,7 @@
         <f>AO76</f>
         <v>137701</v>
       </c>
-      <c r="Y76" s="49">
+      <c r="Y76" s="38">
         <v>141762</v>
       </c>
       <c r="Z76" s="11">
@@ -9088,7 +9077,7 @@
         <v>137701</v>
       </c>
     </row>
-    <row r="77" spans="2:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:52" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="24" t="s">
         <v>509</v>
       </c>
@@ -9114,7 +9103,7 @@
         <f t="shared" ref="L77" si="331">SUM(L73:L76)</f>
         <v>0</v>
       </c>
-      <c r="M77" s="67">
+      <c r="M77" s="51">
         <f>SUM(M73:M76)</f>
         <v>0</v>
       </c>
@@ -9130,7 +9119,7 @@
         <f t="shared" si="332"/>
         <v>433075</v>
       </c>
-      <c r="Q77" s="67">
+      <c r="Q77" s="51">
         <f t="shared" si="332"/>
         <v>424487</v>
       </c>
@@ -9146,7 +9135,7 @@
         <f t="shared" si="332"/>
         <v>384200</v>
       </c>
-      <c r="U77" s="67">
+      <c r="U77" s="51">
         <f t="shared" si="332"/>
         <v>391805</v>
       </c>
@@ -9162,7 +9151,7 @@
         <f t="shared" si="332"/>
         <v>419662</v>
       </c>
-      <c r="Y77" s="67">
+      <c r="Y77" s="51">
         <f t="shared" si="332"/>
         <v>426991</v>
       </c>
@@ -9280,7 +9269,7 @@
         <f t="shared" ref="L78" si="335">L77+L71</f>
         <v>0</v>
       </c>
-      <c r="M78" s="55">
+      <c r="M78" s="44">
         <f>M77+M71</f>
         <v>0</v>
       </c>
@@ -9296,7 +9285,7 @@
         <f t="shared" si="336"/>
         <v>2690504</v>
       </c>
-      <c r="Q78" s="55">
+      <c r="Q78" s="44">
         <f t="shared" si="336"/>
         <v>3014185</v>
       </c>
@@ -9312,7 +9301,7 @@
         <f t="shared" si="336"/>
         <v>3247450</v>
       </c>
-      <c r="U78" s="55">
+      <c r="U78" s="44">
         <f t="shared" si="336"/>
         <v>3319179</v>
       </c>
@@ -9328,7 +9317,7 @@
         <f t="shared" si="336"/>
         <v>3461239</v>
       </c>
-      <c r="Y78" s="55">
+      <c r="Y78" s="44">
         <f t="shared" si="336"/>
         <v>3683138</v>
       </c>
@@ -9434,19 +9423,19 @@
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
-      <c r="M79" s="51"/>
+      <c r="M79" s="40"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
-      <c r="Q79" s="51"/>
+      <c r="Q79" s="40"/>
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
       <c r="T79" s="14"/>
-      <c r="U79" s="51"/>
+      <c r="U79" s="40"/>
       <c r="V79" s="14"/>
       <c r="W79" s="14"/>
       <c r="X79" s="14"/>
-      <c r="Y79" s="51"/>
+      <c r="Y79" s="40"/>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
@@ -9477,7 +9466,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="37"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3">
         <v>22221</v>
@@ -9486,7 +9475,7 @@
         <f>AM80</f>
         <v>16358</v>
       </c>
-      <c r="Q80" s="48">
+      <c r="Q80" s="37">
         <v>17234</v>
       </c>
       <c r="R80" s="3">
@@ -9498,7 +9487,7 @@
       <c r="T80" s="3">
         <v>74907</v>
       </c>
-      <c r="U80" s="48">
+      <c r="U80" s="37">
         <v>27454</v>
       </c>
       <c r="V80" s="3">
@@ -9511,7 +9500,7 @@
         <f>AO80</f>
         <v>44788</v>
       </c>
-      <c r="Y80" s="48">
+      <c r="Y80" s="37">
         <v>4530</v>
       </c>
       <c r="Z80" s="3">
@@ -9555,7 +9544,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="48"/>
+      <c r="M81" s="37"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3">
         <v>466999</v>
@@ -9564,7 +9553,7 @@
         <f>AM81</f>
         <v>158546</v>
       </c>
-      <c r="Q81" s="48">
+      <c r="Q81" s="37">
         <v>181603</v>
       </c>
       <c r="R81" s="3">
@@ -9576,7 +9565,7 @@
       <c r="T81" s="3">
         <v>155806</v>
       </c>
-      <c r="U81" s="48">
+      <c r="U81" s="37">
         <v>150176</v>
       </c>
       <c r="V81" s="3">
@@ -9589,7 +9578,7 @@
         <f>AO81</f>
         <v>172715</v>
       </c>
-      <c r="Y81" s="48">
+      <c r="Y81" s="37">
         <v>174525</v>
       </c>
       <c r="Z81" s="3">
@@ -9633,7 +9622,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="48"/>
+      <c r="M82" s="37"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3">
         <v>172066</v>
@@ -9642,7 +9631,7 @@
         <f>AM82</f>
         <v>189520</v>
       </c>
-      <c r="Q82" s="48">
+      <c r="Q82" s="37">
         <v>186498</v>
       </c>
       <c r="R82" s="3">
@@ -9654,7 +9643,7 @@
       <c r="T82" s="3">
         <v>227816</v>
       </c>
-      <c r="U82" s="48">
+      <c r="U82" s="37">
         <v>218521</v>
       </c>
       <c r="V82" s="3">
@@ -9667,7 +9656,7 @@
         <f>AO82</f>
         <v>183350</v>
       </c>
-      <c r="Y82" s="48">
+      <c r="Y82" s="37">
         <v>229551</v>
       </c>
       <c r="Z82" s="3">
@@ -9711,7 +9700,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="48"/>
+      <c r="M83" s="37"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3">
         <v>280901</v>
@@ -9720,7 +9709,7 @@
         <f>AM83</f>
         <v>210320</v>
       </c>
-      <c r="Q83" s="48">
+      <c r="Q83" s="37">
         <v>250181</v>
       </c>
       <c r="R83" s="3">
@@ -9732,7 +9721,7 @@
       <c r="T83" s="3">
         <v>161605</v>
       </c>
-      <c r="U83" s="48">
+      <c r="U83" s="37">
         <v>232908</v>
       </c>
       <c r="V83" s="3">
@@ -9745,7 +9734,7 @@
         <f>AO83</f>
         <v>141989</v>
       </c>
-      <c r="Y83" s="48">
+      <c r="Y83" s="37">
         <v>139741</v>
       </c>
       <c r="Z83" s="3">
@@ -9789,7 +9778,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="49"/>
+      <c r="M84" s="38"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11">
         <v>0</v>
@@ -9798,7 +9787,7 @@
         <f>AM84</f>
         <v>29079</v>
       </c>
-      <c r="Q84" s="49">
+      <c r="Q84" s="38">
         <v>32110</v>
       </c>
       <c r="R84" s="11">
@@ -9810,7 +9799,7 @@
       <c r="T84" s="11">
         <v>39927</v>
       </c>
-      <c r="U84" s="49">
+      <c r="U84" s="38">
         <v>40045</v>
       </c>
       <c r="V84" s="11">
@@ -9823,7 +9812,7 @@
         <f>AO84</f>
         <v>45099</v>
       </c>
-      <c r="Y84" s="49">
+      <c r="Y84" s="38">
         <v>53066</v>
       </c>
       <c r="Z84" s="11">
@@ -9879,7 +9868,7 @@
         <f t="shared" ref="L85" si="339">SUM(L80:L84)</f>
         <v>0</v>
       </c>
-      <c r="M85" s="55">
+      <c r="M85" s="44">
         <f>SUM(M80:M84)</f>
         <v>0</v>
       </c>
@@ -9895,7 +9884,7 @@
         <f t="shared" si="340"/>
         <v>603823</v>
       </c>
-      <c r="Q85" s="55">
+      <c r="Q85" s="44">
         <f t="shared" si="340"/>
         <v>667626</v>
       </c>
@@ -9911,7 +9900,7 @@
         <f t="shared" si="340"/>
         <v>660061</v>
       </c>
-      <c r="U85" s="55">
+      <c r="U85" s="44">
         <f t="shared" si="340"/>
         <v>669104</v>
       </c>
@@ -9927,7 +9916,7 @@
         <f t="shared" si="340"/>
         <v>587941</v>
       </c>
-      <c r="Y85" s="55">
+      <c r="Y85" s="44">
         <f t="shared" si="340"/>
         <v>601413</v>
       </c>
@@ -10033,19 +10022,19 @@
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
-      <c r="M86" s="51"/>
+      <c r="M86" s="40"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
-      <c r="Q86" s="51"/>
+      <c r="Q86" s="40"/>
       <c r="R86" s="14"/>
       <c r="S86" s="14"/>
       <c r="T86" s="14"/>
-      <c r="U86" s="51"/>
+      <c r="U86" s="40"/>
       <c r="V86" s="14"/>
       <c r="W86" s="14"/>
       <c r="X86" s="14"/>
-      <c r="Y86" s="51"/>
+      <c r="Y86" s="40"/>
       <c r="Z86" s="14"/>
       <c r="AA86" s="14"/>
       <c r="AB86" s="14"/>
@@ -10076,7 +10065,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="48"/>
+      <c r="M87" s="37"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3">
         <v>67064</v>
@@ -10085,7 +10074,7 @@
         <f>AM87</f>
         <v>50525</v>
       </c>
-      <c r="Q87" s="48">
+      <c r="Q87" s="37">
         <v>44998</v>
       </c>
       <c r="R87" s="3">
@@ -10097,7 +10086,7 @@
       <c r="T87" s="3">
         <v>40217</v>
       </c>
-      <c r="U87" s="48">
+      <c r="U87" s="37">
         <v>33244</v>
       </c>
       <c r="V87" s="3">
@@ -10110,7 +10099,7 @@
         <f>AO87</f>
         <v>9965</v>
       </c>
-      <c r="Y87" s="48">
+      <c r="Y87" s="37">
         <v>54400</v>
       </c>
       <c r="Z87" s="3">
@@ -10154,7 +10143,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="48"/>
+      <c r="M88" s="37"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3">
         <v>102231</v>
@@ -10163,7 +10152,7 @@
         <f>AM88</f>
         <v>81513</v>
       </c>
-      <c r="Q88" s="48">
+      <c r="Q88" s="37">
         <v>70768</v>
       </c>
       <c r="R88" s="3">
@@ -10175,7 +10164,7 @@
       <c r="T88" s="3">
         <v>33699</v>
       </c>
-      <c r="U88" s="48">
+      <c r="U88" s="37">
         <v>22276</v>
       </c>
       <c r="V88" s="3">
@@ -10188,7 +10177,7 @@
         <f>AO88</f>
         <v>3936</v>
       </c>
-      <c r="Y88" s="48">
+      <c r="Y88" s="37">
         <v>4162</v>
       </c>
       <c r="Z88" s="3">
@@ -10232,7 +10221,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="37"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3">
         <v>197753</v>
@@ -10241,7 +10230,7 @@
         <f>AM89</f>
         <v>197977</v>
       </c>
-      <c r="Q89" s="48">
+      <c r="Q89" s="37">
         <v>198185</v>
       </c>
       <c r="R89" s="3">
@@ -10253,7 +10242,7 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="48">
+      <c r="U89" s="37">
         <v>0</v>
       </c>
       <c r="V89" s="3">
@@ -10266,7 +10255,7 @@
         <f>AO89</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="48">
+      <c r="Y89" s="37">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
@@ -10310,7 +10299,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="48"/>
+      <c r="M90" s="37"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3">
         <v>0</v>
@@ -10319,7 +10308,7 @@
         <f>AM90</f>
         <v>229800</v>
       </c>
-      <c r="Q90" s="48">
+      <c r="Q90" s="37">
         <v>222429</v>
       </c>
       <c r="R90" s="3">
@@ -10331,7 +10320,7 @@
       <c r="T90" s="3">
         <v>220146</v>
       </c>
-      <c r="U90" s="48">
+      <c r="U90" s="37">
         <v>227617</v>
       </c>
       <c r="V90" s="3">
@@ -10344,7 +10333,7 @@
         <f>AO90</f>
         <v>204305</v>
       </c>
-      <c r="Y90" s="48">
+      <c r="Y90" s="37">
         <v>206422</v>
       </c>
       <c r="Z90" s="3">
@@ -10388,7 +10377,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
-      <c r="M91" s="49"/>
+      <c r="M91" s="38"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11">
         <v>42724</v>
@@ -10397,7 +10386,7 @@
         <f>AM91</f>
         <v>4316</v>
       </c>
-      <c r="Q91" s="49">
+      <c r="Q91" s="38">
         <v>4236</v>
       </c>
       <c r="R91" s="11">
@@ -10409,7 +10398,7 @@
       <c r="T91" s="11">
         <v>2297</v>
       </c>
-      <c r="U91" s="49">
+      <c r="U91" s="38">
         <v>2192</v>
       </c>
       <c r="V91" s="11">
@@ -10422,7 +10411,7 @@
         <f>AO91</f>
         <v>12655</v>
       </c>
-      <c r="Y91" s="49">
+      <c r="Y91" s="38">
         <v>13548</v>
       </c>
       <c r="Z91" s="11">
@@ -10452,7 +10441,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="92" spans="2:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:52" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="24" t="s">
         <v>510</v>
       </c>
@@ -10478,7 +10467,7 @@
         <f t="shared" ref="L92" si="343">SUM(L87:L91)</f>
         <v>0</v>
       </c>
-      <c r="M92" s="67">
+      <c r="M92" s="51">
         <f>SUM(M87:M91)</f>
         <v>0</v>
       </c>
@@ -10494,7 +10483,7 @@
         <f t="shared" si="344"/>
         <v>564131</v>
       </c>
-      <c r="Q92" s="67">
+      <c r="Q92" s="51">
         <f t="shared" si="344"/>
         <v>540616</v>
       </c>
@@ -10510,7 +10499,7 @@
         <f t="shared" si="344"/>
         <v>296359</v>
       </c>
-      <c r="U92" s="67">
+      <c r="U92" s="51">
         <f t="shared" si="344"/>
         <v>285329</v>
       </c>
@@ -10526,7 +10515,7 @@
         <f t="shared" si="344"/>
         <v>230861</v>
       </c>
-      <c r="Y92" s="67">
+      <c r="Y92" s="51">
         <f t="shared" si="344"/>
         <v>278532</v>
       </c>
@@ -10644,7 +10633,7 @@
         <f t="shared" ref="L93" si="347">L92+L85</f>
         <v>0</v>
       </c>
-      <c r="M93" s="55">
+      <c r="M93" s="44">
         <f>M92+M85</f>
         <v>0</v>
       </c>
@@ -10660,7 +10649,7 @@
         <f t="shared" si="348"/>
         <v>1167954</v>
       </c>
-      <c r="Q93" s="55">
+      <c r="Q93" s="44">
         <f t="shared" si="348"/>
         <v>1208242</v>
       </c>
@@ -10676,7 +10665,7 @@
         <f t="shared" si="348"/>
         <v>956420</v>
       </c>
-      <c r="U93" s="55">
+      <c r="U93" s="44">
         <f t="shared" si="348"/>
         <v>954433</v>
       </c>
@@ -10692,7 +10681,7 @@
         <f t="shared" si="348"/>
         <v>818802</v>
       </c>
-      <c r="Y93" s="55">
+      <c r="Y93" s="44">
         <f t="shared" si="348"/>
         <v>879945</v>
       </c>
@@ -10798,19 +10787,19 @@
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
-      <c r="M94" s="51"/>
+      <c r="M94" s="40"/>
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
-      <c r="Q94" s="51"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="14"/>
       <c r="S94" s="14"/>
       <c r="T94" s="14"/>
-      <c r="U94" s="51"/>
+      <c r="U94" s="40"/>
       <c r="V94" s="14"/>
       <c r="W94" s="14"/>
       <c r="X94" s="14"/>
-      <c r="Y94" s="51"/>
+      <c r="Y94" s="40"/>
       <c r="Z94" s="14"/>
       <c r="AA94" s="14"/>
       <c r="AB94" s="14"/>
@@ -10841,16 +10830,16 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="48"/>
+      <c r="M95" s="37"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3">
         <v>0</v>
       </c>
       <c r="P95" s="3">
-        <f>AM95</f>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="48">
+        <f t="shared" ref="P95:P102" si="350">AM95</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="37">
         <v>0</v>
       </c>
       <c r="R95" s="3">
@@ -10862,7 +10851,7 @@
       <c r="T95" s="3">
         <v>0</v>
       </c>
-      <c r="U95" s="48">
+      <c r="U95" s="37">
         <v>0</v>
       </c>
       <c r="V95" s="3">
@@ -10872,10 +10861,10 @@
         <v>0</v>
       </c>
       <c r="X95" s="3">
-        <f>AO95</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="48">
+        <f t="shared" ref="X95:X102" si="351">AO95</f>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="37">
         <v>0</v>
       </c>
       <c r="Z95" s="3">
@@ -10919,16 +10908,16 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="48"/>
+      <c r="M96" s="37"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f>AM96</f>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="48">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="37">
         <v>0</v>
       </c>
       <c r="R96" s="3">
@@ -10940,7 +10929,7 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-      <c r="U96" s="48">
+      <c r="U96" s="37">
         <v>0</v>
       </c>
       <c r="V96" s="3">
@@ -10950,10 +10939,10 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <f>AO96</f>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="48">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="Y96" s="37">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
@@ -10997,16 +10986,16 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="37"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3">
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f>AM97</f>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="48">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="37">
         <v>0</v>
       </c>
       <c r="R97" s="3">
@@ -11018,7 +11007,7 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-      <c r="U97" s="48">
+      <c r="U97" s="37">
         <v>0</v>
       </c>
       <c r="V97" s="3">
@@ -11028,10 +11017,10 @@
         <v>0</v>
       </c>
       <c r="X97" s="3">
-        <f>AO97</f>
-        <v>0</v>
-      </c>
-      <c r="Y97" s="48">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="37">
         <v>0</v>
       </c>
       <c r="Z97" s="3">
@@ -11075,16 +11064,16 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="48"/>
+      <c r="M98" s="37"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3">
         <v>1727</v>
       </c>
       <c r="P98" s="3">
-        <f>AM98</f>
+        <f t="shared" si="350"/>
         <v>1792</v>
       </c>
-      <c r="Q98" s="48">
+      <c r="Q98" s="37">
         <v>1860</v>
       </c>
       <c r="R98" s="3">
@@ -11096,7 +11085,7 @@
       <c r="T98" s="3">
         <v>2027</v>
       </c>
-      <c r="U98" s="48">
+      <c r="U98" s="37">
         <v>2046</v>
       </c>
       <c r="V98" s="3">
@@ -11106,10 +11095,10 @@
         <v>2080</v>
       </c>
       <c r="X98" s="3">
-        <f>AO98</f>
+        <f t="shared" si="351"/>
         <v>2099</v>
       </c>
-      <c r="Y98" s="48">
+      <c r="Y98" s="37">
         <v>2117</v>
       </c>
       <c r="Z98" s="3">
@@ -11153,16 +11142,16 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="48"/>
+      <c r="M99" s="37"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3">
         <v>6065869</v>
       </c>
       <c r="P99" s="3">
-        <f>AM99</f>
+        <f t="shared" si="350"/>
         <v>6488857</v>
       </c>
-      <c r="Q99" s="48">
+      <c r="Q99" s="37">
         <v>6892046</v>
       </c>
       <c r="R99" s="3">
@@ -11174,7 +11163,7 @@
       <c r="T99" s="3">
         <v>7777085</v>
       </c>
-      <c r="U99" s="48">
+      <c r="U99" s="37">
         <v>7953856</v>
       </c>
       <c r="V99" s="3">
@@ -11184,10 +11173,10 @@
         <v>8284686</v>
       </c>
       <c r="X99" s="3">
-        <f>AO99</f>
+        <f t="shared" si="351"/>
         <v>8427998</v>
       </c>
-      <c r="Y99" s="48">
+      <c r="Y99" s="37">
         <v>8568570</v>
       </c>
       <c r="Z99" s="3">
@@ -11231,16 +11220,16 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="48"/>
+      <c r="M100" s="37"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <f>AM100</f>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="48">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="37">
         <v>0</v>
       </c>
       <c r="R100" s="3">
@@ -11252,7 +11241,7 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="48">
+      <c r="U100" s="37">
         <v>0</v>
       </c>
       <c r="V100" s="3">
@@ -11262,10 +11251,10 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <f>AO100</f>
-        <v>0</v>
-      </c>
-      <c r="Y100" s="48">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="37">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
@@ -11309,16 +11298,16 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="48"/>
+      <c r="M101" s="37"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3">
         <v>1168</v>
       </c>
       <c r="P101" s="3">
-        <f>AM101</f>
+        <f t="shared" si="350"/>
         <v>-2745</v>
       </c>
-      <c r="Q101" s="48">
+      <c r="Q101" s="37">
         <v>865</v>
       </c>
       <c r="R101" s="3">
@@ -11330,7 +11319,7 @@
       <c r="T101" s="3">
         <v>-2349</v>
       </c>
-      <c r="U101" s="48">
+      <c r="U101" s="37">
         <v>-4044</v>
       </c>
       <c r="V101" s="3">
@@ -11340,10 +11329,10 @@
         <v>-9835</v>
       </c>
       <c r="X101" s="3">
-        <f>AO101</f>
+        <f t="shared" si="351"/>
         <v>-5333</v>
       </c>
-      <c r="Y101" s="48">
+      <c r="Y101" s="37">
         <v>-4318</v>
       </c>
       <c r="Z101" s="3">
@@ -11387,16 +11376,16 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
-      <c r="M102" s="49"/>
+      <c r="M102" s="38"/>
       <c r="N102" s="11"/>
       <c r="O102" s="11">
         <v>-4817011</v>
       </c>
       <c r="P102" s="11">
-        <f>AM102</f>
+        <f t="shared" si="350"/>
         <v>-4965354</v>
       </c>
-      <c r="Q102" s="49">
+      <c r="Q102" s="38">
         <v>-5088828</v>
       </c>
       <c r="R102" s="11">
@@ -11408,7 +11397,7 @@
       <c r="T102" s="11">
         <v>-5485733</v>
       </c>
-      <c r="U102" s="49">
+      <c r="U102" s="38">
         <v>-5587112</v>
       </c>
       <c r="V102" s="11">
@@ -11418,10 +11407,10 @@
         <v>-5890316</v>
       </c>
       <c r="X102" s="11">
-        <f>AO102</f>
+        <f t="shared" si="351"/>
         <v>-5859438</v>
       </c>
-      <c r="Y102" s="49">
+      <c r="Y102" s="38">
         <v>-5842636</v>
       </c>
       <c r="Z102" s="11">
@@ -11451,261 +11440,261 @@
         <v>-5859438</v>
       </c>
     </row>
-    <row r="103" spans="2:52" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="33" t="s">
+    <row r="103" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34">
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13">
         <f>SUM(I97:I102)</f>
         <v>0</v>
       </c>
-      <c r="J103" s="34">
-        <f t="shared" ref="J103" si="350">SUM(J97:J102)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="34">
+      <c r="J103" s="13">
+        <f t="shared" ref="J103" si="352">SUM(J97:J102)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="13">
         <f>SUM(K97:K102)</f>
         <v>0</v>
       </c>
-      <c r="L103" s="34">
-        <f t="shared" ref="L103" si="351">SUM(L97:L102)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="55">
+      <c r="L103" s="13">
+        <f t="shared" ref="L103" si="353">SUM(L97:L102)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="44">
         <f>SUM(M97:M102)</f>
         <v>0</v>
       </c>
-      <c r="N103" s="34">
-        <f t="shared" ref="N103:AD103" si="352">SUM(N97:N102)</f>
-        <v>0</v>
-      </c>
-      <c r="O103" s="34">
-        <f t="shared" si="352"/>
+      <c r="N103" s="13">
+        <f t="shared" ref="N103:AD103" si="354">SUM(N97:N102)</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="13">
+        <f t="shared" si="354"/>
         <v>1251753</v>
       </c>
-      <c r="P103" s="34">
-        <f t="shared" si="352"/>
+      <c r="P103" s="13">
+        <f t="shared" si="354"/>
         <v>1522550</v>
       </c>
-      <c r="Q103" s="55">
-        <f t="shared" si="352"/>
+      <c r="Q103" s="44">
+        <f t="shared" si="354"/>
         <v>1805943</v>
       </c>
-      <c r="R103" s="34">
-        <f t="shared" si="352"/>
+      <c r="R103" s="13">
+        <f t="shared" si="354"/>
         <v>2068963</v>
       </c>
-      <c r="S103" s="34">
-        <f t="shared" si="352"/>
+      <c r="S103" s="13">
+        <f t="shared" si="354"/>
         <v>2248056</v>
       </c>
-      <c r="T103" s="34">
-        <f t="shared" si="352"/>
+      <c r="T103" s="13">
+        <f t="shared" si="354"/>
         <v>2291030</v>
       </c>
-      <c r="U103" s="55">
-        <f t="shared" si="352"/>
+      <c r="U103" s="44">
+        <f t="shared" si="354"/>
         <v>2364746</v>
       </c>
-      <c r="V103" s="34">
-        <f t="shared" si="352"/>
+      <c r="V103" s="13">
+        <f t="shared" si="354"/>
         <v>2348824</v>
       </c>
-      <c r="W103" s="34">
-        <f t="shared" si="352"/>
+      <c r="W103" s="13">
+        <f t="shared" si="354"/>
         <v>2386615</v>
       </c>
-      <c r="X103" s="34">
-        <f t="shared" si="352"/>
+      <c r="X103" s="13">
+        <f t="shared" si="354"/>
         <v>2565326</v>
       </c>
-      <c r="Y103" s="55">
-        <f t="shared" si="352"/>
+      <c r="Y103" s="44">
+        <f t="shared" si="354"/>
         <v>2723733</v>
       </c>
-      <c r="Z103" s="34">
-        <f t="shared" si="352"/>
+      <c r="Z103" s="13">
+        <f t="shared" si="354"/>
         <v>2955474</v>
       </c>
-      <c r="AA103" s="34">
-        <f t="shared" si="352"/>
-        <v>0</v>
-      </c>
-      <c r="AB103" s="34">
-        <f t="shared" si="352"/>
-        <v>0</v>
-      </c>
-      <c r="AC103" s="34">
-        <f t="shared" si="352"/>
-        <v>0</v>
-      </c>
-      <c r="AD103" s="34">
-        <f t="shared" si="352"/>
-        <v>0</v>
-      </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="34"/>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
-      <c r="AL103" s="34">
+      <c r="AA103" s="13">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="13">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="AC103" s="13">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="AD103" s="13">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="13"/>
+      <c r="AF103" s="13"/>
+      <c r="AG103" s="13"/>
+      <c r="AH103" s="13"/>
+      <c r="AI103" s="13"/>
+      <c r="AJ103" s="13"/>
+      <c r="AK103" s="13"/>
+      <c r="AL103" s="13">
         <f>SUM(AL97:AL102)</f>
         <v>-1980642</v>
       </c>
-      <c r="AM103" s="34">
+      <c r="AM103" s="13">
         <f>SUM(AM97:AM102)</f>
         <v>1522550</v>
       </c>
-      <c r="AN103" s="34">
+      <c r="AN103" s="13">
         <f>SUM(AN97:AN102)</f>
         <v>2291030</v>
       </c>
-      <c r="AO103" s="34">
-        <f t="shared" ref="AO103:AZ103" si="353">SUM(AO97:AO102)</f>
+      <c r="AO103" s="13">
+        <f t="shared" ref="AO103:AZ103" si="355">SUM(AO97:AO102)</f>
         <v>2565326</v>
       </c>
-      <c r="AP103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AQ103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AR103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AS103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AT103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AU103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AV103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AW103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AX103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AY103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-      <c r="AZ103" s="34">
-        <f t="shared" si="353"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:52" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="35" t="s">
+      <c r="AP103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AQ103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AR103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AS103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AT103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AU103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AV103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AW103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AX103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AY103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="AZ103" s="13">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
       <c r="P104" s="3">
         <f>AM104</f>
         <v>0</v>
       </c>
-      <c r="Q104" s="64">
-        <v>0</v>
-      </c>
-      <c r="R104" s="29">
-        <v>0</v>
-      </c>
-      <c r="S104" s="29">
-        <v>0</v>
-      </c>
-      <c r="T104" s="29">
-        <v>0</v>
-      </c>
-      <c r="U104" s="64">
-        <v>0</v>
-      </c>
-      <c r="V104" s="29">
-        <v>0</v>
-      </c>
-      <c r="W104" s="29">
+      <c r="Q104" s="38">
+        <v>0</v>
+      </c>
+      <c r="R104" s="11">
+        <v>0</v>
+      </c>
+      <c r="S104" s="11">
+        <v>0</v>
+      </c>
+      <c r="T104" s="11">
+        <v>0</v>
+      </c>
+      <c r="U104" s="38">
+        <v>0</v>
+      </c>
+      <c r="V104" s="11">
+        <v>0</v>
+      </c>
+      <c r="W104" s="11">
         <v>0</v>
       </c>
       <c r="X104" s="3">
         <f>AO104</f>
         <v>77111</v>
       </c>
-      <c r="Y104" s="64">
+      <c r="Y104" s="38">
         <v>79460</v>
       </c>
-      <c r="Z104" s="29">
+      <c r="Z104" s="11">
         <v>79664</v>
       </c>
-      <c r="AA104" s="29"/>
-      <c r="AB104" s="29"/>
-      <c r="AC104" s="29"/>
-      <c r="AD104" s="29"/>
-      <c r="AE104" s="29"/>
-      <c r="AF104" s="29"/>
-      <c r="AG104" s="29"/>
-      <c r="AH104" s="29"/>
-      <c r="AI104" s="29"/>
-      <c r="AJ104" s="29"/>
-      <c r="AK104" s="29"/>
-      <c r="AL104" s="29">
-        <v>0</v>
-      </c>
-      <c r="AM104" s="29">
-        <v>0</v>
-      </c>
-      <c r="AN104" s="29">
-        <v>0</v>
-      </c>
-      <c r="AO104" s="29">
+      <c r="AA104" s="11"/>
+      <c r="AB104" s="11"/>
+      <c r="AC104" s="11"/>
+      <c r="AD104" s="11"/>
+      <c r="AE104" s="11"/>
+      <c r="AF104" s="11"/>
+      <c r="AG104" s="11"/>
+      <c r="AH104" s="11"/>
+      <c r="AI104" s="11"/>
+      <c r="AJ104" s="11"/>
+      <c r="AK104" s="11"/>
+      <c r="AL104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="11">
         <v>77111</v>
       </c>
-      <c r="AP104" s="29"/>
-      <c r="AQ104" s="29"/>
-      <c r="AR104" s="29"/>
-      <c r="AS104" s="29"/>
-      <c r="AT104" s="29"/>
-      <c r="AU104" s="29"/>
-      <c r="AV104" s="29"/>
-      <c r="AW104" s="29"/>
-      <c r="AX104" s="29"/>
-      <c r="AY104" s="29"/>
-      <c r="AZ104" s="29"/>
+      <c r="AP104" s="11"/>
+      <c r="AQ104" s="11"/>
+      <c r="AR104" s="11"/>
+      <c r="AS104" s="11"/>
+      <c r="AT104" s="11"/>
+      <c r="AU104" s="11"/>
+      <c r="AV104" s="11"/>
+      <c r="AW104" s="11"/>
+      <c r="AX104" s="11"/>
+      <c r="AY104" s="11"/>
+      <c r="AZ104" s="11"/>
     </row>
     <row r="105" spans="2:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="9" t="s">
         <v>523</v>
       </c>
       <c r="C105" s="15"/>
@@ -11719,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" ref="J105" si="354">SUM(J103:J104)</f>
+        <f t="shared" ref="J105" si="356">SUM(J103:J104)</f>
         <v>0</v>
       </c>
       <c r="K105" s="15">
@@ -11727,79 +11716,79 @@
         <v>0</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" ref="L105" si="355">SUM(L103:L104)</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="62">
+        <f t="shared" ref="L105" si="357">SUM(L103:L104)</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="48">
         <f>SUM(M103:M104)</f>
         <v>0</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" ref="N105:AD105" si="356">SUM(N103:N104)</f>
+        <f t="shared" ref="N105:AD105" si="358">SUM(N103:N104)</f>
         <v>0</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>1251753</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>1522550</v>
       </c>
-      <c r="Q105" s="62">
-        <f t="shared" si="356"/>
+      <c r="Q105" s="48">
+        <f t="shared" si="358"/>
         <v>1805943</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2068963</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2248056</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2291030</v>
       </c>
-      <c r="U105" s="62">
-        <f t="shared" si="356"/>
+      <c r="U105" s="48">
+        <f t="shared" si="358"/>
         <v>2364746</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2348824</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2386615</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>2642437</v>
       </c>
-      <c r="Y105" s="62">
-        <f t="shared" si="356"/>
+      <c r="Y105" s="48">
+        <f t="shared" si="358"/>
         <v>2803193</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>3035138</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="356"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AE105" s="15"/>
@@ -11810,63 +11799,63 @@
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="357">SUM(AL103:AL104)</f>
+        <f t="shared" ref="AL105" si="359">SUM(AL103:AL104)</f>
         <v>-1980642</v>
       </c>
       <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="358">SUM(AM103:AM104)</f>
+        <f t="shared" ref="AM105" si="360">SUM(AM103:AM104)</f>
         <v>1522550</v>
       </c>
       <c r="AN105" s="15">
-        <f t="shared" ref="AN105" si="359">SUM(AN103:AN104)</f>
+        <f t="shared" ref="AN105" si="361">SUM(AN103:AN104)</f>
         <v>2291030</v>
       </c>
       <c r="AO105" s="15">
-        <f t="shared" ref="AO105" si="360">SUM(AO103:AO104)</f>
+        <f t="shared" ref="AO105" si="362">SUM(AO103:AO104)</f>
         <v>2642437</v>
       </c>
       <c r="AP105" s="15">
-        <f t="shared" ref="AP105" si="361">SUM(AP103:AP104)</f>
+        <f t="shared" ref="AP105" si="363">SUM(AP103:AP104)</f>
         <v>0</v>
       </c>
       <c r="AQ105" s="15">
-        <f t="shared" ref="AQ105" si="362">SUM(AQ103:AQ104)</f>
+        <f t="shared" ref="AQ105" si="364">SUM(AQ103:AQ104)</f>
         <v>0</v>
       </c>
       <c r="AR105" s="15">
-        <f t="shared" ref="AR105" si="363">SUM(AR103:AR104)</f>
+        <f t="shared" ref="AR105" si="365">SUM(AR103:AR104)</f>
         <v>0</v>
       </c>
       <c r="AS105" s="15">
-        <f t="shared" ref="AS105" si="364">SUM(AS103:AS104)</f>
+        <f t="shared" ref="AS105" si="366">SUM(AS103:AS104)</f>
         <v>0</v>
       </c>
       <c r="AT105" s="15">
-        <f t="shared" ref="AT105" si="365">SUM(AT103:AT104)</f>
+        <f t="shared" ref="AT105" si="367">SUM(AT103:AT104)</f>
         <v>0</v>
       </c>
       <c r="AU105" s="15">
-        <f t="shared" ref="AU105" si="366">SUM(AU103:AU104)</f>
+        <f t="shared" ref="AU105" si="368">SUM(AU103:AU104)</f>
         <v>0</v>
       </c>
       <c r="AV105" s="15">
-        <f t="shared" ref="AV105" si="367">SUM(AV103:AV104)</f>
+        <f t="shared" ref="AV105" si="369">SUM(AV103:AV104)</f>
         <v>0</v>
       </c>
       <c r="AW105" s="15">
-        <f t="shared" ref="AW105" si="368">SUM(AW103:AW104)</f>
+        <f t="shared" ref="AW105" si="370">SUM(AW103:AW104)</f>
         <v>0</v>
       </c>
       <c r="AX105" s="15">
-        <f t="shared" ref="AX105" si="369">SUM(AX103:AX104)</f>
+        <f t="shared" ref="AX105" si="371">SUM(AX103:AX104)</f>
         <v>0</v>
       </c>
       <c r="AY105" s="15">
-        <f t="shared" ref="AY105" si="370">SUM(AY103:AY104)</f>
+        <f t="shared" ref="AY105" si="372">SUM(AY103:AY104)</f>
         <v>0</v>
       </c>
       <c r="AZ105" s="15">
-        <f t="shared" ref="AZ105" si="371">SUM(AZ103:AZ104)</f>
+        <f t="shared" ref="AZ105" si="373">SUM(AZ103:AZ104)</f>
         <v>0</v>
       </c>
     </row>
@@ -11885,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" ref="J106" si="372">J105+J93+SUM(J95:J96)</f>
+        <f t="shared" ref="J106" si="374">J105+J93+SUM(J95:J96)</f>
         <v>0</v>
       </c>
       <c r="K106" s="13">
@@ -11893,79 +11882,79 @@
         <v>0</v>
       </c>
       <c r="L106" s="13">
-        <f t="shared" ref="L106" si="373">L105+L93+SUM(L95:L96)</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="55">
+        <f t="shared" ref="L106" si="375">L105+L93+SUM(L95:L96)</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="44">
         <f>M105+M93+SUM(M95:M96)</f>
         <v>0</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" ref="N106:AD106" si="374">N105+N93+SUM(N95:N96)</f>
+        <f t="shared" ref="N106:AD106" si="376">N105+N93+SUM(N95:N96)</f>
         <v>0</v>
       </c>
       <c r="O106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>2603712</v>
       </c>
       <c r="P106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>2690504</v>
       </c>
-      <c r="Q106" s="55">
-        <f t="shared" si="374"/>
+      <c r="Q106" s="44">
+        <f t="shared" si="376"/>
         <v>3014185</v>
       </c>
       <c r="R106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3075668</v>
       </c>
       <c r="S106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3224327</v>
       </c>
       <c r="T106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3247450</v>
       </c>
-      <c r="U106" s="55">
-        <f t="shared" si="374"/>
+      <c r="U106" s="44">
+        <f t="shared" si="376"/>
         <v>3319179</v>
       </c>
       <c r="V106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3282338</v>
       </c>
       <c r="W106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3318835</v>
       </c>
       <c r="X106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3461239</v>
       </c>
-      <c r="Y106" s="55">
-        <f t="shared" si="374"/>
+      <c r="Y106" s="44">
+        <f t="shared" si="376"/>
         <v>3683138</v>
       </c>
       <c r="Z106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>3980264</v>
       </c>
       <c r="AA106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="AB106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="AC106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="AD106" s="13">
-        <f t="shared" si="374"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="AE106" s="13"/>
@@ -11976,63 +11965,63 @@
       <c r="AJ106" s="13"/>
       <c r="AK106" s="13"/>
       <c r="AL106" s="13">
-        <f t="shared" ref="AL106" si="375">AL105+AL93+SUM(AL95:AL96)</f>
+        <f t="shared" ref="AL106" si="377">AL105+AL93+SUM(AL95:AL96)</f>
         <v>1594025</v>
       </c>
       <c r="AM106" s="13">
-        <f t="shared" ref="AM106" si="376">AM105+AM93+SUM(AM95:AM96)</f>
+        <f t="shared" ref="AM106" si="378">AM105+AM93+SUM(AM95:AM96)</f>
         <v>2690504</v>
       </c>
       <c r="AN106" s="13">
-        <f t="shared" ref="AN106" si="377">AN105+AN93+SUM(AN95:AN96)</f>
+        <f t="shared" ref="AN106" si="379">AN105+AN93+SUM(AN95:AN96)</f>
         <v>3247450</v>
       </c>
       <c r="AO106" s="13">
-        <f t="shared" ref="AO106" si="378">AO105+AO93+SUM(AO95:AO96)</f>
+        <f t="shared" ref="AO106" si="380">AO105+AO93+SUM(AO95:AO96)</f>
         <v>3461239</v>
       </c>
       <c r="AP106" s="13">
-        <f t="shared" ref="AP106" si="379">AP105+AP93+SUM(AP95:AP96)</f>
+        <f t="shared" ref="AP106" si="381">AP105+AP93+SUM(AP95:AP96)</f>
         <v>0</v>
       </c>
       <c r="AQ106" s="13">
-        <f t="shared" ref="AQ106" si="380">AQ105+AQ93+SUM(AQ95:AQ96)</f>
+        <f t="shared" ref="AQ106" si="382">AQ105+AQ93+SUM(AQ95:AQ96)</f>
         <v>0</v>
       </c>
       <c r="AR106" s="13">
-        <f t="shared" ref="AR106" si="381">AR105+AR93+SUM(AR95:AR96)</f>
+        <f t="shared" ref="AR106" si="383">AR105+AR93+SUM(AR95:AR96)</f>
         <v>0</v>
       </c>
       <c r="AS106" s="13">
-        <f t="shared" ref="AS106" si="382">AS105+AS93+SUM(AS95:AS96)</f>
+        <f t="shared" ref="AS106" si="384">AS105+AS93+SUM(AS95:AS96)</f>
         <v>0</v>
       </c>
       <c r="AT106" s="13">
-        <f t="shared" ref="AT106" si="383">AT105+AT93+SUM(AT95:AT96)</f>
+        <f t="shared" ref="AT106" si="385">AT105+AT93+SUM(AT95:AT96)</f>
         <v>0</v>
       </c>
       <c r="AU106" s="13">
-        <f t="shared" ref="AU106" si="384">AU105+AU93+SUM(AU95:AU96)</f>
+        <f t="shared" ref="AU106" si="386">AU105+AU93+SUM(AU95:AU96)</f>
         <v>0</v>
       </c>
       <c r="AV106" s="13">
-        <f t="shared" ref="AV106" si="385">AV105+AV93+SUM(AV95:AV96)</f>
+        <f t="shared" ref="AV106" si="387">AV105+AV93+SUM(AV95:AV96)</f>
         <v>0</v>
       </c>
       <c r="AW106" s="13">
-        <f t="shared" ref="AW106" si="386">AW105+AW93+SUM(AW95:AW96)</f>
+        <f t="shared" ref="AW106" si="388">AW105+AW93+SUM(AW95:AW96)</f>
         <v>0</v>
       </c>
       <c r="AX106" s="13">
-        <f t="shared" ref="AX106" si="387">AX105+AX93+SUM(AX95:AX96)</f>
+        <f t="shared" ref="AX106" si="389">AX105+AX93+SUM(AX95:AX96)</f>
         <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <f t="shared" ref="AY106" si="388">AY105+AY93+SUM(AY95:AY96)</f>
+        <f t="shared" ref="AY106" si="390">AY105+AY93+SUM(AY95:AY96)</f>
         <v>0</v>
       </c>
       <c r="AZ106" s="13">
-        <f t="shared" ref="AZ106" si="389">AZ105+AZ93+SUM(AZ95:AZ96)</f>
+        <f t="shared" ref="AZ106" si="391">AZ105+AZ93+SUM(AZ95:AZ96)</f>
         <v>0</v>
       </c>
     </row>
@@ -12047,19 +12036,19 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
-      <c r="M107" s="55"/>
+      <c r="M107" s="44"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
-      <c r="Q107" s="55"/>
+      <c r="Q107" s="44"/>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="55"/>
+      <c r="U107" s="44"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="55"/>
+      <c r="Y107" s="44"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
       <c r="AB107" s="13"/>
@@ -12088,72 +12077,72 @@
       <c r="AY107" s="13"/>
       <c r="AZ107" s="13"/>
     </row>
-    <row r="108" spans="2:52" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27" t="s">
+    <row r="108" spans="2:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="M108" s="68"/>
-      <c r="Q108" s="68"/>
-      <c r="U108" s="68"/>
-      <c r="Y108" s="68"/>
-      <c r="AL108" s="27">
+      <c r="M108" s="52"/>
+      <c r="Q108" s="52"/>
+      <c r="U108" s="52"/>
+      <c r="Y108" s="52"/>
+      <c r="AL108" s="26">
         <f>AL71/AL85</f>
         <v>1.6664237343500805</v>
       </c>
-      <c r="AM108" s="27">
-        <f t="shared" ref="AM108:AZ108" si="390">AM71/AM85</f>
+      <c r="AM108" s="26">
+        <f t="shared" ref="AM108:AZ108" si="392">AM71/AM85</f>
         <v>3.7385608034142455</v>
       </c>
-      <c r="AN108" s="27">
-        <f t="shared" si="390"/>
+      <c r="AN108" s="26">
+        <f t="shared" si="392"/>
         <v>4.33785665264271</v>
       </c>
-      <c r="AO108" s="27">
-        <f t="shared" si="390"/>
+      <c r="AO108" s="26">
+        <f t="shared" si="392"/>
         <v>5.1732690865239883</v>
       </c>
-      <c r="AP108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY108" s="27" t="e">
-        <f t="shared" si="390"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ108" s="27" t="e">
-        <f t="shared" si="390"/>
+      <c r="AP108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY108" s="26" t="e">
+        <f t="shared" si="392"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ108" s="26" t="e">
+        <f t="shared" si="392"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12168,19 +12157,19 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="48"/>
+      <c r="M109" s="37"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="48"/>
+      <c r="Q109" s="37"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
-      <c r="U109" s="48"/>
+      <c r="U109" s="37"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
-      <c r="Y109" s="48"/>
+      <c r="Y109" s="37"/>
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
@@ -12211,19 +12200,19 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="61"/>
+      <c r="M110" s="47"/>
       <c r="N110" s="12"/>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
-      <c r="Q110" s="61"/>
+      <c r="Q110" s="47"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
-      <c r="U110" s="61"/>
+      <c r="U110" s="47"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
-      <c r="Y110" s="61"/>
+      <c r="Y110" s="47"/>
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
@@ -12244,7 +12233,7 @@
       <c r="B111" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M111" s="48">
+      <c r="M111" s="37">
         <v>-287184</v>
       </c>
       <c r="N111" s="3">
@@ -12255,11 +12244,11 @@
         <f>-278320-N111-M111</f>
         <v>-51990</v>
       </c>
-      <c r="P111" s="28">
+      <c r="P111" s="3">
         <f>AM111-O111-N111-M111</f>
         <v>-18288</v>
       </c>
-      <c r="Q111" s="48">
+      <c r="Q111" s="37">
         <v>116881</v>
       </c>
       <c r="R111" s="3">
@@ -12270,11 +12259,11 @@
         <f>240424-R111-Q111</f>
         <v>100793</v>
       </c>
-      <c r="T111" s="28">
+      <c r="T111" s="3">
         <f>AN111-S111-R111-Q111</f>
         <v>93427</v>
       </c>
-      <c r="U111" s="48">
+      <c r="U111" s="37">
         <v>35477</v>
       </c>
       <c r="V111" s="3">
@@ -12285,11 +12274,11 @@
         <f>144974-V111-U111</f>
         <v>47066</v>
       </c>
-      <c r="X111" s="28">
+      <c r="X111" s="3">
         <f>AO111-W111-V111-U111</f>
         <v>78763</v>
       </c>
-      <c r="Y111" s="48">
+      <c r="Y111" s="37">
         <v>187376</v>
       </c>
       <c r="Z111" s="3">
@@ -12316,7 +12305,7 @@
       <c r="B112" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="M112" s="49">
+      <c r="M112" s="38">
         <v>-3016</v>
       </c>
       <c r="N112" s="11">
@@ -12327,11 +12316,11 @@
         <f>-7475-N112-M112</f>
         <v>-1530</v>
       </c>
-      <c r="P112" s="29">
+      <c r="P112" s="11">
         <f>AM112-O112-N112-M112</f>
         <v>-4761</v>
       </c>
-      <c r="Q112" s="49">
+      <c r="Q112" s="38">
         <v>-708</v>
       </c>
       <c r="R112" s="11">
@@ -12342,11 +12331,11 @@
         <f>-6783-R112-Q112</f>
         <v>-5378</v>
       </c>
-      <c r="T112" s="29">
+      <c r="T112" s="11">
         <f>AN112-S112-R112-Q112</f>
         <v>-5844</v>
       </c>
-      <c r="U112" s="49">
+      <c r="U112" s="38">
         <v>-15215</v>
       </c>
       <c r="V112" s="11">
@@ -12357,11 +12346,11 @@
         <f>-35109-V112-U112</f>
         <v>-14436</v>
       </c>
-      <c r="X112" s="29">
+      <c r="X112" s="11">
         <f>AO112-W112-V112-U112</f>
         <v>-4918</v>
       </c>
-      <c r="Y112" s="49">
+      <c r="Y112" s="38">
         <v>-4755</v>
       </c>
       <c r="Z112" s="11">
@@ -12389,91 +12378,91 @@
         <v>90</v>
       </c>
       <c r="I113" s="13">
-        <f t="shared" ref="I113" si="391">SUM(I111:I112)</f>
+        <f t="shared" ref="I113" si="393">SUM(I111:I112)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" ref="J113" si="392">SUM(J111:J112)</f>
+        <f t="shared" ref="J113" si="394">SUM(J111:J112)</f>
         <v>0</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" ref="K113" si="393">SUM(K111:K112)</f>
+        <f t="shared" ref="K113" si="395">SUM(K111:K112)</f>
         <v>0</v>
       </c>
       <c r="L113" s="13">
-        <f t="shared" ref="L113" si="394">SUM(L111:L112)</f>
-        <v>0</v>
-      </c>
-      <c r="M113" s="55">
-        <f t="shared" ref="M113" si="395">SUM(M111:M112)</f>
+        <f t="shared" ref="L113" si="396">SUM(L111:L112)</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="44">
+        <f t="shared" ref="M113" si="397">SUM(M111:M112)</f>
         <v>-290200</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" ref="N113" si="396">SUM(N111:N112)</f>
+        <f t="shared" ref="N113" si="398">SUM(N111:N112)</f>
         <v>57925</v>
       </c>
       <c r="O113" s="13">
-        <f t="shared" ref="O113" si="397">SUM(O111:O112)</f>
+        <f t="shared" ref="O113" si="399">SUM(O111:O112)</f>
         <v>-53520</v>
       </c>
       <c r="P113" s="13">
-        <f t="shared" ref="P113" si="398">SUM(P111:P112)</f>
+        <f t="shared" ref="P113" si="400">SUM(P111:P112)</f>
         <v>-23049</v>
       </c>
-      <c r="Q113" s="55">
-        <f t="shared" ref="Q113" si="399">SUM(Q111:Q112)</f>
+      <c r="Q113" s="44">
+        <f t="shared" ref="Q113" si="401">SUM(Q111:Q112)</f>
         <v>116173</v>
       </c>
       <c r="R113" s="13">
-        <f t="shared" ref="R113" si="400">SUM(R111:R112)</f>
+        <f t="shared" ref="R113" si="402">SUM(R111:R112)</f>
         <v>22053</v>
       </c>
       <c r="S113" s="13">
-        <f t="shared" ref="S113" si="401">SUM(S111:S112)</f>
+        <f t="shared" ref="S113" si="403">SUM(S111:S112)</f>
         <v>95415</v>
       </c>
       <c r="T113" s="13">
-        <f t="shared" ref="T113" si="402">SUM(T111:T112)</f>
+        <f t="shared" ref="T113" si="404">SUM(T111:T112)</f>
         <v>87583</v>
       </c>
-      <c r="U113" s="55">
-        <f t="shared" ref="U113" si="403">SUM(U111:U112)</f>
+      <c r="U113" s="44">
+        <f t="shared" ref="U113" si="405">SUM(U111:U112)</f>
         <v>20262</v>
       </c>
       <c r="V113" s="13">
-        <f t="shared" ref="V113" si="404">SUM(V111:V112)</f>
+        <f t="shared" ref="V113" si="406">SUM(V111:V112)</f>
         <v>56973</v>
       </c>
       <c r="W113" s="13">
-        <f t="shared" ref="W113" si="405">SUM(W111:W112)</f>
+        <f t="shared" ref="W113" si="407">SUM(W111:W112)</f>
         <v>32630</v>
       </c>
       <c r="X113" s="13">
-        <f t="shared" ref="X113" si="406">SUM(X111:X112)</f>
+        <f t="shared" ref="X113" si="408">SUM(X111:X112)</f>
         <v>73845</v>
       </c>
-      <c r="Y113" s="55">
-        <f t="shared" ref="Y113" si="407">SUM(Y111:Y112)</f>
+      <c r="Y113" s="44">
+        <f t="shared" ref="Y113" si="409">SUM(Y111:Y112)</f>
         <v>182621</v>
       </c>
       <c r="Z113" s="13">
-        <f t="shared" ref="Z113" si="408">SUM(Z111:Z112)</f>
+        <f t="shared" ref="Z113" si="410">SUM(Z111:Z112)</f>
         <v>86258</v>
       </c>
       <c r="AA113" s="13">
-        <f t="shared" ref="AA113" si="409">SUM(AA111:AA112)</f>
+        <f t="shared" ref="AA113" si="411">SUM(AA111:AA112)</f>
         <v>0</v>
       </c>
       <c r="AB113" s="13">
-        <f t="shared" ref="AB113" si="410">SUM(AB111:AB112)</f>
+        <f t="shared" ref="AB113" si="412">SUM(AB111:AB112)</f>
         <v>0</v>
       </c>
       <c r="AC113" s="13">
-        <f t="shared" ref="AC113" si="411">SUM(AC111:AC112)</f>
+        <f t="shared" ref="AC113" si="413">SUM(AC111:AC112)</f>
         <v>0</v>
       </c>
       <c r="AD113" s="13">
-        <f t="shared" ref="AD113" si="412">SUM(AD111:AD112)</f>
+        <f t="shared" ref="AD113" si="414">SUM(AD111:AD112)</f>
         <v>0</v>
       </c>
       <c r="AK113" s="13">
@@ -12493,65 +12482,65 @@
         <v>321224</v>
       </c>
       <c r="AO113" s="13">
-        <f t="shared" ref="AO113:AZ113" si="413">SUM(AO111:AO112)</f>
+        <f t="shared" ref="AO113:AZ113" si="415">SUM(AO111:AO112)</f>
         <v>183710</v>
       </c>
       <c r="AP113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AQ113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AR113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AS113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AT113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AU113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AV113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AW113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AX113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AY113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
       <c r="AZ113" s="13">
-        <f t="shared" si="413"/>
+        <f t="shared" si="415"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M114" s="48"/>
-      <c r="Q114" s="48"/>
-      <c r="U114" s="48"/>
-      <c r="Y114" s="48"/>
+      <c r="M114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="Y114" s="37"/>
     </row>
     <row r="115" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="M115" s="48">
+      <c r="M115" s="37">
         <v>0</v>
       </c>
       <c r="N115" s="3">
@@ -12560,11 +12549,11 @@
       <c r="O115" s="3">
         <v>0</v>
       </c>
-      <c r="P115" s="28">
+      <c r="P115" s="3">
         <f>AM115-O115-N115-M115</f>
         <v>942529</v>
       </c>
-      <c r="Q115" s="48">
+      <c r="Q115" s="37">
         <v>0</v>
       </c>
       <c r="R115" s="3">
@@ -12573,11 +12562,11 @@
       <c r="S115" s="3">
         <v>0</v>
       </c>
-      <c r="T115" s="28">
+      <c r="T115" s="3">
         <f>AN115-S115-R115-Q115</f>
         <v>0</v>
       </c>
-      <c r="U115" s="48">
+      <c r="U115" s="37">
         <v>0</v>
       </c>
       <c r="V115" s="3">
@@ -12586,11 +12575,11 @@
       <c r="W115" s="3">
         <v>0</v>
       </c>
-      <c r="X115" s="28">
+      <c r="X115" s="3">
         <f>AO115-W115-V115-U115</f>
         <v>0</v>
       </c>
-      <c r="Y115" s="48">
+      <c r="Y115" s="37">
         <v>0</v>
       </c>
       <c r="Z115" s="3">
@@ -12610,7 +12599,7 @@
       <c r="B116" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M116" s="48">
+      <c r="M116" s="37">
         <v>54107</v>
       </c>
       <c r="N116" s="3">
@@ -12621,11 +12610,11 @@
         <f>1028914-N116-M116</f>
         <v>846959</v>
       </c>
-      <c r="P116" s="28">
+      <c r="P116" s="3">
         <f>AM116-O116-N116-M116</f>
         <v>241788</v>
       </c>
-      <c r="Q116" s="48">
+      <c r="Q116" s="37">
         <v>193731</v>
       </c>
       <c r="R116" s="3">
@@ -12636,11 +12625,11 @@
         <f>611308-R116-Q116</f>
         <v>184835</v>
       </c>
-      <c r="T116" s="28">
+      <c r="T116" s="3">
         <f>AN116-S116-R116-Q116</f>
         <v>166907</v>
       </c>
-      <c r="U116" s="48">
+      <c r="U116" s="37">
         <v>149323</v>
       </c>
       <c r="V116" s="3">
@@ -12651,11 +12640,11 @@
         <f>435400-V116-U116</f>
         <v>140308</v>
       </c>
-      <c r="X116" s="28">
+      <c r="X116" s="3">
         <f>AO116-W116-V116-U116</f>
         <v>129398</v>
       </c>
-      <c r="Y116" s="48">
+      <c r="Y116" s="37">
         <v>114714</v>
       </c>
       <c r="Z116" s="3">
@@ -12682,7 +12671,7 @@
       <c r="B117" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M117" s="48">
+      <c r="M117" s="37">
         <v>0</v>
       </c>
       <c r="N117" s="3">
@@ -12691,11 +12680,11 @@
       <c r="O117" s="3">
         <v>0</v>
       </c>
-      <c r="P117" s="28">
+      <c r="P117" s="3">
         <f>AM117-O117-N117-M117</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="48">
+      <c r="Q117" s="37">
         <v>0</v>
       </c>
       <c r="R117" s="3">
@@ -12704,11 +12693,11 @@
       <c r="S117" s="3">
         <v>0</v>
       </c>
-      <c r="T117" s="28">
+      <c r="T117" s="3">
         <f>AN117-S117-R117-Q117</f>
         <v>0</v>
       </c>
-      <c r="U117" s="48">
+      <c r="U117" s="37">
         <v>0</v>
       </c>
       <c r="V117" s="3">
@@ -12717,11 +12706,11 @@
       <c r="W117" s="3">
         <v>0</v>
       </c>
-      <c r="X117" s="28">
+      <c r="X117" s="3">
         <f>AO117-W117-V117-U117</f>
         <v>0</v>
       </c>
-      <c r="Y117" s="48">
+      <c r="Y117" s="37">
         <v>0</v>
       </c>
       <c r="Z117" s="3">
@@ -12741,7 +12730,7 @@
       <c r="B118" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="M118" s="48">
+      <c r="M118" s="37">
         <v>0</v>
       </c>
       <c r="N118" s="3">
@@ -12750,11 +12739,11 @@
       <c r="O118" s="3">
         <v>0</v>
       </c>
-      <c r="P118" s="28">
+      <c r="P118" s="3">
         <f>AM118-O118-N118-M118</f>
         <v>0</v>
       </c>
-      <c r="Q118" s="48">
+      <c r="Q118" s="37">
         <v>0</v>
       </c>
       <c r="R118" s="3">
@@ -12763,11 +12752,11 @@
       <c r="S118" s="3">
         <v>0</v>
       </c>
-      <c r="T118" s="28">
+      <c r="T118" s="3">
         <f>AN118-S118-R118-Q118</f>
         <v>0</v>
       </c>
-      <c r="U118" s="48">
+      <c r="U118" s="37">
         <v>0</v>
       </c>
       <c r="V118" s="3">
@@ -12776,11 +12765,11 @@
       <c r="W118" s="3">
         <v>0</v>
       </c>
-      <c r="X118" s="28">
+      <c r="X118" s="3">
         <f>AO118-W118-V118-U118</f>
         <v>0</v>
       </c>
-      <c r="Y118" s="48">
+      <c r="Y118" s="37">
         <v>0</v>
       </c>
       <c r="Z118" s="3">
@@ -12803,63 +12792,63 @@
       </c>
     </row>
     <row r="119" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="M119" s="48"/>
-      <c r="Q119" s="48"/>
-      <c r="U119" s="48"/>
-      <c r="Y119" s="48"/>
+      <c r="M119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="Y119" s="37"/>
     </row>
     <row r="122" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="M122" s="69"/>
-      <c r="Q122" s="69"/>
-      <c r="U122" s="69"/>
-      <c r="Y122" s="69"/>
+      <c r="M122" s="53"/>
+      <c r="Q122" s="53"/>
+      <c r="U122" s="53"/>
+      <c r="Y122" s="53"/>
     </row>
     <row r="123" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="M123" s="48"/>
+      <c r="M123" s="37"/>
       <c r="P123" s="3">
-        <f t="shared" ref="N123:Y123" si="414">P7*P124</f>
+        <f t="shared" ref="P123:Y123" si="416">P7*P124</f>
         <v>32436334.800000001</v>
       </c>
-      <c r="Q123" s="48">
-        <f t="shared" si="414"/>
+      <c r="Q123" s="37">
+        <f t="shared" si="416"/>
         <v>50063633.419999994</v>
       </c>
       <c r="R123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>43727506.479999997</v>
       </c>
       <c r="S123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>47931238</v>
       </c>
       <c r="T123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>44967091.549999997</v>
       </c>
-      <c r="U123" s="48">
-        <f t="shared" si="414"/>
+      <c r="U123" s="37">
+        <f t="shared" si="416"/>
         <v>27143972.309999999</v>
       </c>
       <c r="V123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>20342510.100000001</v>
       </c>
       <c r="W123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>18452058.5</v>
       </c>
       <c r="X123" s="3">
-        <f t="shared" si="414"/>
+        <f t="shared" si="416"/>
         <v>15928513.460000001</v>
       </c>
-      <c r="Y123" s="48">
-        <f t="shared" si="414"/>
+      <c r="Y123" s="37">
+        <f t="shared" si="416"/>
         <v>16482839.600000001</v>
       </c>
       <c r="Z123" s="3">
@@ -12867,11 +12856,11 @@
         <v>24082831.200000003</v>
       </c>
       <c r="AM123" s="3">
-        <f t="shared" ref="AL123:AN123" si="415">AM7*AM124</f>
+        <f t="shared" ref="AM123:AN123" si="417">AM7*AM124</f>
         <v>17276343.075120002</v>
       </c>
       <c r="AN123" s="3">
-        <f t="shared" si="415"/>
+        <f t="shared" si="417"/>
         <v>44685622.910000004</v>
       </c>
       <c r="AO123" s="3">
@@ -12883,47 +12872,47 @@
       <c r="B124" t="s">
         <v>1</v>
       </c>
-      <c r="M124" s="48"/>
+      <c r="M124" s="37"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3">
-        <f t="shared" ref="N124:Y124" si="416">P60</f>
+        <f t="shared" ref="P124:Y124" si="418">P60</f>
         <v>1822266</v>
       </c>
-      <c r="Q124" s="48">
-        <f t="shared" si="416"/>
+      <c r="Q124" s="37">
+        <f t="shared" si="418"/>
         <v>1821158</v>
       </c>
       <c r="R124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>1894606</v>
       </c>
       <c r="S124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>1964395</v>
       </c>
       <c r="T124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>2030117</v>
       </c>
-      <c r="U124" s="48">
-        <f t="shared" si="416"/>
+      <c r="U124" s="37">
+        <f t="shared" si="418"/>
         <v>2036307</v>
       </c>
       <c r="V124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>2054799</v>
       </c>
       <c r="W124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>2073265</v>
       </c>
       <c r="X124" s="3">
-        <f t="shared" si="416"/>
+        <f t="shared" si="418"/>
         <v>2101387</v>
       </c>
-      <c r="Y124" s="48">
-        <f t="shared" si="416"/>
+      <c r="Y124" s="37">
+        <f t="shared" si="418"/>
         <v>2107780</v>
       </c>
       <c r="Z124" s="3">
@@ -12933,11 +12922,11 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
       <c r="AM124" s="3">
-        <f t="shared" ref="AL124:AN124" si="417">AM60</f>
+        <f t="shared" ref="AM124:AN124" si="419">AM60</f>
         <v>977721.73600000003</v>
       </c>
       <c r="AN124" s="3">
-        <f t="shared" si="417"/>
+        <f t="shared" si="419"/>
         <v>1923617</v>
       </c>
       <c r="AO124" s="3">
@@ -12945,250 +12934,250 @@
         <v>2063793</v>
       </c>
     </row>
-    <row r="125" spans="2:52" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="41" t="s">
+    <row r="125" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="M125" s="70"/>
-      <c r="P125" s="41">
-        <f t="shared" ref="N125:Y125" si="418">P123/SUM(M37:P37)</f>
+      <c r="M125" s="54"/>
+      <c r="P125" s="30">
+        <f t="shared" ref="P125:Y125" si="420">P123/SUM(M37:P37)</f>
         <v>29.685308230367184</v>
       </c>
-      <c r="Q125" s="70">
-        <f t="shared" si="418"/>
+      <c r="Q125" s="54">
+        <f t="shared" si="420"/>
         <v>41.561069767055734</v>
       </c>
-      <c r="R125" s="41">
-        <f t="shared" si="418"/>
+      <c r="R125" s="30">
+        <f t="shared" si="420"/>
         <v>32.919084657235793</v>
       </c>
-      <c r="S125" s="41">
-        <f t="shared" si="418"/>
+      <c r="S125" s="30">
+        <f t="shared" si="420"/>
         <v>33.492280483791284</v>
       </c>
-      <c r="T125" s="41">
-        <f t="shared" si="418"/>
+      <c r="T125" s="30">
+        <f t="shared" si="420"/>
         <v>29.163637298145325</v>
       </c>
-      <c r="U125" s="70">
-        <f t="shared" si="418"/>
+      <c r="U125" s="54">
+        <f t="shared" si="420"/>
         <v>16.48073742632112</v>
       </c>
-      <c r="V125" s="41">
-        <f t="shared" si="418"/>
+      <c r="V125" s="30">
+        <f t="shared" si="420"/>
         <v>11.661742338251987</v>
       </c>
-      <c r="W125" s="41">
-        <f t="shared" si="418"/>
+      <c r="W125" s="30">
+        <f t="shared" si="420"/>
         <v>10.082463988582132</v>
       </c>
-      <c r="X125" s="41">
-        <f t="shared" si="418"/>
+      <c r="X125" s="30">
+        <f t="shared" si="420"/>
         <v>8.3576031431298343</v>
       </c>
-      <c r="Y125" s="70">
-        <f t="shared" si="418"/>
+      <c r="Y125" s="54">
+        <f t="shared" si="420"/>
         <v>8.3049526880636879</v>
       </c>
-      <c r="Z125" s="41">
+      <c r="Z125" s="30">
         <f>Z123/SUM(W37:Z37)</f>
         <v>11.776405264138461</v>
       </c>
-      <c r="AM125" s="41">
-        <f t="shared" ref="AL125:AN125" si="419">AM123/AM37</f>
+      <c r="AM125" s="30">
+        <f t="shared" ref="AM125:AN125" si="421">AM123/AM37</f>
         <v>15.811082615860373</v>
       </c>
-      <c r="AN125" s="41">
-        <f t="shared" si="419"/>
+      <c r="AN125" s="30">
+        <f t="shared" si="421"/>
         <v>28.981089371543607</v>
       </c>
-      <c r="AO125" s="41">
+      <c r="AO125" s="30">
         <f>AO123/AO37</f>
         <v>9.5400036676144406</v>
       </c>
     </row>
-    <row r="126" spans="2:52" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="41" t="s">
+    <row r="126" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="M126" s="70"/>
-      <c r="P126" s="41">
-        <f t="shared" ref="N126:Y126" si="420">P123/SUM(M56:P56)</f>
+      <c r="M126" s="54"/>
+      <c r="P126" s="30">
+        <f t="shared" ref="P126:Y126" si="422">P123/SUM(M56:P56)</f>
         <v>-27.809143589070903</v>
       </c>
-      <c r="Q126" s="70">
-        <f t="shared" si="420"/>
+      <c r="Q126" s="54">
+        <f t="shared" si="422"/>
         <v>-40.517965427070926</v>
       </c>
-      <c r="R126" s="41">
-        <f t="shared" si="420"/>
+      <c r="R126" s="30">
+        <f t="shared" si="422"/>
         <v>-34.60232083790978</v>
       </c>
-      <c r="S126" s="41">
-        <f t="shared" si="420"/>
+      <c r="S126" s="30">
+        <f t="shared" si="422"/>
         <v>-93.518162697499093</v>
       </c>
-      <c r="T126" s="41">
-        <f t="shared" si="420"/>
+      <c r="T126" s="30">
+        <f t="shared" si="422"/>
         <v>-86.41219486182186</v>
       </c>
-      <c r="U126" s="70">
-        <f t="shared" si="420"/>
+      <c r="U126" s="54">
+        <f t="shared" si="422"/>
         <v>-54.47490248532965</v>
       </c>
-      <c r="V126" s="41">
-        <f t="shared" si="420"/>
+      <c r="V126" s="30">
+        <f t="shared" si="422"/>
         <v>-37.738895577821772</v>
       </c>
-      <c r="W126" s="41">
-        <f t="shared" si="420"/>
+      <c r="W126" s="30">
+        <f t="shared" si="422"/>
         <v>-32.904801603506598</v>
       </c>
-      <c r="X126" s="41">
-        <f t="shared" si="420"/>
+      <c r="X126" s="30">
+        <f t="shared" si="422"/>
         <v>-42.923123144001252</v>
       </c>
-      <c r="Y126" s="70">
-        <f t="shared" si="420"/>
+      <c r="Y126" s="54">
+        <f t="shared" si="422"/>
         <v>-65.171974552514115</v>
       </c>
-      <c r="Z126" s="41">
+      <c r="Z126" s="30">
         <f>Z123/SUM(W56:Z56)</f>
         <v>-529.79367754141288</v>
       </c>
-      <c r="AM126" s="41">
-        <f t="shared" ref="AL126:AN126" si="421">AM123/AM56</f>
+      <c r="AM126" s="30">
+        <f t="shared" ref="AM126:AN126" si="423">AM123/AM56</f>
         <v>-14.811793879685288</v>
       </c>
-      <c r="AN126" s="41">
-        <f t="shared" si="421"/>
+      <c r="AN126" s="30">
+        <f t="shared" si="423"/>
         <v>-85.871303242444455</v>
       </c>
-      <c r="AO126" s="41">
+      <c r="AO126" s="30">
         <f>AO123/AO56</f>
         <v>-48.995716260570106</v>
       </c>
     </row>
-    <row r="127" spans="2:52" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="41" t="s">
+    <row r="127" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="M127" s="70"/>
-      <c r="P127" s="41">
-        <f t="shared" ref="N127:Y127" si="422">P123/P105</f>
+      <c r="M127" s="54"/>
+      <c r="P127" s="30">
+        <f t="shared" ref="P127:Y127" si="424">P123/P105</f>
         <v>21.303953761781223</v>
       </c>
-      <c r="Q127" s="70">
-        <f t="shared" si="422"/>
+      <c r="Q127" s="54">
+        <f t="shared" si="424"/>
         <v>27.721602187887434</v>
       </c>
-      <c r="R127" s="41">
-        <f t="shared" si="422"/>
+      <c r="R127" s="30">
+        <f t="shared" si="424"/>
         <v>21.134987179567734</v>
       </c>
-      <c r="S127" s="41">
-        <f t="shared" si="422"/>
+      <c r="S127" s="30">
+        <f t="shared" si="424"/>
         <v>21.321193956022448</v>
       </c>
-      <c r="T127" s="41">
-        <f t="shared" si="422"/>
+      <c r="T127" s="30">
+        <f t="shared" si="424"/>
         <v>19.627456449719119</v>
       </c>
-      <c r="U127" s="70">
-        <f t="shared" si="422"/>
+      <c r="U127" s="54">
+        <f t="shared" si="424"/>
         <v>11.478599524008075</v>
       </c>
-      <c r="V127" s="41">
-        <f t="shared" si="422"/>
+      <c r="V127" s="30">
+        <f t="shared" si="424"/>
         <v>8.6607213226704101</v>
       </c>
-      <c r="W127" s="41">
-        <f t="shared" si="422"/>
+      <c r="W127" s="30">
+        <f t="shared" si="424"/>
         <v>7.7314767987295818</v>
       </c>
-      <c r="X127" s="41">
-        <f t="shared" si="422"/>
+      <c r="X127" s="30">
+        <f t="shared" si="424"/>
         <v>6.027963376231865</v>
       </c>
-      <c r="Y127" s="70">
-        <f t="shared" si="422"/>
+      <c r="Y127" s="54">
+        <f t="shared" si="424"/>
         <v>5.88002310222664</v>
       </c>
-      <c r="Z127" s="41">
+      <c r="Z127" s="30">
         <f>Z123/Z105</f>
         <v>7.9346742059174913</v>
       </c>
-      <c r="AM127" s="41">
-        <f t="shared" ref="AL127:AN127" si="423">AM123/AM105</f>
+      <c r="AM127" s="30">
+        <f t="shared" ref="AM127:AN127" si="425">AM123/AM105</f>
         <v>11.346979130485042</v>
       </c>
-      <c r="AN127" s="41">
-        <f t="shared" si="423"/>
+      <c r="AN127" s="30">
+        <f t="shared" si="425"/>
         <v>19.504599638590506</v>
       </c>
-      <c r="AO127" s="41">
+      <c r="AO127" s="30">
         <f>AO123/AO105</f>
         <v>6.880775711965887</v>
       </c>
     </row>
-    <row r="128" spans="2:52" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="41" t="s">
+    <row r="128" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="M128" s="70"/>
-      <c r="P128" s="41">
-        <f t="shared" ref="N128:Y128" si="424">P123/SUM(M113:P113)</f>
+      <c r="M128" s="54"/>
+      <c r="P128" s="30">
+        <f t="shared" ref="P128:Y128" si="426">P123/SUM(M113:P113)</f>
         <v>-105.02497960135214</v>
       </c>
-      <c r="Q128" s="70">
-        <f t="shared" si="424"/>
+      <c r="Q128" s="54">
+        <f t="shared" si="426"/>
         <v>513.32048334341573</v>
       </c>
-      <c r="R128" s="41">
-        <f t="shared" si="424"/>
+      <c r="R128" s="30">
+        <f t="shared" si="426"/>
         <v>709.20587248811967</v>
       </c>
-      <c r="S128" s="41">
-        <f t="shared" si="424"/>
+      <c r="S128" s="30">
+        <f t="shared" si="426"/>
         <v>227.60236856100897</v>
       </c>
-      <c r="T128" s="41">
-        <f t="shared" si="424"/>
+      <c r="T128" s="30">
+        <f t="shared" si="426"/>
         <v>139.98671192065351</v>
       </c>
-      <c r="U128" s="70">
-        <f t="shared" si="424"/>
+      <c r="U128" s="54">
+        <f t="shared" si="426"/>
         <v>120.47228659686746</v>
       </c>
-      <c r="V128" s="41">
-        <f t="shared" si="424"/>
+      <c r="V128" s="30">
+        <f t="shared" si="426"/>
         <v>78.170370783105909</v>
       </c>
-      <c r="W128" s="41">
-        <f t="shared" si="424"/>
+      <c r="W128" s="30">
+        <f t="shared" si="426"/>
         <v>93.452749584700783</v>
       </c>
-      <c r="X128" s="41">
-        <f t="shared" si="424"/>
+      <c r="X128" s="30">
+        <f t="shared" si="426"/>
         <v>86.704662021664589</v>
       </c>
-      <c r="Y128" s="70">
-        <f t="shared" si="424"/>
+      <c r="Y128" s="54">
+        <f t="shared" si="426"/>
         <v>47.628766517659777</v>
       </c>
-      <c r="Z128" s="41">
+      <c r="Z128" s="30">
         <f>Z123/SUM(W113:Z113)</f>
         <v>64.160315861826447</v>
       </c>
-      <c r="AM128" s="41">
-        <f t="shared" ref="AL128:AN128" si="425">AM123/AM113</f>
+      <c r="AM128" s="30">
+        <f t="shared" ref="AM128:AN128" si="427">AM123/AM113</f>
         <v>-55.938736304153558</v>
       </c>
-      <c r="AN128" s="41">
-        <f t="shared" si="425"/>
+      <c r="AN128" s="30">
+        <f t="shared" si="427"/>
         <v>139.11047403058302</v>
       </c>
-      <c r="AO128" s="41">
+      <c r="AO128" s="30">
         <f>AO123/AO113</f>
         <v>98.971293506069358</v>
       </c>
@@ -13197,10 +13186,10 @@
       <c r="B130" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="M130" s="71"/>
-      <c r="Q130" s="71"/>
-      <c r="U130" s="71"/>
-      <c r="Y130" s="71"/>
+      <c r="M130" s="55"/>
+      <c r="Q130" s="55"/>
+      <c r="U130" s="55"/>
+      <c r="Y130" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLTR/PLTR.xlsx
+++ b/PLTR/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PLTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67CAC3E-686F-47A7-AA04-BE807D99D04A}"/>
+  <xr:revisionPtr revIDLastSave="1305" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A7416F-374E-438B-B3D8-27C121A7983B}"/>
   <bookViews>
-    <workbookView xWindow="8150" yWindow="1770" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="2580" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="555">
   <si>
     <t>Price</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>Per Share</t>
+  </si>
+  <si>
+    <t>3-month Adjusted</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1893,11 +1899,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1956,6 +1984,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,10 +2003,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2455,13 +2483,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AZ130"/>
+  <dimension ref="B1:AZ138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="Z92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2475,7 +2503,9 @@
     <col min="21" max="21" width="10.6328125" style="31" customWidth="1"/>
     <col min="22" max="24" width="10.6328125" customWidth="1"/>
     <col min="25" max="25" width="10.6328125" style="31" customWidth="1"/>
-    <col min="26" max="47" width="10.6328125" customWidth="1"/>
+    <col min="26" max="28" width="10.6328125" customWidth="1"/>
+    <col min="29" max="29" width="10.6328125" style="31" customWidth="1"/>
+    <col min="30" max="47" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:52" x14ac:dyDescent="0.35">
@@ -2527,6 +2557,9 @@
       <c r="AA1" t="s">
         <v>542</v>
       </c>
+      <c r="AB1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="2" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -2568,6 +2601,12 @@
       <c r="Z2" s="21">
         <v>45146</v>
       </c>
+      <c r="AA2" s="21">
+        <v>45233</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>45327</v>
+      </c>
       <c r="AM2" s="21">
         <v>44253</v>
       </c>
@@ -2576,6 +2615,9 @@
       </c>
       <c r="AO2" s="21">
         <v>44978</v>
+      </c>
+      <c r="AP2" s="21">
+        <v>45327</v>
       </c>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.35">
@@ -2623,6 +2665,12 @@
       </c>
       <c r="Z3" s="21">
         <v>45107</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>45199</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>45291</v>
       </c>
       <c r="AK3">
         <v>2018</v>
@@ -2661,6 +2709,7 @@
       <c r="X4" s="27"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="27"/>
+      <c r="AC4" s="53"/>
     </row>
     <row r="5" spans="2:52" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="28" t="s">
@@ -2700,6 +2749,10 @@
       <c r="Z5" s="28">
         <v>17.16</v>
       </c>
+      <c r="AA5" s="28">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="AC5" s="34"/>
       <c r="AM5" s="28">
         <v>33.5</v>
       </c>
@@ -2748,6 +2801,10 @@
       <c r="Z6" s="28">
         <v>7.28</v>
       </c>
+      <c r="AA6" s="28">
+        <v>13.68</v>
+      </c>
+      <c r="AC6" s="34"/>
       <c r="AM6" s="28">
         <v>8.9</v>
       </c>
@@ -2796,6 +2853,10 @@
       <c r="Z7" s="29">
         <v>11.3</v>
       </c>
+      <c r="AA7" s="29">
+        <v>15.92</v>
+      </c>
+      <c r="AC7" s="35"/>
       <c r="AM7" s="29">
         <v>17.670000000000002</v>
       </c>
@@ -2814,6 +2875,7 @@
       <c r="Q8" s="36"/>
       <c r="U8" s="36"/>
       <c r="Y8" s="36"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -2874,9 +2936,11 @@
       <c r="Z9" s="3">
         <v>301505</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3">
+        <v>307603</v>
+      </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+      <c r="AC9" s="37"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -2957,9 +3021,11 @@
       <c r="Z10" s="11">
         <v>231812</v>
       </c>
-      <c r="AA10" s="11"/>
+      <c r="AA10" s="11">
+        <v>250556</v>
+      </c>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
+      <c r="AC10" s="38"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -3065,13 +3131,13 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>558159</v>
       </c>
       <c r="AB11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3225,13 +3291,13 @@
       </c>
       <c r="AA12" s="10">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0.16798987193437684</v>
       </c>
       <c r="AB12" s="10">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="39">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
@@ -3326,7 +3392,7 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
+      <c r="AC13" s="40"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
@@ -3415,15 +3481,15 @@
         <f t="shared" si="7"/>
         <v>0.56533918851264819</v>
       </c>
-      <c r="AA14" s="10" t="e">
+      <c r="AA14" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.551102821955751</v>
       </c>
       <c r="AB14" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="10" t="e">
+      <c r="AC14" s="39" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -3568,15 +3634,15 @@
         <f t="shared" si="10"/>
         <v>0.43466081148735181</v>
       </c>
-      <c r="AA15" s="18" t="e">
+      <c r="AA15" s="18">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.44889717804424906</v>
       </c>
       <c r="AB15" s="18" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="18" t="e">
+      <c r="AC15" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -3721,15 +3787,15 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="19" t="e">
+      <c r="AA16" s="19">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="19" t="e">
+      <c r="AC16" s="42" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3807,6 +3873,7 @@
       <c r="Q17" s="42"/>
       <c r="U17" s="42"/>
       <c r="Y17" s="42"/>
+      <c r="AC17" s="42"/>
     </row>
     <row r="18" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
@@ -3816,6 +3883,7 @@
       <c r="Q18" s="43"/>
       <c r="U18" s="43"/>
       <c r="Y18" s="43"/>
+      <c r="AC18" s="43"/>
     </row>
     <row r="19" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
@@ -3866,6 +3934,10 @@
       <c r="Z19" s="3">
         <v>328012</v>
       </c>
+      <c r="AA19" s="3">
+        <v>345479</v>
+      </c>
+      <c r="AC19" s="37"/>
       <c r="AL19" s="3">
         <v>295753</v>
       </c>
@@ -3928,6 +4000,10 @@
       <c r="Z20" s="3">
         <v>63229</v>
       </c>
+      <c r="AA20" s="3">
+        <v>64390</v>
+      </c>
+      <c r="AC20" s="37"/>
       <c r="AL20" s="3">
         <v>120185</v>
       </c>
@@ -3992,6 +4068,10 @@
       <c r="Z21" s="11">
         <v>142076</v>
       </c>
+      <c r="AA21" s="11">
+        <v>148290</v>
+      </c>
+      <c r="AC21" s="38"/>
       <c r="AL21" s="11">
         <f>76220+250397</f>
         <v>326617</v>
@@ -4084,13 +4164,13 @@
       </c>
       <c r="AA22" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>558159</v>
       </c>
       <c r="AB22" s="13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="44">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4241,13 +4321,13 @@
       </c>
       <c r="AA23" s="10">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>0.16798987193437684</v>
       </c>
       <c r="AB23" s="10">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="39">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
@@ -4324,6 +4404,7 @@
       <c r="Q24" s="40"/>
       <c r="U24" s="40"/>
       <c r="Y24" s="40"/>
+      <c r="AC24" s="40"/>
     </row>
     <row r="25" spans="2:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
@@ -4401,15 +4482,15 @@
         <f t="shared" si="22"/>
         <v>0.61504133564090402</v>
       </c>
-      <c r="AA25" s="10" t="e">
+      <c r="AA25" s="10">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.61896162204676441</v>
       </c>
       <c r="AB25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="10" t="e">
+      <c r="AC25" s="39" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -4554,15 +4635,15 @@
         <f t="shared" si="25"/>
         <v>0.11855800583892882</v>
       </c>
-      <c r="AA26" s="10" t="e">
+      <c r="AA26" s="10">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.11536139343807052</v>
       </c>
       <c r="AB26" s="10" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="10" t="e">
+      <c r="AC26" s="39" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
@@ -4707,15 +4788,15 @@
         <f t="shared" si="28"/>
         <v>0.2664006585201672</v>
       </c>
-      <c r="AA27" s="18" t="e">
+      <c r="AA27" s="18">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.26567698451516503</v>
       </c>
       <c r="AB27" s="18" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="18" t="e">
+      <c r="AC27" s="41" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
@@ -4860,15 +4941,15 @@
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AA28" s="17" t="e">
+      <c r="AA28" s="17">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="17" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="17" t="e">
+      <c r="AC28" s="45" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
@@ -4942,36 +5023,42 @@
       <c r="Q29" s="37"/>
       <c r="U29" s="37"/>
       <c r="Y29" s="37"/>
+      <c r="AC29" s="37"/>
     </row>
     <row r="30" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="U30" s="42"/>
       <c r="Y30" s="42"/>
+      <c r="AC30" s="42"/>
     </row>
     <row r="31" spans="2:52" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M31" s="46"/>
       <c r="Q31" s="46"/>
       <c r="U31" s="46"/>
       <c r="Y31" s="46"/>
+      <c r="AC31" s="46"/>
     </row>
     <row r="32" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M32" s="42"/>
       <c r="Q32" s="42"/>
       <c r="U32" s="42"/>
       <c r="Y32" s="42"/>
+      <c r="AC32" s="42"/>
     </row>
     <row r="33" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="U33" s="42"/>
       <c r="Y33" s="42"/>
+      <c r="AC33" s="42"/>
     </row>
     <row r="34" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M34" s="42"/>
       <c r="Q34" s="42"/>
       <c r="U34" s="42"/>
       <c r="Y34" s="42"/>
+      <c r="AC34" s="42"/>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
@@ -5000,7 +5087,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
+      <c r="AC35" s="37"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -5043,7 +5130,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
+      <c r="AC36" s="47"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
@@ -5115,9 +5202,13 @@
       <c r="Z37" s="13">
         <v>533317</v>
       </c>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
+      <c r="AA37" s="13">
+        <v>558159</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>608350</v>
+      </c>
+      <c r="AC37" s="44"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="13"/>
@@ -5200,9 +5291,13 @@
       <c r="Z38" s="11">
         <v>106899</v>
       </c>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
+      <c r="AA38" s="11">
+        <v>107922</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>108639</v>
+      </c>
+      <c r="AC38" s="38"/>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
@@ -5310,13 +5405,13 @@
       </c>
       <c r="AA39" s="13">
         <f t="shared" ref="AA39" si="51">AA37-AA38</f>
-        <v>0</v>
+        <v>450237</v>
       </c>
       <c r="AB39" s="13">
         <f t="shared" ref="AB39" si="52">AB37-AB38</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
+        <v>499711</v>
+      </c>
+      <c r="AC39" s="44">
         <f t="shared" ref="AC39" si="53">AC37-AC38</f>
         <v>0</v>
       </c>
@@ -5477,15 +5572,15 @@
         <f t="shared" ref="Z40" si="85">Z39/Z37</f>
         <v>0.79955823647099189</v>
       </c>
-      <c r="AA40" s="10" t="e">
+      <c r="AA40" s="10">
         <f t="shared" ref="AA40" si="86">AA39/AA37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB40" s="10" t="e">
+        <v>0.80664649320354953</v>
+      </c>
+      <c r="AB40" s="10">
         <f t="shared" ref="AB40" si="87">AB39/AB37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC40" s="10" t="e">
+        <v>0.82142023506205308</v>
+      </c>
+      <c r="AC40" s="39" t="e">
         <f t="shared" ref="AC40" si="88">AC39/AC37</f>
         <v>#DIV/0!</v>
       </c>
@@ -5596,7 +5691,7 @@
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
+      <c r="AC41" s="40"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="14"/>
       <c r="AF41" s="14"/>
@@ -5668,9 +5763,13 @@
       <c r="Z42" s="3">
         <v>184163</v>
       </c>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
+      <c r="AA42" s="3">
+        <v>176373</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>197363</v>
+      </c>
+      <c r="AC42" s="37"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
@@ -5753,9 +5852,13 @@
       <c r="Z43" s="3">
         <v>99533</v>
       </c>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
+      <c r="AA43" s="3">
+        <v>105708</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>109283</v>
+      </c>
+      <c r="AC43" s="37"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
@@ -5838,9 +5941,13 @@
       <c r="Z44" s="11">
         <v>132648</v>
       </c>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
+      <c r="AA44" s="11">
+        <v>128173</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>127271</v>
+      </c>
+      <c r="AC44" s="38"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
@@ -5948,13 +6055,13 @@
       </c>
       <c r="AA45" s="15">
         <f t="shared" ref="AA45" si="121">SUM(AA42:AA44)</f>
-        <v>0</v>
+        <v>410254</v>
       </c>
       <c r="AB45" s="15">
         <f t="shared" ref="AB45" si="122">SUM(AB42:AB44)</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="15">
+        <v>433917</v>
+      </c>
+      <c r="AC45" s="48">
         <f t="shared" ref="AC45" si="123">SUM(AC42:AC44)</f>
         <v>0</v>
       </c>
@@ -6123,13 +6230,13 @@
       </c>
       <c r="AA46" s="13">
         <f t="shared" ref="AA46" si="156">AA39-AA45</f>
-        <v>0</v>
+        <v>39983</v>
       </c>
       <c r="AB46" s="13">
         <f t="shared" ref="AB46" si="157">AB39-AB45</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="13">
+        <v>65794</v>
+      </c>
+      <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="158">AC39-AC45</f>
         <v>0</v>
       </c>
@@ -6296,15 +6403,15 @@
         <f t="shared" ref="Z47" si="190">Z46/Z37</f>
         <v>1.8889328485684875E-2</v>
       </c>
-      <c r="AA47" s="17" t="e">
+      <c r="AA47" s="17">
         <f t="shared" ref="AA47" si="191">AA46/AA37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB47" s="17" t="e">
+        <v>7.163371010769333E-2</v>
+      </c>
+      <c r="AB47" s="17">
         <f t="shared" ref="AB47" si="192">AB46/AB37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC47" s="17" t="e">
+        <v>0.10815155749157557</v>
+      </c>
+      <c r="AC47" s="45" t="e">
         <f t="shared" ref="AC47" si="193">AC46/AC37</f>
         <v>#DIV/0!</v>
       </c>
@@ -6419,7 +6526,7 @@
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
+      <c r="AC48" s="40"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
       <c r="AF48" s="14"/>
@@ -6491,9 +6598,13 @@
       <c r="Z49" s="3">
         <v>30310</v>
       </c>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="AA49" s="3">
+        <v>36864</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>44545</v>
+      </c>
+      <c r="AC49" s="37"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
@@ -6576,9 +6687,13 @@
       <c r="Z50" s="3">
         <v>-1317</v>
       </c>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
+      <c r="AA50" s="3">
+        <v>-742</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>-136</v>
+      </c>
+      <c r="AC50" s="37"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
@@ -6664,9 +6779,13 @@
       <c r="Z51" s="11">
         <v>-9024</v>
       </c>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
+      <c r="AA51" s="11">
+        <v>3864</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>-3956</v>
+      </c>
+      <c r="AC51" s="38"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
@@ -6775,13 +6894,13 @@
       </c>
       <c r="AA52" s="13">
         <f t="shared" ref="AA52" si="226">AA46+SUM(AA49:AA51)</f>
-        <v>0</v>
+        <v>79969</v>
       </c>
       <c r="AB52" s="13">
         <f t="shared" ref="AB52" si="227">AB46+SUM(AB49:AB51)</f>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="13">
+        <v>106247</v>
+      </c>
+      <c r="AC52" s="44">
         <f t="shared" ref="AC52" si="228">AC46+SUM(AC49:AC51)</f>
         <v>0</v>
       </c>
@@ -6925,9 +7044,13 @@
       <c r="Z53" s="11">
         <v>2171</v>
       </c>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
+      <c r="AA53" s="11">
+        <v>6530</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>9334</v>
+      </c>
+      <c r="AC53" s="38"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
@@ -7035,13 +7158,13 @@
       </c>
       <c r="AA54" s="13">
         <f t="shared" ref="AA54" si="261">AA52-AA53</f>
-        <v>0</v>
+        <v>73439</v>
       </c>
       <c r="AB54" s="13">
         <f t="shared" ref="AB54" si="262">AB52-AB53</f>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="13">
+        <v>96913</v>
+      </c>
+      <c r="AC54" s="44">
         <f t="shared" ref="AC54" si="263">AC52-AC53</f>
         <v>0</v>
       </c>
@@ -7183,9 +7306,13 @@
       <c r="Z55" s="11">
         <v>-255</v>
       </c>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
+      <c r="AA55" s="11">
+        <v>1934</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>3522</v>
+      </c>
+      <c r="AC55" s="38"/>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
@@ -7306,13 +7433,13 @@
       </c>
       <c r="AA56" s="13">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>71505</v>
       </c>
       <c r="AB56" s="13">
         <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="AC56" s="13">
+        <v>93391</v>
+      </c>
+      <c r="AC56" s="44">
         <f t="shared" si="278"/>
         <v>0</v>
       </c>
@@ -7446,15 +7573,15 @@
         <f t="shared" ref="Z57" si="296">Z54/Z37</f>
         <v>5.2261600511515668E-2</v>
       </c>
-      <c r="AA57" s="10" t="e">
+      <c r="AA57" s="10">
         <f t="shared" ref="AA57" si="297">AA54/AA37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB57" s="10" t="e">
+        <v>0.13157361970334619</v>
+      </c>
+      <c r="AB57" s="10">
         <f t="shared" ref="AB57" si="298">AB54/AB37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC57" s="10" t="e">
+        <v>0.15930467658420316</v>
+      </c>
+      <c r="AC57" s="39" t="e">
         <f t="shared" ref="AC57" si="299">AC54/AC37</f>
         <v>#DIV/0!</v>
       </c>
@@ -7615,15 +7742,15 @@
         <f t="shared" si="319"/>
         <v>1.3077930804082536E-2</v>
       </c>
-      <c r="AA58" s="20" t="e">
+      <c r="AA58" s="20">
         <f t="shared" si="319"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB58" s="20" t="e">
+        <v>3.3959760095813703E-2</v>
+      </c>
+      <c r="AB58" s="20">
         <f t="shared" si="319"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC58" s="20" t="e">
+        <v>4.4308878783694688E-2</v>
+      </c>
+      <c r="AC58" s="49" t="e">
         <f t="shared" si="319"/>
         <v>#DIV/0!</v>
       </c>
@@ -7772,15 +7899,15 @@
         <f t="shared" si="323"/>
         <v>1.2234461658666772E-2</v>
       </c>
-      <c r="AA59" s="20" t="e">
+      <c r="AA59" s="20">
         <f t="shared" si="323"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB59" s="20" t="e">
+        <v>3.1578517371861028E-2</v>
+      </c>
+      <c r="AB59" s="20">
         <f t="shared" si="323"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC59" s="20" t="e">
+        <v>4.1104158130957504E-2</v>
+      </c>
+      <c r="AC59" s="49" t="e">
         <f t="shared" si="323"/>
         <v>#DIV/0!</v>
       </c>
@@ -7902,6 +8029,13 @@
       <c r="Z60" s="3">
         <v>2131224</v>
       </c>
+      <c r="AA60" s="3">
+        <v>2162530</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>2187214</v>
+      </c>
+      <c r="AC60" s="37"/>
       <c r="AK60" s="3">
         <v>537280</v>
       </c>
@@ -7955,6 +8089,13 @@
       <c r="Z61" s="3">
         <v>2278155</v>
       </c>
+      <c r="AA61" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>2357742</v>
+      </c>
+      <c r="AC61" s="37"/>
       <c r="AK61" s="3">
         <v>544014.39300000004</v>
       </c>
@@ -7979,6 +8120,7 @@
       <c r="Q62" s="49"/>
       <c r="U62" s="49"/>
       <c r="Y62" s="49"/>
+      <c r="AC62" s="49"/>
       <c r="AL62" s="10">
         <f>(AL60-AK60)/ABS(AK60)</f>
         <v>7.3850804050029889E-2</v>
@@ -8067,7 +8209,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
+      <c r="AC63" s="37"/>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
@@ -8110,7 +8252,7 @@
       <c r="Z64" s="16"/>
       <c r="AA64" s="16"/>
       <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
+      <c r="AC64" s="50"/>
       <c r="AD64" s="16"/>
       <c r="AE64" s="16"/>
       <c r="AF64" s="16"/>
@@ -8153,7 +8295,7 @@
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
       <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
+      <c r="AC65" s="40"/>
       <c r="AD65" s="14"/>
       <c r="AE65" s="14"/>
       <c r="AF65" s="14"/>
@@ -8220,9 +8362,13 @@
       <c r="Z66" s="3">
         <v>1055923</v>
       </c>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
+      <c r="AA66" s="3">
+        <v>1040310</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>831047</v>
+      </c>
+      <c r="AC66" s="37"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -8298,9 +8444,13 @@
       <c r="Z67" s="3">
         <v>0</v>
       </c>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
+      <c r="AA67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="37"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
@@ -8376,9 +8526,13 @@
       <c r="Z68" s="3">
         <v>375756</v>
       </c>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
+      <c r="AA68" s="3">
+        <v>430269</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>2843132</v>
+      </c>
+      <c r="AC68" s="37"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
@@ -8454,9 +8608,13 @@
       <c r="Z69" s="3">
         <v>2047329</v>
       </c>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
+      <c r="AA69" s="3">
+        <v>2243264</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>364784</v>
+      </c>
+      <c r="AC69" s="37"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
@@ -8532,9 +8690,13 @@
       <c r="Z70" s="11">
         <v>97906</v>
       </c>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
+      <c r="AA70" s="11">
+        <v>95554</v>
+      </c>
+      <c r="AB70" s="11">
+        <v>99655</v>
+      </c>
+      <c r="AC70" s="38"/>
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
       <c r="AF70" s="11"/>
@@ -8640,13 +8802,13 @@
       </c>
       <c r="AA71" s="13">
         <f t="shared" si="328"/>
-        <v>0</v>
+        <v>3809397</v>
       </c>
       <c r="AB71" s="13">
         <f t="shared" si="328"/>
-        <v>0</v>
-      </c>
-      <c r="AC71" s="13">
+        <v>4138618</v>
+      </c>
+      <c r="AC71" s="44">
         <f t="shared" si="328"/>
         <v>0</v>
       </c>
@@ -8752,7 +8914,7 @@
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
       <c r="AB72" s="14"/>
-      <c r="AC72" s="14"/>
+      <c r="AC72" s="40"/>
       <c r="AD72" s="14"/>
       <c r="AE72" s="14"/>
       <c r="AF72" s="14"/>
@@ -8819,9 +8981,13 @@
       <c r="Z73" s="3">
         <v>54097</v>
       </c>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
+      <c r="AA73" s="3">
+        <v>50133</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>47758</v>
+      </c>
+      <c r="AC73" s="37"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
@@ -8897,9 +9063,13 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="37"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
@@ -8975,9 +9145,13 @@
       <c r="Z75" s="3">
         <v>199661</v>
       </c>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
+      <c r="AA75" s="3">
+        <v>190191</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>182863</v>
+      </c>
+      <c r="AC75" s="37"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
@@ -9053,9 +9227,13 @@
       <c r="Z76" s="11">
         <v>149592</v>
       </c>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
+      <c r="AA76" s="11">
+        <v>143696</v>
+      </c>
+      <c r="AB76" s="11">
+        <v>153186</v>
+      </c>
+      <c r="AC76" s="38"/>
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -9161,13 +9339,13 @@
       </c>
       <c r="AA77" s="25">
         <f t="shared" si="332"/>
-        <v>0</v>
+        <v>384020</v>
       </c>
       <c r="AB77" s="25">
         <f t="shared" si="332"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="25">
+        <v>383807</v>
+      </c>
+      <c r="AC77" s="51">
         <f t="shared" si="332"/>
         <v>0</v>
       </c>
@@ -9327,13 +9505,13 @@
       </c>
       <c r="AA78" s="13">
         <f t="shared" si="336"/>
-        <v>0</v>
+        <v>4193417</v>
       </c>
       <c r="AB78" s="13">
         <f t="shared" si="336"/>
-        <v>0</v>
-      </c>
-      <c r="AC78" s="13">
+        <v>4522425</v>
+      </c>
+      <c r="AC78" s="44">
         <f t="shared" si="336"/>
         <v>0</v>
       </c>
@@ -9439,7 +9617,7 @@
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
-      <c r="AC79" s="14"/>
+      <c r="AC79" s="40"/>
       <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
       <c r="AF79" s="14"/>
@@ -9506,9 +9684,13 @@
       <c r="Z80" s="3">
         <v>4613</v>
       </c>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
+      <c r="AA80" s="3">
+        <v>9475</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>12122</v>
+      </c>
+      <c r="AC80" s="37"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
@@ -9584,9 +9766,13 @@
       <c r="Z81" s="3">
         <v>184617</v>
       </c>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
+      <c r="AA81" s="3">
+        <v>174753</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>222991</v>
+      </c>
+      <c r="AC81" s="37"/>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
@@ -9662,9 +9848,13 @@
       <c r="Z82" s="3">
         <v>260335</v>
       </c>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
+      <c r="AA82" s="3">
+        <v>223507</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>246901</v>
+      </c>
+      <c r="AC82" s="37"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
@@ -9740,9 +9930,13 @@
       <c r="Z83" s="3">
         <v>183964</v>
       </c>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
+      <c r="AA83" s="3">
+        <v>228986</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>209828</v>
+      </c>
+      <c r="AC83" s="37"/>
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
@@ -9818,9 +10012,13 @@
       <c r="Z84" s="11">
         <v>51855</v>
       </c>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="11"/>
-      <c r="AC84" s="11"/>
+      <c r="AA84" s="11">
+        <v>52204</v>
+      </c>
+      <c r="AB84" s="11">
+        <v>54176</v>
+      </c>
+      <c r="AC84" s="38"/>
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
       <c r="AF84" s="11"/>
@@ -9926,13 +10124,13 @@
       </c>
       <c r="AA85" s="13">
         <f t="shared" si="340"/>
-        <v>0</v>
+        <v>688925</v>
       </c>
       <c r="AB85" s="13">
         <f t="shared" si="340"/>
-        <v>0</v>
-      </c>
-      <c r="AC85" s="13">
+        <v>746018</v>
+      </c>
+      <c r="AC85" s="44">
         <f t="shared" si="340"/>
         <v>0</v>
       </c>
@@ -10038,7 +10236,7 @@
       <c r="Z86" s="14"/>
       <c r="AA86" s="14"/>
       <c r="AB86" s="14"/>
-      <c r="AC86" s="14"/>
+      <c r="AC86" s="40"/>
       <c r="AD86" s="14"/>
       <c r="AE86" s="14"/>
       <c r="AF86" s="14"/>
@@ -10105,9 +10303,13 @@
       <c r="Z87" s="3">
         <v>50408</v>
       </c>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
+      <c r="AA87" s="3">
+        <v>34880</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>28047</v>
+      </c>
+      <c r="AC87" s="37"/>
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
@@ -10183,9 +10385,13 @@
       <c r="Z88" s="3">
         <v>3099</v>
       </c>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
+      <c r="AA88" s="3">
+        <v>2234</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>1477</v>
+      </c>
+      <c r="AC88" s="37"/>
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
@@ -10261,9 +10467,13 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="37"/>
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
@@ -10339,9 +10549,13 @@
       <c r="Z90" s="3">
         <v>194134</v>
       </c>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
+      <c r="AA90" s="3">
+        <v>184067</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>175216</v>
+      </c>
+      <c r="AC90" s="37"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
@@ -10417,9 +10631,13 @@
       <c r="Z91" s="11">
         <v>12101</v>
       </c>
-      <c r="AA91" s="11"/>
-      <c r="AB91" s="11"/>
-      <c r="AC91" s="11"/>
+      <c r="AA91" s="11">
+        <v>11414</v>
+      </c>
+      <c r="AB91" s="11">
+        <v>10702</v>
+      </c>
+      <c r="AC91" s="38"/>
       <c r="AD91" s="11"/>
       <c r="AE91" s="11"/>
       <c r="AF91" s="11"/>
@@ -10525,13 +10743,13 @@
       </c>
       <c r="AA92" s="25">
         <f t="shared" si="344"/>
-        <v>0</v>
+        <v>232595</v>
       </c>
       <c r="AB92" s="25">
         <f t="shared" si="344"/>
-        <v>0</v>
-      </c>
-      <c r="AC92" s="25">
+        <v>215442</v>
+      </c>
+      <c r="AC92" s="51">
         <f t="shared" si="344"/>
         <v>0</v>
       </c>
@@ -10691,13 +10909,13 @@
       </c>
       <c r="AA93" s="13">
         <f t="shared" si="348"/>
-        <v>0</v>
+        <v>921520</v>
       </c>
       <c r="AB93" s="13">
         <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="AC93" s="13">
+        <v>961460</v>
+      </c>
+      <c r="AC93" s="44">
         <f t="shared" si="348"/>
         <v>0</v>
       </c>
@@ -10803,7 +11021,7 @@
       <c r="Z94" s="14"/>
       <c r="AA94" s="14"/>
       <c r="AB94" s="14"/>
-      <c r="AC94" s="14"/>
+      <c r="AC94" s="40"/>
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
       <c r="AF94" s="14"/>
@@ -10870,9 +11088,13 @@
       <c r="Z95" s="3">
         <v>0</v>
       </c>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
+      <c r="AA95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="37"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
@@ -10948,9 +11170,13 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="37"/>
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
@@ -11026,9 +11252,13 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="37"/>
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
@@ -11104,9 +11334,13 @@
       <c r="Z98" s="3">
         <v>2149</v>
       </c>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
+      <c r="AA98" s="3">
+        <v>2174</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC98" s="37"/>
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
@@ -11182,9 +11416,13 @@
       <c r="Z99" s="3">
         <v>8773043</v>
       </c>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
+      <c r="AA99" s="3">
+        <v>8938050</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>9122173</v>
+      </c>
+      <c r="AC99" s="37"/>
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
@@ -11260,9 +11498,13 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="37"/>
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
@@ -11338,9 +11580,13 @@
       <c r="Z101" s="3">
         <v>-5209</v>
       </c>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
+      <c r="AA101" s="3">
+        <v>-7205</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>801</v>
+      </c>
+      <c r="AC101" s="37"/>
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
@@ -11416,9 +11662,13 @@
       <c r="Z102" s="11">
         <v>-5814509</v>
       </c>
-      <c r="AA102" s="11"/>
-      <c r="AB102" s="11"/>
-      <c r="AC102" s="11"/>
+      <c r="AA102" s="11">
+        <v>-5743004</v>
+      </c>
+      <c r="AB102" s="11">
+        <v>-5649613</v>
+      </c>
+      <c r="AC102" s="38"/>
       <c r="AD102" s="11"/>
       <c r="AE102" s="11"/>
       <c r="AF102" s="11"/>
@@ -11524,13 +11774,13 @@
       </c>
       <c r="AA103" s="13">
         <f t="shared" si="354"/>
-        <v>0</v>
+        <v>3190015</v>
       </c>
       <c r="AB103" s="13">
         <f t="shared" si="354"/>
-        <v>0</v>
-      </c>
-      <c r="AC103" s="13">
+        <v>3475561</v>
+      </c>
+      <c r="AC103" s="44">
         <f t="shared" si="354"/>
         <v>0</v>
       </c>
@@ -11658,9 +11908,13 @@
       <c r="Z104" s="11">
         <v>79664</v>
       </c>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="11"/>
-      <c r="AC104" s="11"/>
+      <c r="AA104" s="11">
+        <v>81882</v>
+      </c>
+      <c r="AB104" s="11">
+        <v>85404</v>
+      </c>
+      <c r="AC104" s="38"/>
       <c r="AD104" s="11"/>
       <c r="AE104" s="11"/>
       <c r="AF104" s="11"/>
@@ -11777,13 +12031,13 @@
       </c>
       <c r="AA105" s="15">
         <f t="shared" si="358"/>
-        <v>0</v>
+        <v>3271897</v>
       </c>
       <c r="AB105" s="15">
         <f t="shared" si="358"/>
-        <v>0</v>
-      </c>
-      <c r="AC105" s="15">
+        <v>3560965</v>
+      </c>
+      <c r="AC105" s="48">
         <f t="shared" si="358"/>
         <v>0</v>
       </c>
@@ -11943,13 +12197,13 @@
       </c>
       <c r="AA106" s="13">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>4193417</v>
       </c>
       <c r="AB106" s="13">
         <f t="shared" si="376"/>
-        <v>0</v>
-      </c>
-      <c r="AC106" s="13">
+        <v>4522425</v>
+      </c>
+      <c r="AC106" s="44">
         <f t="shared" si="376"/>
         <v>0</v>
       </c>
@@ -12052,7 +12306,7 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
       <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
+      <c r="AC107" s="44"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="13"/>
       <c r="AF107" s="13"/>
@@ -12085,6 +12339,7 @@
       <c r="Q108" s="52"/>
       <c r="U108" s="52"/>
       <c r="Y108" s="52"/>
+      <c r="AC108" s="52"/>
       <c r="AL108" s="26">
         <f>AL71/AL85</f>
         <v>1.6664237343500805</v>
@@ -12173,7 +12428,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
-      <c r="AC109" s="3"/>
+      <c r="AC109" s="37"/>
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
@@ -12216,7 +12471,7 @@
       <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
-      <c r="AC110" s="12"/>
+      <c r="AC110" s="47"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
       <c r="AF110" s="12"/>
@@ -12237,54 +12492,61 @@
         <v>-287184</v>
       </c>
       <c r="N111" s="3">
-        <f>-226330-M111</f>
-        <v>60854</v>
+        <f>-226330</f>
+        <v>-226330</v>
       </c>
       <c r="O111" s="3">
-        <f>-278320-N111-M111</f>
-        <v>-51990</v>
+        <f>-278320</f>
+        <v>-278320</v>
       </c>
       <c r="P111" s="3">
-        <f>AM111-O111-N111-M111</f>
-        <v>-18288</v>
+        <f>AM111</f>
+        <v>-296608</v>
       </c>
       <c r="Q111" s="37">
         <v>116881</v>
       </c>
       <c r="R111" s="3">
-        <f>139631-Q111</f>
-        <v>22750</v>
+        <f>139631</f>
+        <v>139631</v>
       </c>
       <c r="S111" s="3">
-        <f>240424-R111-Q111</f>
-        <v>100793</v>
+        <f>240424</f>
+        <v>240424</v>
       </c>
       <c r="T111" s="3">
-        <f>AN111-S111-R111-Q111</f>
-        <v>93427</v>
+        <f>AN111</f>
+        <v>333851</v>
       </c>
       <c r="U111" s="37">
         <v>35477</v>
       </c>
       <c r="V111" s="3">
-        <f>97908-U111</f>
-        <v>62431</v>
+        <f>97908</f>
+        <v>97908</v>
       </c>
       <c r="W111" s="3">
-        <f>144974-V111-U111</f>
-        <v>47066</v>
+        <f>144974</f>
+        <v>144974</v>
       </c>
       <c r="X111" s="3">
-        <f>AO111-W111-V111-U111</f>
-        <v>78763</v>
+        <f>AO111</f>
+        <v>223737</v>
       </c>
       <c r="Y111" s="37">
         <v>187376</v>
       </c>
       <c r="Z111" s="3">
-        <f>277568-Y111</f>
-        <v>90192</v>
-      </c>
+        <f>277568</f>
+        <v>277568</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>411011</v>
+      </c>
+      <c r="AB111" s="3">
+        <v>712183</v>
+      </c>
+      <c r="AC111" s="37"/>
       <c r="AK111" s="3">
         <v>-39012</v>
       </c>
@@ -12309,54 +12571,61 @@
         <v>-3016</v>
       </c>
       <c r="N112" s="11">
-        <f>-5945-M112</f>
-        <v>-2929</v>
+        <f>-5945</f>
+        <v>-5945</v>
       </c>
       <c r="O112" s="11">
-        <f>-7475-N112-M112</f>
-        <v>-1530</v>
+        <f>-7475</f>
+        <v>-7475</v>
       </c>
       <c r="P112" s="11">
-        <f>AM112-O112-N112-M112</f>
-        <v>-4761</v>
+        <f>AM112</f>
+        <v>-12236</v>
       </c>
       <c r="Q112" s="38">
         <v>-708</v>
       </c>
       <c r="R112" s="11">
-        <f>-1405-Q112</f>
-        <v>-697</v>
+        <f>-1405</f>
+        <v>-1405</v>
       </c>
       <c r="S112" s="11">
-        <f>-6783-R112-Q112</f>
-        <v>-5378</v>
+        <f>-6783</f>
+        <v>-6783</v>
       </c>
       <c r="T112" s="11">
-        <f>AN112-S112-R112-Q112</f>
-        <v>-5844</v>
+        <f>AN112</f>
+        <v>-12627</v>
       </c>
       <c r="U112" s="38">
         <v>-15215</v>
       </c>
       <c r="V112" s="11">
-        <f>-20673-U112</f>
-        <v>-5458</v>
+        <f>-20673</f>
+        <v>-20673</v>
       </c>
       <c r="W112" s="11">
-        <f>-35109-V112-U112</f>
-        <v>-14436</v>
+        <f>-35109</f>
+        <v>-35109</v>
       </c>
       <c r="X112" s="11">
-        <f>AO112-W112-V112-U112</f>
-        <v>-4918</v>
+        <f>AO112</f>
+        <v>-40027</v>
       </c>
       <c r="Y112" s="38">
         <v>-4755</v>
       </c>
       <c r="Z112" s="11">
-        <f>-8689-Y112</f>
-        <v>-3934</v>
-      </c>
+        <f>-8689</f>
+        <v>-8689</v>
+      </c>
+      <c r="AA112" s="11">
+        <v>-10254</v>
+      </c>
+      <c r="AB112" s="11">
+        <v>-15114</v>
+      </c>
+      <c r="AC112" s="38"/>
       <c r="AK112" s="11">
         <v>-13004</v>
       </c>
@@ -12399,15 +12668,15 @@
       </c>
       <c r="N113" s="13">
         <f t="shared" ref="N113" si="398">SUM(N111:N112)</f>
-        <v>57925</v>
+        <v>-232275</v>
       </c>
       <c r="O113" s="13">
         <f t="shared" ref="O113" si="399">SUM(O111:O112)</f>
-        <v>-53520</v>
+        <v>-285795</v>
       </c>
       <c r="P113" s="13">
         <f t="shared" ref="P113" si="400">SUM(P111:P112)</f>
-        <v>-23049</v>
+        <v>-308844</v>
       </c>
       <c r="Q113" s="44">
         <f t="shared" ref="Q113" si="401">SUM(Q111:Q112)</f>
@@ -12415,15 +12684,15 @@
       </c>
       <c r="R113" s="13">
         <f t="shared" ref="R113" si="402">SUM(R111:R112)</f>
-        <v>22053</v>
+        <v>138226</v>
       </c>
       <c r="S113" s="13">
         <f t="shared" ref="S113" si="403">SUM(S111:S112)</f>
-        <v>95415</v>
+        <v>233641</v>
       </c>
       <c r="T113" s="13">
         <f t="shared" ref="T113" si="404">SUM(T111:T112)</f>
-        <v>87583</v>
+        <v>321224</v>
       </c>
       <c r="U113" s="44">
         <f t="shared" ref="U113" si="405">SUM(U111:U112)</f>
@@ -12431,15 +12700,15 @@
       </c>
       <c r="V113" s="13">
         <f t="shared" ref="V113" si="406">SUM(V111:V112)</f>
-        <v>56973</v>
+        <v>77235</v>
       </c>
       <c r="W113" s="13">
         <f t="shared" ref="W113" si="407">SUM(W111:W112)</f>
-        <v>32630</v>
+        <v>109865</v>
       </c>
       <c r="X113" s="13">
         <f t="shared" ref="X113" si="408">SUM(X111:X112)</f>
-        <v>73845</v>
+        <v>183710</v>
       </c>
       <c r="Y113" s="44">
         <f t="shared" ref="Y113" si="409">SUM(Y111:Y112)</f>
@@ -12447,17 +12716,17 @@
       </c>
       <c r="Z113" s="13">
         <f t="shared" ref="Z113" si="410">SUM(Z111:Z112)</f>
-        <v>86258</v>
+        <v>268879</v>
       </c>
       <c r="AA113" s="13">
         <f t="shared" ref="AA113" si="411">SUM(AA111:AA112)</f>
-        <v>0</v>
+        <v>400757</v>
       </c>
       <c r="AB113" s="13">
         <f t="shared" ref="AB113" si="412">SUM(AB111:AB112)</f>
-        <v>0</v>
-      </c>
-      <c r="AC113" s="13">
+        <v>697069</v>
+      </c>
+      <c r="AC113" s="44">
         <f t="shared" ref="AC113" si="413">SUM(AC111:AC112)</f>
         <v>0</v>
       </c>
@@ -12535,6 +12804,7 @@
       <c r="Q114" s="37"/>
       <c r="U114" s="37"/>
       <c r="Y114" s="37"/>
+      <c r="AC114" s="37"/>
     </row>
     <row r="115" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
@@ -12550,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="3">
-        <f>AM115-O115-N115-M115</f>
+        <f>AM115</f>
         <v>942529</v>
       </c>
       <c r="Q115" s="37">
@@ -12563,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="T115" s="3">
-        <f>AN115-S115-R115-Q115</f>
+        <f>AN115</f>
         <v>0</v>
       </c>
       <c r="U115" s="37">
@@ -12576,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="3">
-        <f>AO115-W115-V115-U115</f>
+        <f>AO115</f>
         <v>0</v>
       </c>
       <c r="Y115" s="37">
@@ -12585,6 +12855,13 @@
       <c r="Z115" s="3">
         <v>0</v>
       </c>
+      <c r="AA115" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="37"/>
       <c r="AM115" s="3">
         <v>942529</v>
       </c>
@@ -12603,54 +12880,61 @@
         <v>54107</v>
       </c>
       <c r="N116" s="3">
-        <f>181955-M116</f>
-        <v>127848</v>
+        <f>181955</f>
+        <v>181955</v>
       </c>
       <c r="O116" s="3">
-        <f>1028914-N116-M116</f>
-        <v>846959</v>
+        <f>1028914</f>
+        <v>1028914</v>
       </c>
       <c r="P116" s="3">
-        <f>AM116-O116-N116-M116</f>
-        <v>241788</v>
+        <f>AM116</f>
+        <v>1270702</v>
       </c>
       <c r="Q116" s="37">
         <v>193731</v>
       </c>
       <c r="R116" s="3">
-        <f>426473-Q116</f>
-        <v>232742</v>
+        <f>426473</f>
+        <v>426473</v>
       </c>
       <c r="S116" s="3">
-        <f>611308-R116-Q116</f>
-        <v>184835</v>
+        <f>611308</f>
+        <v>611308</v>
       </c>
       <c r="T116" s="3">
-        <f>AN116-S116-R116-Q116</f>
-        <v>166907</v>
+        <f>AN116</f>
+        <v>778215</v>
       </c>
       <c r="U116" s="37">
         <v>149323</v>
       </c>
       <c r="V116" s="3">
-        <f>295092-U116</f>
-        <v>145769</v>
+        <f>295092</f>
+        <v>295092</v>
       </c>
       <c r="W116" s="3">
-        <f>435400-V116-U116</f>
-        <v>140308</v>
+        <f>435400</f>
+        <v>435400</v>
       </c>
       <c r="X116" s="3">
-        <f>AO116-W116-V116-U116</f>
-        <v>129398</v>
+        <f>AO116</f>
+        <v>564798</v>
       </c>
       <c r="Y116" s="37">
         <v>114714</v>
       </c>
       <c r="Z116" s="3">
-        <f>228915-Y116</f>
-        <v>114201</v>
-      </c>
+        <f>228915</f>
+        <v>228915</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>343295</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>475903</v>
+      </c>
+      <c r="AC116" s="37"/>
       <c r="AK116" s="3">
         <v>248503</v>
       </c>
@@ -12681,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="P117" s="3">
-        <f>AM117-O117-N117-M117</f>
+        <f>AM117</f>
         <v>0</v>
       </c>
       <c r="Q117" s="37">
@@ -12694,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="T117" s="3">
-        <f>AN117-S117-R117-Q117</f>
+        <f>AN117</f>
         <v>0</v>
       </c>
       <c r="U117" s="37">
@@ -12707,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="3">
-        <f>AO117-W117-V117-U117</f>
+        <f>AO117</f>
         <v>0</v>
       </c>
       <c r="Y117" s="37">
@@ -12716,6 +13000,13 @@
       <c r="Z117" s="3">
         <v>0</v>
       </c>
+      <c r="AA117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="37"/>
       <c r="AM117" s="3">
         <v>0</v>
       </c>
@@ -12740,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="3">
-        <f>AM118-O118-N118-M118</f>
+        <f>AM118</f>
         <v>0</v>
       </c>
       <c r="Q118" s="37">
@@ -12753,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="T118" s="3">
-        <f>AN118-S118-R118-Q118</f>
+        <f>AN118</f>
         <v>0</v>
       </c>
       <c r="U118" s="37">
@@ -12766,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="3">
-        <f>AO118-W118-V118-U118</f>
+        <f>AO118</f>
         <v>0</v>
       </c>
       <c r="Y118" s="37">
@@ -12775,6 +13066,13 @@
       <c r="Z118" s="3">
         <v>0</v>
       </c>
+      <c r="AA118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="37"/>
       <c r="AK118" s="3">
         <v>0</v>
       </c>
@@ -12796,405 +13094,908 @@
       <c r="Q119" s="37"/>
       <c r="U119" s="37"/>
       <c r="Y119" s="37"/>
-    </row>
-    <row r="122" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="5" t="s">
+      <c r="AC119" s="37"/>
+    </row>
+    <row r="120" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="M120" s="55"/>
+      <c r="Q120" s="55"/>
+      <c r="U120" s="55"/>
+      <c r="Y120" s="55"/>
+      <c r="AC120" s="55"/>
+    </row>
+    <row r="121" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B121" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M121" s="37">
+        <f>M111</f>
+        <v>-287184</v>
+      </c>
+      <c r="N121" s="3">
+        <f>N111-M121</f>
+        <v>60854</v>
+      </c>
+      <c r="O121" s="3">
+        <f>O111-N111-M111</f>
+        <v>235194</v>
+      </c>
+      <c r="P121" s="3">
+        <f>P111-O111-N111-M111</f>
+        <v>495226</v>
+      </c>
+      <c r="Q121" s="37">
+        <f>Q111</f>
+        <v>116881</v>
+      </c>
+      <c r="R121" s="3">
+        <f>R111-Q121</f>
+        <v>22750</v>
+      </c>
+      <c r="S121" s="3">
+        <f>S111-R111-Q111</f>
+        <v>-16088</v>
+      </c>
+      <c r="T121" s="3">
+        <f>T111-S111-R111-Q111</f>
+        <v>-163085</v>
+      </c>
+      <c r="U121" s="37">
+        <f>U111</f>
+        <v>35477</v>
+      </c>
+      <c r="V121" s="3">
+        <f>V111-U121</f>
+        <v>62431</v>
+      </c>
+      <c r="W121" s="3">
+        <f>W111-V111-U111</f>
+        <v>11589</v>
+      </c>
+      <c r="X121" s="3">
+        <f>X111-W111-V111-U111</f>
+        <v>-54622</v>
+      </c>
+      <c r="Y121" s="37">
+        <f>Y111</f>
+        <v>187376</v>
+      </c>
+      <c r="Z121" s="3">
+        <f>Z111-Y121</f>
+        <v>90192</v>
+      </c>
+      <c r="AA121" s="3">
+        <f>AA111-Z111-Y111</f>
+        <v>-53933</v>
+      </c>
+      <c r="AB121" s="3">
+        <f>AB111-AA111-Z111-Y111</f>
+        <v>-163772</v>
+      </c>
+    </row>
+    <row r="122" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M122" s="38">
+        <f>M112</f>
+        <v>-3016</v>
+      </c>
+      <c r="N122" s="11">
+        <f>N112-M112</f>
+        <v>-2929</v>
+      </c>
+      <c r="O122" s="11">
+        <f>O112-N112-M112</f>
+        <v>1486</v>
+      </c>
+      <c r="P122" s="58">
+        <f>P112-O112-N112-M112</f>
+        <v>4200</v>
+      </c>
+      <c r="Q122" s="38">
+        <f>Q112</f>
+        <v>-708</v>
+      </c>
+      <c r="R122" s="11">
+        <f>R112-Q112</f>
+        <v>-697</v>
+      </c>
+      <c r="S122" s="11">
+        <f>S112-R112-Q112</f>
+        <v>-4670</v>
+      </c>
+      <c r="T122" s="58">
+        <f>T112-S112-R112-Q112</f>
+        <v>-3731</v>
+      </c>
+      <c r="U122" s="38">
+        <f>U112</f>
+        <v>-15215</v>
+      </c>
+      <c r="V122" s="11">
+        <f>V112-U112</f>
+        <v>-5458</v>
+      </c>
+      <c r="W122" s="11">
+        <f>W112-V112-U112</f>
+        <v>779</v>
+      </c>
+      <c r="X122" s="58">
+        <f>X112-W112-V112-U112</f>
+        <v>30970</v>
+      </c>
+      <c r="Y122" s="38">
+        <f>Y112</f>
+        <v>-4755</v>
+      </c>
+      <c r="Z122" s="11">
+        <f>Z112-Y112</f>
+        <v>-3934</v>
+      </c>
+      <c r="AA122" s="11">
+        <f>AA112-Z112-Y112</f>
+        <v>3190</v>
+      </c>
+      <c r="AB122" s="11">
+        <f>AB112-AA112-Z112-Y112</f>
+        <v>8584</v>
+      </c>
+      <c r="AC122" s="56"/>
+    </row>
+    <row r="123" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M123" s="44">
+        <f>SUM(M121:M122)</f>
+        <v>-290200</v>
+      </c>
+      <c r="N123" s="13">
+        <f>SUM(N121:N122)</f>
+        <v>57925</v>
+      </c>
+      <c r="O123" s="13">
+        <f>SUM(O121:O122)</f>
+        <v>236680</v>
+      </c>
+      <c r="P123" s="13">
+        <f>SUM(P121:P122)</f>
+        <v>499426</v>
+      </c>
+      <c r="Q123" s="59">
+        <f>SUM(Q121:Q122)</f>
+        <v>116173</v>
+      </c>
+      <c r="R123" s="13">
+        <f>SUM(R121:R122)</f>
+        <v>22053</v>
+      </c>
+      <c r="S123" s="13">
+        <f>SUM(S121:S122)</f>
+        <v>-20758</v>
+      </c>
+      <c r="T123" s="13">
+        <f>SUM(T121:T122)</f>
+        <v>-166816</v>
+      </c>
+      <c r="U123" s="59">
+        <f>SUM(U121:U122)</f>
+        <v>20262</v>
+      </c>
+      <c r="V123" s="13">
+        <f>SUM(V121:V122)</f>
+        <v>56973</v>
+      </c>
+      <c r="W123" s="13">
+        <f>SUM(W121:W122)</f>
+        <v>12368</v>
+      </c>
+      <c r="X123" s="13">
+        <f>SUM(X121:X122)</f>
+        <v>-23652</v>
+      </c>
+      <c r="Y123" s="59">
+        <f>SUM(Y121:Y122)</f>
+        <v>182621</v>
+      </c>
+      <c r="Z123" s="13">
+        <f>SUM(Z121:Z122)</f>
+        <v>86258</v>
+      </c>
+      <c r="AA123" s="13">
+        <f>SUM(AA121:AA122)</f>
+        <v>-50743</v>
+      </c>
+      <c r="AB123" s="13">
+        <f>SUM(AB121:AB122)</f>
+        <v>-155188</v>
+      </c>
+      <c r="AC123" s="57"/>
+    </row>
+    <row r="125" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>513</v>
+      </c>
+      <c r="M125" s="37">
+        <f>M115</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="3">
+        <f>N115-M125</f>
+        <v>0</v>
+      </c>
+      <c r="O125" s="3">
+        <f>O115-N115-M115</f>
+        <v>0</v>
+      </c>
+      <c r="P125" s="3">
+        <f>P115-O115-N115-M115</f>
+        <v>942529</v>
+      </c>
+      <c r="Q125" s="37">
+        <f>Q115</f>
+        <v>0</v>
+      </c>
+      <c r="R125" s="3">
+        <f>R115-Q125</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="3">
+        <f>S115-R115-Q115</f>
+        <v>0</v>
+      </c>
+      <c r="T125" s="3">
+        <f>T115-S115-R115-Q115</f>
+        <v>0</v>
+      </c>
+      <c r="U125" s="37">
+        <f>U115</f>
+        <v>0</v>
+      </c>
+      <c r="V125" s="3">
+        <f>V115-U125</f>
+        <v>0</v>
+      </c>
+      <c r="W125" s="3">
+        <f>W115-V115-U115</f>
+        <v>0</v>
+      </c>
+      <c r="X125" s="3">
+        <f>X115-W115-V115-U115</f>
+        <v>0</v>
+      </c>
+      <c r="Y125" s="37">
+        <f>Y115</f>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="3">
+        <f>Z115-Y125</f>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="3">
+        <f>AA115-Z115-Y115</f>
+        <v>0</v>
+      </c>
+      <c r="AB125" s="3">
+        <f>AB115-AA115-Z115-Y115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="M126" s="37">
+        <f>M116</f>
+        <v>54107</v>
+      </c>
+      <c r="N126" s="3">
+        <f>N116-M126</f>
+        <v>127848</v>
+      </c>
+      <c r="O126" s="3">
+        <f>O116-N116-M116</f>
+        <v>792852</v>
+      </c>
+      <c r="P126" s="3">
+        <f>P116-O116-N116-M116</f>
+        <v>5726</v>
+      </c>
+      <c r="Q126" s="37">
+        <f>Q116</f>
+        <v>193731</v>
+      </c>
+      <c r="R126" s="3">
+        <f>R116-Q126</f>
+        <v>232742</v>
+      </c>
+      <c r="S126" s="3">
+        <f>S116-R116-Q116</f>
+        <v>-8896</v>
+      </c>
+      <c r="T126" s="3">
+        <f>T116-S116-R116-Q116</f>
+        <v>-453297</v>
+      </c>
+      <c r="U126" s="37">
+        <f>U116</f>
+        <v>149323</v>
+      </c>
+      <c r="V126" s="3">
+        <f>V116-U126</f>
+        <v>145769</v>
+      </c>
+      <c r="W126" s="3">
+        <f>W116-V116-U116</f>
+        <v>-9015</v>
+      </c>
+      <c r="X126" s="3">
+        <f>X116-W116-V116-U116</f>
+        <v>-315017</v>
+      </c>
+      <c r="Y126" s="37">
+        <f>Y116</f>
+        <v>114714</v>
+      </c>
+      <c r="Z126" s="3">
+        <f>Z116-Y126</f>
+        <v>114201</v>
+      </c>
+      <c r="AA126" s="3">
+        <f>AA116-Z116-Y116</f>
+        <v>-334</v>
+      </c>
+      <c r="AB126" s="3">
+        <f>AB116-AA116-Z116-Y116</f>
+        <v>-211021</v>
+      </c>
+    </row>
+    <row r="127" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>514</v>
+      </c>
+      <c r="M127" s="37">
+        <f>M117</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="3">
+        <f>N117-M127</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="3">
+        <f>O117-N117-M117</f>
+        <v>0</v>
+      </c>
+      <c r="P127" s="3">
+        <f>P117-O117-N117-M117</f>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="37">
+        <f>Q117</f>
+        <v>0</v>
+      </c>
+      <c r="R127" s="3">
+        <f>R117-Q127</f>
+        <v>0</v>
+      </c>
+      <c r="S127" s="3">
+        <f>S117-R117-Q117</f>
+        <v>0</v>
+      </c>
+      <c r="T127" s="3">
+        <f>T117-S117-R117-Q117</f>
+        <v>0</v>
+      </c>
+      <c r="U127" s="37">
+        <f>U117</f>
+        <v>0</v>
+      </c>
+      <c r="V127" s="3">
+        <f>V117-U127</f>
+        <v>0</v>
+      </c>
+      <c r="W127" s="3">
+        <f>W117-V117-U117</f>
+        <v>0</v>
+      </c>
+      <c r="X127" s="3">
+        <f>X117-W117-V117-U117</f>
+        <v>0</v>
+      </c>
+      <c r="Y127" s="37">
+        <f>Y117</f>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="3">
+        <f>Z117-Y127</f>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="3">
+        <f>AA117-Z117-Y117</f>
+        <v>0</v>
+      </c>
+      <c r="AB127" s="3">
+        <f>AB117-AA117-Z117-Y117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="M128" s="37">
+        <f>M118</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="3">
+        <f>N118-M128</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="3">
+        <f>O118-N118-M118</f>
+        <v>0</v>
+      </c>
+      <c r="P128" s="3">
+        <f>P118-O118-N118-M118</f>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="37">
+        <f>Q118</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="3">
+        <f>R118-Q128</f>
+        <v>0</v>
+      </c>
+      <c r="S128" s="3">
+        <f>S118-R118-Q118</f>
+        <v>0</v>
+      </c>
+      <c r="T128" s="3">
+        <f>T118-S118-R118-Q118</f>
+        <v>0</v>
+      </c>
+      <c r="U128" s="37">
+        <f>U118</f>
+        <v>0</v>
+      </c>
+      <c r="V128" s="3">
+        <f>V118-U128</f>
+        <v>0</v>
+      </c>
+      <c r="W128" s="3">
+        <f>W118-V118-U118</f>
+        <v>0</v>
+      </c>
+      <c r="X128" s="3">
+        <f>X118-W118-V118-U118</f>
+        <v>0</v>
+      </c>
+      <c r="Y128" s="37">
+        <f>Y118</f>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="3">
+        <f>Z118-Y128</f>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="3">
+        <f>AA118-Z118-Y118</f>
+        <v>0</v>
+      </c>
+      <c r="AB128" s="3">
+        <f>AB118-AA118-Z118-Y118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="M129" s="37"/>
+    </row>
+    <row r="130" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="M122" s="53"/>
-      <c r="Q122" s="53"/>
-      <c r="U122" s="53"/>
-      <c r="Y122" s="53"/>
-    </row>
-    <row r="123" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="3" t="s">
+      <c r="M130" s="53"/>
+      <c r="Q130" s="53"/>
+      <c r="U130" s="53"/>
+      <c r="Y130" s="53"/>
+      <c r="AC130" s="53"/>
+    </row>
+    <row r="131" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="M123" s="37"/>
-      <c r="P123" s="3">
-        <f t="shared" ref="P123:Y123" si="416">P7*P124</f>
+      <c r="M131" s="37"/>
+      <c r="P131" s="3">
+        <f>P7*P132</f>
         <v>32436334.800000001</v>
       </c>
-      <c r="Q123" s="37">
-        <f t="shared" si="416"/>
+      <c r="Q131" s="37">
+        <f>Q7*Q132</f>
         <v>50063633.419999994</v>
       </c>
-      <c r="R123" s="3">
-        <f t="shared" si="416"/>
+      <c r="R131" s="3">
+        <f>R7*R132</f>
         <v>43727506.479999997</v>
       </c>
-      <c r="S123" s="3">
-        <f t="shared" si="416"/>
+      <c r="S131" s="3">
+        <f>S7*S132</f>
         <v>47931238</v>
       </c>
-      <c r="T123" s="3">
-        <f t="shared" si="416"/>
+      <c r="T131" s="3">
+        <f>T7*T132</f>
         <v>44967091.549999997</v>
       </c>
-      <c r="U123" s="37">
-        <f t="shared" si="416"/>
+      <c r="U131" s="37">
+        <f>U7*U132</f>
         <v>27143972.309999999</v>
       </c>
-      <c r="V123" s="3">
-        <f t="shared" si="416"/>
+      <c r="V131" s="3">
+        <f>V7*V132</f>
         <v>20342510.100000001</v>
       </c>
-      <c r="W123" s="3">
-        <f t="shared" si="416"/>
+      <c r="W131" s="3">
+        <f>W7*W132</f>
         <v>18452058.5</v>
       </c>
-      <c r="X123" s="3">
-        <f t="shared" si="416"/>
+      <c r="X131" s="3">
+        <f>X7*X132</f>
         <v>15928513.460000001</v>
       </c>
-      <c r="Y123" s="37">
-        <f t="shared" si="416"/>
+      <c r="Y131" s="37">
+        <f>Y7*Y132</f>
         <v>16482839.600000001</v>
       </c>
-      <c r="Z123" s="3">
-        <f>Z7*Z124</f>
+      <c r="Z131" s="3">
+        <f>Z7*Z132</f>
         <v>24082831.200000003</v>
       </c>
-      <c r="AM123" s="3">
-        <f t="shared" ref="AM123:AN123" si="417">AM7*AM124</f>
+      <c r="AC131" s="37"/>
+      <c r="AM131" s="3">
+        <f>AM7*AM132</f>
         <v>17276343.075120002</v>
       </c>
-      <c r="AN123" s="3">
-        <f t="shared" si="417"/>
+      <c r="AN131" s="3">
+        <f>AN7*AN132</f>
         <v>44685622.910000004</v>
       </c>
-      <c r="AO123" s="3">
-        <f>AO7*AO124</f>
+      <c r="AO131" s="3">
+        <f>AO7*AO132</f>
         <v>18182016.330000002</v>
       </c>
     </row>
-    <row r="124" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
+    <row r="132" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
         <v>1</v>
       </c>
-      <c r="M124" s="37"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3">
-        <f t="shared" ref="P124:Y124" si="418">P60</f>
+      <c r="M132" s="37"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3">
+        <f>P60</f>
         <v>1822266</v>
       </c>
-      <c r="Q124" s="37">
-        <f t="shared" si="418"/>
+      <c r="Q132" s="37">
+        <f>Q60</f>
         <v>1821158</v>
       </c>
-      <c r="R124" s="3">
-        <f t="shared" si="418"/>
+      <c r="R132" s="3">
+        <f>R60</f>
         <v>1894606</v>
       </c>
-      <c r="S124" s="3">
-        <f t="shared" si="418"/>
+      <c r="S132" s="3">
+        <f>S60</f>
         <v>1964395</v>
       </c>
-      <c r="T124" s="3">
-        <f t="shared" si="418"/>
+      <c r="T132" s="3">
+        <f>T60</f>
         <v>2030117</v>
       </c>
-      <c r="U124" s="37">
-        <f t="shared" si="418"/>
+      <c r="U132" s="37">
+        <f>U60</f>
         <v>2036307</v>
       </c>
-      <c r="V124" s="3">
-        <f t="shared" si="418"/>
+      <c r="V132" s="3">
+        <f>V60</f>
         <v>2054799</v>
       </c>
-      <c r="W124" s="3">
-        <f t="shared" si="418"/>
+      <c r="W132" s="3">
+        <f>W60</f>
         <v>2073265</v>
       </c>
-      <c r="X124" s="3">
-        <f t="shared" si="418"/>
+      <c r="X132" s="3">
+        <f>X60</f>
         <v>2101387</v>
       </c>
-      <c r="Y124" s="37">
-        <f t="shared" si="418"/>
+      <c r="Y132" s="37">
+        <f>Y60</f>
         <v>2107780</v>
       </c>
-      <c r="Z124" s="3">
+      <c r="Z132" s="3">
         <f>Z60</f>
         <v>2131224</v>
       </c>
-      <c r="AK124" s="3"/>
-      <c r="AL124" s="3"/>
-      <c r="AM124" s="3">
-        <f t="shared" ref="AM124:AN124" si="419">AM60</f>
+      <c r="AK132" s="3"/>
+      <c r="AL132" s="3"/>
+      <c r="AM132" s="3">
+        <f>AM60</f>
         <v>977721.73600000003</v>
       </c>
-      <c r="AN124" s="3">
-        <f t="shared" si="419"/>
+      <c r="AN132" s="3">
+        <f>AN60</f>
         <v>1923617</v>
       </c>
-      <c r="AO124" s="3">
+      <c r="AO132" s="3">
         <f>AO60</f>
         <v>2063793</v>
       </c>
     </row>
-    <row r="125" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="30" t="s">
+    <row r="133" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="M125" s="54"/>
-      <c r="P125" s="30">
-        <f t="shared" ref="P125:Y125" si="420">P123/SUM(M37:P37)</f>
+      <c r="M133" s="54"/>
+      <c r="P133" s="30">
+        <f>P131/SUM(M37:P37)</f>
         <v>29.685308230367184</v>
       </c>
-      <c r="Q125" s="54">
-        <f t="shared" si="420"/>
+      <c r="Q133" s="54">
+        <f>Q131/SUM(N37:Q37)</f>
         <v>41.561069767055734</v>
       </c>
-      <c r="R125" s="30">
-        <f t="shared" si="420"/>
+      <c r="R133" s="30">
+        <f>R131/SUM(O37:R37)</f>
         <v>32.919084657235793</v>
       </c>
-      <c r="S125" s="30">
-        <f t="shared" si="420"/>
+      <c r="S133" s="30">
+        <f>S131/SUM(P37:S37)</f>
         <v>33.492280483791284</v>
       </c>
-      <c r="T125" s="30">
-        <f t="shared" si="420"/>
+      <c r="T133" s="30">
+        <f>T131/SUM(Q37:T37)</f>
         <v>29.163637298145325</v>
       </c>
-      <c r="U125" s="54">
-        <f t="shared" si="420"/>
+      <c r="U133" s="54">
+        <f>U131/SUM(R37:U37)</f>
         <v>16.48073742632112</v>
       </c>
-      <c r="V125" s="30">
-        <f t="shared" si="420"/>
+      <c r="V133" s="30">
+        <f>V131/SUM(S37:V37)</f>
         <v>11.661742338251987</v>
       </c>
-      <c r="W125" s="30">
-        <f t="shared" si="420"/>
+      <c r="W133" s="30">
+        <f>W131/SUM(T37:W37)</f>
         <v>10.082463988582132</v>
       </c>
-      <c r="X125" s="30">
-        <f t="shared" si="420"/>
+      <c r="X133" s="30">
+        <f>X131/SUM(U37:X37)</f>
         <v>8.3576031431298343</v>
       </c>
-      <c r="Y125" s="54">
-        <f t="shared" si="420"/>
+      <c r="Y133" s="54">
+        <f>Y131/SUM(V37:Y37)</f>
         <v>8.3049526880636879</v>
       </c>
-      <c r="Z125" s="30">
-        <f>Z123/SUM(W37:Z37)</f>
+      <c r="Z133" s="30">
+        <f>Z131/SUM(W37:Z37)</f>
         <v>11.776405264138461</v>
       </c>
-      <c r="AM125" s="30">
-        <f t="shared" ref="AM125:AN125" si="421">AM123/AM37</f>
+      <c r="AC133" s="54"/>
+      <c r="AM133" s="30">
+        <f>AM131/AM37</f>
         <v>15.811082615860373</v>
       </c>
-      <c r="AN125" s="30">
-        <f t="shared" si="421"/>
+      <c r="AN133" s="30">
+        <f>AN131/AN37</f>
         <v>28.981089371543607</v>
       </c>
-      <c r="AO125" s="30">
-        <f>AO123/AO37</f>
+      <c r="AO133" s="30">
+        <f>AO131/AO37</f>
         <v>9.5400036676144406</v>
       </c>
     </row>
-    <row r="126" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="30" t="s">
+    <row r="134" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="M126" s="54"/>
-      <c r="P126" s="30">
-        <f t="shared" ref="P126:Y126" si="422">P123/SUM(M56:P56)</f>
+      <c r="M134" s="54"/>
+      <c r="P134" s="30">
+        <f>P131/SUM(M56:P56)</f>
         <v>-27.809143589070903</v>
       </c>
-      <c r="Q126" s="54">
-        <f t="shared" si="422"/>
+      <c r="Q134" s="54">
+        <f>Q131/SUM(N56:Q56)</f>
         <v>-40.517965427070926</v>
       </c>
-      <c r="R126" s="30">
-        <f t="shared" si="422"/>
+      <c r="R134" s="30">
+        <f>R131/SUM(O56:R56)</f>
         <v>-34.60232083790978</v>
       </c>
-      <c r="S126" s="30">
-        <f t="shared" si="422"/>
+      <c r="S134" s="30">
+        <f>S131/SUM(P56:S56)</f>
         <v>-93.518162697499093</v>
       </c>
-      <c r="T126" s="30">
-        <f t="shared" si="422"/>
+      <c r="T134" s="30">
+        <f>T131/SUM(Q56:T56)</f>
         <v>-86.41219486182186</v>
       </c>
-      <c r="U126" s="54">
-        <f t="shared" si="422"/>
+      <c r="U134" s="54">
+        <f>U131/SUM(R56:U56)</f>
         <v>-54.47490248532965</v>
       </c>
-      <c r="V126" s="30">
-        <f t="shared" si="422"/>
+      <c r="V134" s="30">
+        <f>V131/SUM(S56:V56)</f>
         <v>-37.738895577821772</v>
       </c>
-      <c r="W126" s="30">
-        <f t="shared" si="422"/>
+      <c r="W134" s="30">
+        <f>W131/SUM(T56:W56)</f>
         <v>-32.904801603506598</v>
       </c>
-      <c r="X126" s="30">
-        <f t="shared" si="422"/>
+      <c r="X134" s="30">
+        <f>X131/SUM(U56:X56)</f>
         <v>-42.923123144001252</v>
       </c>
-      <c r="Y126" s="54">
-        <f t="shared" si="422"/>
+      <c r="Y134" s="54">
+        <f>Y131/SUM(V56:Y56)</f>
         <v>-65.171974552514115</v>
       </c>
-      <c r="Z126" s="30">
-        <f>Z123/SUM(W56:Z56)</f>
+      <c r="Z134" s="30">
+        <f>Z131/SUM(W56:Z56)</f>
         <v>-529.79367754141288</v>
       </c>
-      <c r="AM126" s="30">
-        <f t="shared" ref="AM126:AN126" si="423">AM123/AM56</f>
+      <c r="AC134" s="54"/>
+      <c r="AM134" s="30">
+        <f>AM131/AM56</f>
         <v>-14.811793879685288</v>
       </c>
-      <c r="AN126" s="30">
-        <f t="shared" si="423"/>
+      <c r="AN134" s="30">
+        <f>AN131/AN56</f>
         <v>-85.871303242444455</v>
       </c>
-      <c r="AO126" s="30">
-        <f>AO123/AO56</f>
+      <c r="AO134" s="30">
+        <f>AO131/AO56</f>
         <v>-48.995716260570106</v>
       </c>
     </row>
-    <row r="127" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="30" t="s">
+    <row r="135" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="M127" s="54"/>
-      <c r="P127" s="30">
-        <f t="shared" ref="P127:Y127" si="424">P123/P105</f>
+      <c r="M135" s="54"/>
+      <c r="P135" s="30">
+        <f>P131/P105</f>
         <v>21.303953761781223</v>
       </c>
-      <c r="Q127" s="54">
-        <f t="shared" si="424"/>
+      <c r="Q135" s="54">
+        <f>Q131/Q105</f>
         <v>27.721602187887434</v>
       </c>
-      <c r="R127" s="30">
-        <f t="shared" si="424"/>
+      <c r="R135" s="30">
+        <f>R131/R105</f>
         <v>21.134987179567734</v>
       </c>
-      <c r="S127" s="30">
-        <f t="shared" si="424"/>
+      <c r="S135" s="30">
+        <f>S131/S105</f>
         <v>21.321193956022448</v>
       </c>
-      <c r="T127" s="30">
-        <f t="shared" si="424"/>
+      <c r="T135" s="30">
+        <f>T131/T105</f>
         <v>19.627456449719119</v>
       </c>
-      <c r="U127" s="54">
-        <f t="shared" si="424"/>
+      <c r="U135" s="54">
+        <f>U131/U105</f>
         <v>11.478599524008075</v>
       </c>
-      <c r="V127" s="30">
-        <f t="shared" si="424"/>
+      <c r="V135" s="30">
+        <f>V131/V105</f>
         <v>8.6607213226704101</v>
       </c>
-      <c r="W127" s="30">
-        <f t="shared" si="424"/>
+      <c r="W135" s="30">
+        <f>W131/W105</f>
         <v>7.7314767987295818</v>
       </c>
-      <c r="X127" s="30">
-        <f t="shared" si="424"/>
+      <c r="X135" s="30">
+        <f>X131/X105</f>
         <v>6.027963376231865</v>
       </c>
-      <c r="Y127" s="54">
-        <f t="shared" si="424"/>
+      <c r="Y135" s="54">
+        <f>Y131/Y105</f>
         <v>5.88002310222664</v>
       </c>
-      <c r="Z127" s="30">
-        <f>Z123/Z105</f>
+      <c r="Z135" s="30">
+        <f>Z131/Z105</f>
         <v>7.9346742059174913</v>
       </c>
-      <c r="AM127" s="30">
-        <f t="shared" ref="AM127:AN127" si="425">AM123/AM105</f>
+      <c r="AC135" s="54"/>
+      <c r="AM135" s="30">
+        <f>AM131/AM105</f>
         <v>11.346979130485042</v>
       </c>
-      <c r="AN127" s="30">
-        <f t="shared" si="425"/>
+      <c r="AN135" s="30">
+        <f>AN131/AN105</f>
         <v>19.504599638590506</v>
       </c>
-      <c r="AO127" s="30">
-        <f>AO123/AO105</f>
+      <c r="AO135" s="30">
+        <f>AO131/AO105</f>
         <v>6.880775711965887</v>
       </c>
     </row>
-    <row r="128" spans="2:52" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="30" t="s">
+    <row r="136" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="M128" s="54"/>
-      <c r="P128" s="30">
-        <f t="shared" ref="P128:Y128" si="426">P123/SUM(M113:P113)</f>
-        <v>-105.02497960135214</v>
-      </c>
-      <c r="Q128" s="54">
-        <f t="shared" si="426"/>
-        <v>513.32048334341573</v>
-      </c>
-      <c r="R128" s="30">
-        <f t="shared" si="426"/>
-        <v>709.20587248811967</v>
-      </c>
-      <c r="S128" s="30">
-        <f t="shared" si="426"/>
-        <v>227.60236856100897</v>
-      </c>
-      <c r="T128" s="30">
-        <f t="shared" si="426"/>
-        <v>139.98671192065351</v>
-      </c>
-      <c r="U128" s="54">
-        <f t="shared" si="426"/>
-        <v>120.47228659686746</v>
-      </c>
-      <c r="V128" s="30">
-        <f t="shared" si="426"/>
-        <v>78.170370783105909</v>
-      </c>
-      <c r="W128" s="30">
-        <f t="shared" si="426"/>
-        <v>93.452749584700783</v>
-      </c>
-      <c r="X128" s="30">
-        <f t="shared" si="426"/>
-        <v>86.704662021664589</v>
-      </c>
-      <c r="Y128" s="54">
-        <f t="shared" si="426"/>
-        <v>47.628766517659777</v>
-      </c>
-      <c r="Z128" s="30">
-        <f>Z123/SUM(W113:Z113)</f>
-        <v>64.160315861826447</v>
-      </c>
-      <c r="AM128" s="30">
-        <f t="shared" ref="AM128:AN128" si="427">AM123/AM113</f>
+      <c r="M136" s="54"/>
+      <c r="P136" s="30">
+        <f>P131/SUM(M113:P113)</f>
+        <v>-29.035832332241831</v>
+      </c>
+      <c r="Q136" s="54">
+        <f>Q131/SUM(N113:Q113)</f>
+        <v>-70.438645610707695</v>
+      </c>
+      <c r="R136" s="30">
+        <f>R131/SUM(O113:R113)</f>
+        <v>-128.51959346343756</v>
+      </c>
+      <c r="S136" s="30">
+        <f>S131/SUM(P113:S113)</f>
+        <v>267.47939686153711</v>
+      </c>
+      <c r="T136" s="30">
+        <f>T131/SUM(Q113:T113)</f>
+        <v>55.565416909685837</v>
+      </c>
+      <c r="U136" s="54">
+        <f>U131/SUM(R113:U113)</f>
+        <v>38.051248554362282</v>
+      </c>
+      <c r="V136" s="30">
+        <f>V131/SUM(S113:V113)</f>
+        <v>31.182855684420616</v>
+      </c>
+      <c r="W136" s="30">
+        <f>W131/SUM(T113:W113)</f>
+        <v>34.908337526911417</v>
+      </c>
+      <c r="X136" s="30">
+        <f>X131/SUM(U113:X113)</f>
+        <v>40.730385862449886</v>
+      </c>
+      <c r="Y136" s="54">
+        <f>Y131/SUM(V113:Y113)</f>
+        <v>29.783007457117513</v>
+      </c>
+      <c r="Z136" s="30">
+        <f>Z131/SUM(W113:Z113)</f>
+        <v>32.322693956984203</v>
+      </c>
+      <c r="AC136" s="54"/>
+      <c r="AM136" s="30">
+        <f>AM131/AM113</f>
         <v>-55.938736304153558</v>
       </c>
-      <c r="AN128" s="30">
-        <f t="shared" si="427"/>
+      <c r="AN136" s="30">
+        <f>AN131/AN113</f>
         <v>139.11047403058302</v>
       </c>
-      <c r="AO128" s="30">
-        <f>AO123/AO113</f>
+      <c r="AO136" s="30">
+        <f>AO131/AO113</f>
         <v>98.971293506069358</v>
       </c>
     </row>
-    <row r="130" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="8" t="s">
+    <row r="138" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="M130" s="55"/>
-      <c r="Q130" s="55"/>
-      <c r="U130" s="55"/>
-      <c r="Y130" s="55"/>
+      <c r="M138" s="55"/>
+      <c r="Q138" s="55"/>
+      <c r="U138" s="55"/>
+      <c r="Y138" s="55"/>
+      <c r="AC138" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AL103:AO103 W103 W106:Z106 Y103:Z103" formulaRange="1"/>
+    <ignoredError sqref="AL103:AO103 W103 W106:Z106 Y103:Z103 AA103:AB103 AA105:AB106 AA104" formulaRange="1"/>
     <ignoredError sqref="X103 T106:V106 T103:V103 Q103:S103" formula="1" formulaRange="1"/>
     <ignoredError sqref="T52:T54 P104:V105 P103 P106:S106 P54" formula="1"/>
   </ignoredErrors>

--- a/PLTR/PLTR.xlsx
+++ b/PLTR/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PLTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1305" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A7416F-374E-438B-B3D8-27C121A7983B}"/>
+  <xr:revisionPtr revIDLastSave="1387" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4AE9DDB-D315-4EF6-8514-084003E741E3}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2580" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="560">
   <si>
     <t>Price</t>
   </si>
@@ -1746,6 +1746,21 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Short-term Debt</t>
+  </si>
+  <si>
+    <t>Cash Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash End </t>
+  </si>
+  <si>
+    <t>Cash Change</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1988,6 +2003,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,6 +2019,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2483,13 +2503,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AZ138"/>
+  <dimension ref="A1:AZ142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="Z92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AI8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
+      <selection pane="bottomRight" activeCell="AN67" sqref="AN67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2617,7 +2637,7 @@
         <v>44978</v>
       </c>
       <c r="AP2" s="21">
-        <v>45327</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.35">
@@ -2762,6 +2782,9 @@
       <c r="AO5" s="28">
         <v>14.86</v>
       </c>
+      <c r="AP5" s="28">
+        <v>8.0500000000000007</v>
+      </c>
     </row>
     <row r="6" spans="2:52" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="28" t="s">
@@ -2814,6 +2837,9 @@
       <c r="AO6" s="28">
         <v>5.92</v>
       </c>
+      <c r="AP6" s="28">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="7" spans="2:52" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
@@ -2865,6 +2891,9 @@
       </c>
       <c r="AO7" s="29">
         <v>8.81</v>
+      </c>
+      <c r="AP7" s="29">
+        <v>4.92</v>
       </c>
     </row>
     <row r="8" spans="2:52" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -5046,21 +5075,21 @@
       <c r="Y32" s="42"/>
       <c r="AC32" s="42"/>
     </row>
-    <row r="33" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="U33" s="42"/>
       <c r="Y33" s="42"/>
       <c r="AC33" s="42"/>
     </row>
-    <row r="34" spans="2:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M34" s="42"/>
       <c r="Q34" s="42"/>
       <c r="U34" s="42"/>
       <c r="Y34" s="42"/>
       <c r="AC34" s="42"/>
     </row>
-    <row r="35" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5100,7 +5129,10 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
     </row>
-    <row r="36" spans="2:52" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="B36" s="5" t="s">
         <v>29</v>
       </c>
@@ -5143,7 +5175,7 @@
       <c r="AM36" s="12"/>
       <c r="AN36" s="12"/>
     </row>
-    <row r="37" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
@@ -5231,8 +5263,11 @@
       <c r="AO37" s="13">
         <v>1905871</v>
       </c>
-    </row>
-    <row r="38" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP37" s="7">
+        <v>2225012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
@@ -5320,8 +5355,11 @@
       <c r="AO38" s="6">
         <v>408549</v>
       </c>
-    </row>
-    <row r="39" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP38" s="6">
+        <v>431105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>32</v>
       </c>
@@ -5453,7 +5491,7 @@
       </c>
       <c r="AP39" s="13">
         <f t="shared" ref="AP39" si="57">AP37-AP38</f>
-        <v>0</v>
+        <v>1793907</v>
       </c>
       <c r="AQ39" s="13">
         <f t="shared" ref="AQ39" si="58">AQ37-AQ38</f>
@@ -5496,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
         <v>33</v>
       </c>
@@ -5616,9 +5654,9 @@
         <f t="shared" ref="AO40" si="91">AO39/AO37</f>
         <v>0.78563659345254744</v>
       </c>
-      <c r="AP40" s="10" t="e">
+      <c r="AP40" s="10">
         <f t="shared" ref="AP40" si="92">AP39/AP37</f>
-        <v>#DIV/0!</v>
+        <v>0.80624598878567844</v>
       </c>
       <c r="AQ40" s="10" t="e">
         <f t="shared" ref="AQ40" si="93">AQ39/AQ37</f>
@@ -5661,7 +5699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -5704,7 +5742,7 @@
       <c r="AM41" s="14"/>
       <c r="AN41" s="14"/>
     </row>
-    <row r="42" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -5792,8 +5830,11 @@
       <c r="AO42" s="3">
         <v>702511</v>
       </c>
-    </row>
-    <row r="43" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP42" s="3">
+        <v>744992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>36</v>
       </c>
@@ -5881,8 +5922,11 @@
       <c r="AO43" s="3">
         <v>359679</v>
       </c>
-    </row>
-    <row r="44" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP43" s="3">
+        <v>404624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>37</v>
       </c>
@@ -5970,8 +6014,11 @@
       <c r="AO44" s="6">
         <v>596333</v>
       </c>
-    </row>
-    <row r="45" spans="2:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP44" s="6">
+        <v>524325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>38</v>
       </c>
@@ -6103,7 +6150,7 @@
       </c>
       <c r="AP45" s="15">
         <f t="shared" ref="AP45" si="127">SUM(AP42:AP44)</f>
-        <v>0</v>
+        <v>1673941</v>
       </c>
       <c r="AQ45" s="15">
         <f t="shared" ref="AQ45" si="128">SUM(AQ42:AQ44)</f>
@@ -6146,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
@@ -6278,7 +6325,7 @@
       </c>
       <c r="AP46" s="13">
         <f t="shared" ref="AP46" si="162">AP39-AP45</f>
-        <v>0</v>
+        <v>119966</v>
       </c>
       <c r="AQ46" s="13">
         <f t="shared" ref="AQ46" si="163">AQ39-AQ45</f>
@@ -6321,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -6451,9 +6498,9 @@
         <f t="shared" ref="AO47" si="196">AO46/AO37</f>
         <v>-8.4581275437844425E-2</v>
       </c>
-      <c r="AP47" s="17" t="e">
+      <c r="AP47" s="17">
         <f t="shared" ref="AP47" si="197">AP46/AP37</f>
-        <v>#DIV/0!</v>
+        <v>5.3917012582404049E-2</v>
       </c>
       <c r="AQ47" s="17" t="e">
         <f t="shared" ref="AQ47" si="198">AQ46/AQ37</f>
@@ -6496,7 +6543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>41</v>
       </c>
@@ -6539,7 +6586,7 @@
       <c r="AM48" s="14"/>
       <c r="AN48" s="14"/>
     </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>42</v>
       </c>
@@ -6627,8 +6674,11 @@
       <c r="AO49" s="3">
         <v>20309</v>
       </c>
-    </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP49" s="3">
+        <v>132572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -6716,8 +6766,11 @@
       <c r="AO50" s="3">
         <v>-4058</v>
       </c>
-    </row>
-    <row r="51" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP50" s="3">
+        <v>-3470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
@@ -6809,8 +6862,11 @@
       <c r="AO51" s="6">
         <v>-216077</v>
       </c>
-    </row>
-    <row r="52" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP51" s="6">
+        <v>-11977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="7" t="s">
         <v>45</v>
       </c>
@@ -6942,7 +6998,7 @@
       </c>
       <c r="AP52" s="13">
         <f t="shared" ref="AP52" si="232">AP46+SUM(AP49:AP51)</f>
-        <v>0</v>
+        <v>237091</v>
       </c>
       <c r="AQ52" s="13">
         <f t="shared" ref="AQ52" si="233">AQ46+SUM(AQ49:AQ51)</f>
@@ -6985,20 +7041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
       <c r="M53" s="38">
         <v>2557</v>
       </c>
@@ -7051,13 +7097,6 @@
         <v>9334</v>
       </c>
       <c r="AC53" s="38"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
       <c r="AK53" s="11">
         <v>9102</v>
       </c>
@@ -7070,11 +7109,14 @@
       <c r="AN53" s="11">
         <v>31885</v>
       </c>
-      <c r="AO53" s="6">
+      <c r="AO53" s="11">
         <v>10067</v>
       </c>
-    </row>
-    <row r="54" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP53" s="11">
+        <v>19716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
         <v>524</v>
       </c>
@@ -7206,7 +7248,7 @@
       </c>
       <c r="AP54" s="13">
         <f t="shared" ref="AP54" si="267">AP52-AP53</f>
-        <v>0</v>
+        <v>217375</v>
       </c>
       <c r="AQ54" s="13">
         <f t="shared" ref="AQ54" si="268">AQ52-AQ53</f>
@@ -7249,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>525</v>
       </c>
@@ -7337,7 +7379,9 @@
       <c r="AO55" s="11">
         <v>0</v>
       </c>
-      <c r="AP55" s="11"/>
+      <c r="AP55" s="11">
+        <v>0</v>
+      </c>
       <c r="AQ55" s="11"/>
       <c r="AR55" s="11"/>
       <c r="AS55" s="11"/>
@@ -7349,7 +7393,7 @@
       <c r="AY55" s="11"/>
       <c r="AZ55" s="11"/>
     </row>
-    <row r="56" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7" t="s">
         <v>526</v>
       </c>
@@ -7476,22 +7520,55 @@
         <v>-520379</v>
       </c>
       <c r="AO56" s="13">
-        <f t="shared" ref="AO56" si="285">AO54-AO55</f>
+        <f t="shared" ref="AO56:AZ56" si="285">AO54-AO55</f>
         <v>-371094</v>
       </c>
-      <c r="AP56" s="13"/>
-      <c r="AQ56" s="13"/>
-      <c r="AR56" s="13"/>
-      <c r="AS56" s="13"/>
-      <c r="AT56" s="13"/>
-      <c r="AU56" s="13"/>
-      <c r="AV56" s="13"/>
-      <c r="AW56" s="13"/>
-      <c r="AX56" s="13"/>
-      <c r="AY56" s="13"/>
-      <c r="AZ56" s="13"/>
-    </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP56" s="13">
+        <f t="shared" si="285"/>
+        <v>217375</v>
+      </c>
+      <c r="AQ56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AR56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AS56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AT56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AU56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AV56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AX56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AY56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="13">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>48</v>
       </c>
@@ -7594,11 +7671,11 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="10" t="e">
-        <f t="shared" ref="AI57:AK57" si="301">AI54/AI37</f>
+        <f>AI56/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" ref="AJ57:AZ57" si="301">AJ56/AJ37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK57" s="10">
@@ -7606,381 +7683,381 @@
         <v>-0.97416565755640239</v>
       </c>
       <c r="AL57" s="10">
-        <f t="shared" ref="AL57" si="302">AL54/AL37</f>
+        <f t="shared" si="301"/>
         <v>-0.78061019049094005</v>
       </c>
       <c r="AM57" s="10">
-        <f t="shared" ref="AM57" si="303">AM54/AM37</f>
+        <f t="shared" si="301"/>
         <v>-1.0674657468428341</v>
       </c>
       <c r="AN57" s="10">
-        <f t="shared" ref="AN57" si="304">AN54/AN37</f>
+        <f t="shared" si="301"/>
         <v>-0.33749446296069302</v>
       </c>
       <c r="AO57" s="10">
-        <f t="shared" ref="AO57" si="305">AO54/AO37</f>
+        <f t="shared" si="301"/>
         <v>-0.19471097466722564</v>
       </c>
-      <c r="AP57" s="10" t="e">
-        <f t="shared" ref="AP57" si="306">AP54/AP37</f>
-        <v>#DIV/0!</v>
+      <c r="AP57" s="10">
+        <f t="shared" si="301"/>
+        <v>9.7696102313156064E-2</v>
       </c>
       <c r="AQ57" s="10" t="e">
-        <f t="shared" ref="AQ57" si="307">AQ54/AQ37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR57" s="10" t="e">
-        <f t="shared" ref="AR57" si="308">AR54/AR37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS57" s="10" t="e">
-        <f t="shared" ref="AS57" si="309">AS54/AS37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT57" s="10" t="e">
-        <f t="shared" ref="AT57" si="310">AT54/AT37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU57" s="10" t="e">
-        <f t="shared" ref="AU57" si="311">AU54/AU37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV57" s="10" t="e">
-        <f t="shared" ref="AV57" si="312">AV54/AV37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW57" s="10" t="e">
-        <f t="shared" ref="AW57" si="313">AW54/AW37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX57" s="10" t="e">
-        <f t="shared" ref="AX57" si="314">AX54/AX37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY57" s="10" t="e">
-        <f t="shared" ref="AY57" si="315">AY54/AY37</f>
+        <f t="shared" si="301"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ57" s="10" t="e">
-        <f t="shared" ref="AZ57" si="316">AZ54/AZ37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="301"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>49</v>
       </c>
       <c r="I58" s="20" t="e">
-        <f t="shared" ref="I58:O58" si="317">I54/I60</f>
+        <f t="shared" ref="I58:O58" si="302">I54/I60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="20" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="20" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="20" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="49">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>-9.1702289431443776E-2</v>
       </c>
       <c r="N58" s="20">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>-0.17246467327660239</v>
       </c>
       <c r="O58" s="20">
-        <f t="shared" si="317"/>
+        <f t="shared" si="302"/>
         <v>-0.94241282350888278</v>
       </c>
       <c r="P58" s="20">
-        <f t="shared" ref="P58:W58" si="318">P54/P60</f>
+        <f t="shared" ref="P58:W58" si="303">P54/P60</f>
         <v>-8.140578817801572E-2</v>
       </c>
       <c r="Q58" s="49">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-6.7799718640557269E-2</v>
       </c>
       <c r="R58" s="20">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-7.3144495478215527E-2</v>
       </c>
       <c r="S58" s="20">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-5.1994125417749483E-2</v>
       </c>
       <c r="T58" s="20">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-7.6935467266172342E-2</v>
       </c>
       <c r="U58" s="49">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-4.9785715022341914E-2</v>
       </c>
       <c r="V58" s="20">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-8.7273256410967684E-2</v>
       </c>
       <c r="W58" s="20">
-        <f t="shared" si="318"/>
+        <f t="shared" si="303"/>
         <v>-5.9748753777254714E-2</v>
       </c>
       <c r="X58" s="20">
-        <f t="shared" ref="X58:AD58" si="319">X54/X60</f>
+        <f t="shared" ref="X58:AD58" si="304">X54/X60</f>
         <v>1.5936617100990917E-2</v>
       </c>
       <c r="Y58" s="49">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>9.0858628509616745E-3</v>
       </c>
       <c r="Z58" s="20">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>1.3077930804082536E-2</v>
       </c>
       <c r="AA58" s="20">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>3.3959760095813703E-2</v>
       </c>
       <c r="AB58" s="20">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>4.4308878783694688E-2</v>
       </c>
       <c r="AC58" s="49" t="e">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD58" s="20" t="e">
-        <f t="shared" si="319"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK58" s="20">
-        <f t="shared" ref="AK58:AZ58" si="320">AK54/AK60</f>
+        <f t="shared" ref="AK58:AZ58" si="305">AK54/AK60</f>
         <v>-1.0795618671828469</v>
       </c>
       <c r="AL58" s="20">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>-1.0046579428512161</v>
       </c>
       <c r="AM58" s="20">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>-1.1929682618818245</v>
       </c>
       <c r="AN58" s="20">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>-0.27052110685235159</v>
       </c>
       <c r="AO58" s="20">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>-0.17981163808579639</v>
       </c>
-      <c r="AP58" s="20" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
+      <c r="AP58" s="20">
+        <f t="shared" si="305"/>
+        <v>0.10122489692406701</v>
       </c>
       <c r="AQ58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY58" s="20" t="e">
-        <f t="shared" si="320"/>
+        <f t="shared" si="305"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ58" s="20" t="e">
-        <f t="shared" si="320"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="305"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20" t="s">
         <v>50</v>
       </c>
       <c r="I59" s="20" t="e">
-        <f t="shared" ref="I59:O59" si="321">I54/I61</f>
+        <f t="shared" ref="I59:O59" si="306">I54/I61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="20" t="e">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="20" t="e">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" s="20" t="e">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="49">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>-9.1314567023855792E-2</v>
       </c>
       <c r="N59" s="20">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>-0.17240571964618234</v>
       </c>
       <c r="O59" s="20">
-        <f t="shared" si="321"/>
+        <f t="shared" si="306"/>
         <v>-0.94241282350888278</v>
       </c>
       <c r="P59" s="20" t="e">
-        <f t="shared" ref="P59:W59" si="322">P54/P61</f>
+        <f t="shared" ref="P59:W59" si="307">P54/P61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="49">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-6.7799718640557269E-2</v>
       </c>
       <c r="R59" s="20">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-7.3144495478215527E-2</v>
       </c>
       <c r="S59" s="20">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-5.1994125417749483E-2</v>
       </c>
       <c r="T59" s="20" t="e">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="49">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-4.9785715022341914E-2</v>
       </c>
       <c r="V59" s="20">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-8.7273256410967684E-2</v>
       </c>
       <c r="W59" s="20">
-        <f t="shared" si="322"/>
+        <f t="shared" si="307"/>
         <v>-5.9748753777254714E-2</v>
       </c>
       <c r="X59" s="20" t="e">
-        <f t="shared" ref="X59:AD59" si="323">X54/X61</f>
+        <f t="shared" ref="X59:AD59" si="308">X54/X61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y59" s="49">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>8.636539719920143E-3</v>
       </c>
       <c r="Z59" s="20">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>1.2234461658666772E-2</v>
       </c>
       <c r="AA59" s="20">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>3.1578517371861028E-2</v>
       </c>
       <c r="AB59" s="20">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>4.1104158130957504E-2</v>
       </c>
       <c r="AC59" s="49" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD59" s="20" t="e">
-        <f t="shared" si="323"/>
+        <f t="shared" si="308"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK59" s="20">
-        <f t="shared" ref="AK59:AZ59" si="324">AK54/AK61</f>
+        <f t="shared" ref="AK59:AZ59" si="309">AK54/AK61</f>
         <v>-1.066197893775211</v>
       </c>
       <c r="AL59" s="20">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>-1.0046579428512161</v>
       </c>
       <c r="AM59" s="20">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>-1.1910090778413729</v>
       </c>
       <c r="AN59" s="20">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>-0.27052110685235159</v>
       </c>
       <c r="AO59" s="20">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>-0.17981163808579639</v>
       </c>
-      <c r="AP59" s="20" t="e">
-        <f t="shared" si="324"/>
-        <v>#DIV/0!</v>
+      <c r="AP59" s="20">
+        <f t="shared" si="309"/>
+        <v>9.4596129467994408E-2</v>
       </c>
       <c r="AQ59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY59" s="20" t="e">
-        <f t="shared" si="324"/>
+        <f t="shared" si="309"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ59" s="20" t="e">
-        <f t="shared" si="324"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="309"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>51</v>
       </c>
@@ -8051,8 +8128,11 @@
       <c r="AO60" s="3">
         <v>2063793</v>
       </c>
-    </row>
-    <row r="61" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP60" s="3">
+        <v>2147446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
@@ -8111,8 +8191,11 @@
       <c r="AO61" s="3">
         <v>2063793</v>
       </c>
-    </row>
-    <row r="62" spans="2:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP61" s="3">
+        <v>2297927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>512</v>
       </c>
@@ -8126,63 +8209,63 @@
         <v>7.3850804050029889E-2</v>
       </c>
       <c r="AM62" s="10">
-        <f t="shared" ref="AM62:AZ62" si="325">(AM60-AL60)/ABS(AL60)</f>
+        <f t="shared" ref="AM62:AZ62" si="310">(AM60-AL60)/ABS(AL60)</f>
         <v>0.69461345022769039</v>
       </c>
       <c r="AN62" s="10">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>0.96744833337734037</v>
       </c>
       <c r="AO62" s="10">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>7.2871054892943862E-2</v>
       </c>
       <c r="AP62" s="10">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
+        <v>4.0533619408535643E-2</v>
+      </c>
+      <c r="AQ62" s="10">
+        <f t="shared" si="310"/>
         <v>-1</v>
       </c>
-      <c r="AQ62" s="10" t="e">
-        <f t="shared" si="325"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY62" s="10" t="e">
-        <f t="shared" si="325"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ62" s="10" t="e">
-        <f t="shared" si="325"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:52" x14ac:dyDescent="0.35">
+        <f t="shared" si="310"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.35">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -8222,7 +8305,10 @@
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
     </row>
-    <row r="64" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>53</v>
       </c>
@@ -8389,6 +8475,9 @@
       <c r="AO66" s="3">
         <v>2598540</v>
       </c>
+      <c r="AP66" s="3">
+        <v>831047</v>
+      </c>
     </row>
     <row r="67" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
@@ -8471,23 +8560,15 @@
       <c r="AO67" s="3">
         <v>16244</v>
       </c>
-    </row>
-    <row r="68" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+      <c r="AP67" s="3">
+        <v>2843132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
       <c r="M68" s="37"/>
-      <c r="N68" s="3"/>
       <c r="O68" s="3">
         <v>162269</v>
       </c>
@@ -8533,14 +8614,6 @@
         <v>2843132</v>
       </c>
       <c r="AC68" s="37"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
       <c r="AL68" s="3">
         <v>50315</v>
       </c>
@@ -8553,23 +8626,15 @@
       <c r="AO68" s="3">
         <v>258346</v>
       </c>
-    </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
+      <c r="AP68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
       <c r="M69" s="37"/>
-      <c r="N69" s="3"/>
       <c r="O69" s="3">
         <v>0</v>
       </c>
@@ -8615,14 +8680,6 @@
         <v>364784</v>
       </c>
       <c r="AC69" s="37"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="3"/>
-      <c r="AK69" s="3"/>
       <c r="AL69" s="3">
         <v>0</v>
       </c>
@@ -8635,23 +8692,15 @@
       <c r="AO69" s="3">
         <v>35135</v>
       </c>
-    </row>
-    <row r="70" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="6" t="s">
+      <c r="AP69" s="3">
+        <v>364784</v>
+      </c>
+    </row>
+    <row r="70" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
       <c r="M70" s="38"/>
-      <c r="N70" s="11"/>
       <c r="O70" s="11">
         <v>388165</v>
       </c>
@@ -8697,14 +8746,6 @@
         <v>99655</v>
       </c>
       <c r="AC70" s="38"/>
-      <c r="AD70" s="11"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
-      <c r="AI70" s="11"/>
-      <c r="AJ70" s="11"/>
-      <c r="AK70" s="11"/>
       <c r="AL70" s="11">
         <v>32585</v>
       </c>
@@ -8714,8 +8755,11 @@
       <c r="AN70" s="11">
         <v>110872</v>
       </c>
-      <c r="AO70" s="6">
+      <c r="AO70" s="11">
         <v>133312</v>
+      </c>
+      <c r="AP70" s="11">
+        <v>99655</v>
       </c>
     </row>
     <row r="71" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -8733,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" ref="J71" si="326">SUM(J66:J70)</f>
+        <f t="shared" ref="J71" si="311">SUM(J66:J70)</f>
         <v>0</v>
       </c>
       <c r="K71" s="13">
@@ -8741,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" ref="L71" si="327">SUM(L66:L70)</f>
+        <f t="shared" ref="L71" si="312">SUM(L66:L70)</f>
         <v>0</v>
       </c>
       <c r="M71" s="44">
@@ -8749,71 +8793,71 @@
         <v>0</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" ref="N71:AD71" si="328">SUM(N66:N70)</f>
+        <f t="shared" ref="N71:AD71" si="313">SUM(N66:N70)</f>
         <v>0</v>
       </c>
       <c r="O71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2394424</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2257429</v>
       </c>
       <c r="Q71" s="44">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2589698</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2662552</v>
       </c>
       <c r="S71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2811490</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2863250</v>
       </c>
       <c r="U71" s="44">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2927374</v>
       </c>
       <c r="V71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2902439</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>2946610</v>
       </c>
       <c r="X71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>3041577</v>
       </c>
       <c r="Y71" s="44">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>3256147</v>
       </c>
       <c r="Z71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>3576914</v>
       </c>
       <c r="AA71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>3809397</v>
       </c>
       <c r="AB71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>4138618</v>
       </c>
       <c r="AC71" s="44">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="AD71" s="13">
-        <f t="shared" si="328"/>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="AE71" s="13"/>
@@ -8836,51 +8880,51 @@
         <v>2863250</v>
       </c>
       <c r="AO71" s="13">
-        <f t="shared" ref="AO71:AZ71" si="329">SUM(AO66:AO70)</f>
+        <f t="shared" ref="AO71:AZ71" si="314">SUM(AO66:AO70)</f>
         <v>3041577</v>
       </c>
       <c r="AP71" s="13">
-        <f t="shared" si="329"/>
-        <v>0</v>
+        <f t="shared" si="314"/>
+        <v>4138618</v>
       </c>
       <c r="AQ71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AR71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AT71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AU71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AV71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AW71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AX71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AY71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="AZ71" s="13">
-        <f t="shared" si="329"/>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
     </row>
@@ -9008,6 +9052,9 @@
       <c r="AO73" s="3">
         <v>69170</v>
       </c>
+      <c r="AP73" s="60">
+        <v>47758</v>
+      </c>
     </row>
     <row r="74" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
@@ -9090,6 +9137,9 @@
       <c r="AO74" s="3">
         <v>12551</v>
       </c>
+      <c r="AP74" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
@@ -9171,6 +9221,9 @@
       </c>
       <c r="AO75" s="3">
         <v>200240</v>
+      </c>
+      <c r="AP75" s="60">
+        <v>182863</v>
       </c>
     </row>
     <row r="76" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -9254,6 +9307,9 @@
       <c r="AO76" s="6">
         <v>137701</v>
       </c>
+      <c r="AP76" s="6">
+        <v>153186</v>
+      </c>
     </row>
     <row r="77" spans="2:52" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="24" t="s">
@@ -9270,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="25">
-        <f t="shared" ref="J77" si="330">SUM(J73:J76)</f>
+        <f t="shared" ref="J77" si="315">SUM(J73:J76)</f>
         <v>0</v>
       </c>
       <c r="K77" s="25">
@@ -9278,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="25">
-        <f t="shared" ref="L77" si="331">SUM(L73:L76)</f>
+        <f t="shared" ref="L77" si="316">SUM(L73:L76)</f>
         <v>0</v>
       </c>
       <c r="M77" s="51">
@@ -9286,71 +9342,71 @@
         <v>0</v>
       </c>
       <c r="N77" s="25">
-        <f t="shared" ref="N77:AD77" si="332">SUM(N73:N76)</f>
+        <f t="shared" ref="N77:AD77" si="317">SUM(N73:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>209288</v>
       </c>
       <c r="P77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>433075</v>
       </c>
       <c r="Q77" s="51">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>424487</v>
       </c>
       <c r="R77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>413116</v>
       </c>
       <c r="S77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>412837</v>
       </c>
       <c r="T77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>384200</v>
       </c>
       <c r="U77" s="51">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>391805</v>
       </c>
       <c r="V77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>379899</v>
       </c>
       <c r="W77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>372225</v>
       </c>
       <c r="X77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>419662</v>
       </c>
       <c r="Y77" s="51">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>426991</v>
       </c>
       <c r="Z77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>403350</v>
       </c>
       <c r="AA77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>384020</v>
       </c>
       <c r="AB77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>383807</v>
       </c>
       <c r="AC77" s="51">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AD77" s="25">
-        <f t="shared" si="332"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AE77" s="25"/>
@@ -9365,59 +9421,59 @@
         <v>379872</v>
       </c>
       <c r="AM77" s="25">
-        <f t="shared" ref="AM77:AZ77" si="333">SUM(AM73:AM76)</f>
+        <f t="shared" ref="AM77:AZ77" si="318">SUM(AM73:AM76)</f>
         <v>433075</v>
       </c>
       <c r="AN77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>384200</v>
       </c>
       <c r="AO77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>419662</v>
       </c>
       <c r="AP77" s="25">
-        <f t="shared" si="333"/>
-        <v>0</v>
+        <f t="shared" si="318"/>
+        <v>383807</v>
       </c>
       <c r="AQ77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AR77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AS77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AT77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AU77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AV77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AW77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AX77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AY77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AZ77" s="25">
-        <f t="shared" si="333"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
     </row>
@@ -9436,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" ref="J78" si="334">J77+J71</f>
+        <f t="shared" ref="J78" si="319">J77+J71</f>
         <v>0</v>
       </c>
       <c r="K78" s="13">
@@ -9444,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" ref="L78" si="335">L77+L71</f>
+        <f t="shared" ref="L78" si="320">L77+L71</f>
         <v>0</v>
       </c>
       <c r="M78" s="44">
@@ -9452,71 +9508,71 @@
         <v>0</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" ref="N78:AD78" si="336">N77+N71</f>
+        <f t="shared" ref="N78:AD78" si="321">N77+N71</f>
         <v>0</v>
       </c>
       <c r="O78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>2603712</v>
       </c>
       <c r="P78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>2690504</v>
       </c>
       <c r="Q78" s="44">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3014185</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3075668</v>
       </c>
       <c r="S78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3224327</v>
       </c>
       <c r="T78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3247450</v>
       </c>
       <c r="U78" s="44">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3319179</v>
       </c>
       <c r="V78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3282338</v>
       </c>
       <c r="W78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3318835</v>
       </c>
       <c r="X78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3461239</v>
       </c>
       <c r="Y78" s="44">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3683138</v>
       </c>
       <c r="Z78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>3980264</v>
       </c>
       <c r="AA78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>4193417</v>
       </c>
       <c r="AB78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>4522425</v>
       </c>
       <c r="AC78" s="44">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="AD78" s="13">
-        <f t="shared" si="336"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="AE78" s="13"/>
@@ -9531,59 +9587,59 @@
         <v>1594025</v>
       </c>
       <c r="AM78" s="13">
-        <f t="shared" ref="AM78:AZ78" si="337">AM77+AM71</f>
+        <f t="shared" ref="AM78:AZ78" si="322">AM77+AM71</f>
         <v>2690504</v>
       </c>
       <c r="AN78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>3247450</v>
       </c>
       <c r="AO78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>3461239</v>
       </c>
       <c r="AP78" s="13">
-        <f t="shared" si="337"/>
-        <v>0</v>
+        <f t="shared" si="322"/>
+        <v>4522425</v>
       </c>
       <c r="AQ78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AR78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AS78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AT78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AU78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AW78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AY78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AZ78" s="13">
-        <f t="shared" si="337"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
     </row>
@@ -9711,6 +9767,9 @@
       <c r="AO80" s="3">
         <v>44788</v>
       </c>
+      <c r="AP80" s="3">
+        <v>12122</v>
+      </c>
     </row>
     <row r="81" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
@@ -9793,6 +9852,9 @@
       <c r="AO81" s="3">
         <v>172715</v>
       </c>
+      <c r="AP81" s="3">
+        <v>222991</v>
+      </c>
     </row>
     <row r="82" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
@@ -9875,6 +9937,9 @@
       <c r="AO82" s="3">
         <v>183350</v>
       </c>
+      <c r="AP82" s="3">
+        <v>246901</v>
+      </c>
     </row>
     <row r="83" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
@@ -9957,6 +10022,9 @@
       <c r="AO83" s="3">
         <v>141989</v>
       </c>
+      <c r="AP83" s="3">
+        <v>209828</v>
+      </c>
     </row>
     <row r="84" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
@@ -10039,6 +10107,9 @@
       <c r="AO84" s="6">
         <v>45099</v>
       </c>
+      <c r="AP84" s="6">
+        <v>54176</v>
+      </c>
     </row>
     <row r="85" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="7" t="s">
@@ -10055,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" ref="J85" si="338">SUM(J80:J84)</f>
+        <f t="shared" ref="J85" si="323">SUM(J80:J84)</f>
         <v>0</v>
       </c>
       <c r="K85" s="13">
@@ -10063,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" ref="L85" si="339">SUM(L80:L84)</f>
+        <f t="shared" ref="L85" si="324">SUM(L80:L84)</f>
         <v>0</v>
       </c>
       <c r="M85" s="44">
@@ -10071,71 +10142,71 @@
         <v>0</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" ref="N85:AD85" si="340">SUM(N80:N84)</f>
+        <f t="shared" ref="N85:AD85" si="325">SUM(N80:N84)</f>
         <v>0</v>
       </c>
       <c r="O85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>942187</v>
       </c>
       <c r="P85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>603823</v>
       </c>
       <c r="Q85" s="44">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>667626</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>682586</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>681509</v>
       </c>
       <c r="T85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>660061</v>
       </c>
       <c r="U85" s="44">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>669104</v>
       </c>
       <c r="V85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>665742</v>
       </c>
       <c r="W85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>688350</v>
       </c>
       <c r="X85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>587941</v>
       </c>
       <c r="Y85" s="44">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>601413</v>
       </c>
       <c r="Z85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>685384</v>
       </c>
       <c r="AA85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>688925</v>
       </c>
       <c r="AB85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>746018</v>
       </c>
       <c r="AC85" s="44">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="AD85" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="325"/>
         <v>0</v>
       </c>
       <c r="AE85" s="13"/>
@@ -10158,51 +10229,51 @@
         <v>660061</v>
       </c>
       <c r="AO85" s="13">
-        <f t="shared" ref="AO85:AZ85" si="341">SUM(AO80:AO84)</f>
+        <f t="shared" ref="AO85:AZ85" si="326">SUM(AO80:AO84)</f>
         <v>587941</v>
       </c>
       <c r="AP85" s="13">
-        <f t="shared" si="341"/>
-        <v>0</v>
+        <f t="shared" si="326"/>
+        <v>746018</v>
       </c>
       <c r="AQ85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AR85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AS85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AT85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AU85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AV85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AW85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AX85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AY85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
       <c r="AZ85" s="13">
-        <f t="shared" si="341"/>
+        <f t="shared" si="326"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,6 +10401,9 @@
       <c r="AO87" s="3">
         <v>9965</v>
       </c>
+      <c r="AP87" s="3">
+        <v>28047</v>
+      </c>
     </row>
     <row r="88" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
@@ -10412,10 +10486,13 @@
       <c r="AO88" s="3">
         <v>3936</v>
       </c>
+      <c r="AP88" s="3">
+        <v>1477</v>
+      </c>
     </row>
     <row r="89" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>4</v>
+        <v>556</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -10494,6 +10571,9 @@
       <c r="AO89" s="3">
         <v>0</v>
       </c>
+      <c r="AP89" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
@@ -10576,23 +10656,15 @@
       <c r="AO90" s="3">
         <v>204305</v>
       </c>
-    </row>
-    <row r="91" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="6" t="s">
+      <c r="AP90" s="3">
+        <v>175216</v>
+      </c>
+    </row>
+    <row r="91" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
       <c r="M91" s="38"/>
-      <c r="N91" s="11"/>
       <c r="O91" s="11">
         <v>42724</v>
       </c>
@@ -10638,14 +10710,6 @@
         <v>10702</v>
       </c>
       <c r="AC91" s="38"/>
-      <c r="AD91" s="11"/>
-      <c r="AE91" s="11"/>
-      <c r="AF91" s="11"/>
-      <c r="AG91" s="11"/>
-      <c r="AH91" s="11"/>
-      <c r="AI91" s="11"/>
-      <c r="AJ91" s="11"/>
-      <c r="AK91" s="11"/>
       <c r="AL91" s="11">
         <v>78205</v>
       </c>
@@ -10655,8 +10719,11 @@
       <c r="AN91" s="11">
         <v>2297</v>
       </c>
-      <c r="AO91" s="6">
+      <c r="AO91" s="11">
         <v>12655</v>
+      </c>
+      <c r="AP91" s="11">
+        <v>10702</v>
       </c>
     </row>
     <row r="92" spans="2:52" s="24" customFormat="1" x14ac:dyDescent="0.35">
@@ -10674,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="25">
-        <f t="shared" ref="J92" si="342">SUM(J87:J91)</f>
+        <f t="shared" ref="J92" si="327">SUM(J87:J91)</f>
         <v>0</v>
       </c>
       <c r="K92" s="25">
@@ -10682,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="25">
-        <f t="shared" ref="L92" si="343">SUM(L87:L91)</f>
+        <f t="shared" ref="L92" si="328">SUM(L87:L91)</f>
         <v>0</v>
       </c>
       <c r="M92" s="51">
@@ -10690,71 +10757,71 @@
         <v>0</v>
       </c>
       <c r="N92" s="25">
-        <f t="shared" ref="N92:AD92" si="344">SUM(N87:N91)</f>
+        <f t="shared" ref="N92:AD92" si="329">SUM(N87:N91)</f>
         <v>0</v>
       </c>
       <c r="O92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>409772</v>
       </c>
       <c r="P92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>564131</v>
       </c>
       <c r="Q92" s="51">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>540616</v>
       </c>
       <c r="R92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>324119</v>
       </c>
       <c r="S92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>294762</v>
       </c>
       <c r="T92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>296359</v>
       </c>
       <c r="U92" s="51">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>285329</v>
       </c>
       <c r="V92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>267772</v>
       </c>
       <c r="W92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>243870</v>
       </c>
       <c r="X92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>230861</v>
       </c>
       <c r="Y92" s="51">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>278532</v>
       </c>
       <c r="Z92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>259742</v>
       </c>
       <c r="AA92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>232595</v>
       </c>
       <c r="AB92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>215442</v>
       </c>
       <c r="AC92" s="51">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>0</v>
       </c>
       <c r="AD92" s="25">
-        <f t="shared" si="344"/>
+        <f t="shared" si="329"/>
         <v>0</v>
       </c>
       <c r="AE92" s="25"/>
@@ -10769,59 +10836,59 @@
         <v>718838</v>
       </c>
       <c r="AM92" s="25">
-        <f t="shared" ref="AM92:AZ92" si="345">SUM(AM87:AM91)</f>
+        <f t="shared" ref="AM92:AZ92" si="330">SUM(AM87:AM91)</f>
         <v>564131</v>
       </c>
       <c r="AN92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>296359</v>
       </c>
       <c r="AO92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>230861</v>
       </c>
       <c r="AP92" s="25">
-        <f t="shared" si="345"/>
-        <v>0</v>
+        <f t="shared" si="330"/>
+        <v>215442</v>
       </c>
       <c r="AQ92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AR92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AS92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AT92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AU92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AV92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AW92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AX92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AY92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="AZ92" s="25">
-        <f t="shared" si="345"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
     </row>
@@ -10840,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" ref="J93" si="346">J92+J85</f>
+        <f t="shared" ref="J93" si="331">J92+J85</f>
         <v>0</v>
       </c>
       <c r="K93" s="13">
@@ -10848,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="13">
-        <f t="shared" ref="L93" si="347">L92+L85</f>
+        <f t="shared" ref="L93" si="332">L92+L85</f>
         <v>0</v>
       </c>
       <c r="M93" s="44">
@@ -10856,71 +10923,71 @@
         <v>0</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" ref="N93:AD93" si="348">N92+N85</f>
+        <f t="shared" ref="N93:AD93" si="333">N92+N85</f>
         <v>0</v>
       </c>
       <c r="O93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>1351959</v>
       </c>
       <c r="P93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>1167954</v>
       </c>
       <c r="Q93" s="44">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>1208242</v>
       </c>
       <c r="R93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>1006705</v>
       </c>
       <c r="S93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>976271</v>
       </c>
       <c r="T93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>956420</v>
       </c>
       <c r="U93" s="44">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>954433</v>
       </c>
       <c r="V93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>933514</v>
       </c>
       <c r="W93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>932220</v>
       </c>
       <c r="X93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>818802</v>
       </c>
       <c r="Y93" s="44">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>879945</v>
       </c>
       <c r="Z93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>945126</v>
       </c>
       <c r="AA93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>921520</v>
       </c>
       <c r="AB93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>961460</v>
       </c>
       <c r="AC93" s="44">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AD93" s="13">
-        <f t="shared" si="348"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AE93" s="13"/>
@@ -10935,59 +11002,59 @@
         <v>1447436</v>
       </c>
       <c r="AM93" s="13">
-        <f t="shared" ref="AM93:AZ93" si="349">AM92+AM85</f>
+        <f t="shared" ref="AM93:AZ93" si="334">AM92+AM85</f>
         <v>1167954</v>
       </c>
       <c r="AN93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>956420</v>
       </c>
       <c r="AO93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>818802</v>
       </c>
       <c r="AP93" s="13">
-        <f t="shared" si="349"/>
-        <v>0</v>
+        <f t="shared" si="334"/>
+        <v>961460</v>
       </c>
       <c r="AQ93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AR93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AS93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AT93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AU93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AV93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AW93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AX93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AY93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
       <c r="AZ93" s="13">
-        <f t="shared" si="349"/>
+        <f t="shared" si="334"/>
         <v>0</v>
       </c>
     </row>
@@ -11054,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="3">
-        <f t="shared" ref="P95:P102" si="350">AM95</f>
+        <f t="shared" ref="P95:P102" si="335">AM95</f>
         <v>0</v>
       </c>
       <c r="Q95" s="37">
@@ -11079,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="3">
-        <f t="shared" ref="X95:X102" si="351">AO95</f>
+        <f t="shared" ref="X95:X102" si="336">AO95</f>
         <v>0</v>
       </c>
       <c r="Y95" s="37">
@@ -11113,6 +11180,9 @@
         <v>0</v>
       </c>
       <c r="AO95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="3">
         <v>0</v>
       </c>
     </row>
@@ -11136,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>0</v>
       </c>
       <c r="Q96" s="37">
@@ -11161,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>0</v>
       </c>
       <c r="Y96" s="37">
@@ -11197,8 +11267,11 @@
       <c r="AO96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>79</v>
       </c>
@@ -11218,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>0</v>
       </c>
       <c r="Q97" s="37">
@@ -11243,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>0</v>
       </c>
       <c r="Y97" s="37">
@@ -11279,8 +11352,11 @@
       <c r="AO97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>80</v>
       </c>
@@ -11300,7 +11376,7 @@
         <v>1727</v>
       </c>
       <c r="P98" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>1792</v>
       </c>
       <c r="Q98" s="37">
@@ -11325,7 +11401,7 @@
         <v>2080</v>
       </c>
       <c r="X98" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>2099</v>
       </c>
       <c r="Y98" s="37">
@@ -11361,8 +11437,11 @@
       <c r="AO98" s="3">
         <v>2099</v>
       </c>
-    </row>
-    <row r="99" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="AP98" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>81</v>
       </c>
@@ -11382,7 +11461,7 @@
         <v>6065869</v>
       </c>
       <c r="P99" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>6488857</v>
       </c>
       <c r="Q99" s="37">
@@ -11407,7 +11486,7 @@
         <v>8284686</v>
       </c>
       <c r="X99" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>8427998</v>
       </c>
       <c r="Y99" s="37">
@@ -11443,28 +11522,20 @@
       <c r="AO99" s="3">
         <v>8427998</v>
       </c>
-    </row>
-    <row r="100" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
+      <c r="AP99" s="3">
+        <v>9122173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
       <c r="M100" s="37"/>
-      <c r="N100" s="3"/>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>0</v>
       </c>
       <c r="Q100" s="37">
@@ -11489,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>0</v>
       </c>
       <c r="Y100" s="37">
@@ -11505,14 +11576,6 @@
         <v>0</v>
       </c>
       <c r="AC100" s="37"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
-      <c r="AG100" s="3"/>
-      <c r="AH100" s="3"/>
-      <c r="AI100" s="3"/>
-      <c r="AJ100" s="3"/>
-      <c r="AK100" s="3"/>
       <c r="AL100" s="3">
         <v>-38895</v>
       </c>
@@ -11525,28 +11588,20 @@
       <c r="AO100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
+      <c r="AP100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
       <c r="M101" s="37"/>
-      <c r="N101" s="3"/>
       <c r="O101" s="3">
         <v>1168</v>
       </c>
       <c r="P101" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>-2745</v>
       </c>
       <c r="Q101" s="37">
@@ -11571,7 +11626,7 @@
         <v>-9835</v>
       </c>
       <c r="X101" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>-5333</v>
       </c>
       <c r="Y101" s="37">
@@ -11587,14 +11642,6 @@
         <v>801</v>
       </c>
       <c r="AC101" s="37"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
-      <c r="AG101" s="3"/>
-      <c r="AH101" s="3"/>
-      <c r="AI101" s="3"/>
-      <c r="AJ101" s="3"/>
-      <c r="AK101" s="3"/>
       <c r="AL101" s="3">
         <v>-703</v>
       </c>
@@ -11607,28 +11654,20 @@
       <c r="AO101" s="3">
         <v>-5333</v>
       </c>
-    </row>
-    <row r="102" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="6" t="s">
+      <c r="AP101" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
       <c r="M102" s="38"/>
-      <c r="N102" s="11"/>
       <c r="O102" s="11">
         <v>-4817011</v>
       </c>
       <c r="P102" s="11">
-        <f t="shared" si="350"/>
+        <f t="shared" si="335"/>
         <v>-4965354</v>
       </c>
       <c r="Q102" s="38">
@@ -11653,7 +11692,7 @@
         <v>-5890316</v>
       </c>
       <c r="X102" s="11">
-        <f t="shared" si="351"/>
+        <f t="shared" si="336"/>
         <v>-5859438</v>
       </c>
       <c r="Y102" s="38">
@@ -11669,14 +11708,6 @@
         <v>-5649613</v>
       </c>
       <c r="AC102" s="38"/>
-      <c r="AD102" s="11"/>
-      <c r="AE102" s="11"/>
-      <c r="AF102" s="11"/>
-      <c r="AG102" s="11"/>
-      <c r="AH102" s="11"/>
-      <c r="AI102" s="11"/>
-      <c r="AJ102" s="11"/>
-      <c r="AK102" s="11"/>
       <c r="AL102" s="11">
         <v>-3798963</v>
       </c>
@@ -11686,11 +11717,14 @@
       <c r="AN102" s="11">
         <v>-5485733</v>
       </c>
-      <c r="AO102" s="6">
+      <c r="AO102" s="11">
         <v>-5859438</v>
       </c>
-    </row>
-    <row r="103" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP102" s="11">
+        <v>-5649613</v>
+      </c>
+    </row>
+    <row r="103" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7" t="s">
         <v>85</v>
       </c>
@@ -11705,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" ref="J103" si="352">SUM(J97:J102)</f>
+        <f t="shared" ref="J103" si="337">SUM(J97:J102)</f>
         <v>0</v>
       </c>
       <c r="K103" s="13">
@@ -11713,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="13">
-        <f t="shared" ref="L103" si="353">SUM(L97:L102)</f>
+        <f t="shared" ref="L103" si="338">SUM(L97:L102)</f>
         <v>0</v>
       </c>
       <c r="M103" s="44">
@@ -11721,71 +11755,71 @@
         <v>0</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" ref="N103:AD103" si="354">SUM(N97:N102)</f>
+        <f t="shared" ref="N103:AD103" si="339">SUM(N97:N102)</f>
         <v>0</v>
       </c>
       <c r="O103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>1251753</v>
       </c>
       <c r="P103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>1522550</v>
       </c>
       <c r="Q103" s="44">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>1805943</v>
       </c>
       <c r="R103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2068963</v>
       </c>
       <c r="S103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2248056</v>
       </c>
       <c r="T103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2291030</v>
       </c>
       <c r="U103" s="44">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2364746</v>
       </c>
       <c r="V103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2348824</v>
       </c>
       <c r="W103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2386615</v>
       </c>
       <c r="X103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2565326</v>
       </c>
       <c r="Y103" s="44">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2723733</v>
       </c>
       <c r="Z103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>2955474</v>
       </c>
       <c r="AA103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>3190015</v>
       </c>
       <c r="AB103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>3475561</v>
       </c>
       <c r="AC103" s="44">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>0</v>
       </c>
       <c r="AD103" s="13">
-        <f t="shared" si="354"/>
+        <f t="shared" si="339"/>
         <v>0</v>
       </c>
       <c r="AE103" s="13"/>
@@ -11808,55 +11842,55 @@
         <v>2291030</v>
       </c>
       <c r="AO103" s="13">
-        <f t="shared" ref="AO103:AZ103" si="355">SUM(AO97:AO102)</f>
+        <f t="shared" ref="AO103:AZ103" si="340">SUM(AO97:AO102)</f>
         <v>2565326</v>
       </c>
       <c r="AP103" s="13">
-        <f t="shared" si="355"/>
-        <v>0</v>
+        <f t="shared" si="340"/>
+        <v>3475561</v>
       </c>
       <c r="AQ103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AR103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AS103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AT103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AU103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AV103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AW103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AX103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AY103" s="13">
-        <f t="shared" si="355"/>
+        <f t="shared" si="340"/>
         <v>0</v>
       </c>
       <c r="AZ103" s="13">
-        <f t="shared" si="355"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
         <v>522</v>
       </c>
@@ -11935,7 +11969,9 @@
       <c r="AO104" s="11">
         <v>77111</v>
       </c>
-      <c r="AP104" s="11"/>
+      <c r="AP104" s="11">
+        <v>85404</v>
+      </c>
       <c r="AQ104" s="11"/>
       <c r="AR104" s="11"/>
       <c r="AS104" s="11"/>
@@ -11947,7 +11983,7 @@
       <c r="AY104" s="11"/>
       <c r="AZ104" s="11"/>
     </row>
-    <row r="105" spans="2:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="9" t="s">
         <v>523</v>
       </c>
@@ -11962,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" ref="J105" si="356">SUM(J103:J104)</f>
+        <f t="shared" ref="J105" si="341">SUM(J103:J104)</f>
         <v>0</v>
       </c>
       <c r="K105" s="15">
@@ -11970,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" ref="L105" si="357">SUM(L103:L104)</f>
+        <f t="shared" ref="L105" si="342">SUM(L103:L104)</f>
         <v>0</v>
       </c>
       <c r="M105" s="48">
@@ -11978,71 +12014,71 @@
         <v>0</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" ref="N105:AD105" si="358">SUM(N103:N104)</f>
+        <f t="shared" ref="N105:AD105" si="343">SUM(N103:N104)</f>
         <v>0</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>1251753</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>1522550</v>
       </c>
       <c r="Q105" s="48">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>1805943</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2068963</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2248056</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2291030</v>
       </c>
       <c r="U105" s="48">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2364746</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2348824</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2386615</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2642437</v>
       </c>
       <c r="Y105" s="48">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>2803193</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>3035138</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>3271897</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>3560965</v>
       </c>
       <c r="AC105" s="48">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="358"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AE105" s="15"/>
@@ -12053,67 +12089,67 @@
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="359">SUM(AL103:AL104)</f>
+        <f t="shared" ref="AL105" si="344">SUM(AL103:AL104)</f>
         <v>-1980642</v>
       </c>
       <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="360">SUM(AM103:AM104)</f>
+        <f t="shared" ref="AM105" si="345">SUM(AM103:AM104)</f>
         <v>1522550</v>
       </c>
       <c r="AN105" s="15">
-        <f t="shared" ref="AN105" si="361">SUM(AN103:AN104)</f>
+        <f t="shared" ref="AN105" si="346">SUM(AN103:AN104)</f>
         <v>2291030</v>
       </c>
       <c r="AO105" s="15">
-        <f t="shared" ref="AO105" si="362">SUM(AO103:AO104)</f>
+        <f t="shared" ref="AO105" si="347">SUM(AO103:AO104)</f>
         <v>2642437</v>
       </c>
       <c r="AP105" s="15">
-        <f t="shared" ref="AP105" si="363">SUM(AP103:AP104)</f>
-        <v>0</v>
+        <f t="shared" ref="AP105" si="348">SUM(AP103:AP104)</f>
+        <v>3560965</v>
       </c>
       <c r="AQ105" s="15">
-        <f t="shared" ref="AQ105" si="364">SUM(AQ103:AQ104)</f>
+        <f t="shared" ref="AQ105" si="349">SUM(AQ103:AQ104)</f>
         <v>0</v>
       </c>
       <c r="AR105" s="15">
-        <f t="shared" ref="AR105" si="365">SUM(AR103:AR104)</f>
+        <f t="shared" ref="AR105" si="350">SUM(AR103:AR104)</f>
         <v>0</v>
       </c>
       <c r="AS105" s="15">
-        <f t="shared" ref="AS105" si="366">SUM(AS103:AS104)</f>
+        <f t="shared" ref="AS105" si="351">SUM(AS103:AS104)</f>
         <v>0</v>
       </c>
       <c r="AT105" s="15">
-        <f t="shared" ref="AT105" si="367">SUM(AT103:AT104)</f>
+        <f t="shared" ref="AT105" si="352">SUM(AT103:AT104)</f>
         <v>0</v>
       </c>
       <c r="AU105" s="15">
-        <f t="shared" ref="AU105" si="368">SUM(AU103:AU104)</f>
+        <f t="shared" ref="AU105" si="353">SUM(AU103:AU104)</f>
         <v>0</v>
       </c>
       <c r="AV105" s="15">
-        <f t="shared" ref="AV105" si="369">SUM(AV103:AV104)</f>
+        <f t="shared" ref="AV105" si="354">SUM(AV103:AV104)</f>
         <v>0</v>
       </c>
       <c r="AW105" s="15">
-        <f t="shared" ref="AW105" si="370">SUM(AW103:AW104)</f>
+        <f t="shared" ref="AW105" si="355">SUM(AW103:AW104)</f>
         <v>0</v>
       </c>
       <c r="AX105" s="15">
-        <f t="shared" ref="AX105" si="371">SUM(AX103:AX104)</f>
+        <f t="shared" ref="AX105" si="356">SUM(AX103:AX104)</f>
         <v>0</v>
       </c>
       <c r="AY105" s="15">
-        <f t="shared" ref="AY105" si="372">SUM(AY103:AY104)</f>
+        <f t="shared" ref="AY105" si="357">SUM(AY103:AY104)</f>
         <v>0</v>
       </c>
       <c r="AZ105" s="15">
-        <f t="shared" ref="AZ105" si="373">SUM(AZ103:AZ104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="AZ105" si="358">SUM(AZ103:AZ104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="7" t="s">
         <v>86</v>
       </c>
@@ -12128,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" ref="J106" si="374">J105+J93+SUM(J95:J96)</f>
+        <f t="shared" ref="J106" si="359">J105+J93+SUM(J95:J96)</f>
         <v>0</v>
       </c>
       <c r="K106" s="13">
@@ -12136,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="13">
-        <f t="shared" ref="L106" si="375">L105+L93+SUM(L95:L96)</f>
+        <f t="shared" ref="L106" si="360">L105+L93+SUM(L95:L96)</f>
         <v>0</v>
       </c>
       <c r="M106" s="44">
@@ -12144,71 +12180,71 @@
         <v>0</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" ref="N106:AD106" si="376">N105+N93+SUM(N95:N96)</f>
+        <f t="shared" ref="N106:AD106" si="361">N105+N93+SUM(N95:N96)</f>
         <v>0</v>
       </c>
       <c r="O106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>2603712</v>
       </c>
       <c r="P106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>2690504</v>
       </c>
       <c r="Q106" s="44">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3014185</v>
       </c>
       <c r="R106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3075668</v>
       </c>
       <c r="S106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3224327</v>
       </c>
       <c r="T106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3247450</v>
       </c>
       <c r="U106" s="44">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3319179</v>
       </c>
       <c r="V106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3282338</v>
       </c>
       <c r="W106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3318835</v>
       </c>
       <c r="X106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3461239</v>
       </c>
       <c r="Y106" s="44">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3683138</v>
       </c>
       <c r="Z106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>3980264</v>
       </c>
       <c r="AA106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>4193417</v>
       </c>
       <c r="AB106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>4522425</v>
       </c>
       <c r="AC106" s="44">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>0</v>
       </c>
       <c r="AD106" s="13">
-        <f t="shared" si="376"/>
+        <f t="shared" si="361"/>
         <v>0</v>
       </c>
       <c r="AE106" s="13"/>
@@ -12219,67 +12255,67 @@
       <c r="AJ106" s="13"/>
       <c r="AK106" s="13"/>
       <c r="AL106" s="13">
-        <f t="shared" ref="AL106" si="377">AL105+AL93+SUM(AL95:AL96)</f>
+        <f t="shared" ref="AL106" si="362">AL105+AL93+SUM(AL95:AL96)</f>
         <v>1594025</v>
       </c>
       <c r="AM106" s="13">
-        <f t="shared" ref="AM106" si="378">AM105+AM93+SUM(AM95:AM96)</f>
+        <f t="shared" ref="AM106" si="363">AM105+AM93+SUM(AM95:AM96)</f>
         <v>2690504</v>
       </c>
       <c r="AN106" s="13">
-        <f t="shared" ref="AN106" si="379">AN105+AN93+SUM(AN95:AN96)</f>
+        <f t="shared" ref="AN106" si="364">AN105+AN93+SUM(AN95:AN96)</f>
         <v>3247450</v>
       </c>
       <c r="AO106" s="13">
-        <f t="shared" ref="AO106" si="380">AO105+AO93+SUM(AO95:AO96)</f>
+        <f t="shared" ref="AO106" si="365">AO105+AO93+SUM(AO95:AO96)</f>
         <v>3461239</v>
       </c>
       <c r="AP106" s="13">
-        <f t="shared" ref="AP106" si="381">AP105+AP93+SUM(AP95:AP96)</f>
-        <v>0</v>
+        <f t="shared" ref="AP106" si="366">AP105+AP93+SUM(AP95:AP96)</f>
+        <v>4522425</v>
       </c>
       <c r="AQ106" s="13">
-        <f t="shared" ref="AQ106" si="382">AQ105+AQ93+SUM(AQ95:AQ96)</f>
+        <f t="shared" ref="AQ106" si="367">AQ105+AQ93+SUM(AQ95:AQ96)</f>
         <v>0</v>
       </c>
       <c r="AR106" s="13">
-        <f t="shared" ref="AR106" si="383">AR105+AR93+SUM(AR95:AR96)</f>
+        <f t="shared" ref="AR106" si="368">AR105+AR93+SUM(AR95:AR96)</f>
         <v>0</v>
       </c>
       <c r="AS106" s="13">
-        <f t="shared" ref="AS106" si="384">AS105+AS93+SUM(AS95:AS96)</f>
+        <f t="shared" ref="AS106" si="369">AS105+AS93+SUM(AS95:AS96)</f>
         <v>0</v>
       </c>
       <c r="AT106" s="13">
-        <f t="shared" ref="AT106" si="385">AT105+AT93+SUM(AT95:AT96)</f>
+        <f t="shared" ref="AT106" si="370">AT105+AT93+SUM(AT95:AT96)</f>
         <v>0</v>
       </c>
       <c r="AU106" s="13">
-        <f t="shared" ref="AU106" si="386">AU105+AU93+SUM(AU95:AU96)</f>
+        <f t="shared" ref="AU106" si="371">AU105+AU93+SUM(AU95:AU96)</f>
         <v>0</v>
       </c>
       <c r="AV106" s="13">
-        <f t="shared" ref="AV106" si="387">AV105+AV93+SUM(AV95:AV96)</f>
+        <f t="shared" ref="AV106" si="372">AV105+AV93+SUM(AV95:AV96)</f>
         <v>0</v>
       </c>
       <c r="AW106" s="13">
-        <f t="shared" ref="AW106" si="388">AW105+AW93+SUM(AW95:AW96)</f>
+        <f t="shared" ref="AW106" si="373">AW105+AW93+SUM(AW95:AW96)</f>
         <v>0</v>
       </c>
       <c r="AX106" s="13">
-        <f t="shared" ref="AX106" si="389">AX105+AX93+SUM(AX95:AX96)</f>
+        <f t="shared" ref="AX106" si="374">AX105+AX93+SUM(AX95:AX96)</f>
         <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <f t="shared" ref="AY106" si="390">AY105+AY93+SUM(AY95:AY96)</f>
+        <f t="shared" ref="AY106" si="375">AY105+AY93+SUM(AY95:AY96)</f>
         <v>0</v>
       </c>
       <c r="AZ106" s="13">
-        <f t="shared" ref="AZ106" si="391">AZ105+AZ93+SUM(AZ95:AZ96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="AZ106" si="376">AZ105+AZ93+SUM(AZ95:AZ96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -12331,7 +12367,7 @@
       <c r="AY107" s="13"/>
       <c r="AZ107" s="13"/>
     </row>
-    <row r="108" spans="2:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="26" t="s">
         <v>511</v>
       </c>
@@ -12345,63 +12381,63 @@
         <v>1.6664237343500805</v>
       </c>
       <c r="AM108" s="26">
-        <f t="shared" ref="AM108:AZ108" si="392">AM71/AM85</f>
+        <f t="shared" ref="AM108:AZ108" si="377">AM71/AM85</f>
         <v>3.7385608034142455</v>
       </c>
       <c r="AN108" s="26">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>4.33785665264271</v>
       </c>
       <c r="AO108" s="26">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>5.1732690865239883</v>
       </c>
-      <c r="AP108" s="26" t="e">
-        <f t="shared" si="392"/>
-        <v>#DIV/0!</v>
+      <c r="AP108" s="26">
+        <f t="shared" si="377"/>
+        <v>5.5476114517344088</v>
       </c>
       <c r="AQ108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY108" s="26" t="e">
-        <f t="shared" si="392"/>
+        <f t="shared" si="377"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ108" s="26" t="e">
-        <f t="shared" si="392"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="2:52" x14ac:dyDescent="0.35">
+        <f t="shared" si="377"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:52" x14ac:dyDescent="0.35">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -12441,7 +12477,10 @@
       <c r="AM109" s="3"/>
       <c r="AN109" s="3"/>
     </row>
-    <row r="110" spans="2:52" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>87</v>
       </c>
@@ -12484,7 +12523,7 @@
       <c r="AM110" s="12"/>
       <c r="AN110" s="12"/>
     </row>
-    <row r="111" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3" t="s">
         <v>88</v>
       </c>
@@ -12562,8 +12601,11 @@
       <c r="AO111" s="3">
         <v>223737</v>
       </c>
-    </row>
-    <row r="112" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP111" s="3">
+        <v>712183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11" t="s">
         <v>89</v>
       </c>
@@ -12641,97 +12683,100 @@
       <c r="AO112" s="11">
         <v>-40027</v>
       </c>
+      <c r="AP112" s="11">
+        <v>-15114</v>
+      </c>
     </row>
     <row r="113" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="13" t="s">
         <v>90</v>
       </c>
       <c r="I113" s="13">
-        <f t="shared" ref="I113" si="393">SUM(I111:I112)</f>
+        <f t="shared" ref="I113" si="378">SUM(I111:I112)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" ref="J113" si="394">SUM(J111:J112)</f>
+        <f t="shared" ref="J113" si="379">SUM(J111:J112)</f>
         <v>0</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" ref="K113" si="395">SUM(K111:K112)</f>
+        <f t="shared" ref="K113" si="380">SUM(K111:K112)</f>
         <v>0</v>
       </c>
       <c r="L113" s="13">
-        <f t="shared" ref="L113" si="396">SUM(L111:L112)</f>
+        <f t="shared" ref="L113" si="381">SUM(L111:L112)</f>
         <v>0</v>
       </c>
       <c r="M113" s="44">
-        <f t="shared" ref="M113" si="397">SUM(M111:M112)</f>
+        <f t="shared" ref="M113" si="382">SUM(M111:M112)</f>
         <v>-290200</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" ref="N113" si="398">SUM(N111:N112)</f>
+        <f t="shared" ref="N113" si="383">SUM(N111:N112)</f>
         <v>-232275</v>
       </c>
       <c r="O113" s="13">
-        <f t="shared" ref="O113" si="399">SUM(O111:O112)</f>
+        <f t="shared" ref="O113" si="384">SUM(O111:O112)</f>
         <v>-285795</v>
       </c>
       <c r="P113" s="13">
-        <f t="shared" ref="P113" si="400">SUM(P111:P112)</f>
+        <f t="shared" ref="P113" si="385">SUM(P111:P112)</f>
         <v>-308844</v>
       </c>
       <c r="Q113" s="44">
-        <f t="shared" ref="Q113" si="401">SUM(Q111:Q112)</f>
+        <f t="shared" ref="Q113" si="386">SUM(Q111:Q112)</f>
         <v>116173</v>
       </c>
       <c r="R113" s="13">
-        <f t="shared" ref="R113" si="402">SUM(R111:R112)</f>
+        <f t="shared" ref="R113" si="387">SUM(R111:R112)</f>
         <v>138226</v>
       </c>
       <c r="S113" s="13">
-        <f t="shared" ref="S113" si="403">SUM(S111:S112)</f>
+        <f t="shared" ref="S113" si="388">SUM(S111:S112)</f>
         <v>233641</v>
       </c>
       <c r="T113" s="13">
-        <f t="shared" ref="T113" si="404">SUM(T111:T112)</f>
+        <f t="shared" ref="T113" si="389">SUM(T111:T112)</f>
         <v>321224</v>
       </c>
       <c r="U113" s="44">
-        <f t="shared" ref="U113" si="405">SUM(U111:U112)</f>
+        <f t="shared" ref="U113" si="390">SUM(U111:U112)</f>
         <v>20262</v>
       </c>
       <c r="V113" s="13">
-        <f t="shared" ref="V113" si="406">SUM(V111:V112)</f>
+        <f t="shared" ref="V113" si="391">SUM(V111:V112)</f>
         <v>77235</v>
       </c>
       <c r="W113" s="13">
-        <f t="shared" ref="W113" si="407">SUM(W111:W112)</f>
+        <f t="shared" ref="W113" si="392">SUM(W111:W112)</f>
         <v>109865</v>
       </c>
       <c r="X113" s="13">
-        <f t="shared" ref="X113" si="408">SUM(X111:X112)</f>
+        <f t="shared" ref="X113" si="393">SUM(X111:X112)</f>
         <v>183710</v>
       </c>
       <c r="Y113" s="44">
-        <f t="shared" ref="Y113" si="409">SUM(Y111:Y112)</f>
+        <f t="shared" ref="Y113" si="394">SUM(Y111:Y112)</f>
         <v>182621</v>
       </c>
       <c r="Z113" s="13">
-        <f t="shared" ref="Z113" si="410">SUM(Z111:Z112)</f>
+        <f t="shared" ref="Z113" si="395">SUM(Z111:Z112)</f>
         <v>268879</v>
       </c>
       <c r="AA113" s="13">
-        <f t="shared" ref="AA113" si="411">SUM(AA111:AA112)</f>
+        <f t="shared" ref="AA113" si="396">SUM(AA111:AA112)</f>
         <v>400757</v>
       </c>
       <c r="AB113" s="13">
-        <f t="shared" ref="AB113" si="412">SUM(AB111:AB112)</f>
+        <f t="shared" ref="AB113" si="397">SUM(AB111:AB112)</f>
         <v>697069</v>
       </c>
       <c r="AC113" s="44">
-        <f t="shared" ref="AC113" si="413">SUM(AC111:AC112)</f>
+        <f t="shared" ref="AC113" si="398">SUM(AC111:AC112)</f>
         <v>0</v>
       </c>
       <c r="AD113" s="13">
-        <f t="shared" ref="AD113" si="414">SUM(AD111:AD112)</f>
+        <f t="shared" ref="AD113" si="399">SUM(AD111:AD112)</f>
         <v>0</v>
       </c>
       <c r="AK113" s="13">
@@ -12751,51 +12796,51 @@
         <v>321224</v>
       </c>
       <c r="AO113" s="13">
-        <f t="shared" ref="AO113:AZ113" si="415">SUM(AO111:AO112)</f>
+        <f t="shared" ref="AO113:AZ113" si="400">SUM(AO111:AO112)</f>
         <v>183710</v>
       </c>
       <c r="AP113" s="13">
-        <f t="shared" si="415"/>
-        <v>0</v>
+        <f t="shared" si="400"/>
+        <v>697069</v>
       </c>
       <c r="AQ113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AR113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AS113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AT113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AU113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AV113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AW113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AX113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AY113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
       <c r="AZ113" s="13">
-        <f t="shared" si="415"/>
+        <f t="shared" si="400"/>
         <v>0</v>
       </c>
     </row>
@@ -12871,6 +12916,9 @@
       <c r="AO115" s="3">
         <v>0</v>
       </c>
+      <c r="AP115" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3" t="s">
@@ -12950,6 +12998,9 @@
       <c r="AO116" s="3">
         <v>564798</v>
       </c>
+      <c r="AP116" s="3">
+        <v>475903</v>
+      </c>
     </row>
     <row r="117" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3" t="s">
@@ -13016,6 +13067,9 @@
       <c r="AO117" s="3">
         <v>0</v>
       </c>
+      <c r="AP117" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3" t="s">
@@ -13086,6 +13140,9 @@
         <v>0</v>
       </c>
       <c r="AO118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP118" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13096,901 +13153,1128 @@
       <c r="Y119" s="37"/>
       <c r="AC119" s="37"/>
     </row>
-    <row r="120" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="8" t="s">
+    <row r="120" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="M120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="U120" s="37"/>
+      <c r="Y120" s="37"/>
+      <c r="AC120" s="37"/>
+      <c r="AN120" s="3">
+        <v>2128146</v>
+      </c>
+      <c r="AO120" s="3">
+        <v>2366914</v>
+      </c>
+      <c r="AP120" s="3">
+        <v>2627335</v>
+      </c>
+    </row>
+    <row r="121" spans="2:52" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="M121" s="38"/>
+      <c r="Q121" s="38"/>
+      <c r="U121" s="38"/>
+      <c r="Y121" s="38"/>
+      <c r="AC121" s="38"/>
+      <c r="AN121" s="11">
+        <v>2366914</v>
+      </c>
+      <c r="AO121" s="11">
+        <v>2627335</v>
+      </c>
+      <c r="AP121" s="11">
+        <v>850107</v>
+      </c>
+    </row>
+    <row r="122" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="M122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="Y122" s="37"/>
+      <c r="AC122" s="37"/>
+      <c r="AN122" s="3">
+        <f>AN121-AN120</f>
+        <v>238768</v>
+      </c>
+      <c r="AO122" s="3">
+        <f t="shared" ref="AO122:AZ122" si="401">AO121-AO120</f>
+        <v>260421</v>
+      </c>
+      <c r="AP122" s="3">
+        <f t="shared" si="401"/>
+        <v>-1777228</v>
+      </c>
+      <c r="AQ122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AR122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AS122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AT122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AU122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AV122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AW122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AX122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AY122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+      <c r="AZ122" s="3">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="Y123" s="37"/>
+      <c r="AC123" s="37"/>
+    </row>
+    <row r="124" spans="2:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="M120" s="55"/>
-      <c r="Q120" s="55"/>
-      <c r="U120" s="55"/>
-      <c r="Y120" s="55"/>
-      <c r="AC120" s="55"/>
-    </row>
-    <row r="121" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B121" s="3" t="s">
+      <c r="M124" s="55"/>
+      <c r="Q124" s="55"/>
+      <c r="U124" s="55"/>
+      <c r="Y124" s="55"/>
+      <c r="AC124" s="55"/>
+    </row>
+    <row r="125" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B125" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M121" s="37">
+      <c r="M125" s="37">
         <f>M111</f>
         <v>-287184</v>
       </c>
-      <c r="N121" s="3">
-        <f>N111-M121</f>
+      <c r="N125" s="3">
+        <f>N111-M125</f>
         <v>60854</v>
       </c>
-      <c r="O121" s="3">
+      <c r="O125" s="3">
         <f>O111-N111-M111</f>
         <v>235194</v>
       </c>
-      <c r="P121" s="3">
+      <c r="P125" s="3">
         <f>P111-O111-N111-M111</f>
         <v>495226</v>
       </c>
-      <c r="Q121" s="37">
+      <c r="Q125" s="37">
         <f>Q111</f>
         <v>116881</v>
       </c>
-      <c r="R121" s="3">
-        <f>R111-Q121</f>
+      <c r="R125" s="3">
+        <f>R111-Q125</f>
         <v>22750</v>
       </c>
-      <c r="S121" s="3">
+      <c r="S125" s="3">
         <f>S111-R111-Q111</f>
         <v>-16088</v>
       </c>
-      <c r="T121" s="3">
+      <c r="T125" s="3">
         <f>T111-S111-R111-Q111</f>
         <v>-163085</v>
       </c>
-      <c r="U121" s="37">
+      <c r="U125" s="37">
         <f>U111</f>
         <v>35477</v>
       </c>
-      <c r="V121" s="3">
-        <f>V111-U121</f>
+      <c r="V125" s="3">
+        <f>V111-U125</f>
         <v>62431</v>
       </c>
-      <c r="W121" s="3">
+      <c r="W125" s="3">
         <f>W111-V111-U111</f>
         <v>11589</v>
       </c>
-      <c r="X121" s="3">
+      <c r="X125" s="3">
         <f>X111-W111-V111-U111</f>
         <v>-54622</v>
       </c>
-      <c r="Y121" s="37">
+      <c r="Y125" s="37">
         <f>Y111</f>
         <v>187376</v>
       </c>
-      <c r="Z121" s="3">
-        <f>Z111-Y121</f>
+      <c r="Z125" s="3">
+        <f>Z111-Y125</f>
         <v>90192</v>
       </c>
-      <c r="AA121" s="3">
+      <c r="AA125" s="3">
         <f>AA111-Z111-Y111</f>
         <v>-53933</v>
       </c>
-      <c r="AB121" s="3">
+      <c r="AB125" s="3">
         <f>AB111-AA111-Z111-Y111</f>
         <v>-163772</v>
       </c>
     </row>
-    <row r="122" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="11" t="s">
+    <row r="126" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="M122" s="38">
+      <c r="M126" s="38">
         <f>M112</f>
         <v>-3016</v>
       </c>
-      <c r="N122" s="11">
+      <c r="N126" s="11">
         <f>N112-M112</f>
         <v>-2929</v>
       </c>
-      <c r="O122" s="11">
+      <c r="O126" s="11">
         <f>O112-N112-M112</f>
         <v>1486</v>
       </c>
-      <c r="P122" s="58">
+      <c r="P126" s="58">
         <f>P112-O112-N112-M112</f>
         <v>4200</v>
       </c>
-      <c r="Q122" s="38">
+      <c r="Q126" s="38">
         <f>Q112</f>
         <v>-708</v>
       </c>
-      <c r="R122" s="11">
+      <c r="R126" s="11">
         <f>R112-Q112</f>
         <v>-697</v>
       </c>
-      <c r="S122" s="11">
+      <c r="S126" s="11">
         <f>S112-R112-Q112</f>
         <v>-4670</v>
       </c>
-      <c r="T122" s="58">
+      <c r="T126" s="58">
         <f>T112-S112-R112-Q112</f>
         <v>-3731</v>
       </c>
-      <c r="U122" s="38">
+      <c r="U126" s="38">
         <f>U112</f>
         <v>-15215</v>
       </c>
-      <c r="V122" s="11">
+      <c r="V126" s="11">
         <f>V112-U112</f>
         <v>-5458</v>
       </c>
-      <c r="W122" s="11">
+      <c r="W126" s="11">
         <f>W112-V112-U112</f>
         <v>779</v>
       </c>
-      <c r="X122" s="58">
+      <c r="X126" s="58">
         <f>X112-W112-V112-U112</f>
         <v>30970</v>
       </c>
-      <c r="Y122" s="38">
+      <c r="Y126" s="38">
         <f>Y112</f>
         <v>-4755</v>
       </c>
-      <c r="Z122" s="11">
+      <c r="Z126" s="11">
         <f>Z112-Y112</f>
         <v>-3934</v>
       </c>
-      <c r="AA122" s="11">
+      <c r="AA126" s="11">
         <f>AA112-Z112-Y112</f>
         <v>3190</v>
       </c>
-      <c r="AB122" s="11">
+      <c r="AB126" s="11">
         <f>AB112-AA112-Z112-Y112</f>
         <v>8584</v>
       </c>
-      <c r="AC122" s="56"/>
-    </row>
-    <row r="123" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="13" t="s">
+      <c r="AC126" s="56"/>
+    </row>
+    <row r="127" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="M123" s="44">
-        <f>SUM(M121:M122)</f>
+      <c r="M127" s="44">
+        <f t="shared" ref="M127:AB127" si="402">SUM(M125:M126)</f>
         <v>-290200</v>
       </c>
-      <c r="N123" s="13">
-        <f>SUM(N121:N122)</f>
+      <c r="N127" s="13">
+        <f t="shared" si="402"/>
         <v>57925</v>
       </c>
-      <c r="O123" s="13">
-        <f>SUM(O121:O122)</f>
+      <c r="O127" s="13">
+        <f t="shared" si="402"/>
         <v>236680</v>
       </c>
-      <c r="P123" s="13">
-        <f>SUM(P121:P122)</f>
+      <c r="P127" s="13">
+        <f t="shared" si="402"/>
         <v>499426</v>
       </c>
-      <c r="Q123" s="59">
-        <f>SUM(Q121:Q122)</f>
+      <c r="Q127" s="59">
+        <f t="shared" si="402"/>
         <v>116173</v>
       </c>
-      <c r="R123" s="13">
-        <f>SUM(R121:R122)</f>
+      <c r="R127" s="13">
+        <f t="shared" si="402"/>
         <v>22053</v>
       </c>
-      <c r="S123" s="13">
-        <f>SUM(S121:S122)</f>
+      <c r="S127" s="13">
+        <f t="shared" si="402"/>
         <v>-20758</v>
       </c>
-      <c r="T123" s="13">
-        <f>SUM(T121:T122)</f>
+      <c r="T127" s="13">
+        <f t="shared" si="402"/>
         <v>-166816</v>
       </c>
-      <c r="U123" s="59">
-        <f>SUM(U121:U122)</f>
+      <c r="U127" s="59">
+        <f t="shared" si="402"/>
         <v>20262</v>
       </c>
-      <c r="V123" s="13">
-        <f>SUM(V121:V122)</f>
+      <c r="V127" s="13">
+        <f t="shared" si="402"/>
         <v>56973</v>
       </c>
-      <c r="W123" s="13">
-        <f>SUM(W121:W122)</f>
+      <c r="W127" s="13">
+        <f t="shared" si="402"/>
         <v>12368</v>
       </c>
-      <c r="X123" s="13">
-        <f>SUM(X121:X122)</f>
+      <c r="X127" s="13">
+        <f t="shared" si="402"/>
         <v>-23652</v>
       </c>
-      <c r="Y123" s="59">
-        <f>SUM(Y121:Y122)</f>
+      <c r="Y127" s="59">
+        <f t="shared" si="402"/>
         <v>182621</v>
       </c>
-      <c r="Z123" s="13">
-        <f>SUM(Z121:Z122)</f>
+      <c r="Z127" s="13">
+        <f t="shared" si="402"/>
         <v>86258</v>
       </c>
-      <c r="AA123" s="13">
-        <f>SUM(AA121:AA122)</f>
+      <c r="AA127" s="13">
+        <f t="shared" si="402"/>
         <v>-50743</v>
       </c>
-      <c r="AB123" s="13">
-        <f>SUM(AB121:AB122)</f>
+      <c r="AB127" s="13">
+        <f t="shared" si="402"/>
         <v>-155188</v>
       </c>
-      <c r="AC123" s="57"/>
-    </row>
-    <row r="125" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B125" t="s">
+      <c r="AC127" s="57"/>
+    </row>
+    <row r="129" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
         <v>513</v>
       </c>
-      <c r="M125" s="37">
+      <c r="M129" s="37">
         <f>M115</f>
         <v>0</v>
       </c>
-      <c r="N125" s="3">
-        <f>N115-M125</f>
-        <v>0</v>
-      </c>
-      <c r="O125" s="3">
+      <c r="N129" s="3">
+        <f>N115-M129</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="3">
         <f>O115-N115-M115</f>
         <v>0</v>
       </c>
-      <c r="P125" s="3">
+      <c r="P129" s="3">
         <f>P115-O115-N115-M115</f>
         <v>942529</v>
       </c>
-      <c r="Q125" s="37">
+      <c r="Q129" s="37">
         <f>Q115</f>
         <v>0</v>
       </c>
-      <c r="R125" s="3">
-        <f>R115-Q125</f>
-        <v>0</v>
-      </c>
-      <c r="S125" s="3">
+      <c r="R129" s="3">
+        <f>R115-Q129</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="3">
         <f>S115-R115-Q115</f>
         <v>0</v>
       </c>
-      <c r="T125" s="3">
+      <c r="T129" s="3">
         <f>T115-S115-R115-Q115</f>
         <v>0</v>
       </c>
-      <c r="U125" s="37">
+      <c r="U129" s="37">
         <f>U115</f>
         <v>0</v>
       </c>
-      <c r="V125" s="3">
-        <f>V115-U125</f>
-        <v>0</v>
-      </c>
-      <c r="W125" s="3">
+      <c r="V129" s="3">
+        <f>V115-U129</f>
+        <v>0</v>
+      </c>
+      <c r="W129" s="3">
         <f>W115-V115-U115</f>
         <v>0</v>
       </c>
-      <c r="X125" s="3">
+      <c r="X129" s="3">
         <f>X115-W115-V115-U115</f>
         <v>0</v>
       </c>
-      <c r="Y125" s="37">
+      <c r="Y129" s="37">
         <f>Y115</f>
         <v>0</v>
       </c>
-      <c r="Z125" s="3">
-        <f>Z115-Y125</f>
-        <v>0</v>
-      </c>
-      <c r="AA125" s="3">
+      <c r="Z129" s="3">
+        <f>Z115-Y129</f>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="3">
         <f>AA115-Z115-Y115</f>
         <v>0</v>
       </c>
-      <c r="AB125" s="3">
+      <c r="AB129" s="3">
         <f>AB115-AA115-Z115-Y115</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B126" t="s">
+    <row r="130" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
         <v>91</v>
       </c>
-      <c r="M126" s="37">
+      <c r="M130" s="37">
         <f>M116</f>
         <v>54107</v>
       </c>
-      <c r="N126" s="3">
-        <f>N116-M126</f>
+      <c r="N130" s="3">
+        <f>N116-M130</f>
         <v>127848</v>
       </c>
-      <c r="O126" s="3">
+      <c r="O130" s="3">
         <f>O116-N116-M116</f>
         <v>792852</v>
       </c>
-      <c r="P126" s="3">
+      <c r="P130" s="3">
         <f>P116-O116-N116-M116</f>
         <v>5726</v>
       </c>
-      <c r="Q126" s="37">
+      <c r="Q130" s="37">
         <f>Q116</f>
         <v>193731</v>
       </c>
-      <c r="R126" s="3">
-        <f>R116-Q126</f>
+      <c r="R130" s="3">
+        <f>R116-Q130</f>
         <v>232742</v>
       </c>
-      <c r="S126" s="3">
+      <c r="S130" s="3">
         <f>S116-R116-Q116</f>
         <v>-8896</v>
       </c>
-      <c r="T126" s="3">
+      <c r="T130" s="3">
         <f>T116-S116-R116-Q116</f>
         <v>-453297</v>
       </c>
-      <c r="U126" s="37">
+      <c r="U130" s="37">
         <f>U116</f>
         <v>149323</v>
       </c>
-      <c r="V126" s="3">
-        <f>V116-U126</f>
+      <c r="V130" s="3">
+        <f>V116-U130</f>
         <v>145769</v>
       </c>
-      <c r="W126" s="3">
+      <c r="W130" s="3">
         <f>W116-V116-U116</f>
         <v>-9015</v>
       </c>
-      <c r="X126" s="3">
+      <c r="X130" s="3">
         <f>X116-W116-V116-U116</f>
         <v>-315017</v>
       </c>
-      <c r="Y126" s="37">
+      <c r="Y130" s="37">
         <f>Y116</f>
         <v>114714</v>
       </c>
-      <c r="Z126" s="3">
-        <f>Z116-Y126</f>
+      <c r="Z130" s="3">
+        <f>Z116-Y130</f>
         <v>114201</v>
       </c>
-      <c r="AA126" s="3">
+      <c r="AA130" s="3">
         <f>AA116-Z116-Y116</f>
         <v>-334</v>
       </c>
-      <c r="AB126" s="3">
+      <c r="AB130" s="3">
         <f>AB116-AA116-Z116-Y116</f>
         <v>-211021</v>
       </c>
     </row>
-    <row r="127" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B127" t="s">
+    <row r="131" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
         <v>514</v>
       </c>
-      <c r="M127" s="37">
+      <c r="M131" s="37">
         <f>M117</f>
         <v>0</v>
       </c>
-      <c r="N127" s="3">
-        <f>N117-M127</f>
-        <v>0</v>
-      </c>
-      <c r="O127" s="3">
+      <c r="N131" s="3">
+        <f>N117-M131</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="3">
         <f>O117-N117-M117</f>
         <v>0</v>
       </c>
-      <c r="P127" s="3">
+      <c r="P131" s="3">
         <f>P117-O117-N117-M117</f>
         <v>0</v>
       </c>
-      <c r="Q127" s="37">
+      <c r="Q131" s="37">
         <f>Q117</f>
         <v>0</v>
       </c>
-      <c r="R127" s="3">
-        <f>R117-Q127</f>
-        <v>0</v>
-      </c>
-      <c r="S127" s="3">
+      <c r="R131" s="3">
+        <f>R117-Q131</f>
+        <v>0</v>
+      </c>
+      <c r="S131" s="3">
         <f>S117-R117-Q117</f>
         <v>0</v>
       </c>
-      <c r="T127" s="3">
+      <c r="T131" s="3">
         <f>T117-S117-R117-Q117</f>
         <v>0</v>
       </c>
-      <c r="U127" s="37">
+      <c r="U131" s="37">
         <f>U117</f>
         <v>0</v>
       </c>
-      <c r="V127" s="3">
-        <f>V117-U127</f>
-        <v>0</v>
-      </c>
-      <c r="W127" s="3">
+      <c r="V131" s="3">
+        <f>V117-U131</f>
+        <v>0</v>
+      </c>
+      <c r="W131" s="3">
         <f>W117-V117-U117</f>
         <v>0</v>
       </c>
-      <c r="X127" s="3">
+      <c r="X131" s="3">
         <f>X117-W117-V117-U117</f>
         <v>0</v>
       </c>
-      <c r="Y127" s="37">
+      <c r="Y131" s="37">
         <f>Y117</f>
         <v>0</v>
       </c>
-      <c r="Z127" s="3">
-        <f>Z117-Y127</f>
-        <v>0</v>
-      </c>
-      <c r="AA127" s="3">
+      <c r="Z131" s="3">
+        <f>Z117-Y131</f>
+        <v>0</v>
+      </c>
+      <c r="AA131" s="3">
         <f>AA117-Z117-Y117</f>
         <v>0</v>
       </c>
-      <c r="AB127" s="3">
+      <c r="AB131" s="3">
         <f>AB117-AA117-Z117-Y117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="M128" s="37">
+    <row r="132" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="M132" s="37">
         <f>M118</f>
         <v>0</v>
       </c>
-      <c r="N128" s="3">
-        <f>N118-M128</f>
-        <v>0</v>
-      </c>
-      <c r="O128" s="3">
+      <c r="N132" s="3">
+        <f>N118-M132</f>
+        <v>0</v>
+      </c>
+      <c r="O132" s="3">
         <f>O118-N118-M118</f>
         <v>0</v>
       </c>
-      <c r="P128" s="3">
+      <c r="P132" s="3">
         <f>P118-O118-N118-M118</f>
         <v>0</v>
       </c>
-      <c r="Q128" s="37">
+      <c r="Q132" s="37">
         <f>Q118</f>
         <v>0</v>
       </c>
-      <c r="R128" s="3">
-        <f>R118-Q128</f>
-        <v>0</v>
-      </c>
-      <c r="S128" s="3">
+      <c r="R132" s="3">
+        <f>R118-Q132</f>
+        <v>0</v>
+      </c>
+      <c r="S132" s="3">
         <f>S118-R118-Q118</f>
         <v>0</v>
       </c>
-      <c r="T128" s="3">
+      <c r="T132" s="3">
         <f>T118-S118-R118-Q118</f>
         <v>0</v>
       </c>
-      <c r="U128" s="37">
+      <c r="U132" s="37">
         <f>U118</f>
         <v>0</v>
       </c>
-      <c r="V128" s="3">
-        <f>V118-U128</f>
-        <v>0</v>
-      </c>
-      <c r="W128" s="3">
+      <c r="V132" s="3">
+        <f>V118-U132</f>
+        <v>0</v>
+      </c>
+      <c r="W132" s="3">
         <f>W118-V118-U118</f>
         <v>0</v>
       </c>
-      <c r="X128" s="3">
+      <c r="X132" s="3">
         <f>X118-W118-V118-U118</f>
         <v>0</v>
       </c>
-      <c r="Y128" s="37">
+      <c r="Y132" s="37">
         <f>Y118</f>
         <v>0</v>
       </c>
-      <c r="Z128" s="3">
-        <f>Z118-Y128</f>
-        <v>0</v>
-      </c>
-      <c r="AA128" s="3">
+      <c r="Z132" s="3">
+        <f>Z118-Y132</f>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="3">
         <f>AA118-Z118-Y118</f>
         <v>0</v>
       </c>
-      <c r="AB128" s="3">
+      <c r="AB132" s="3">
         <f>AB118-AA118-Z118-Y118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="M129" s="37"/>
-    </row>
-    <row r="130" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="5" t="s">
+    <row r="133" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="M133" s="37"/>
+    </row>
+    <row r="134" spans="2:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="M130" s="53"/>
-      <c r="Q130" s="53"/>
-      <c r="U130" s="53"/>
-      <c r="Y130" s="53"/>
-      <c r="AC130" s="53"/>
-    </row>
-    <row r="131" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="3" t="s">
+      <c r="M134" s="53"/>
+      <c r="Q134" s="53"/>
+      <c r="U134" s="53"/>
+      <c r="Y134" s="53"/>
+      <c r="AC134" s="53"/>
+    </row>
+    <row r="135" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="M131" s="37"/>
-      <c r="P131" s="3">
-        <f>P7*P132</f>
+      <c r="M135" s="37"/>
+      <c r="P135" s="3">
+        <f t="shared" ref="P135:Z135" si="403">P7*P136</f>
         <v>32436334.800000001</v>
       </c>
-      <c r="Q131" s="37">
-        <f>Q7*Q132</f>
+      <c r="Q135" s="37">
+        <f t="shared" si="403"/>
         <v>50063633.419999994</v>
       </c>
-      <c r="R131" s="3">
-        <f>R7*R132</f>
+      <c r="R135" s="3">
+        <f t="shared" si="403"/>
         <v>43727506.479999997</v>
       </c>
-      <c r="S131" s="3">
-        <f>S7*S132</f>
+      <c r="S135" s="3">
+        <f t="shared" si="403"/>
         <v>47931238</v>
       </c>
-      <c r="T131" s="3">
-        <f>T7*T132</f>
+      <c r="T135" s="3">
+        <f t="shared" si="403"/>
         <v>44967091.549999997</v>
       </c>
-      <c r="U131" s="37">
-        <f>U7*U132</f>
+      <c r="U135" s="37">
+        <f t="shared" si="403"/>
         <v>27143972.309999999</v>
       </c>
-      <c r="V131" s="3">
-        <f>V7*V132</f>
+      <c r="V135" s="3">
+        <f t="shared" si="403"/>
         <v>20342510.100000001</v>
       </c>
-      <c r="W131" s="3">
-        <f>W7*W132</f>
+      <c r="W135" s="3">
+        <f t="shared" si="403"/>
         <v>18452058.5</v>
       </c>
-      <c r="X131" s="3">
-        <f>X7*X132</f>
+      <c r="X135" s="3">
+        <f t="shared" si="403"/>
         <v>15928513.460000001</v>
       </c>
-      <c r="Y131" s="37">
-        <f>Y7*Y132</f>
+      <c r="Y135" s="37">
+        <f t="shared" si="403"/>
         <v>16482839.600000001</v>
       </c>
-      <c r="Z131" s="3">
-        <f>Z7*Z132</f>
+      <c r="Z135" s="3">
+        <f t="shared" si="403"/>
         <v>24082831.200000003</v>
       </c>
-      <c r="AC131" s="37"/>
-      <c r="AM131" s="3">
-        <f>AM7*AM132</f>
+      <c r="AC135" s="37"/>
+      <c r="AM135" s="3">
+        <f>AM7*AM136</f>
         <v>17276343.075120002</v>
       </c>
-      <c r="AN131" s="3">
-        <f>AN7*AN132</f>
+      <c r="AN135" s="3">
+        <f>AN7*AN136</f>
         <v>44685622.910000004</v>
       </c>
-      <c r="AO131" s="3">
-        <f>AO7*AO132</f>
+      <c r="AO135" s="3">
+        <f>AO7*AO136</f>
         <v>18182016.330000002</v>
       </c>
-    </row>
-    <row r="132" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="B132" t="s">
+      <c r="AP135" s="3">
+        <f t="shared" ref="AP135:AT135" si="404">AP7*AP136</f>
+        <v>10565434.32</v>
+      </c>
+      <c r="AQ135" s="3">
+        <f t="shared" si="404"/>
+        <v>0</v>
+      </c>
+      <c r="AR135" s="3">
+        <f t="shared" si="404"/>
+        <v>0</v>
+      </c>
+      <c r="AS135" s="3">
+        <f t="shared" si="404"/>
+        <v>0</v>
+      </c>
+      <c r="AT135" s="3">
+        <f t="shared" si="404"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
         <v>1</v>
       </c>
-      <c r="M132" s="37"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3">
-        <f>P60</f>
+      <c r="M136" s="37"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3">
+        <f t="shared" ref="P136:Z136" si="405">P60</f>
         <v>1822266</v>
       </c>
-      <c r="Q132" s="37">
-        <f>Q60</f>
+      <c r="Q136" s="37">
+        <f t="shared" si="405"/>
         <v>1821158</v>
       </c>
-      <c r="R132" s="3">
-        <f>R60</f>
+      <c r="R136" s="3">
+        <f t="shared" si="405"/>
         <v>1894606</v>
       </c>
-      <c r="S132" s="3">
-        <f>S60</f>
+      <c r="S136" s="3">
+        <f t="shared" si="405"/>
         <v>1964395</v>
       </c>
-      <c r="T132" s="3">
-        <f>T60</f>
+      <c r="T136" s="3">
+        <f t="shared" si="405"/>
         <v>2030117</v>
       </c>
-      <c r="U132" s="37">
-        <f>U60</f>
+      <c r="U136" s="37">
+        <f t="shared" si="405"/>
         <v>2036307</v>
       </c>
-      <c r="V132" s="3">
-        <f>V60</f>
+      <c r="V136" s="3">
+        <f t="shared" si="405"/>
         <v>2054799</v>
       </c>
-      <c r="W132" s="3">
-        <f>W60</f>
+      <c r="W136" s="3">
+        <f t="shared" si="405"/>
         <v>2073265</v>
       </c>
-      <c r="X132" s="3">
-        <f>X60</f>
+      <c r="X136" s="3">
+        <f t="shared" si="405"/>
         <v>2101387</v>
       </c>
-      <c r="Y132" s="37">
-        <f>Y60</f>
+      <c r="Y136" s="37">
+        <f t="shared" si="405"/>
         <v>2107780</v>
       </c>
-      <c r="Z132" s="3">
-        <f>Z60</f>
+      <c r="Z136" s="3">
+        <f t="shared" si="405"/>
         <v>2131224</v>
       </c>
-      <c r="AK132" s="3"/>
-      <c r="AL132" s="3"/>
-      <c r="AM132" s="3">
+      <c r="AK136" s="3"/>
+      <c r="AL136" s="3"/>
+      <c r="AM136" s="3">
         <f>AM60</f>
         <v>977721.73600000003</v>
       </c>
-      <c r="AN132" s="3">
+      <c r="AN136" s="3">
         <f>AN60</f>
         <v>1923617</v>
       </c>
-      <c r="AO132" s="3">
+      <c r="AO136" s="3">
         <f>AO60</f>
         <v>2063793</v>
       </c>
-    </row>
-    <row r="133" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="30" t="s">
+      <c r="AP136" s="3">
+        <f t="shared" ref="AP136:AT136" si="406">AP60</f>
+        <v>2147446</v>
+      </c>
+      <c r="AQ136" s="3">
+        <f t="shared" si="406"/>
+        <v>0</v>
+      </c>
+      <c r="AR136" s="3">
+        <f t="shared" si="406"/>
+        <v>0</v>
+      </c>
+      <c r="AS136" s="3">
+        <f t="shared" si="406"/>
+        <v>0</v>
+      </c>
+      <c r="AT136" s="3">
+        <f t="shared" si="406"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="M133" s="54"/>
-      <c r="P133" s="30">
-        <f>P131/SUM(M37:P37)</f>
+      <c r="M137" s="54"/>
+      <c r="P137" s="30">
+        <f t="shared" ref="P137:Z137" si="407">P135/SUM(M37:P37)</f>
         <v>29.685308230367184</v>
       </c>
-      <c r="Q133" s="54">
-        <f>Q131/SUM(N37:Q37)</f>
+      <c r="Q137" s="54">
+        <f t="shared" si="407"/>
         <v>41.561069767055734</v>
       </c>
-      <c r="R133" s="30">
-        <f>R131/SUM(O37:R37)</f>
+      <c r="R137" s="30">
+        <f t="shared" si="407"/>
         <v>32.919084657235793</v>
       </c>
-      <c r="S133" s="30">
-        <f>S131/SUM(P37:S37)</f>
+      <c r="S137" s="30">
+        <f t="shared" si="407"/>
         <v>33.492280483791284</v>
       </c>
-      <c r="T133" s="30">
-        <f>T131/SUM(Q37:T37)</f>
+      <c r="T137" s="30">
+        <f t="shared" si="407"/>
         <v>29.163637298145325</v>
       </c>
-      <c r="U133" s="54">
-        <f>U131/SUM(R37:U37)</f>
+      <c r="U137" s="54">
+        <f t="shared" si="407"/>
         <v>16.48073742632112</v>
       </c>
-      <c r="V133" s="30">
-        <f>V131/SUM(S37:V37)</f>
+      <c r="V137" s="30">
+        <f t="shared" si="407"/>
         <v>11.661742338251987</v>
       </c>
-      <c r="W133" s="30">
-        <f>W131/SUM(T37:W37)</f>
+      <c r="W137" s="30">
+        <f t="shared" si="407"/>
         <v>10.082463988582132</v>
       </c>
-      <c r="X133" s="30">
-        <f>X131/SUM(U37:X37)</f>
+      <c r="X137" s="30">
+        <f t="shared" si="407"/>
         <v>8.3576031431298343</v>
       </c>
-      <c r="Y133" s="54">
-        <f>Y131/SUM(V37:Y37)</f>
+      <c r="Y137" s="54">
+        <f t="shared" si="407"/>
         <v>8.3049526880636879</v>
       </c>
-      <c r="Z133" s="30">
-        <f>Z131/SUM(W37:Z37)</f>
+      <c r="Z137" s="30">
+        <f t="shared" si="407"/>
         <v>11.776405264138461</v>
       </c>
-      <c r="AC133" s="54"/>
-      <c r="AM133" s="30">
-        <f>AM131/AM37</f>
+      <c r="AC137" s="54"/>
+      <c r="AM137" s="30">
+        <f>AM135/AM37</f>
         <v>15.811082615860373</v>
       </c>
-      <c r="AN133" s="30">
-        <f>AN131/AN37</f>
+      <c r="AN137" s="30">
+        <f>AN135/AN37</f>
         <v>28.981089371543607</v>
       </c>
-      <c r="AO133" s="30">
-        <f>AO131/AO37</f>
+      <c r="AO137" s="30">
+        <f>AO135/AO37</f>
         <v>9.5400036676144406</v>
       </c>
-    </row>
-    <row r="134" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="30" t="s">
+      <c r="AP137" s="30">
+        <f t="shared" ref="AP137:AT137" si="408">AP135/AP37</f>
+        <v>4.7484841969391631</v>
+      </c>
+      <c r="AQ137" s="30" t="e">
+        <f t="shared" si="408"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR137" s="30" t="e">
+        <f t="shared" si="408"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS137" s="30" t="e">
+        <f t="shared" si="408"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT137" s="30" t="e">
+        <f t="shared" si="408"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="M134" s="54"/>
-      <c r="P134" s="30">
-        <f>P131/SUM(M56:P56)</f>
+      <c r="M138" s="54"/>
+      <c r="P138" s="30">
+        <f t="shared" ref="P138:Z138" si="409">P135/SUM(M56:P56)</f>
         <v>-27.809143589070903</v>
       </c>
-      <c r="Q134" s="54">
-        <f>Q131/SUM(N56:Q56)</f>
+      <c r="Q138" s="54">
+        <f t="shared" si="409"/>
         <v>-40.517965427070926</v>
       </c>
-      <c r="R134" s="30">
-        <f>R131/SUM(O56:R56)</f>
+      <c r="R138" s="30">
+        <f t="shared" si="409"/>
         <v>-34.60232083790978</v>
       </c>
-      <c r="S134" s="30">
-        <f>S131/SUM(P56:S56)</f>
+      <c r="S138" s="30">
+        <f t="shared" si="409"/>
         <v>-93.518162697499093</v>
       </c>
-      <c r="T134" s="30">
-        <f>T131/SUM(Q56:T56)</f>
+      <c r="T138" s="30">
+        <f t="shared" si="409"/>
         <v>-86.41219486182186</v>
       </c>
-      <c r="U134" s="54">
-        <f>U131/SUM(R56:U56)</f>
+      <c r="U138" s="54">
+        <f t="shared" si="409"/>
         <v>-54.47490248532965</v>
       </c>
-      <c r="V134" s="30">
-        <f>V131/SUM(S56:V56)</f>
+      <c r="V138" s="30">
+        <f t="shared" si="409"/>
         <v>-37.738895577821772</v>
       </c>
-      <c r="W134" s="30">
-        <f>W131/SUM(T56:W56)</f>
+      <c r="W138" s="30">
+        <f t="shared" si="409"/>
         <v>-32.904801603506598</v>
       </c>
-      <c r="X134" s="30">
-        <f>X131/SUM(U56:X56)</f>
+      <c r="X138" s="30">
+        <f t="shared" si="409"/>
         <v>-42.923123144001252</v>
       </c>
-      <c r="Y134" s="54">
-        <f>Y131/SUM(V56:Y56)</f>
+      <c r="Y138" s="54">
+        <f t="shared" si="409"/>
         <v>-65.171974552514115</v>
       </c>
-      <c r="Z134" s="30">
-        <f>Z131/SUM(W56:Z56)</f>
+      <c r="Z138" s="30">
+        <f t="shared" si="409"/>
         <v>-529.79367754141288</v>
       </c>
-      <c r="AC134" s="54"/>
-      <c r="AM134" s="30">
-        <f>AM131/AM56</f>
+      <c r="AC138" s="54"/>
+      <c r="AM138" s="30">
+        <f>AM135/AM56</f>
         <v>-14.811793879685288</v>
       </c>
-      <c r="AN134" s="30">
-        <f>AN131/AN56</f>
+      <c r="AN138" s="30">
+        <f>AN135/AN56</f>
         <v>-85.871303242444455</v>
       </c>
-      <c r="AO134" s="30">
-        <f>AO131/AO56</f>
+      <c r="AO138" s="30">
+        <f>AO135/AO56</f>
         <v>-48.995716260570106</v>
       </c>
-    </row>
-    <row r="135" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="30" t="s">
+      <c r="AP138" s="30">
+        <f t="shared" ref="AP138:AT138" si="410">AP135/AP56</f>
+        <v>48.60464322024152</v>
+      </c>
+      <c r="AQ138" s="30" t="e">
+        <f t="shared" si="410"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR138" s="30" t="e">
+        <f t="shared" si="410"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS138" s="30" t="e">
+        <f t="shared" si="410"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT138" s="30" t="e">
+        <f t="shared" si="410"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="M135" s="54"/>
-      <c r="P135" s="30">
-        <f>P131/P105</f>
+      <c r="M139" s="54"/>
+      <c r="P139" s="30">
+        <f t="shared" ref="P139:Z139" si="411">P135/P105</f>
         <v>21.303953761781223</v>
       </c>
-      <c r="Q135" s="54">
-        <f>Q131/Q105</f>
+      <c r="Q139" s="54">
+        <f t="shared" si="411"/>
         <v>27.721602187887434</v>
       </c>
-      <c r="R135" s="30">
-        <f>R131/R105</f>
+      <c r="R139" s="30">
+        <f t="shared" si="411"/>
         <v>21.134987179567734</v>
       </c>
-      <c r="S135" s="30">
-        <f>S131/S105</f>
+      <c r="S139" s="30">
+        <f t="shared" si="411"/>
         <v>21.321193956022448</v>
       </c>
-      <c r="T135" s="30">
-        <f>T131/T105</f>
+      <c r="T139" s="30">
+        <f t="shared" si="411"/>
         <v>19.627456449719119</v>
       </c>
-      <c r="U135" s="54">
-        <f>U131/U105</f>
+      <c r="U139" s="54">
+        <f t="shared" si="411"/>
         <v>11.478599524008075</v>
       </c>
-      <c r="V135" s="30">
-        <f>V131/V105</f>
+      <c r="V139" s="30">
+        <f t="shared" si="411"/>
         <v>8.6607213226704101</v>
       </c>
-      <c r="W135" s="30">
-        <f>W131/W105</f>
+      <c r="W139" s="30">
+        <f t="shared" si="411"/>
         <v>7.7314767987295818</v>
       </c>
-      <c r="X135" s="30">
-        <f>X131/X105</f>
+      <c r="X139" s="30">
+        <f t="shared" si="411"/>
         <v>6.027963376231865</v>
       </c>
-      <c r="Y135" s="54">
-        <f>Y131/Y105</f>
+      <c r="Y139" s="54">
+        <f t="shared" si="411"/>
         <v>5.88002310222664</v>
       </c>
-      <c r="Z135" s="30">
-        <f>Z131/Z105</f>
+      <c r="Z139" s="30">
+        <f t="shared" si="411"/>
         <v>7.9346742059174913</v>
       </c>
-      <c r="AC135" s="54"/>
-      <c r="AM135" s="30">
-        <f>AM131/AM105</f>
+      <c r="AC139" s="54"/>
+      <c r="AM139" s="30">
+        <f>AM135/AM105</f>
         <v>11.346979130485042</v>
       </c>
-      <c r="AN135" s="30">
-        <f>AN131/AN105</f>
+      <c r="AN139" s="30">
+        <f>AN135/AN105</f>
         <v>19.504599638590506</v>
       </c>
-      <c r="AO135" s="30">
-        <f>AO131/AO105</f>
+      <c r="AO139" s="30">
+        <f>AO135/AO105</f>
         <v>6.880775711965887</v>
       </c>
-    </row>
-    <row r="136" spans="2:41" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="30" t="s">
+      <c r="AP139" s="30">
+        <f t="shared" ref="AP139:AT139" si="412">AP135/AP105</f>
+        <v>2.9670143682962342</v>
+      </c>
+      <c r="AQ139" s="30" t="e">
+        <f t="shared" si="412"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR139" s="30" t="e">
+        <f t="shared" si="412"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS139" s="30" t="e">
+        <f t="shared" si="412"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT139" s="30" t="e">
+        <f t="shared" si="412"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="2:46" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="M136" s="54"/>
-      <c r="P136" s="30">
-        <f>P131/SUM(M113:P113)</f>
+      <c r="M140" s="54"/>
+      <c r="P140" s="30">
+        <f t="shared" ref="P140:Z140" si="413">P135/SUM(M113:P113)</f>
         <v>-29.035832332241831</v>
       </c>
-      <c r="Q136" s="54">
-        <f>Q131/SUM(N113:Q113)</f>
+      <c r="Q140" s="54">
+        <f t="shared" si="413"/>
         <v>-70.438645610707695</v>
       </c>
-      <c r="R136" s="30">
-        <f>R131/SUM(O113:R113)</f>
+      <c r="R140" s="30">
+        <f t="shared" si="413"/>
         <v>-128.51959346343756</v>
       </c>
-      <c r="S136" s="30">
-        <f>S131/SUM(P113:S113)</f>
+      <c r="S140" s="30">
+        <f t="shared" si="413"/>
         <v>267.47939686153711</v>
       </c>
-      <c r="T136" s="30">
-        <f>T131/SUM(Q113:T113)</f>
+      <c r="T140" s="30">
+        <f t="shared" si="413"/>
         <v>55.565416909685837</v>
       </c>
-      <c r="U136" s="54">
-        <f>U131/SUM(R113:U113)</f>
+      <c r="U140" s="54">
+        <f t="shared" si="413"/>
         <v>38.051248554362282</v>
       </c>
-      <c r="V136" s="30">
-        <f>V131/SUM(S113:V113)</f>
+      <c r="V140" s="30">
+        <f t="shared" si="413"/>
         <v>31.182855684420616</v>
       </c>
-      <c r="W136" s="30">
-        <f>W131/SUM(T113:W113)</f>
+      <c r="W140" s="30">
+        <f t="shared" si="413"/>
         <v>34.908337526911417</v>
       </c>
-      <c r="X136" s="30">
-        <f>X131/SUM(U113:X113)</f>
+      <c r="X140" s="30">
+        <f t="shared" si="413"/>
         <v>40.730385862449886</v>
       </c>
-      <c r="Y136" s="54">
-        <f>Y131/SUM(V113:Y113)</f>
+      <c r="Y140" s="54">
+        <f t="shared" si="413"/>
         <v>29.783007457117513</v>
       </c>
-      <c r="Z136" s="30">
-        <f>Z131/SUM(W113:Z113)</f>
+      <c r="Z140" s="30">
+        <f t="shared" si="413"/>
         <v>32.322693956984203</v>
       </c>
-      <c r="AC136" s="54"/>
-      <c r="AM136" s="30">
-        <f>AM131/AM113</f>
+      <c r="AC140" s="54"/>
+      <c r="AM140" s="30">
+        <f>AM135/AM113</f>
         <v>-55.938736304153558</v>
       </c>
-      <c r="AN136" s="30">
-        <f>AN131/AN113</f>
+      <c r="AN140" s="30">
+        <f>AN135/AN113</f>
         <v>139.11047403058302</v>
       </c>
-      <c r="AO136" s="30">
-        <f>AO131/AO113</f>
+      <c r="AO140" s="30">
+        <f>AO135/AO113</f>
         <v>98.971293506069358</v>
       </c>
-    </row>
-    <row r="138" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="8" t="s">
+      <c r="AP140" s="30">
+        <f t="shared" ref="AP140:AT140" si="414">AP135/AP113</f>
+        <v>15.156941880932878</v>
+      </c>
+      <c r="AQ140" s="30" t="e">
+        <f t="shared" si="414"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR140" s="30" t="e">
+        <f t="shared" si="414"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS140" s="30" t="e">
+        <f t="shared" si="414"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT140" s="30" t="e">
+        <f t="shared" si="414"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="M138" s="55"/>
-      <c r="Q138" s="55"/>
-      <c r="U138" s="55"/>
-      <c r="Y138" s="55"/>
-      <c r="AC138" s="55"/>
+      <c r="M142" s="55"/>
+      <c r="Q142" s="55"/>
+      <c r="U142" s="55"/>
+      <c r="Y142" s="55"/>
+      <c r="AC142" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLTR/PLTR.xlsx
+++ b/PLTR/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PLTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1387" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4AE9DDB-D315-4EF6-8514-084003E741E3}"/>
+  <xr:revisionPtr revIDLastSave="1473" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B8140E-AD75-4F1F-8A98-6B104B768408}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="3280" windowWidth="24420" windowHeight="17300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="561">
   <si>
     <t>Price</t>
   </si>
@@ -1761,6 +1761,9 @@
   </si>
   <si>
     <t>Cash Change</t>
+  </si>
+  <si>
+    <t>Q124</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1999,11 +2002,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2506,10 +2506,10 @@
   <dimension ref="A1:AZ142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AI8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN67" sqref="AN67"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2580,6 +2580,9 @@
       <c r="AB1" t="s">
         <v>554</v>
       </c>
+      <c r="AC1" s="31" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="2" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -2969,7 +2972,9 @@
         <v>307603</v>
       </c>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="37"/>
+      <c r="AC9" s="37">
+        <v>335373</v>
+      </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -3054,7 +3059,9 @@
         <v>250556</v>
       </c>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="38"/>
+      <c r="AC10" s="38">
+        <v>298965</v>
+      </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -3168,15 +3175,24 @@
       </c>
       <c r="AC11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>634338</v>
       </c>
       <c r="AD11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
+      <c r="AE11" s="13">
+        <f t="shared" ref="AE11:AG11" si="2">SUM(AE9:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -3194,51 +3210,51 @@
         <v>1541889</v>
       </c>
       <c r="AO11" s="13">
-        <f t="shared" ref="AO11:AZ11" si="2">SUM(AO9:AO10)</f>
+        <f t="shared" ref="AO11:AZ11" si="3">SUM(AO9:AO10)</f>
         <v>1905871</v>
       </c>
       <c r="AP11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3251,27 +3267,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="10" t="e">
-        <f t="shared" ref="J12:O12" si="3">(J11-F11)/ABS(F11)</f>
+        <f t="shared" ref="J12:O12" si="4">(J11-F11)/ABS(F11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="10" t="e">
@@ -3279,59 +3295,71 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" ref="Q12:AD12" si="4">(Q11-M11)/ABS(M11)</f>
+        <f t="shared" ref="Q12:AD12" si="5">(Q11-M11)/ABS(M11)</f>
         <v>0.4879800459605716</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49129973917082526</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35519031261447442</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34392764777656004</v>
       </c>
       <c r="U12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30806719142875566</v>
       </c>
       <c r="V12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25920424233711886</v>
       </c>
       <c r="W12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21862775598884088</v>
       </c>
       <c r="X12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17501218619113953</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17660527335742465</v>
       </c>
       <c r="Z12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="AA12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16798987193437684</v>
       </c>
       <c r="AB12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AC12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0.20783493847893889</v>
+      </c>
+      <c r="AD12" s="10">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="4"/>
+      <c r="AE12" s="10">
+        <f t="shared" ref="AE12" si="6">(AE11-AA11)/ABS(AA11)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF12" s="10" t="e">
+        <f t="shared" ref="AF12" si="7">(AF11-AB11)/ABS(AB11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" ref="AG12" si="8">(AG11-AC11)/ABS(AC11)</f>
         <v>-1</v>
       </c>
       <c r="AM12" s="10">
@@ -3343,51 +3371,51 @@
         <v>0.41111659206368234</v>
       </c>
       <c r="AO12" s="10">
-        <f t="shared" ref="AO12:AZ12" si="5">AO11/AN11-1</f>
+        <f t="shared" ref="AO12:AZ12" si="9">AO11/AN11-1</f>
         <v>0.23606238840798532</v>
       </c>
       <c r="AP12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="AQ12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3443,27 +3471,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J14" s="10" t="e">
-        <f t="shared" ref="J14:O14" si="6">J9/J11</f>
+        <f t="shared" ref="J14:O14" si="10">J9/J11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.51510288801580273</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.5540893012398318</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.56178334704146304</v>
       </c>
       <c r="P14" s="10">
@@ -3471,59 +3499,71 @@
         <v>0.58971222418509051</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" ref="Q14:AD14" si="7">Q9/Q11</f>
+        <f t="shared" ref="Q14:AD14" si="11">Q9/Q11</f>
         <v>0.61078321620940468</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.61792611049882606</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55549718727208741</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55208874781399364</v>
       </c>
       <c r="U14" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.54169644477402612</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55600938669372746</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5730183309617477</v>
       </c>
       <c r="X14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57636682500235936</v>
       </c>
       <c r="Y14" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55041451980822031</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.56533918851264819</v>
       </c>
       <c r="AA14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.551102821955751</v>
       </c>
       <c r="AB14" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="39" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="39">
+        <f t="shared" si="11"/>
+        <v>0.52869763438419271</v>
       </c>
       <c r="AD14" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="10" t="e">
+        <f t="shared" ref="AE14:AG14" si="12">AE9/AE11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="10" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="10">
@@ -3539,51 +3579,51 @@
         <v>0.58198482510738447</v>
       </c>
       <c r="AO14" s="10">
-        <f t="shared" ref="AO14:AZ14" si="8">AO9/AO11</f>
+        <f t="shared" ref="AO14:AZ14" si="13">AO9/AO11</f>
         <v>0.562354954768712</v>
       </c>
       <c r="AP14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ14" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3596,27 +3636,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="18" t="e">
-        <f t="shared" ref="J15:O15" si="9">J10/J11</f>
+        <f t="shared" ref="J15:O15" si="14">J10/J11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K15" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.48489711198419722</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.44591069876016814</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="P15" s="18">
@@ -3624,59 +3664,71 @@
         <v>0.41028777581490944</v>
       </c>
       <c r="Q15" s="41">
-        <f t="shared" ref="Q15:AD15" si="10">Q10/Q11</f>
+        <f t="shared" ref="Q15:AD15" si="15">Q10/Q11</f>
         <v>0.38921678379059532</v>
       </c>
       <c r="R15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.38207388950117399</v>
       </c>
       <c r="S15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="T15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="U15" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="V15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="W15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.4269816690382523</v>
       </c>
       <c r="X15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.42363317499764069</v>
       </c>
       <c r="Y15" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.44958548019177969</v>
       </c>
       <c r="Z15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.43466081148735181</v>
       </c>
       <c r="AA15" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.44889717804424906</v>
       </c>
       <c r="AB15" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC15" s="41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" s="41">
+        <f t="shared" si="15"/>
+        <v>0.47130236561580735</v>
       </c>
       <c r="AD15" s="18" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="18" t="e">
+        <f t="shared" ref="AE15:AG15" si="16">AE10/AE11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="18" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" s="18" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="18">
@@ -3692,51 +3744,51 @@
         <v>0.41801517489261547</v>
       </c>
       <c r="AO15" s="18">
-        <f t="shared" ref="AO15:AZ15" si="11">AO10/AO11</f>
+        <f t="shared" ref="AO15:AZ15" si="17">AO10/AO11</f>
         <v>0.43764504523128794</v>
       </c>
       <c r="AP15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ15" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3749,27 +3801,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="19" t="e">
-        <f t="shared" ref="J16:O16" si="12">SUM(J14:J15)</f>
+        <f t="shared" ref="J16:O16" si="18">SUM(J14:J15)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="19" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="19" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N16" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="P16" s="19">
@@ -3777,59 +3829,71 @@
         <v>1</v>
       </c>
       <c r="Q16" s="42">
-        <f t="shared" ref="Q16:AD16" si="13">SUM(Q14:Q15)</f>
+        <f t="shared" ref="Q16:AD16" si="19">SUM(Q14:Q15)</f>
         <v>1</v>
       </c>
       <c r="R16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="U16" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="X16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y16" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AA16" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB16" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC16" s="42" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" s="42">
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AD16" s="19" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="19" t="e">
+        <f t="shared" ref="AE16:AG16" si="20">SUM(AE14:AE15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="19" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" s="19">
@@ -3849,51 +3913,51 @@
         <v>1</v>
       </c>
       <c r="AO16" s="19">
-        <f t="shared" ref="AO16:AZ16" si="14">SUM(AO14:AO15)</f>
+        <f t="shared" ref="AO16:AZ16" si="21">SUM(AO14:AO15)</f>
         <v>1</v>
       </c>
       <c r="AP16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ16" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3966,7 +4030,9 @@
       <c r="AA19" s="3">
         <v>345479</v>
       </c>
-      <c r="AC19" s="37"/>
+      <c r="AC19" s="37">
+        <v>406389</v>
+      </c>
       <c r="AL19" s="3">
         <v>295753</v>
       </c>
@@ -4032,7 +4098,9 @@
       <c r="AA20" s="3">
         <v>64390</v>
       </c>
-      <c r="AC20" s="37"/>
+      <c r="AC20" s="37">
+        <v>0</v>
+      </c>
       <c r="AL20" s="3">
         <v>120185</v>
       </c>
@@ -4100,7 +4168,9 @@
       <c r="AA21" s="11">
         <v>148290</v>
       </c>
-      <c r="AC21" s="38"/>
+      <c r="AC21" s="38">
+        <v>227949</v>
+      </c>
       <c r="AL21" s="11">
         <f>76220+250397</f>
         <v>326617</v>
@@ -4124,27 +4194,27 @@
         <v>0</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" ref="J22:O22" si="15">SUM(J19:J21)</f>
+        <f t="shared" ref="J22:O22" si="22">SUM(J19:J21)</f>
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M22" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>229327</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>251889</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>289366</v>
       </c>
       <c r="P22" s="13">
@@ -4152,59 +4222,71 @@
         <v>322091</v>
       </c>
       <c r="Q22" s="44">
-        <f t="shared" ref="Q22:AD22" si="16">SUM(Q19:Q21)</f>
+        <f t="shared" ref="Q22:AD22" si="23">SUM(Q19:Q21)</f>
         <v>341234</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>375642</v>
       </c>
       <c r="S22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>392146</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>432867</v>
       </c>
       <c r="U22" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>446357</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>473010</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>477880</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>508624</v>
       </c>
       <c r="Y22" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>525186</v>
       </c>
       <c r="Z22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>533317</v>
       </c>
       <c r="AA22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>558159</v>
       </c>
       <c r="AB22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC22" s="44">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>634338</v>
       </c>
       <c r="AD22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <f t="shared" ref="AE22:AG22" si="24">SUM(AE19:AE21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK22" s="13">
@@ -4212,63 +4294,63 @@
         <v>0</v>
       </c>
       <c r="AL22" s="13">
-        <f t="shared" ref="AL22:AZ22" si="17">SUM(AL19:AL21)</f>
+        <f t="shared" ref="AL22:AZ22" si="25">SUM(AL19:AL21)</f>
         <v>742555</v>
       </c>
       <c r="AM22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1092673</v>
       </c>
       <c r="AN22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1541889</v>
       </c>
       <c r="AO22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1905871</v>
       </c>
       <c r="AP22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AS22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AT22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AX22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AY22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AZ22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -4281,27 +4363,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="10" t="e">
-        <f t="shared" ref="J23:O23" si="18">(J22-F22)/ABS(F22)</f>
+        <f t="shared" ref="J23:O23" si="26">(J22-F22)/ABS(F22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="39" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="10" t="e">
@@ -4309,59 +4391,71 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="39">
-        <f t="shared" ref="Q23:AD23" si="19">(Q22-M22)/ABS(M22)</f>
+        <f t="shared" ref="Q23:AD23" si="27">(Q22-M22)/ABS(M22)</f>
         <v>0.4879800459605716</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.49129973917082526</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.35519031261447442</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.34392764777656004</v>
       </c>
       <c r="U23" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.30806719142875566</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.25920424233711886</v>
       </c>
       <c r="W23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.21862775598884088</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.17501218619113953</v>
       </c>
       <c r="Y23" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.17660527335742465</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.12749624743662924</v>
       </c>
       <c r="AA23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.16798987193437684</v>
       </c>
       <c r="AB23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="AC23" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
+        <v>0.20783493847893889</v>
+      </c>
+      <c r="AD23" s="10">
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
-      <c r="AD23" s="10">
-        <f t="shared" si="19"/>
+      <c r="AE23" s="10">
+        <f t="shared" ref="AE23" si="28">(AE22-AA22)/ABS(AA22)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="10" t="e">
+        <f t="shared" ref="AF23" si="29">(AF22-AB22)/ABS(AB22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="10">
+        <f t="shared" ref="AG23" si="30">(AG22-AC22)/ABS(AC22)</f>
         <v>-1</v>
       </c>
       <c r="AL23" s="10" t="e">
@@ -4369,59 +4463,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM23" s="10">
-        <f t="shared" ref="AM23:AZ23" si="20">AM22/AL22-1</f>
+        <f t="shared" ref="AM23:AZ23" si="31">AM22/AL22-1</f>
         <v>0.47150446768252863</v>
       </c>
       <c r="AN23" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>0.41111659206368234</v>
       </c>
       <c r="AO23" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>0.23606238840798532</v>
       </c>
       <c r="AP23" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="AQ23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ23" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4444,27 +4538,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="10" t="e">
-        <f t="shared" ref="J25:O25" si="21">J19/J22</f>
+        <f t="shared" ref="J25:O25" si="32">J19/J22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.47869199876159368</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.49622254246910347</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.54027079891901608</v>
       </c>
       <c r="P25" s="10">
@@ -4472,59 +4566,71 @@
         <v>0.5664330887854675</v>
       </c>
       <c r="Q25" s="39">
-        <f t="shared" ref="Q25:AD25" si="22">Q19/Q22</f>
+        <f t="shared" ref="Q25:AD25" si="33">Q19/Q22</f>
         <v>0.58155693746813042</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.53223547952571859</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.57959280472069075</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.58561636715203513</v>
       </c>
       <c r="U25" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.61142314335834325</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.61356630938035139</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.62076253452749641</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.59303139450753406</v>
       </c>
       <c r="Y25" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.64138229122634649</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.61504133564090402</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.61896162204676441</v>
       </c>
       <c r="AB25" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC25" s="39" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="39">
+        <f t="shared" si="33"/>
+        <v>0.64065056799371944</v>
       </c>
       <c r="AD25" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="10" t="e">
+        <f t="shared" ref="AE25:AG25" si="34">AE19/AE22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="10" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="10" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="10">
@@ -4536,55 +4642,55 @@
         <v>0.52490452312814539</v>
       </c>
       <c r="AN25" s="10">
-        <f t="shared" ref="AN25:AZ25" si="23">AN19/AN22</f>
+        <f t="shared" ref="AN25:AZ25" si="35">AN19/AN22</f>
         <v>0.57018112198738047</v>
       </c>
       <c r="AO25" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.60938856827140975</v>
       </c>
       <c r="AP25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ25" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4597,27 +4703,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="10" t="e">
-        <f t="shared" ref="J26:O26" si="24">J20/J22</f>
+        <f t="shared" ref="J26:O26" si="36">J20/J22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.12634796600487513</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.11923108988483022</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.12244700483125177</v>
       </c>
       <c r="P26" s="10">
@@ -4625,59 +4731,71 @@
         <v>0.11793871918184612</v>
       </c>
       <c r="Q26" s="39">
-        <f t="shared" ref="Q26:AD26" si="25">Q20/Q22</f>
+        <f t="shared" ref="Q26:AD26" si="37">Q20/Q22</f>
         <v>0.10076662935111975</v>
       </c>
       <c r="R26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.1063113283392166</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.12218408449914063</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.11811480200615894</v>
       </c>
       <c r="U26" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.11179840352005234</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.1102302276907465</v>
       </c>
       <c r="W26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.12437222733740688</v>
       </c>
       <c r="X26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.11691347635974708</v>
       </c>
       <c r="Y26" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>9.4402744932271618E-2</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.11855800583892882</v>
       </c>
       <c r="AA26" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.11536139343807052</v>
       </c>
       <c r="AB26" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC26" s="39" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="39">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="AD26" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="10" t="e">
+        <f t="shared" ref="AE26:AG26" si="38">AE20/AE22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="10" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="10" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="10">
@@ -4689,55 +4807,55 @@
         <v>0.12119545371762641</v>
       </c>
       <c r="AN26" s="10">
-        <f t="shared" ref="AN26:AZ26" si="26">AN20/AN22</f>
+        <f t="shared" ref="AN26:AZ26" si="39">AN20/AN22</f>
         <v>0.11243481210385443</v>
       </c>
       <c r="AO26" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.11592704857778936</v>
       </c>
       <c r="AP26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ26" s="10" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4750,27 +4868,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="18" t="e">
-        <f t="shared" ref="J27:O27" si="27">J21/J22</f>
+        <f t="shared" ref="J27:O27" si="40">J21/J22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="18" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="18" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.39496003523353118</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.38454636764606631</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.33728219624973216</v>
       </c>
       <c r="P27" s="18">
@@ -4778,59 +4896,71 @@
         <v>0.31562819203268644</v>
       </c>
       <c r="Q27" s="41">
-        <f t="shared" ref="Q27:AD27" si="28">Q21/Q22</f>
+        <f t="shared" ref="Q27:AD27" si="41">Q21/Q22</f>
         <v>0.31767643318074984</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.36145319213506477</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.29822311078016861</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.29626883084180589</v>
       </c>
       <c r="U27" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.27677845312160443</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.27620346292890213</v>
       </c>
       <c r="W27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.25486523813509665</v>
       </c>
       <c r="X27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.29005512913271886</v>
       </c>
       <c r="Y27" s="41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.26421496384138193</v>
       </c>
       <c r="Z27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.2664006585201672</v>
       </c>
       <c r="AA27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.26567698451516503</v>
       </c>
       <c r="AB27" s="18" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC27" s="41" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="41">
+        <f t="shared" si="41"/>
+        <v>0.35934943200628056</v>
       </c>
       <c r="AD27" s="18" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="18" t="e">
+        <f t="shared" ref="AE27:AG27" si="42">AE21/AE22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="18" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="18" t="e">
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="18">
@@ -4842,55 +4972,55 @@
         <v>0.35390002315422819</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" ref="AN27:AZ27" si="29">AN21/AN22</f>
+        <f t="shared" ref="AN27:AZ27" si="43">AN21/AN22</f>
         <v>0.31738406590876517</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0.27468438315080085</v>
       </c>
       <c r="AP27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ27" s="18" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4903,27 +5033,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="17" t="e">
-        <f t="shared" ref="J28:O28" si="30">SUM(J25:J27)</f>
+        <f t="shared" ref="J28:O28" si="44">SUM(J25:J27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="17" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="17" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="P28" s="17">
@@ -4931,59 +5061,71 @@
         <v>1</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" ref="Q28:AD28" si="31">SUM(Q25:Q27)</f>
+        <f t="shared" ref="Q28:AD28" si="45">SUM(Q25:Q27)</f>
         <v>1</v>
       </c>
       <c r="R28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="S28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="T28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="U28" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="V28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="W28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="X28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="Y28" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="Z28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AA28" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AB28" s="17" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC28" s="45" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="45">
+        <f t="shared" si="45"/>
+        <v>1</v>
       </c>
       <c r="AD28" s="17" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="17" t="e">
+        <f t="shared" ref="AE28:AG28" si="46">SUM(AE25:AE27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="17" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="17" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="17">
@@ -4995,55 +5137,55 @@
         <v>1</v>
       </c>
       <c r="AN28" s="17">
-        <f t="shared" ref="AN28:AZ28" si="32">SUM(AN25:AN27)</f>
+        <f t="shared" ref="AN28:AZ28" si="47">SUM(AN25:AN27)</f>
         <v>1</v>
       </c>
       <c r="AO28" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AP28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ28" s="17" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5240,7 +5382,9 @@
       <c r="AB37" s="13">
         <v>608350</v>
       </c>
-      <c r="AC37" s="44"/>
+      <c r="AC37" s="44">
+        <v>634338</v>
+      </c>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="13"/>
@@ -5332,7 +5476,9 @@
       <c r="AB38" s="11">
         <v>108639</v>
       </c>
-      <c r="AC38" s="38"/>
+      <c r="AC38" s="38">
+        <v>116256</v>
+      </c>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
@@ -5370,167 +5516,176 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13">
-        <f t="shared" ref="I39" si="33">I37-I38</f>
+        <f t="shared" ref="I39" si="48">I37-I38</f>
         <v>0</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" ref="J39" si="34">J37-J38</f>
+        <f t="shared" ref="J39" si="49">J37-J38</f>
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" ref="K39" si="35">K37-K38</f>
+        <f t="shared" ref="K39" si="50">K37-K38</f>
         <v>0</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" ref="L39" si="36">L37-L38</f>
+        <f t="shared" ref="L39" si="51">L37-L38</f>
         <v>0</v>
       </c>
       <c r="M39" s="44">
-        <f t="shared" ref="M39" si="37">M37-M38</f>
+        <f t="shared" ref="M39" si="52">M37-M38</f>
         <v>165033</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" ref="N39" si="38">N37-N38</f>
+        <f t="shared" ref="N39" si="53">N37-N38</f>
         <v>183479</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" ref="O39" si="39">O37-O38</f>
+        <f t="shared" ref="O39" si="54">O37-O38</f>
         <v>140026</v>
       </c>
       <c r="P39" s="13">
-        <f t="shared" ref="P39" si="40">P37-P38</f>
+        <f t="shared" ref="P39" si="55">P37-P38</f>
         <v>251588</v>
       </c>
       <c r="Q39" s="44">
-        <f t="shared" ref="Q39" si="41">Q37-Q38</f>
+        <f t="shared" ref="Q39" si="56">Q37-Q38</f>
         <v>267123</v>
       </c>
       <c r="R39" s="13">
-        <f t="shared" ref="R39" si="42">R37-R38</f>
+        <f t="shared" ref="R39" si="57">R37-R38</f>
         <v>284716</v>
       </c>
       <c r="S39" s="13">
-        <f t="shared" ref="S39" si="43">S37-S38</f>
+        <f t="shared" ref="S39" si="58">S37-S38</f>
         <v>305342</v>
       </c>
       <c r="T39" s="13">
-        <f t="shared" ref="T39" si="44">T37-T38</f>
+        <f t="shared" ref="T39" si="59">T37-T38</f>
         <v>345304</v>
       </c>
       <c r="U39" s="44">
-        <f t="shared" ref="U39" si="45">U37-U38</f>
+        <f t="shared" ref="U39" si="60">U37-U38</f>
         <v>351954</v>
       </c>
       <c r="V39" s="13">
-        <f t="shared" ref="V39" si="46">V37-V38</f>
+        <f t="shared" ref="V39" si="61">V37-V38</f>
         <v>370786</v>
       </c>
       <c r="W39" s="13">
-        <f t="shared" ref="W39" si="47">W37-W38</f>
+        <f t="shared" ref="W39" si="62">W37-W38</f>
         <v>370269</v>
       </c>
       <c r="X39" s="13">
-        <f t="shared" ref="X39" si="48">X37-X38</f>
+        <f t="shared" ref="X39" si="63">X37-X38</f>
         <v>404313</v>
       </c>
       <c r="Y39" s="44">
-        <f t="shared" ref="Y39" si="49">Y37-Y38</f>
+        <f t="shared" ref="Y39" si="64">Y37-Y38</f>
         <v>417541</v>
       </c>
       <c r="Z39" s="13">
-        <f t="shared" ref="Z39" si="50">Z37-Z38</f>
+        <f t="shared" ref="Z39" si="65">Z37-Z38</f>
         <v>426418</v>
       </c>
       <c r="AA39" s="13">
-        <f t="shared" ref="AA39" si="51">AA37-AA38</f>
+        <f t="shared" ref="AA39" si="66">AA37-AA38</f>
         <v>450237</v>
       </c>
       <c r="AB39" s="13">
-        <f t="shared" ref="AB39" si="52">AB37-AB38</f>
+        <f t="shared" ref="AB39" si="67">AB37-AB38</f>
         <v>499711</v>
       </c>
       <c r="AC39" s="44">
-        <f t="shared" ref="AC39" si="53">AC37-AC38</f>
-        <v>0</v>
+        <f t="shared" ref="AC39" si="68">AC37-AC38</f>
+        <v>518082</v>
       </c>
       <c r="AD39" s="13">
-        <f t="shared" ref="AD39" si="54">AD37-AD38</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
+        <f t="shared" ref="AD39:AG39" si="69">AD37-AD38</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="13">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
       <c r="AH39" s="13"/>
       <c r="AI39" s="13">
-        <f t="shared" ref="AI39:AN39" si="55">AI37-AI38</f>
+        <f t="shared" ref="AI39:AN39" si="70">AI37-AI38</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AK39" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>430008</v>
       </c>
       <c r="AL39" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>500182</v>
       </c>
       <c r="AM39" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>740126</v>
       </c>
       <c r="AN39" s="13">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1202485</v>
       </c>
       <c r="AO39" s="13">
-        <f t="shared" ref="AO39" si="56">AO37-AO38</f>
+        <f t="shared" ref="AO39" si="71">AO37-AO38</f>
         <v>1497322</v>
       </c>
       <c r="AP39" s="13">
-        <f t="shared" ref="AP39" si="57">AP37-AP38</f>
+        <f t="shared" ref="AP39" si="72">AP37-AP38</f>
         <v>1793907</v>
       </c>
       <c r="AQ39" s="13">
-        <f t="shared" ref="AQ39" si="58">AQ37-AQ38</f>
+        <f t="shared" ref="AQ39" si="73">AQ37-AQ38</f>
         <v>0</v>
       </c>
       <c r="AR39" s="13">
-        <f t="shared" ref="AR39" si="59">AR37-AR38</f>
+        <f t="shared" ref="AR39" si="74">AR37-AR38</f>
         <v>0</v>
       </c>
       <c r="AS39" s="13">
-        <f t="shared" ref="AS39" si="60">AS37-AS38</f>
+        <f t="shared" ref="AS39" si="75">AS37-AS38</f>
         <v>0</v>
       </c>
       <c r="AT39" s="13">
-        <f t="shared" ref="AT39" si="61">AT37-AT38</f>
+        <f t="shared" ref="AT39" si="76">AT37-AT38</f>
         <v>0</v>
       </c>
       <c r="AU39" s="13">
-        <f t="shared" ref="AU39" si="62">AU37-AU38</f>
+        <f t="shared" ref="AU39" si="77">AU37-AU38</f>
         <v>0</v>
       </c>
       <c r="AV39" s="13">
-        <f t="shared" ref="AV39" si="63">AV37-AV38</f>
+        <f t="shared" ref="AV39" si="78">AV37-AV38</f>
         <v>0</v>
       </c>
       <c r="AW39" s="13">
-        <f t="shared" ref="AW39" si="64">AW37-AW38</f>
+        <f t="shared" ref="AW39" si="79">AW37-AW38</f>
         <v>0</v>
       </c>
       <c r="AX39" s="13">
-        <f t="shared" ref="AX39" si="65">AX37-AX38</f>
+        <f t="shared" ref="AX39" si="80">AX37-AX38</f>
         <v>0</v>
       </c>
       <c r="AY39" s="13">
-        <f t="shared" ref="AY39" si="66">AY37-AY38</f>
+        <f t="shared" ref="AY39" si="81">AY37-AY38</f>
         <v>0</v>
       </c>
       <c r="AZ39" s="13">
-        <f t="shared" ref="AZ39" si="67">AZ37-AZ38</f>
+        <f t="shared" ref="AZ39" si="82">AZ37-AZ38</f>
         <v>0</v>
       </c>
     </row>
@@ -5539,163 +5694,175 @@
         <v>33</v>
       </c>
       <c r="I40" s="10" t="e">
-        <f t="shared" ref="I40" si="68">I39/I37</f>
+        <f t="shared" ref="I40" si="83">I39/I37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="10" t="e">
-        <f t="shared" ref="J40" si="69">J39/J37</f>
+        <f t="shared" ref="J40" si="84">J39/J37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="10" t="e">
-        <f t="shared" ref="K40" si="70">K39/K37</f>
+        <f t="shared" ref="K40" si="85">K39/K37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="10" t="e">
-        <f t="shared" ref="L40" si="71">L39/L37</f>
+        <f t="shared" ref="L40" si="86">L39/L37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="39">
-        <f t="shared" ref="M40" si="72">M39/M37</f>
+        <f t="shared" ref="M40" si="87">M39/M37</f>
         <v>0.71964051332812973</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" ref="N40" si="73">N39/N37</f>
+        <f t="shared" ref="N40" si="88">N39/N37</f>
         <v>0.72841211803611905</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40" si="74">O39/O37</f>
+        <f t="shared" ref="O40" si="89">O39/O37</f>
         <v>0.48390619492269304</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" ref="P40" si="75">P39/P37</f>
+        <f t="shared" ref="P40" si="90">P39/P37</f>
         <v>0.78110844450791861</v>
       </c>
       <c r="Q40" s="39">
-        <f t="shared" ref="Q40" si="76">Q39/Q37</f>
+        <f t="shared" ref="Q40" si="91">Q39/Q37</f>
         <v>0.78281472537906538</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" ref="R40" si="77">R39/R37</f>
+        <f t="shared" ref="R40" si="92">R39/R37</f>
         <v>0.75794506471587308</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40" si="78">S39/S37</f>
+        <f t="shared" ref="S40" si="93">S39/S37</f>
         <v>0.77864366842961552</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" ref="T40" si="79">T39/T37</f>
+        <f t="shared" ref="T40" si="94">T39/T37</f>
         <v>0.79771384744043783</v>
       </c>
       <c r="U40" s="39">
-        <f t="shared" ref="U40" si="80">U39/U37</f>
+        <f t="shared" ref="U40" si="95">U39/U37</f>
         <v>0.78850337286073702</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" ref="V40" si="81">V39/V37</f>
+        <f t="shared" ref="V40" si="96">V39/V37</f>
         <v>0.78388617576795416</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" ref="W40" si="82">W39/W37</f>
+        <f t="shared" ref="W40" si="97">W39/W37</f>
         <v>0.77481585335230607</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" ref="X40" si="83">X39/X37</f>
+        <f t="shared" ref="X40" si="98">X39/X37</f>
         <v>0.79491530089024509</v>
       </c>
       <c r="Y40" s="39">
-        <f t="shared" ref="Y40" si="84">Y39/Y37</f>
+        <f t="shared" ref="Y40" si="99">Y39/Y37</f>
         <v>0.79503452110299966</v>
       </c>
       <c r="Z40" s="10">
-        <f t="shared" ref="Z40" si="85">Z39/Z37</f>
+        <f t="shared" ref="Z40" si="100">Z39/Z37</f>
         <v>0.79955823647099189</v>
       </c>
       <c r="AA40" s="10">
-        <f t="shared" ref="AA40" si="86">AA39/AA37</f>
+        <f t="shared" ref="AA40" si="101">AA39/AA37</f>
         <v>0.80664649320354953</v>
       </c>
       <c r="AB40" s="10">
-        <f t="shared" ref="AB40" si="87">AB39/AB37</f>
+        <f t="shared" ref="AB40" si="102">AB39/AB37</f>
         <v>0.82142023506205308</v>
       </c>
-      <c r="AC40" s="39" t="e">
-        <f t="shared" ref="AC40" si="88">AC39/AC37</f>
-        <v>#DIV/0!</v>
+      <c r="AC40" s="39">
+        <f t="shared" ref="AC40" si="103">AC39/AC37</f>
+        <v>0.81672862101907817</v>
       </c>
       <c r="AD40" s="10" t="e">
-        <f t="shared" ref="AD40" si="89">AD39/AD37</f>
+        <f t="shared" ref="AD40:AG40" si="104">AD39/AD37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE40" s="10" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF40" s="10" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="10" t="e">
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI40" s="10" t="e">
-        <f t="shared" ref="AI40:AN40" si="90">AI39/AI37</f>
+        <f t="shared" ref="AI40:AN40" si="105">AI39/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ40" s="10" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>0.72220608019025578</v>
       </c>
       <c r="AL40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="AM40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>0.67735360899372454</v>
       </c>
       <c r="AN40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>0.77987779924495215</v>
       </c>
       <c r="AO40" s="10">
-        <f t="shared" ref="AO40" si="91">AO39/AO37</f>
+        <f t="shared" ref="AO40" si="106">AO39/AO37</f>
         <v>0.78563659345254744</v>
       </c>
       <c r="AP40" s="10">
-        <f t="shared" ref="AP40" si="92">AP39/AP37</f>
+        <f t="shared" ref="AP40" si="107">AP39/AP37</f>
         <v>0.80624598878567844</v>
       </c>
       <c r="AQ40" s="10" t="e">
-        <f t="shared" ref="AQ40" si="93">AQ39/AQ37</f>
+        <f t="shared" ref="AQ40" si="108">AQ39/AQ37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR40" s="10" t="e">
-        <f t="shared" ref="AR40" si="94">AR39/AR37</f>
+        <f t="shared" ref="AR40" si="109">AR39/AR37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS40" s="10" t="e">
-        <f t="shared" ref="AS40" si="95">AS39/AS37</f>
+        <f t="shared" ref="AS40" si="110">AS39/AS37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT40" s="10" t="e">
-        <f t="shared" ref="AT40" si="96">AT39/AT37</f>
+        <f t="shared" ref="AT40" si="111">AT39/AT37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU40" s="10" t="e">
-        <f t="shared" ref="AU40" si="97">AU39/AU37</f>
+        <f t="shared" ref="AU40" si="112">AU39/AU37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV40" s="10" t="e">
-        <f t="shared" ref="AV40" si="98">AV39/AV37</f>
+        <f t="shared" ref="AV40" si="113">AV39/AV37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW40" s="10" t="e">
-        <f t="shared" ref="AW40" si="99">AW39/AW37</f>
+        <f t="shared" ref="AW40" si="114">AW39/AW37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX40" s="10" t="e">
-        <f t="shared" ref="AX40" si="100">AX39/AX37</f>
+        <f t="shared" ref="AX40" si="115">AX39/AX37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY40" s="10" t="e">
-        <f t="shared" ref="AY40" si="101">AY39/AY37</f>
+        <f t="shared" ref="AY40" si="116">AY39/AY37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ40" s="10" t="e">
-        <f t="shared" ref="AZ40" si="102">AZ39/AZ37</f>
+        <f t="shared" ref="AZ40" si="117">AZ39/AZ37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5807,7 +5974,9 @@
       <c r="AB42" s="3">
         <v>197363</v>
       </c>
-      <c r="AC42" s="37"/>
+      <c r="AC42" s="37">
+        <v>193177</v>
+      </c>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
@@ -5899,7 +6068,9 @@
       <c r="AB43" s="3">
         <v>109283</v>
       </c>
-      <c r="AC43" s="37"/>
+      <c r="AC43" s="37">
+        <v>110040</v>
+      </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
@@ -5991,7 +6162,9 @@
       <c r="AB44" s="11">
         <v>127271</v>
       </c>
-      <c r="AC44" s="38"/>
+      <c r="AC44" s="38">
+        <v>133984</v>
+      </c>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
@@ -6029,167 +6202,176 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15">
-        <f t="shared" ref="I45" si="103">SUM(I42:I44)</f>
+        <f t="shared" ref="I45" si="118">SUM(I42:I44)</f>
         <v>0</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" ref="J45" si="104">SUM(J42:J44)</f>
+        <f t="shared" ref="J45" si="119">SUM(J42:J44)</f>
         <v>0</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" ref="K45" si="105">SUM(K42:K44)</f>
+        <f t="shared" ref="K45" si="120">SUM(K42:K44)</f>
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" ref="L45" si="106">SUM(L42:L44)</f>
+        <f t="shared" ref="L45" si="121">SUM(L42:L44)</f>
         <v>0</v>
       </c>
       <c r="M45" s="48">
-        <f t="shared" ref="M45" si="107">SUM(M42:M44)</f>
+        <f t="shared" ref="M45" si="122">SUM(M42:M44)</f>
         <v>235218</v>
       </c>
       <c r="N45" s="15">
-        <f t="shared" ref="N45" si="108">SUM(N42:N44)</f>
+        <f t="shared" ref="N45" si="123">SUM(N42:N44)</f>
         <v>282624</v>
       </c>
       <c r="O45" s="15">
-        <f t="shared" ref="O45" si="109">SUM(O42:O44)</f>
+        <f t="shared" ref="O45" si="124">SUM(O42:O44)</f>
         <v>987803</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" ref="P45" si="110">SUM(P42:P44)</f>
+        <f t="shared" ref="P45" si="125">SUM(P42:P44)</f>
         <v>408160</v>
       </c>
       <c r="Q45" s="48">
-        <f t="shared" ref="Q45" si="111">SUM(Q42:Q44)</f>
+        <f t="shared" ref="Q45" si="126">SUM(Q42:Q44)</f>
         <v>381137</v>
       </c>
       <c r="R45" s="15">
-        <f t="shared" ref="R45" si="112">SUM(R42:R44)</f>
+        <f t="shared" ref="R45" si="127">SUM(R42:R44)</f>
         <v>430864</v>
       </c>
       <c r="S45" s="15">
-        <f t="shared" ref="S45" si="113">SUM(S42:S44)</f>
+        <f t="shared" ref="S45" si="128">SUM(S42:S44)</f>
         <v>397283</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45" si="114">SUM(T42:T44)</f>
+        <f t="shared" ref="T45" si="129">SUM(T42:T44)</f>
         <v>404247</v>
       </c>
       <c r="U45" s="48">
-        <f t="shared" ref="U45" si="115">SUM(U42:U44)</f>
+        <f t="shared" ref="U45" si="130">SUM(U42:U44)</f>
         <v>391393</v>
       </c>
       <c r="V45" s="15">
-        <f t="shared" ref="V45" si="116">SUM(V42:V44)</f>
+        <f t="shared" ref="V45" si="131">SUM(V42:V44)</f>
         <v>412531</v>
       </c>
       <c r="W45" s="15">
-        <f t="shared" ref="W45" si="117">SUM(W42:W44)</f>
+        <f t="shared" ref="W45" si="132">SUM(W42:W44)</f>
         <v>432460</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" ref="X45" si="118">SUM(X42:X44)</f>
+        <f t="shared" ref="X45" si="133">SUM(X42:X44)</f>
         <v>422139</v>
       </c>
       <c r="Y45" s="48">
-        <f t="shared" ref="Y45" si="119">SUM(Y42:Y44)</f>
+        <f t="shared" ref="Y45" si="134">SUM(Y42:Y44)</f>
         <v>413426</v>
       </c>
       <c r="Z45" s="15">
-        <f t="shared" ref="Z45" si="120">SUM(Z42:Z44)</f>
+        <f t="shared" ref="Z45" si="135">SUM(Z42:Z44)</f>
         <v>416344</v>
       </c>
       <c r="AA45" s="15">
-        <f t="shared" ref="AA45" si="121">SUM(AA42:AA44)</f>
+        <f t="shared" ref="AA45" si="136">SUM(AA42:AA44)</f>
         <v>410254</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="AB45" si="122">SUM(AB42:AB44)</f>
+        <f t="shared" ref="AB45" si="137">SUM(AB42:AB44)</f>
         <v>433917</v>
       </c>
       <c r="AC45" s="48">
-        <f t="shared" ref="AC45" si="123">SUM(AC42:AC44)</f>
-        <v>0</v>
+        <f t="shared" ref="AC45" si="138">SUM(AC42:AC44)</f>
+        <v>437201</v>
       </c>
       <c r="AD45" s="15">
-        <f t="shared" ref="AD45" si="124">SUM(AD42:AD44)</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
+        <f t="shared" ref="AD45:AG45" si="139">SUM(AD42:AD44)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="15">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="15">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="15">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
       <c r="AH45" s="15"/>
       <c r="AI45" s="15">
-        <f t="shared" ref="AI45:AN45" si="125">SUM(AI42:AI44)</f>
+        <f t="shared" ref="AI45:AN45" si="140">SUM(AI42:AI44)</f>
         <v>0</v>
       </c>
       <c r="AJ45" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AK45" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>1053448</v>
       </c>
       <c r="AL45" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>1076626</v>
       </c>
       <c r="AM45" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>1913805</v>
       </c>
       <c r="AN45" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="140"/>
         <v>1613531</v>
       </c>
       <c r="AO45" s="15">
-        <f t="shared" ref="AO45" si="126">SUM(AO42:AO44)</f>
+        <f t="shared" ref="AO45" si="141">SUM(AO42:AO44)</f>
         <v>1658523</v>
       </c>
       <c r="AP45" s="15">
-        <f t="shared" ref="AP45" si="127">SUM(AP42:AP44)</f>
+        <f t="shared" ref="AP45" si="142">SUM(AP42:AP44)</f>
         <v>1673941</v>
       </c>
       <c r="AQ45" s="15">
-        <f t="shared" ref="AQ45" si="128">SUM(AQ42:AQ44)</f>
+        <f t="shared" ref="AQ45" si="143">SUM(AQ42:AQ44)</f>
         <v>0</v>
       </c>
       <c r="AR45" s="15">
-        <f t="shared" ref="AR45" si="129">SUM(AR42:AR44)</f>
+        <f t="shared" ref="AR45" si="144">SUM(AR42:AR44)</f>
         <v>0</v>
       </c>
       <c r="AS45" s="15">
-        <f t="shared" ref="AS45" si="130">SUM(AS42:AS44)</f>
+        <f t="shared" ref="AS45" si="145">SUM(AS42:AS44)</f>
         <v>0</v>
       </c>
       <c r="AT45" s="15">
-        <f t="shared" ref="AT45" si="131">SUM(AT42:AT44)</f>
+        <f t="shared" ref="AT45" si="146">SUM(AT42:AT44)</f>
         <v>0</v>
       </c>
       <c r="AU45" s="15">
-        <f t="shared" ref="AU45" si="132">SUM(AU42:AU44)</f>
+        <f t="shared" ref="AU45" si="147">SUM(AU42:AU44)</f>
         <v>0</v>
       </c>
       <c r="AV45" s="15">
-        <f t="shared" ref="AV45" si="133">SUM(AV42:AV44)</f>
+        <f t="shared" ref="AV45" si="148">SUM(AV42:AV44)</f>
         <v>0</v>
       </c>
       <c r="AW45" s="15">
-        <f t="shared" ref="AW45" si="134">SUM(AW42:AW44)</f>
+        <f t="shared" ref="AW45" si="149">SUM(AW42:AW44)</f>
         <v>0</v>
       </c>
       <c r="AX45" s="15">
-        <f t="shared" ref="AX45" si="135">SUM(AX42:AX44)</f>
+        <f t="shared" ref="AX45" si="150">SUM(AX42:AX44)</f>
         <v>0</v>
       </c>
       <c r="AY45" s="15">
-        <f t="shared" ref="AY45" si="136">SUM(AY42:AY44)</f>
+        <f t="shared" ref="AY45" si="151">SUM(AY42:AY44)</f>
         <v>0</v>
       </c>
       <c r="AZ45" s="15">
-        <f t="shared" ref="AZ45" si="137">SUM(AZ42:AZ44)</f>
+        <f t="shared" ref="AZ45" si="152">SUM(AZ42:AZ44)</f>
         <v>0</v>
       </c>
     </row>
@@ -6204,167 +6386,176 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13">
-        <f t="shared" ref="I46" si="138">I39-I45</f>
+        <f t="shared" ref="I46" si="153">I39-I45</f>
         <v>0</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" ref="J46" si="139">J39-J45</f>
+        <f t="shared" ref="J46" si="154">J39-J45</f>
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" ref="K46" si="140">K39-K45</f>
+        <f t="shared" ref="K46" si="155">K39-K45</f>
         <v>0</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" ref="L46" si="141">L39-L45</f>
+        <f t="shared" ref="L46" si="156">L39-L45</f>
         <v>0</v>
       </c>
       <c r="M46" s="44">
-        <f t="shared" ref="M46" si="142">M39-M45</f>
+        <f t="shared" ref="M46" si="157">M39-M45</f>
         <v>-70185</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" ref="N46" si="143">N39-N45</f>
+        <f t="shared" ref="N46" si="158">N39-N45</f>
         <v>-99145</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" ref="O46" si="144">O39-O45</f>
+        <f t="shared" ref="O46" si="159">O39-O45</f>
         <v>-847777</v>
       </c>
       <c r="P46" s="13">
-        <f t="shared" ref="P46" si="145">P39-P45</f>
+        <f t="shared" ref="P46" si="160">P39-P45</f>
         <v>-156572</v>
       </c>
       <c r="Q46" s="44">
-        <f t="shared" ref="Q46" si="146">Q39-Q45</f>
+        <f t="shared" ref="Q46" si="161">Q39-Q45</f>
         <v>-114014</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" ref="R46" si="147">R39-R45</f>
+        <f t="shared" ref="R46" si="162">R39-R45</f>
         <v>-146148</v>
       </c>
       <c r="S46" s="13">
-        <f t="shared" ref="S46" si="148">S39-S45</f>
+        <f t="shared" ref="S46" si="163">S39-S45</f>
         <v>-91941</v>
       </c>
       <c r="T46" s="13">
-        <f t="shared" ref="T46" si="149">T39-T45</f>
+        <f t="shared" ref="T46" si="164">T39-T45</f>
         <v>-58943</v>
       </c>
       <c r="U46" s="44">
-        <f t="shared" ref="U46" si="150">U39-U45</f>
+        <f t="shared" ref="U46" si="165">U39-U45</f>
         <v>-39439</v>
       </c>
       <c r="V46" s="13">
-        <f t="shared" ref="V46" si="151">V39-V45</f>
+        <f t="shared" ref="V46" si="166">V39-V45</f>
         <v>-41745</v>
       </c>
       <c r="W46" s="13">
-        <f t="shared" ref="W46" si="152">W39-W45</f>
+        <f t="shared" ref="W46" si="167">W39-W45</f>
         <v>-62191</v>
       </c>
       <c r="X46" s="13">
-        <f t="shared" ref="X46" si="153">X39-X45</f>
+        <f t="shared" ref="X46" si="168">X39-X45</f>
         <v>-17826</v>
       </c>
       <c r="Y46" s="44">
-        <f t="shared" ref="Y46" si="154">Y39-Y45</f>
+        <f t="shared" ref="Y46" si="169">Y39-Y45</f>
         <v>4115</v>
       </c>
       <c r="Z46" s="13">
-        <f t="shared" ref="Z46" si="155">Z39-Z45</f>
+        <f t="shared" ref="Z46" si="170">Z39-Z45</f>
         <v>10074</v>
       </c>
       <c r="AA46" s="13">
-        <f t="shared" ref="AA46" si="156">AA39-AA45</f>
+        <f t="shared" ref="AA46" si="171">AA39-AA45</f>
         <v>39983</v>
       </c>
       <c r="AB46" s="13">
-        <f t="shared" ref="AB46" si="157">AB39-AB45</f>
+        <f t="shared" ref="AB46" si="172">AB39-AB45</f>
         <v>65794</v>
       </c>
       <c r="AC46" s="44">
-        <f t="shared" ref="AC46" si="158">AC39-AC45</f>
-        <v>0</v>
+        <f t="shared" ref="AC46" si="173">AC39-AC45</f>
+        <v>80881</v>
       </c>
       <c r="AD46" s="13">
-        <f t="shared" ref="AD46" si="159">AD39-AD45</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
+        <f t="shared" ref="AD46:AG46" si="174">AD39-AD45</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="13">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="13">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="13">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13">
-        <f t="shared" ref="AI46:AN46" si="160">AI39-AI45</f>
+        <f t="shared" ref="AI46:AN46" si="175">AI39-AI45</f>
         <v>0</v>
       </c>
       <c r="AJ46" s="13">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AK46" s="13">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>-623440</v>
       </c>
       <c r="AL46" s="13">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>-576444</v>
       </c>
       <c r="AM46" s="13">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>-1173679</v>
       </c>
       <c r="AN46" s="13">
-        <f t="shared" si="160"/>
+        <f t="shared" si="175"/>
         <v>-411046</v>
       </c>
       <c r="AO46" s="13">
-        <f t="shared" ref="AO46" si="161">AO39-AO45</f>
+        <f t="shared" ref="AO46" si="176">AO39-AO45</f>
         <v>-161201</v>
       </c>
       <c r="AP46" s="13">
-        <f t="shared" ref="AP46" si="162">AP39-AP45</f>
+        <f t="shared" ref="AP46" si="177">AP39-AP45</f>
         <v>119966</v>
       </c>
       <c r="AQ46" s="13">
-        <f t="shared" ref="AQ46" si="163">AQ39-AQ45</f>
+        <f t="shared" ref="AQ46" si="178">AQ39-AQ45</f>
         <v>0</v>
       </c>
       <c r="AR46" s="13">
-        <f t="shared" ref="AR46" si="164">AR39-AR45</f>
+        <f t="shared" ref="AR46" si="179">AR39-AR45</f>
         <v>0</v>
       </c>
       <c r="AS46" s="13">
-        <f t="shared" ref="AS46" si="165">AS39-AS45</f>
+        <f t="shared" ref="AS46" si="180">AS39-AS45</f>
         <v>0</v>
       </c>
       <c r="AT46" s="13">
-        <f t="shared" ref="AT46" si="166">AT39-AT45</f>
+        <f t="shared" ref="AT46" si="181">AT39-AT45</f>
         <v>0</v>
       </c>
       <c r="AU46" s="13">
-        <f t="shared" ref="AU46" si="167">AU39-AU45</f>
+        <f t="shared" ref="AU46" si="182">AU39-AU45</f>
         <v>0</v>
       </c>
       <c r="AV46" s="13">
-        <f t="shared" ref="AV46" si="168">AV39-AV45</f>
+        <f t="shared" ref="AV46" si="183">AV39-AV45</f>
         <v>0</v>
       </c>
       <c r="AW46" s="13">
-        <f t="shared" ref="AW46" si="169">AW39-AW45</f>
+        <f t="shared" ref="AW46" si="184">AW39-AW45</f>
         <v>0</v>
       </c>
       <c r="AX46" s="13">
-        <f t="shared" ref="AX46" si="170">AX39-AX45</f>
+        <f t="shared" ref="AX46" si="185">AX39-AX45</f>
         <v>0</v>
       </c>
       <c r="AY46" s="13">
-        <f t="shared" ref="AY46" si="171">AY39-AY45</f>
+        <f t="shared" ref="AY46" si="186">AY39-AY45</f>
         <v>0</v>
       </c>
       <c r="AZ46" s="13">
-        <f t="shared" ref="AZ46" si="172">AZ39-AZ45</f>
+        <f t="shared" ref="AZ46" si="187">AZ39-AZ45</f>
         <v>0</v>
       </c>
     </row>
@@ -6379,167 +6570,176 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="17" t="e">
-        <f t="shared" ref="I47" si="173">I46/I37</f>
+        <f t="shared" ref="I47" si="188">I46/I37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J47" s="17" t="e">
-        <f t="shared" ref="J47" si="174">J46/J37</f>
+        <f t="shared" ref="J47" si="189">J46/J37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="17" t="e">
-        <f t="shared" ref="K47" si="175">K46/K37</f>
+        <f t="shared" ref="K47" si="190">K46/K37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="17" t="e">
-        <f t="shared" ref="L47" si="176">L46/L37</f>
+        <f t="shared" ref="L47" si="191">L46/L37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="45">
-        <f t="shared" ref="M47" si="177">M46/M37</f>
+        <f t="shared" ref="M47" si="192">M46/M37</f>
         <v>-0.30604769608463023</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" ref="N47" si="178">N46/N37</f>
+        <f t="shared" ref="N47" si="193">N46/N37</f>
         <v>-0.39360591371596221</v>
       </c>
       <c r="O47" s="17">
-        <f t="shared" ref="O47" si="179">O46/O37</f>
+        <f t="shared" ref="O47" si="194">O46/O37</f>
         <v>-2.9297740577676712</v>
       </c>
       <c r="P47" s="17">
-        <f t="shared" ref="P47" si="180">P46/P37</f>
+        <f t="shared" ref="P47" si="195">P46/P37</f>
         <v>-0.48611106799010217</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" ref="Q47" si="181">Q46/Q37</f>
+        <f t="shared" ref="Q47" si="196">Q46/Q37</f>
         <v>-0.33412262552969518</v>
       </c>
       <c r="R47" s="17">
-        <f t="shared" ref="R47" si="182">R46/R37</f>
+        <f t="shared" ref="R47" si="197">R46/R37</f>
         <v>-0.3890619259827176</v>
       </c>
       <c r="S47" s="17">
-        <f t="shared" ref="S47" si="183">S46/S37</f>
+        <f t="shared" ref="S47" si="198">S46/S37</f>
         <v>-0.23445604443243079</v>
       </c>
       <c r="T47" s="17">
-        <f t="shared" ref="T47" si="184">T46/T37</f>
+        <f t="shared" ref="T47" si="199">T46/T37</f>
         <v>-0.13616884632000129</v>
       </c>
       <c r="U47" s="45">
-        <f t="shared" ref="U47" si="185">U46/U37</f>
+        <f t="shared" ref="U47" si="200">U46/U37</f>
         <v>-8.8357525478484716E-2</v>
       </c>
       <c r="V47" s="17">
-        <f t="shared" ref="V47" si="186">V46/V37</f>
+        <f t="shared" ref="V47" si="201">V46/V37</f>
         <v>-8.8253948119490069E-2</v>
       </c>
       <c r="W47" s="17">
-        <f t="shared" ref="W47" si="187">W46/W37</f>
+        <f t="shared" ref="W47" si="202">W46/W37</f>
         <v>-0.13013936553109567</v>
       </c>
       <c r="X47" s="17">
-        <f t="shared" ref="X47" si="188">X46/X37</f>
+        <f t="shared" ref="X47" si="203">X46/X37</f>
         <v>-3.5047500707792001E-2</v>
       </c>
       <c r="Y47" s="45">
-        <f t="shared" ref="Y47" si="189">Y46/Y37</f>
+        <f t="shared" ref="Y47" si="204">Y46/Y37</f>
         <v>7.8353192964016553E-3</v>
       </c>
       <c r="Z47" s="17">
-        <f t="shared" ref="Z47" si="190">Z46/Z37</f>
+        <f t="shared" ref="Z47" si="205">Z46/Z37</f>
         <v>1.8889328485684875E-2</v>
       </c>
       <c r="AA47" s="17">
-        <f t="shared" ref="AA47" si="191">AA46/AA37</f>
+        <f t="shared" ref="AA47" si="206">AA46/AA37</f>
         <v>7.163371010769333E-2</v>
       </c>
       <c r="AB47" s="17">
-        <f t="shared" ref="AB47" si="192">AB46/AB37</f>
+        <f t="shared" ref="AB47" si="207">AB46/AB37</f>
         <v>0.10815155749157557</v>
       </c>
-      <c r="AC47" s="45" t="e">
-        <f t="shared" ref="AC47" si="193">AC46/AC37</f>
-        <v>#DIV/0!</v>
+      <c r="AC47" s="45">
+        <f t="shared" ref="AC47" si="208">AC46/AC37</f>
+        <v>0.12750457957744923</v>
       </c>
       <c r="AD47" s="17" t="e">
-        <f t="shared" ref="AD47" si="194">AD46/AD37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
+        <f t="shared" ref="AD47:AG47" si="209">AD46/AD37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE47" s="17" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF47" s="17" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG47" s="17" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AH47" s="3"/>
       <c r="AI47" s="17" t="e">
-        <f t="shared" ref="AI47:AN47" si="195">AI46/AI37</f>
+        <f t="shared" ref="AI47:AN47" si="210">AI46/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ47" s="17" t="e">
-        <f t="shared" si="195"/>
+        <f t="shared" si="210"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK47" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="210"/>
         <v>-1.0470785628030479</v>
       </c>
       <c r="AL47" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="210"/>
         <v>-0.77629805199614843</v>
       </c>
       <c r="AM47" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="210"/>
         <v>-1.0741356288660926</v>
       </c>
       <c r="AN47" s="17">
-        <f t="shared" si="195"/>
+        <f t="shared" si="210"/>
         <v>-0.26658598641017611</v>
       </c>
       <c r="AO47" s="17">
-        <f t="shared" ref="AO47" si="196">AO46/AO37</f>
+        <f t="shared" ref="AO47" si="211">AO46/AO37</f>
         <v>-8.4581275437844425E-2</v>
       </c>
       <c r="AP47" s="17">
-        <f t="shared" ref="AP47" si="197">AP46/AP37</f>
+        <f t="shared" ref="AP47" si="212">AP46/AP37</f>
         <v>5.3917012582404049E-2</v>
       </c>
       <c r="AQ47" s="17" t="e">
-        <f t="shared" ref="AQ47" si="198">AQ46/AQ37</f>
+        <f t="shared" ref="AQ47" si="213">AQ46/AQ37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR47" s="17" t="e">
-        <f t="shared" ref="AR47" si="199">AR46/AR37</f>
+        <f t="shared" ref="AR47" si="214">AR46/AR37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS47" s="17" t="e">
-        <f t="shared" ref="AS47" si="200">AS46/AS37</f>
+        <f t="shared" ref="AS47" si="215">AS46/AS37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT47" s="17" t="e">
-        <f t="shared" ref="AT47" si="201">AT46/AT37</f>
+        <f t="shared" ref="AT47" si="216">AT46/AT37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU47" s="17" t="e">
-        <f t="shared" ref="AU47" si="202">AU46/AU37</f>
+        <f t="shared" ref="AU47" si="217">AU46/AU37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV47" s="17" t="e">
-        <f t="shared" ref="AV47" si="203">AV46/AV37</f>
+        <f t="shared" ref="AV47" si="218">AV46/AV37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW47" s="17" t="e">
-        <f t="shared" ref="AW47" si="204">AW46/AW37</f>
+        <f t="shared" ref="AW47" si="219">AW46/AW37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX47" s="17" t="e">
-        <f t="shared" ref="AX47" si="205">AX46/AX37</f>
+        <f t="shared" ref="AX47" si="220">AX46/AX37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY47" s="17" t="e">
-        <f t="shared" ref="AY47" si="206">AY46/AY37</f>
+        <f t="shared" ref="AY47" si="221">AY46/AY37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ47" s="17" t="e">
-        <f t="shared" ref="AZ47" si="207">AZ46/AZ37</f>
+        <f t="shared" ref="AZ47" si="222">AZ46/AZ37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6651,7 +6851,9 @@
       <c r="AB49" s="3">
         <v>44545</v>
       </c>
-      <c r="AC49" s="37"/>
+      <c r="AC49" s="37">
+        <v>43352</v>
+      </c>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
@@ -6743,7 +6945,9 @@
       <c r="AB50" s="3">
         <v>-136</v>
       </c>
-      <c r="AC50" s="37"/>
+      <c r="AC50" s="37">
+        <v>0</v>
+      </c>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
@@ -6838,7 +7042,9 @@
       <c r="AB51" s="11">
         <v>-3956</v>
       </c>
-      <c r="AC51" s="38"/>
+      <c r="AC51" s="38">
+        <v>-13507</v>
+      </c>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
@@ -6877,167 +7083,176 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13">
-        <f t="shared" ref="I52" si="208">I46+SUM(I49:I51)</f>
+        <f t="shared" ref="I52" si="223">I46+SUM(I49:I51)</f>
         <v>0</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" ref="J52" si="209">J46+SUM(J49:J51)</f>
+        <f t="shared" ref="J52" si="224">J46+SUM(J49:J51)</f>
         <v>0</v>
       </c>
       <c r="K52" s="13">
-        <f t="shared" ref="K52" si="210">K46+SUM(K49:K51)</f>
+        <f t="shared" ref="K52" si="225">K46+SUM(K49:K51)</f>
         <v>0</v>
       </c>
       <c r="L52" s="13">
-        <f t="shared" ref="L52" si="211">L46+SUM(L49:L51)</f>
+        <f t="shared" ref="L52" si="226">L46+SUM(L49:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="44">
-        <f t="shared" ref="M52" si="212">M46+SUM(M49:M51)</f>
+        <f t="shared" ref="M52" si="227">M46+SUM(M49:M51)</f>
         <v>-51717</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" ref="N52" si="213">N46+SUM(N49:N51)</f>
+        <f t="shared" ref="N52" si="228">N46+SUM(N49:N51)</f>
         <v>-109512</v>
       </c>
       <c r="O52" s="13">
-        <f t="shared" ref="O52" si="214">O46+SUM(O49:O51)</f>
+        <f t="shared" ref="O52" si="229">O46+SUM(O49:O51)</f>
         <v>-861862</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" ref="P52" si="215">P46+SUM(P49:P51)</f>
+        <f t="shared" ref="P52" si="230">P46+SUM(P49:P51)</f>
         <v>-155936</v>
       </c>
       <c r="Q52" s="44">
-        <f t="shared" ref="Q52" si="216">Q46+SUM(Q49:Q51)</f>
+        <f t="shared" ref="Q52" si="231">Q46+SUM(Q49:Q51)</f>
         <v>-120372</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" ref="R52" si="217">R46+SUM(R49:R51)</f>
+        <f t="shared" ref="R52" si="232">R46+SUM(R49:R51)</f>
         <v>-144241</v>
       </c>
       <c r="S52" s="13">
-        <f t="shared" ref="S52" si="218">S46+SUM(S49:S51)</f>
+        <f t="shared" ref="S52" si="233">S46+SUM(S49:S51)</f>
         <v>-100699</v>
       </c>
       <c r="T52" s="13">
-        <f t="shared" ref="T52" si="219">T46+SUM(T49:T51)</f>
+        <f t="shared" ref="T52" si="234">T46+SUM(T49:T51)</f>
         <v>-123182</v>
       </c>
       <c r="U52" s="44">
-        <f t="shared" ref="U52" si="220">U46+SUM(U49:U51)</f>
+        <f t="shared" ref="U52" si="235">U46+SUM(U49:U51)</f>
         <v>-99356</v>
       </c>
       <c r="V52" s="13">
-        <f t="shared" ref="V52" si="221">V46+SUM(V49:V51)</f>
+        <f t="shared" ref="V52" si="236">V46+SUM(V49:V51)</f>
         <v>-176741</v>
       </c>
       <c r="W52" s="13">
-        <f t="shared" ref="W52" si="222">W46+SUM(W49:W51)</f>
+        <f t="shared" ref="W52" si="237">W46+SUM(W49:W51)</f>
         <v>-122779</v>
       </c>
       <c r="X52" s="13">
-        <f t="shared" ref="X52" si="223">X46+SUM(X49:X51)</f>
+        <f t="shared" ref="X52" si="238">X46+SUM(X49:X51)</f>
         <v>37849</v>
       </c>
       <c r="Y52" s="44">
-        <f t="shared" ref="Y52" si="224">Y46+SUM(Y49:Y51)</f>
+        <f t="shared" ref="Y52" si="239">Y46+SUM(Y49:Y51)</f>
         <v>20832</v>
       </c>
       <c r="Z52" s="13">
-        <f t="shared" ref="Z52" si="225">Z46+SUM(Z49:Z51)</f>
+        <f t="shared" ref="Z52" si="240">Z46+SUM(Z49:Z51)</f>
         <v>30043</v>
       </c>
       <c r="AA52" s="13">
-        <f t="shared" ref="AA52" si="226">AA46+SUM(AA49:AA51)</f>
+        <f t="shared" ref="AA52" si="241">AA46+SUM(AA49:AA51)</f>
         <v>79969</v>
       </c>
       <c r="AB52" s="13">
-        <f t="shared" ref="AB52" si="227">AB46+SUM(AB49:AB51)</f>
+        <f t="shared" ref="AB52" si="242">AB46+SUM(AB49:AB51)</f>
         <v>106247</v>
       </c>
       <c r="AC52" s="44">
-        <f t="shared" ref="AC52" si="228">AC46+SUM(AC49:AC51)</f>
-        <v>0</v>
+        <f t="shared" ref="AC52" si="243">AC46+SUM(AC49:AC51)</f>
+        <v>110726</v>
       </c>
       <c r="AD52" s="13">
-        <f t="shared" ref="AD52" si="229">AD46+SUM(AD49:AD51)</f>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
+        <f t="shared" ref="AD52:AG52" si="244">AD46+SUM(AD49:AD51)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="13">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="13">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
       <c r="AH52" s="13"/>
       <c r="AI52" s="13">
-        <f t="shared" ref="AI52:AN52" si="230">AI46+SUM(AI49:AI51)</f>
+        <f t="shared" ref="AI52:AN52" si="245">AI46+SUM(AI49:AI51)</f>
         <v>0</v>
       </c>
       <c r="AJ52" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="AK52" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="245"/>
         <v>-570925</v>
       </c>
       <c r="AL52" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="245"/>
         <v>-567271</v>
       </c>
       <c r="AM52" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="245"/>
         <v>-1179027</v>
       </c>
       <c r="AN52" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="245"/>
         <v>-488494</v>
       </c>
       <c r="AO52" s="13">
-        <f t="shared" ref="AO52" si="231">AO46+SUM(AO49:AO51)</f>
+        <f t="shared" ref="AO52" si="246">AO46+SUM(AO49:AO51)</f>
         <v>-361027</v>
       </c>
       <c r="AP52" s="13">
-        <f t="shared" ref="AP52" si="232">AP46+SUM(AP49:AP51)</f>
+        <f t="shared" ref="AP52" si="247">AP46+SUM(AP49:AP51)</f>
         <v>237091</v>
       </c>
       <c r="AQ52" s="13">
-        <f t="shared" ref="AQ52" si="233">AQ46+SUM(AQ49:AQ51)</f>
+        <f t="shared" ref="AQ52" si="248">AQ46+SUM(AQ49:AQ51)</f>
         <v>0</v>
       </c>
       <c r="AR52" s="13">
-        <f t="shared" ref="AR52" si="234">AR46+SUM(AR49:AR51)</f>
+        <f t="shared" ref="AR52" si="249">AR46+SUM(AR49:AR51)</f>
         <v>0</v>
       </c>
       <c r="AS52" s="13">
-        <f t="shared" ref="AS52" si="235">AS46+SUM(AS49:AS51)</f>
+        <f t="shared" ref="AS52" si="250">AS46+SUM(AS49:AS51)</f>
         <v>0</v>
       </c>
       <c r="AT52" s="13">
-        <f t="shared" ref="AT52" si="236">AT46+SUM(AT49:AT51)</f>
+        <f t="shared" ref="AT52" si="251">AT46+SUM(AT49:AT51)</f>
         <v>0</v>
       </c>
       <c r="AU52" s="13">
-        <f t="shared" ref="AU52" si="237">AU46+SUM(AU49:AU51)</f>
+        <f t="shared" ref="AU52" si="252">AU46+SUM(AU49:AU51)</f>
         <v>0</v>
       </c>
       <c r="AV52" s="13">
-        <f t="shared" ref="AV52" si="238">AV46+SUM(AV49:AV51)</f>
+        <f t="shared" ref="AV52" si="253">AV46+SUM(AV49:AV51)</f>
         <v>0</v>
       </c>
       <c r="AW52" s="13">
-        <f t="shared" ref="AW52" si="239">AW46+SUM(AW49:AW51)</f>
+        <f t="shared" ref="AW52" si="254">AW46+SUM(AW49:AW51)</f>
         <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <f t="shared" ref="AX52" si="240">AX46+SUM(AX49:AX51)</f>
+        <f t="shared" ref="AX52" si="255">AX46+SUM(AX49:AX51)</f>
         <v>0</v>
       </c>
       <c r="AY52" s="13">
-        <f t="shared" ref="AY52" si="241">AY46+SUM(AY49:AY51)</f>
+        <f t="shared" ref="AY52" si="256">AY46+SUM(AY49:AY51)</f>
         <v>0</v>
       </c>
       <c r="AZ52" s="13">
-        <f t="shared" ref="AZ52" si="242">AZ46+SUM(AZ49:AZ51)</f>
+        <f t="shared" ref="AZ52" si="257">AZ46+SUM(AZ49:AZ51)</f>
         <v>0</v>
       </c>
     </row>
@@ -7096,7 +7311,9 @@
       <c r="AB53" s="11">
         <v>9334</v>
       </c>
-      <c r="AC53" s="38"/>
+      <c r="AC53" s="38">
+        <v>4655</v>
+      </c>
       <c r="AK53" s="11">
         <v>9102</v>
       </c>
@@ -7127,167 +7344,176 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13">
-        <f t="shared" ref="I54" si="243">I52-I53</f>
+        <f t="shared" ref="I54" si="258">I52-I53</f>
         <v>0</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" ref="J54" si="244">J52-J53</f>
+        <f t="shared" ref="J54" si="259">J52-J53</f>
         <v>0</v>
       </c>
       <c r="K54" s="13">
-        <f t="shared" ref="K54" si="245">K52-K53</f>
+        <f t="shared" ref="K54" si="260">K52-K53</f>
         <v>0</v>
       </c>
       <c r="L54" s="13">
-        <f t="shared" ref="L54" si="246">L52-L53</f>
+        <f t="shared" ref="L54" si="261">L52-L53</f>
         <v>0</v>
       </c>
       <c r="M54" s="44">
-        <f t="shared" ref="M54" si="247">M52-M53</f>
+        <f t="shared" ref="M54" si="262">M52-M53</f>
         <v>-54274</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" ref="N54" si="248">N52-N53</f>
+        <f t="shared" ref="N54" si="263">N52-N53</f>
         <v>-110455</v>
       </c>
       <c r="O54" s="13">
-        <f t="shared" ref="O54" si="249">O52-O53</f>
+        <f t="shared" ref="O54" si="264">O52-O53</f>
         <v>-853319</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" ref="P54" si="250">P52-P53</f>
+        <f t="shared" ref="P54" si="265">P52-P53</f>
         <v>-148343</v>
       </c>
       <c r="Q54" s="44">
-        <f t="shared" ref="Q54" si="251">Q52-Q53</f>
+        <f t="shared" ref="Q54" si="266">Q52-Q53</f>
         <v>-123474</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" ref="R54" si="252">R52-R53</f>
+        <f t="shared" ref="R54" si="267">R52-R53</f>
         <v>-138580</v>
       </c>
       <c r="S54" s="13">
-        <f t="shared" ref="S54" si="253">S52-S53</f>
+        <f t="shared" ref="S54" si="268">S52-S53</f>
         <v>-102137</v>
       </c>
       <c r="T54" s="13">
-        <f t="shared" ref="T54" si="254">T52-T53</f>
+        <f t="shared" ref="T54" si="269">T52-T53</f>
         <v>-156188</v>
       </c>
       <c r="U54" s="44">
-        <f t="shared" ref="U54" si="255">U52-U53</f>
+        <f t="shared" ref="U54" si="270">U52-U53</f>
         <v>-101379</v>
       </c>
       <c r="V54" s="13">
-        <f t="shared" ref="V54" si="256">V52-V53</f>
+        <f t="shared" ref="V54" si="271">V52-V53</f>
         <v>-179329</v>
       </c>
       <c r="W54" s="13">
-        <f t="shared" ref="W54" si="257">W52-W53</f>
+        <f t="shared" ref="W54" si="272">W52-W53</f>
         <v>-123875</v>
       </c>
       <c r="X54" s="13">
-        <f t="shared" ref="X54" si="258">X52-X53</f>
+        <f t="shared" ref="X54" si="273">X52-X53</f>
         <v>33489</v>
       </c>
       <c r="Y54" s="44">
-        <f t="shared" ref="Y54" si="259">Y52-Y53</f>
+        <f t="shared" ref="Y54" si="274">Y52-Y53</f>
         <v>19151</v>
       </c>
       <c r="Z54" s="13">
-        <f t="shared" ref="Z54" si="260">Z52-Z53</f>
+        <f t="shared" ref="Z54" si="275">Z52-Z53</f>
         <v>27872</v>
       </c>
       <c r="AA54" s="13">
-        <f t="shared" ref="AA54" si="261">AA52-AA53</f>
+        <f t="shared" ref="AA54" si="276">AA52-AA53</f>
         <v>73439</v>
       </c>
       <c r="AB54" s="13">
-        <f t="shared" ref="AB54" si="262">AB52-AB53</f>
+        <f t="shared" ref="AB54" si="277">AB52-AB53</f>
         <v>96913</v>
       </c>
       <c r="AC54" s="44">
-        <f t="shared" ref="AC54" si="263">AC52-AC53</f>
-        <v>0</v>
+        <f t="shared" ref="AC54" si="278">AC52-AC53</f>
+        <v>106071</v>
       </c>
       <c r="AD54" s="13">
-        <f t="shared" ref="AD54" si="264">AD52-AD53</f>
-        <v>0</v>
-      </c>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
+        <f t="shared" ref="AD54:AG54" si="279">AD52-AD53</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="13">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
       <c r="AH54" s="13"/>
       <c r="AI54" s="13">
-        <f t="shared" ref="AI54:AN54" si="265">AI52-AI53</f>
+        <f t="shared" ref="AI54:AN54" si="280">AI52-AI53</f>
         <v>0</v>
       </c>
       <c r="AJ54" s="13">
-        <f t="shared" si="265"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AK54" s="13">
-        <f t="shared" si="265"/>
+        <f t="shared" si="280"/>
         <v>-580027</v>
       </c>
       <c r="AL54" s="13">
-        <f t="shared" si="265"/>
+        <f t="shared" si="280"/>
         <v>-579646</v>
       </c>
       <c r="AM54" s="13">
-        <f t="shared" si="265"/>
+        <f t="shared" si="280"/>
         <v>-1166391</v>
       </c>
       <c r="AN54" s="13">
-        <f t="shared" si="265"/>
+        <f t="shared" si="280"/>
         <v>-520379</v>
       </c>
       <c r="AO54" s="13">
-        <f t="shared" ref="AO54" si="266">AO52-AO53</f>
+        <f t="shared" ref="AO54" si="281">AO52-AO53</f>
         <v>-371094</v>
       </c>
       <c r="AP54" s="13">
-        <f t="shared" ref="AP54" si="267">AP52-AP53</f>
+        <f t="shared" ref="AP54" si="282">AP52-AP53</f>
         <v>217375</v>
       </c>
       <c r="AQ54" s="13">
-        <f t="shared" ref="AQ54" si="268">AQ52-AQ53</f>
+        <f t="shared" ref="AQ54" si="283">AQ52-AQ53</f>
         <v>0</v>
       </c>
       <c r="AR54" s="13">
-        <f t="shared" ref="AR54" si="269">AR52-AR53</f>
+        <f t="shared" ref="AR54" si="284">AR52-AR53</f>
         <v>0</v>
       </c>
       <c r="AS54" s="13">
-        <f t="shared" ref="AS54" si="270">AS52-AS53</f>
+        <f t="shared" ref="AS54" si="285">AS52-AS53</f>
         <v>0</v>
       </c>
       <c r="AT54" s="13">
-        <f t="shared" ref="AT54" si="271">AT52-AT53</f>
+        <f t="shared" ref="AT54" si="286">AT52-AT53</f>
         <v>0</v>
       </c>
       <c r="AU54" s="13">
-        <f t="shared" ref="AU54" si="272">AU52-AU53</f>
+        <f t="shared" ref="AU54" si="287">AU52-AU53</f>
         <v>0</v>
       </c>
       <c r="AV54" s="13">
-        <f t="shared" ref="AV54" si="273">AV52-AV53</f>
+        <f t="shared" ref="AV54" si="288">AV52-AV53</f>
         <v>0</v>
       </c>
       <c r="AW54" s="13">
-        <f t="shared" ref="AW54" si="274">AW52-AW53</f>
+        <f t="shared" ref="AW54" si="289">AW52-AW53</f>
         <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <f t="shared" ref="AX54" si="275">AX52-AX53</f>
+        <f t="shared" ref="AX54" si="290">AX52-AX53</f>
         <v>0</v>
       </c>
       <c r="AY54" s="13">
-        <f t="shared" ref="AY54" si="276">AY52-AY53</f>
+        <f t="shared" ref="AY54" si="291">AY52-AY53</f>
         <v>0</v>
       </c>
       <c r="AZ54" s="13">
-        <f t="shared" ref="AZ54" si="277">AZ52-AZ53</f>
+        <f t="shared" ref="AZ54" si="292">AZ52-AZ53</f>
         <v>0</v>
       </c>
     </row>
@@ -7354,7 +7580,9 @@
       <c r="AB55" s="11">
         <v>3522</v>
       </c>
-      <c r="AC55" s="38"/>
+      <c r="AC55" s="38">
+        <v>541</v>
+      </c>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
@@ -7408,163 +7636,172 @@
         <v>0</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" ref="J56:AD56" si="278">J54-J55</f>
+        <f t="shared" ref="J56:AD56" si="293">J54-J55</f>
         <v>0</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>0</v>
       </c>
       <c r="M56" s="44">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-54274</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-110455</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-853319</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-148343</v>
       </c>
       <c r="Q56" s="44">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-123474</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-138580</v>
       </c>
       <c r="S56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-102137</v>
       </c>
       <c r="T56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-156188</v>
       </c>
       <c r="U56" s="44">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-101379</v>
       </c>
       <c r="V56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-179329</v>
       </c>
       <c r="W56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>-123875</v>
       </c>
       <c r="X56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>33489</v>
       </c>
       <c r="Y56" s="44">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>16802</v>
       </c>
       <c r="Z56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>28127</v>
       </c>
       <c r="AA56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>71505</v>
       </c>
       <c r="AB56" s="13">
-        <f t="shared" si="278"/>
+        <f t="shared" si="293"/>
         <v>93391</v>
       </c>
       <c r="AC56" s="44">
-        <f t="shared" si="278"/>
-        <v>0</v>
+        <f t="shared" si="293"/>
+        <v>105530</v>
       </c>
       <c r="AD56" s="13">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="13">
+        <f t="shared" ref="AE56:AG56" si="294">AE54-AE55</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="13">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="13">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
       <c r="AH56" s="13"/>
       <c r="AI56" s="13">
-        <f t="shared" ref="AI56" si="279">AI54-AI55</f>
+        <f t="shared" ref="AI56" si="295">AI54-AI55</f>
         <v>0</v>
       </c>
       <c r="AJ56" s="13">
-        <f t="shared" ref="AJ56" si="280">AJ54-AJ55</f>
+        <f t="shared" ref="AJ56" si="296">AJ54-AJ55</f>
         <v>0</v>
       </c>
       <c r="AK56" s="13">
-        <f t="shared" ref="AK56" si="281">AK54-AK55</f>
+        <f t="shared" ref="AK56" si="297">AK54-AK55</f>
         <v>-580027</v>
       </c>
       <c r="AL56" s="13">
-        <f t="shared" ref="AL56" si="282">AL54-AL55</f>
+        <f t="shared" ref="AL56" si="298">AL54-AL55</f>
         <v>-579646</v>
       </c>
       <c r="AM56" s="13">
-        <f t="shared" ref="AM56" si="283">AM54-AM55</f>
+        <f t="shared" ref="AM56" si="299">AM54-AM55</f>
         <v>-1166391</v>
       </c>
       <c r="AN56" s="13">
-        <f t="shared" ref="AN56" si="284">AN54-AN55</f>
+        <f t="shared" ref="AN56" si="300">AN54-AN55</f>
         <v>-520379</v>
       </c>
       <c r="AO56" s="13">
-        <f t="shared" ref="AO56:AZ56" si="285">AO54-AO55</f>
+        <f t="shared" ref="AO56:AZ56" si="301">AO54-AO55</f>
         <v>-371094</v>
       </c>
       <c r="AP56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>217375</v>
       </c>
       <c r="AQ56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AR56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AS56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AT56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AU56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AV56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AW56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AX56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AY56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AZ56" s="13">
-        <f t="shared" si="285"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
     </row>
@@ -7579,167 +7816,176 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="10" t="e">
-        <f t="shared" ref="I57" si="286">I54/I37</f>
+        <f t="shared" ref="I57" si="302">I54/I37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J57" s="10" t="e">
-        <f t="shared" ref="J57" si="287">J54/J37</f>
+        <f t="shared" ref="J57" si="303">J54/J37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="10" t="e">
-        <f t="shared" ref="K57" si="288">K54/K37</f>
+        <f t="shared" ref="K57" si="304">K54/K37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L57" s="10" t="e">
-        <f t="shared" ref="L57" si="289">L54/L37</f>
+        <f t="shared" ref="L57" si="305">L54/L37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M57" s="39">
-        <f t="shared" ref="M57" si="290">M54/M37</f>
+        <f t="shared" ref="M57" si="306">M54/M37</f>
         <v>-0.23666641956681944</v>
       </c>
       <c r="N57" s="10">
-        <f t="shared" ref="N57" si="291">N54/N37</f>
+        <f t="shared" ref="N57" si="307">N54/N37</f>
         <v>-0.43850664379945137</v>
       </c>
       <c r="O57" s="10">
-        <f t="shared" ref="O57" si="292">O54/O37</f>
+        <f t="shared" ref="O57" si="308">O54/O37</f>
         <v>-2.9489262733009407</v>
       </c>
       <c r="P57" s="10">
-        <f t="shared" ref="P57:W57" si="293">P54/P37</f>
+        <f t="shared" ref="P57:W57" si="309">P54/P37</f>
         <v>-0.46056238764821122</v>
       </c>
       <c r="Q57" s="39">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.36184553708012684</v>
       </c>
       <c r="R57" s="10">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.36891508404278539</v>
       </c>
       <c r="S57" s="10">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.26045656464684069</v>
       </c>
       <c r="T57" s="10">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.36082214629435833</v>
       </c>
       <c r="U57" s="39">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.22712537273975764</v>
       </c>
       <c r="V57" s="10">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.37912306293735865</v>
       </c>
       <c r="W57" s="10">
-        <f t="shared" si="293"/>
+        <f t="shared" si="309"/>
         <v>-0.25921779526240896</v>
       </c>
       <c r="X57" s="10">
-        <f t="shared" ref="X57" si="294">X54/X37</f>
+        <f t="shared" ref="X57" si="310">X54/X37</f>
         <v>6.5842351127748597E-2</v>
       </c>
       <c r="Y57" s="39">
-        <f t="shared" ref="Y57" si="295">Y54/Y37</f>
+        <f t="shared" ref="Y57" si="311">Y54/Y37</f>
         <v>3.6465176147117404E-2</v>
       </c>
       <c r="Z57" s="10">
-        <f t="shared" ref="Z57" si="296">Z54/Z37</f>
+        <f t="shared" ref="Z57" si="312">Z54/Z37</f>
         <v>5.2261600511515668E-2</v>
       </c>
       <c r="AA57" s="10">
-        <f t="shared" ref="AA57" si="297">AA54/AA37</f>
+        <f t="shared" ref="AA57" si="313">AA54/AA37</f>
         <v>0.13157361970334619</v>
       </c>
       <c r="AB57" s="10">
-        <f t="shared" ref="AB57" si="298">AB54/AB37</f>
+        <f t="shared" ref="AB57" si="314">AB54/AB37</f>
         <v>0.15930467658420316</v>
       </c>
-      <c r="AC57" s="39" t="e">
-        <f t="shared" ref="AC57" si="299">AC54/AC37</f>
-        <v>#DIV/0!</v>
+      <c r="AC57" s="39">
+        <f t="shared" ref="AC57" si="315">AC54/AC37</f>
+        <v>0.16721527009260048</v>
       </c>
       <c r="AD57" s="10" t="e">
-        <f t="shared" ref="AD57" si="300">AD54/AD37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
+        <f t="shared" ref="AD57:AG57" si="316">AD54/AD37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE57" s="10" t="e">
+        <f t="shared" si="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF57" s="10" t="e">
+        <f t="shared" si="316"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG57" s="10" t="e">
+        <f t="shared" si="316"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AH57" s="3"/>
       <c r="AI57" s="10" t="e">
         <f>AI56/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ57" s="10" t="e">
-        <f t="shared" ref="AJ57:AZ57" si="301">AJ56/AJ37</f>
+        <f t="shared" ref="AJ57:AZ57" si="317">AJ56/AJ37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>-0.97416565755640239</v>
       </c>
       <c r="AL57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>-0.78061019049094005</v>
       </c>
       <c r="AM57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>-1.0674657468428341</v>
       </c>
       <c r="AN57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>-0.33749446296069302</v>
       </c>
       <c r="AO57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>-0.19471097466722564</v>
       </c>
       <c r="AP57" s="10">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>9.7696102313156064E-2</v>
       </c>
       <c r="AQ57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ57" s="10" t="e">
-        <f t="shared" si="301"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7748,155 +7994,167 @@
         <v>49</v>
       </c>
       <c r="I58" s="20" t="e">
-        <f t="shared" ref="I58:O58" si="302">I54/I60</f>
+        <f t="shared" ref="I58:O58" si="318">I54/I60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="20" t="e">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="20" t="e">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="20" t="e">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="49">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>-9.1702289431443776E-2</v>
       </c>
       <c r="N58" s="20">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>-0.17246467327660239</v>
       </c>
       <c r="O58" s="20">
-        <f t="shared" si="302"/>
+        <f t="shared" si="318"/>
         <v>-0.94241282350888278</v>
       </c>
       <c r="P58" s="20">
-        <f t="shared" ref="P58:W58" si="303">P54/P60</f>
+        <f t="shared" ref="P58:W58" si="319">P54/P60</f>
         <v>-8.140578817801572E-2</v>
       </c>
       <c r="Q58" s="49">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-6.7799718640557269E-2</v>
       </c>
       <c r="R58" s="20">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-7.3144495478215527E-2</v>
       </c>
       <c r="S58" s="20">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-5.1994125417749483E-2</v>
       </c>
       <c r="T58" s="20">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-7.6935467266172342E-2</v>
       </c>
       <c r="U58" s="49">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-4.9785715022341914E-2</v>
       </c>
       <c r="V58" s="20">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-8.7273256410967684E-2</v>
       </c>
       <c r="W58" s="20">
-        <f t="shared" si="303"/>
+        <f t="shared" si="319"/>
         <v>-5.9748753777254714E-2</v>
       </c>
       <c r="X58" s="20">
-        <f t="shared" ref="X58:AD58" si="304">X54/X60</f>
+        <f t="shared" ref="X58:AD58" si="320">X54/X60</f>
         <v>1.5936617100990917E-2</v>
       </c>
       <c r="Y58" s="49">
-        <f t="shared" si="304"/>
+        <f t="shared" si="320"/>
         <v>9.0858628509616745E-3</v>
       </c>
       <c r="Z58" s="20">
-        <f t="shared" si="304"/>
+        <f t="shared" si="320"/>
         <v>1.3077930804082536E-2</v>
       </c>
       <c r="AA58" s="20">
-        <f t="shared" si="304"/>
+        <f t="shared" si="320"/>
         <v>3.3959760095813703E-2</v>
       </c>
       <c r="AB58" s="20">
-        <f t="shared" si="304"/>
+        <f t="shared" si="320"/>
         <v>4.4308878783694688E-2</v>
       </c>
-      <c r="AC58" s="49" t="e">
-        <f t="shared" si="304"/>
-        <v>#DIV/0!</v>
+      <c r="AC58" s="49">
+        <f t="shared" si="320"/>
+        <v>4.7919061957177288E-2</v>
       </c>
       <c r="AD58" s="20" t="e">
-        <f t="shared" si="304"/>
+        <f t="shared" si="320"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE58" s="20" t="e">
+        <f t="shared" ref="AE58:AG58" si="321">AE54/AE60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF58" s="20" t="e">
+        <f t="shared" si="321"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG58" s="20" t="e">
+        <f t="shared" si="321"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK58" s="20">
-        <f t="shared" ref="AK58:AZ58" si="305">AK54/AK60</f>
+        <f t="shared" ref="AK58:AZ58" si="322">AK54/AK60</f>
         <v>-1.0795618671828469</v>
       </c>
       <c r="AL58" s="20">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>-1.0046579428512161</v>
       </c>
       <c r="AM58" s="20">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>-1.1929682618818245</v>
       </c>
       <c r="AN58" s="20">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>-0.27052110685235159</v>
       </c>
       <c r="AO58" s="20">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>-0.17981163808579639</v>
       </c>
       <c r="AP58" s="20">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>0.10122489692406701</v>
       </c>
       <c r="AQ58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ58" s="20" t="e">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7905,155 +8163,167 @@
         <v>50</v>
       </c>
       <c r="I59" s="20" t="e">
-        <f t="shared" ref="I59:O59" si="306">I54/I61</f>
+        <f t="shared" ref="I59:O59" si="323">I54/I61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="20" t="e">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="20" t="e">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" s="20" t="e">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="49">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>-9.1314567023855792E-2</v>
       </c>
       <c r="N59" s="20">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>-0.17240571964618234</v>
       </c>
       <c r="O59" s="20">
-        <f t="shared" si="306"/>
+        <f t="shared" si="323"/>
         <v>-0.94241282350888278</v>
       </c>
       <c r="P59" s="20" t="e">
-        <f t="shared" ref="P59:W59" si="307">P54/P61</f>
+        <f t="shared" ref="P59:W59" si="324">P54/P61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="49">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-6.7799718640557269E-2</v>
       </c>
       <c r="R59" s="20">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-7.3144495478215527E-2</v>
       </c>
       <c r="S59" s="20">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-5.1994125417749483E-2</v>
       </c>
       <c r="T59" s="20" t="e">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="49">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-4.9785715022341914E-2</v>
       </c>
       <c r="V59" s="20">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-8.7273256410967684E-2</v>
       </c>
       <c r="W59" s="20">
-        <f t="shared" si="307"/>
+        <f t="shared" si="324"/>
         <v>-5.9748753777254714E-2</v>
       </c>
       <c r="X59" s="20" t="e">
-        <f t="shared" ref="X59:AD59" si="308">X54/X61</f>
+        <f t="shared" ref="X59:AD59" si="325">X54/X61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y59" s="49">
-        <f t="shared" si="308"/>
+        <f t="shared" si="325"/>
         <v>8.636539719920143E-3</v>
       </c>
       <c r="Z59" s="20">
-        <f t="shared" si="308"/>
+        <f t="shared" si="325"/>
         <v>1.2234461658666772E-2</v>
       </c>
       <c r="AA59" s="20">
-        <f t="shared" si="308"/>
+        <f t="shared" si="325"/>
         <v>3.1578517371861028E-2</v>
       </c>
       <c r="AB59" s="20">
-        <f t="shared" si="308"/>
+        <f t="shared" si="325"/>
         <v>4.1104158130957504E-2</v>
       </c>
-      <c r="AC59" s="49" t="e">
-        <f t="shared" si="308"/>
-        <v>#DIV/0!</v>
+      <c r="AC59" s="49">
+        <f t="shared" si="325"/>
+        <v>4.4194279671697971E-2</v>
       </c>
       <c r="AD59" s="20" t="e">
-        <f t="shared" si="308"/>
+        <f t="shared" si="325"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE59" s="20" t="e">
+        <f t="shared" ref="AE59:AG59" si="326">AE54/AE61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF59" s="20" t="e">
+        <f t="shared" si="326"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG59" s="20" t="e">
+        <f t="shared" si="326"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK59" s="20">
-        <f t="shared" ref="AK59:AZ59" si="309">AK54/AK61</f>
+        <f t="shared" ref="AK59:AZ59" si="327">AK54/AK61</f>
         <v>-1.066197893775211</v>
       </c>
       <c r="AL59" s="20">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>-1.0046579428512161</v>
       </c>
       <c r="AM59" s="20">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>-1.1910090778413729</v>
       </c>
       <c r="AN59" s="20">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>-0.27052110685235159</v>
       </c>
       <c r="AO59" s="20">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>-0.17981163808579639</v>
       </c>
       <c r="AP59" s="20">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>9.4596129467994408E-2</v>
       </c>
       <c r="AQ59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ59" s="20" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="327"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8112,7 +8382,9 @@
       <c r="AB60" s="3">
         <v>2187214</v>
       </c>
-      <c r="AC60" s="37"/>
+      <c r="AC60" s="37">
+        <v>2213545</v>
+      </c>
       <c r="AK60" s="3">
         <v>537280</v>
       </c>
@@ -8175,7 +8447,9 @@
       <c r="AB61" s="3">
         <v>2357742</v>
       </c>
-      <c r="AC61" s="37"/>
+      <c r="AC61" s="37">
+        <v>2400107</v>
+      </c>
       <c r="AK61" s="3">
         <v>544014.39300000004</v>
       </c>
@@ -8209,59 +8483,59 @@
         <v>7.3850804050029889E-2</v>
       </c>
       <c r="AM62" s="10">
-        <f t="shared" ref="AM62:AZ62" si="310">(AM60-AL60)/ABS(AL60)</f>
+        <f t="shared" ref="AM62:AZ62" si="328">(AM60-AL60)/ABS(AL60)</f>
         <v>0.69461345022769039</v>
       </c>
       <c r="AN62" s="10">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>0.96744833337734037</v>
       </c>
       <c r="AO62" s="10">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>7.2871054892943862E-2</v>
       </c>
       <c r="AP62" s="10">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>4.0533619408535643E-2</v>
       </c>
       <c r="AQ62" s="10">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>-1</v>
       </c>
       <c r="AR62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ62" s="10" t="e">
-        <f t="shared" si="310"/>
+        <f t="shared" si="328"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8454,7 +8728,9 @@
       <c r="AB66" s="3">
         <v>831047</v>
       </c>
-      <c r="AC66" s="37"/>
+      <c r="AC66" s="37">
+        <v>520388</v>
+      </c>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -8539,7 +8815,9 @@
       <c r="AB67" s="3">
         <v>0</v>
       </c>
-      <c r="AC67" s="37"/>
+      <c r="AC67" s="37">
+        <v>0</v>
+      </c>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
@@ -8613,7 +8891,9 @@
       <c r="AB68" s="3">
         <v>2843132</v>
       </c>
-      <c r="AC68" s="37"/>
+      <c r="AC68" s="37">
+        <v>3347512</v>
+      </c>
       <c r="AL68" s="3">
         <v>50315</v>
       </c>
@@ -8679,7 +8959,9 @@
       <c r="AB69" s="3">
         <v>364784</v>
       </c>
-      <c r="AC69" s="37"/>
+      <c r="AC69" s="37">
+        <v>486986</v>
+      </c>
       <c r="AL69" s="3">
         <v>0</v>
       </c>
@@ -8745,7 +9027,9 @@
       <c r="AB70" s="11">
         <v>99655</v>
       </c>
-      <c r="AC70" s="38"/>
+      <c r="AC70" s="38">
+        <v>81178</v>
+      </c>
       <c r="AL70" s="11">
         <v>32585</v>
       </c>
@@ -8777,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" ref="J71" si="311">SUM(J66:J70)</f>
+        <f t="shared" ref="J71" si="329">SUM(J66:J70)</f>
         <v>0</v>
       </c>
       <c r="K71" s="13">
@@ -8785,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" ref="L71" si="312">SUM(L66:L70)</f>
+        <f t="shared" ref="L71" si="330">SUM(L66:L70)</f>
         <v>0</v>
       </c>
       <c r="M71" s="44">
@@ -8793,76 +9077,85 @@
         <v>0</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" ref="N71:AD71" si="313">SUM(N66:N70)</f>
+        <f t="shared" ref="N71:AD71" si="331">SUM(N66:N70)</f>
         <v>0</v>
       </c>
       <c r="O71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2394424</v>
       </c>
       <c r="P71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2257429</v>
       </c>
       <c r="Q71" s="44">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2589698</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2662552</v>
       </c>
       <c r="S71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2811490</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2863250</v>
       </c>
       <c r="U71" s="44">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2927374</v>
       </c>
       <c r="V71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2902439</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>2946610</v>
       </c>
       <c r="X71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>3041577</v>
       </c>
       <c r="Y71" s="44">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>3256147</v>
       </c>
       <c r="Z71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>3576914</v>
       </c>
       <c r="AA71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>3809397</v>
       </c>
       <c r="AB71" s="13">
-        <f t="shared" si="313"/>
+        <f t="shared" si="331"/>
         <v>4138618</v>
       </c>
       <c r="AC71" s="44">
-        <f t="shared" si="313"/>
-        <v>0</v>
+        <f t="shared" si="331"/>
+        <v>4436064</v>
       </c>
       <c r="AD71" s="13">
-        <f t="shared" si="313"/>
-        <v>0</v>
-      </c>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="13"/>
-      <c r="AG71" s="13"/>
+        <f t="shared" si="331"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="13">
+        <f t="shared" ref="AE71:AG71" si="332">SUM(AE66:AE70)</f>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="13">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="13">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
       <c r="AH71" s="13"/>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -8880,51 +9173,51 @@
         <v>2863250</v>
       </c>
       <c r="AO71" s="13">
-        <f t="shared" ref="AO71:AZ71" si="314">SUM(AO66:AO70)</f>
+        <f t="shared" ref="AO71:AZ71" si="333">SUM(AO66:AO70)</f>
         <v>3041577</v>
       </c>
       <c r="AP71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>4138618</v>
       </c>
       <c r="AQ71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AR71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AT71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AU71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AV71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AW71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AX71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AY71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AZ71" s="13">
-        <f t="shared" si="314"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
     </row>
@@ -9031,7 +9324,9 @@
       <c r="AB73" s="3">
         <v>47758</v>
       </c>
-      <c r="AC73" s="37"/>
+      <c r="AC73" s="37">
+        <v>46906</v>
+      </c>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
@@ -9052,7 +9347,7 @@
       <c r="AO73" s="3">
         <v>69170</v>
       </c>
-      <c r="AP73" s="60">
+      <c r="AP73" s="3">
         <v>47758</v>
       </c>
     </row>
@@ -9116,7 +9411,9 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-      <c r="AC74" s="37"/>
+      <c r="AC74" s="37">
+        <v>0</v>
+      </c>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
@@ -9137,7 +9434,7 @@
       <c r="AO74" s="3">
         <v>12551</v>
       </c>
-      <c r="AP74" s="60">
+      <c r="AP74" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9201,7 +9498,9 @@
       <c r="AB75" s="3">
         <v>182863</v>
       </c>
-      <c r="AC75" s="37"/>
+      <c r="AC75" s="37">
+        <v>173707</v>
+      </c>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
@@ -9222,7 +9521,7 @@
       <c r="AO75" s="3">
         <v>200240</v>
       </c>
-      <c r="AP75" s="60">
+      <c r="AP75" s="3">
         <v>182863</v>
       </c>
     </row>
@@ -9286,7 +9585,9 @@
       <c r="AB76" s="11">
         <v>153186</v>
       </c>
-      <c r="AC76" s="38"/>
+      <c r="AC76" s="38">
+        <v>150402</v>
+      </c>
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -9326,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="25">
-        <f t="shared" ref="J77" si="315">SUM(J73:J76)</f>
+        <f t="shared" ref="J77" si="334">SUM(J73:J76)</f>
         <v>0</v>
       </c>
       <c r="K77" s="25">
@@ -9334,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="25">
-        <f t="shared" ref="L77" si="316">SUM(L73:L76)</f>
+        <f t="shared" ref="L77" si="335">SUM(L73:L76)</f>
         <v>0</v>
       </c>
       <c r="M77" s="51">
@@ -9342,76 +9643,85 @@
         <v>0</v>
       </c>
       <c r="N77" s="25">
-        <f t="shared" ref="N77:AD77" si="317">SUM(N73:N76)</f>
+        <f t="shared" ref="N77:AD77" si="336">SUM(N73:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>209288</v>
       </c>
       <c r="P77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>433075</v>
       </c>
       <c r="Q77" s="51">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>424487</v>
       </c>
       <c r="R77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>413116</v>
       </c>
       <c r="S77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>412837</v>
       </c>
       <c r="T77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>384200</v>
       </c>
       <c r="U77" s="51">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>391805</v>
       </c>
       <c r="V77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>379899</v>
       </c>
       <c r="W77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>372225</v>
       </c>
       <c r="X77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>419662</v>
       </c>
       <c r="Y77" s="51">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>426991</v>
       </c>
       <c r="Z77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>403350</v>
       </c>
       <c r="AA77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>384020</v>
       </c>
       <c r="AB77" s="25">
-        <f t="shared" si="317"/>
+        <f t="shared" si="336"/>
         <v>383807</v>
       </c>
       <c r="AC77" s="51">
-        <f t="shared" si="317"/>
-        <v>0</v>
+        <f t="shared" si="336"/>
+        <v>371015</v>
       </c>
       <c r="AD77" s="25">
-        <f t="shared" si="317"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="25"/>
-      <c r="AF77" s="25"/>
-      <c r="AG77" s="25"/>
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="25">
+        <f t="shared" ref="AE77:AG77" si="337">SUM(AE73:AE76)</f>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="25">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="25">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
       <c r="AH77" s="25"/>
       <c r="AI77" s="25"/>
       <c r="AJ77" s="25"/>
@@ -9421,59 +9731,59 @@
         <v>379872</v>
       </c>
       <c r="AM77" s="25">
-        <f t="shared" ref="AM77:AZ77" si="318">SUM(AM73:AM76)</f>
+        <f t="shared" ref="AM77:AZ77" si="338">SUM(AM73:AM76)</f>
         <v>433075</v>
       </c>
       <c r="AN77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>384200</v>
       </c>
       <c r="AO77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>419662</v>
       </c>
       <c r="AP77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>383807</v>
       </c>
       <c r="AQ77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AR77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AS77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AT77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AU77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AV77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AW77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AX77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AY77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="AZ77" s="25">
-        <f t="shared" si="318"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
     </row>
@@ -9492,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" ref="J78" si="319">J77+J71</f>
+        <f t="shared" ref="J78" si="339">J77+J71</f>
         <v>0</v>
       </c>
       <c r="K78" s="13">
@@ -9500,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" ref="L78" si="320">L77+L71</f>
+        <f t="shared" ref="L78" si="340">L77+L71</f>
         <v>0</v>
       </c>
       <c r="M78" s="44">
@@ -9508,76 +9818,85 @@
         <v>0</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" ref="N78:AD78" si="321">N77+N71</f>
+        <f t="shared" ref="N78:AD78" si="341">N77+N71</f>
         <v>0</v>
       </c>
       <c r="O78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>2603712</v>
       </c>
       <c r="P78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>2690504</v>
       </c>
       <c r="Q78" s="44">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3014185</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3075668</v>
       </c>
       <c r="S78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3224327</v>
       </c>
       <c r="T78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3247450</v>
       </c>
       <c r="U78" s="44">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3319179</v>
       </c>
       <c r="V78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3282338</v>
       </c>
       <c r="W78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3318835</v>
       </c>
       <c r="X78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3461239</v>
       </c>
       <c r="Y78" s="44">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3683138</v>
       </c>
       <c r="Z78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>3980264</v>
       </c>
       <c r="AA78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>4193417</v>
       </c>
       <c r="AB78" s="13">
-        <f t="shared" si="321"/>
+        <f t="shared" si="341"/>
         <v>4522425</v>
       </c>
       <c r="AC78" s="44">
-        <f t="shared" si="321"/>
-        <v>0</v>
+        <f t="shared" si="341"/>
+        <v>4807079</v>
       </c>
       <c r="AD78" s="13">
-        <f t="shared" si="321"/>
-        <v>0</v>
-      </c>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
-      <c r="AG78" s="13"/>
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="13">
+        <f t="shared" ref="AE78:AG78" si="342">AE77+AE71</f>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="13">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="13">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -9587,59 +9906,59 @@
         <v>1594025</v>
       </c>
       <c r="AM78" s="13">
-        <f t="shared" ref="AM78:AZ78" si="322">AM77+AM71</f>
+        <f t="shared" ref="AM78:AZ78" si="343">AM77+AM71</f>
         <v>2690504</v>
       </c>
       <c r="AN78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>3247450</v>
       </c>
       <c r="AO78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>3461239</v>
       </c>
       <c r="AP78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>4522425</v>
       </c>
       <c r="AQ78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AR78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AS78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AT78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AU78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AW78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AY78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
       <c r="AZ78" s="13">
-        <f t="shared" si="322"/>
+        <f t="shared" si="343"/>
         <v>0</v>
       </c>
     </row>
@@ -9746,7 +10065,9 @@
       <c r="AB80" s="3">
         <v>12122</v>
       </c>
-      <c r="AC80" s="37"/>
+      <c r="AC80" s="37">
+        <v>35634</v>
+      </c>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
@@ -9831,7 +10152,9 @@
       <c r="AB81" s="3">
         <v>222991</v>
       </c>
-      <c r="AC81" s="37"/>
+      <c r="AC81" s="37">
+        <v>206034</v>
+      </c>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
@@ -9916,7 +10239,9 @@
       <c r="AB82" s="3">
         <v>246901</v>
       </c>
-      <c r="AC82" s="37"/>
+      <c r="AC82" s="37">
+        <v>237195</v>
+      </c>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
@@ -10001,7 +10326,9 @@
       <c r="AB83" s="3">
         <v>209828</v>
       </c>
-      <c r="AC83" s="37"/>
+      <c r="AC83" s="37">
+        <v>217634</v>
+      </c>
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
@@ -10086,7 +10413,9 @@
       <c r="AB84" s="11">
         <v>54176</v>
       </c>
-      <c r="AC84" s="38"/>
+      <c r="AC84" s="38">
+        <v>54056</v>
+      </c>
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
       <c r="AF84" s="11"/>
@@ -10126,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" ref="J85" si="323">SUM(J80:J84)</f>
+        <f t="shared" ref="J85" si="344">SUM(J80:J84)</f>
         <v>0</v>
       </c>
       <c r="K85" s="13">
@@ -10134,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" ref="L85" si="324">SUM(L80:L84)</f>
+        <f t="shared" ref="L85" si="345">SUM(L80:L84)</f>
         <v>0</v>
       </c>
       <c r="M85" s="44">
@@ -10142,76 +10471,85 @@
         <v>0</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" ref="N85:AD85" si="325">SUM(N80:N84)</f>
+        <f t="shared" ref="N85:AD85" si="346">SUM(N80:N84)</f>
         <v>0</v>
       </c>
       <c r="O85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>942187</v>
       </c>
       <c r="P85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>603823</v>
       </c>
       <c r="Q85" s="44">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>667626</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>682586</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>681509</v>
       </c>
       <c r="T85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>660061</v>
       </c>
       <c r="U85" s="44">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>669104</v>
       </c>
       <c r="V85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>665742</v>
       </c>
       <c r="W85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>688350</v>
       </c>
       <c r="X85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>587941</v>
       </c>
       <c r="Y85" s="44">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>601413</v>
       </c>
       <c r="Z85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>685384</v>
       </c>
       <c r="AA85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>688925</v>
       </c>
       <c r="AB85" s="13">
-        <f t="shared" si="325"/>
+        <f t="shared" si="346"/>
         <v>746018</v>
       </c>
       <c r="AC85" s="44">
-        <f t="shared" si="325"/>
-        <v>0</v>
+        <f t="shared" si="346"/>
+        <v>750553</v>
       </c>
       <c r="AD85" s="13">
-        <f t="shared" si="325"/>
-        <v>0</v>
-      </c>
-      <c r="AE85" s="13"/>
-      <c r="AF85" s="13"/>
-      <c r="AG85" s="13"/>
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="13">
+        <f t="shared" ref="AE85:AG85" si="347">SUM(AE80:AE84)</f>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="13">
+        <f t="shared" si="347"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="13">
+        <f t="shared" si="347"/>
+        <v>0</v>
+      </c>
       <c r="AH85" s="13"/>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -10229,51 +10567,51 @@
         <v>660061</v>
       </c>
       <c r="AO85" s="13">
-        <f t="shared" ref="AO85:AZ85" si="326">SUM(AO80:AO84)</f>
+        <f t="shared" ref="AO85:AZ85" si="348">SUM(AO80:AO84)</f>
         <v>587941</v>
       </c>
       <c r="AP85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>746018</v>
       </c>
       <c r="AQ85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AR85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AS85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AT85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AU85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AV85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AW85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AX85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AY85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
       <c r="AZ85" s="13">
-        <f t="shared" si="326"/>
+        <f t="shared" si="348"/>
         <v>0</v>
       </c>
     </row>
@@ -10380,7 +10718,9 @@
       <c r="AB87" s="3">
         <v>28047</v>
       </c>
-      <c r="AC87" s="37"/>
+      <c r="AC87" s="37">
+        <v>20722</v>
+      </c>
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
@@ -10465,7 +10805,9 @@
       <c r="AB88" s="3">
         <v>1477</v>
       </c>
-      <c r="AC88" s="37"/>
+      <c r="AC88" s="37">
+        <v>1651</v>
+      </c>
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
@@ -10550,7 +10892,9 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-      <c r="AC89" s="37"/>
+      <c r="AC89" s="37">
+        <v>0</v>
+      </c>
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
@@ -10635,7 +10979,9 @@
       <c r="AB90" s="3">
         <v>175216</v>
       </c>
-      <c r="AC90" s="37"/>
+      <c r="AC90" s="37">
+        <v>163013</v>
+      </c>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
@@ -10709,7 +11055,9 @@
       <c r="AB91" s="11">
         <v>10702</v>
       </c>
-      <c r="AC91" s="38"/>
+      <c r="AC91" s="37">
+        <v>9968</v>
+      </c>
       <c r="AL91" s="11">
         <v>78205</v>
       </c>
@@ -10741,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="25">
-        <f t="shared" ref="J92" si="327">SUM(J87:J91)</f>
+        <f t="shared" ref="J92" si="349">SUM(J87:J91)</f>
         <v>0</v>
       </c>
       <c r="K92" s="25">
@@ -10749,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="25">
-        <f t="shared" ref="L92" si="328">SUM(L87:L91)</f>
+        <f t="shared" ref="L92" si="350">SUM(L87:L91)</f>
         <v>0</v>
       </c>
       <c r="M92" s="51">
@@ -10757,76 +11105,85 @@
         <v>0</v>
       </c>
       <c r="N92" s="25">
-        <f t="shared" ref="N92:AD92" si="329">SUM(N87:N91)</f>
+        <f t="shared" ref="N92:AD92" si="351">SUM(N87:N91)</f>
         <v>0</v>
       </c>
       <c r="O92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>409772</v>
       </c>
       <c r="P92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>564131</v>
       </c>
       <c r="Q92" s="51">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>540616</v>
       </c>
       <c r="R92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>324119</v>
       </c>
       <c r="S92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>294762</v>
       </c>
       <c r="T92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>296359</v>
       </c>
       <c r="U92" s="51">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>285329</v>
       </c>
       <c r="V92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>267772</v>
       </c>
       <c r="W92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>243870</v>
       </c>
       <c r="X92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>230861</v>
       </c>
       <c r="Y92" s="51">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>278532</v>
       </c>
       <c r="Z92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>259742</v>
       </c>
       <c r="AA92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>232595</v>
       </c>
       <c r="AB92" s="25">
-        <f t="shared" si="329"/>
+        <f t="shared" si="351"/>
         <v>215442</v>
       </c>
       <c r="AC92" s="51">
-        <f t="shared" si="329"/>
-        <v>0</v>
+        <f t="shared" si="351"/>
+        <v>195354</v>
       </c>
       <c r="AD92" s="25">
-        <f t="shared" si="329"/>
-        <v>0</v>
-      </c>
-      <c r="AE92" s="25"/>
-      <c r="AF92" s="25"/>
-      <c r="AG92" s="25"/>
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="25">
+        <f t="shared" ref="AE92:AG92" si="352">SUM(AE87:AE91)</f>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="25">
+        <f t="shared" si="352"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="25">
+        <f t="shared" si="352"/>
+        <v>0</v>
+      </c>
       <c r="AH92" s="25"/>
       <c r="AI92" s="25"/>
       <c r="AJ92" s="25"/>
@@ -10836,59 +11193,59 @@
         <v>718838</v>
       </c>
       <c r="AM92" s="25">
-        <f t="shared" ref="AM92:AZ92" si="330">SUM(AM87:AM91)</f>
+        <f t="shared" ref="AM92:AZ92" si="353">SUM(AM87:AM91)</f>
         <v>564131</v>
       </c>
       <c r="AN92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>296359</v>
       </c>
       <c r="AO92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>230861</v>
       </c>
       <c r="AP92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>215442</v>
       </c>
       <c r="AQ92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AR92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AS92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AT92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AU92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AV92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AW92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AX92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AY92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AZ92" s="25">
-        <f t="shared" si="330"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
     </row>
@@ -10907,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" ref="J93" si="331">J92+J85</f>
+        <f t="shared" ref="J93" si="354">J92+J85</f>
         <v>0</v>
       </c>
       <c r="K93" s="13">
@@ -10915,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="13">
-        <f t="shared" ref="L93" si="332">L92+L85</f>
+        <f t="shared" ref="L93" si="355">L92+L85</f>
         <v>0</v>
       </c>
       <c r="M93" s="44">
@@ -10923,76 +11280,85 @@
         <v>0</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" ref="N93:AD93" si="333">N92+N85</f>
+        <f t="shared" ref="N93:AD93" si="356">N92+N85</f>
         <v>0</v>
       </c>
       <c r="O93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>1351959</v>
       </c>
       <c r="P93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>1167954</v>
       </c>
       <c r="Q93" s="44">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>1208242</v>
       </c>
       <c r="R93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>1006705</v>
       </c>
       <c r="S93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>976271</v>
       </c>
       <c r="T93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>956420</v>
       </c>
       <c r="U93" s="44">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>954433</v>
       </c>
       <c r="V93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>933514</v>
       </c>
       <c r="W93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>932220</v>
       </c>
       <c r="X93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>818802</v>
       </c>
       <c r="Y93" s="44">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>879945</v>
       </c>
       <c r="Z93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>945126</v>
       </c>
       <c r="AA93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>921520</v>
       </c>
       <c r="AB93" s="13">
-        <f t="shared" si="333"/>
+        <f t="shared" si="356"/>
         <v>961460</v>
       </c>
       <c r="AC93" s="44">
-        <f t="shared" si="333"/>
-        <v>0</v>
+        <f t="shared" si="356"/>
+        <v>945907</v>
       </c>
       <c r="AD93" s="13">
-        <f t="shared" si="333"/>
-        <v>0</v>
-      </c>
-      <c r="AE93" s="13"/>
-      <c r="AF93" s="13"/>
-      <c r="AG93" s="13"/>
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="13">
+        <f t="shared" ref="AE93:AG93" si="357">AE92+AE85</f>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="13">
+        <f t="shared" si="357"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="13">
+        <f t="shared" si="357"/>
+        <v>0</v>
+      </c>
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -11002,59 +11368,59 @@
         <v>1447436</v>
       </c>
       <c r="AM93" s="13">
-        <f t="shared" ref="AM93:AZ93" si="334">AM92+AM85</f>
+        <f t="shared" ref="AM93:AZ93" si="358">AM92+AM85</f>
         <v>1167954</v>
       </c>
       <c r="AN93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>956420</v>
       </c>
       <c r="AO93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>818802</v>
       </c>
       <c r="AP93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>961460</v>
       </c>
       <c r="AQ93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AR93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AS93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AT93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AU93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AV93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AW93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AX93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AY93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="AZ93" s="13">
-        <f t="shared" si="334"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
     </row>
@@ -11121,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="3">
-        <f t="shared" ref="P95:P102" si="335">AM95</f>
+        <f t="shared" ref="P95:P102" si="359">AM95</f>
         <v>0</v>
       </c>
       <c r="Q95" s="37">
@@ -11146,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="3">
-        <f t="shared" ref="X95:X102" si="336">AO95</f>
+        <f t="shared" ref="X95:X102" si="360">AO95</f>
         <v>0</v>
       </c>
       <c r="Y95" s="37">
@@ -11161,7 +11527,9 @@
       <c r="AB95" s="3">
         <v>0</v>
       </c>
-      <c r="AC95" s="37"/>
+      <c r="AC95" s="37">
+        <v>0</v>
+      </c>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
@@ -11206,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="Q96" s="37">
@@ -11231,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>0</v>
       </c>
       <c r="Y96" s="37">
@@ -11246,7 +11614,9 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-      <c r="AC96" s="37"/>
+      <c r="AC96" s="37">
+        <v>0</v>
+      </c>
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
@@ -11291,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="Q97" s="37">
@@ -11316,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>0</v>
       </c>
       <c r="Y97" s="37">
@@ -11331,7 +11701,9 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-      <c r="AC97" s="37"/>
+      <c r="AC97" s="37">
+        <v>0</v>
+      </c>
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
@@ -11376,7 +11748,7 @@
         <v>1727</v>
       </c>
       <c r="P98" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>1792</v>
       </c>
       <c r="Q98" s="37">
@@ -11401,7 +11773,7 @@
         <v>2080</v>
       </c>
       <c r="X98" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>2099</v>
       </c>
       <c r="Y98" s="37">
@@ -11416,7 +11788,9 @@
       <c r="AB98" s="3">
         <v>2200</v>
       </c>
-      <c r="AC98" s="37"/>
+      <c r="AC98" s="37">
+        <v>2227</v>
+      </c>
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
@@ -11461,7 +11835,7 @@
         <v>6065869</v>
       </c>
       <c r="P99" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>6488857</v>
       </c>
       <c r="Q99" s="37">
@@ -11486,7 +11860,7 @@
         <v>8284686</v>
       </c>
       <c r="X99" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>8427998</v>
       </c>
       <c r="Y99" s="37">
@@ -11501,7 +11875,9 @@
       <c r="AB99" s="3">
         <v>9122173</v>
       </c>
-      <c r="AC99" s="37"/>
+      <c r="AC99" s="37">
+        <v>9322803</v>
+      </c>
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
@@ -11535,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="Q100" s="37">
@@ -11560,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>0</v>
       </c>
       <c r="Y100" s="37">
@@ -11575,7 +11951,9 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="37"/>
+      <c r="AC100" s="37">
+        <v>0</v>
+      </c>
       <c r="AL100" s="3">
         <v>-38895</v>
       </c>
@@ -11601,7 +11979,7 @@
         <v>1168</v>
       </c>
       <c r="P101" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>-2745</v>
       </c>
       <c r="Q101" s="37">
@@ -11626,7 +12004,7 @@
         <v>-9835</v>
       </c>
       <c r="X101" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>-5333</v>
       </c>
       <c r="Y101" s="37">
@@ -11641,7 +12019,9 @@
       <c r="AB101" s="3">
         <v>801</v>
       </c>
-      <c r="AC101" s="37"/>
+      <c r="AC101" s="37">
+        <v>-5720</v>
+      </c>
       <c r="AL101" s="3">
         <v>-703</v>
       </c>
@@ -11667,7 +12047,7 @@
         <v>-4817011</v>
       </c>
       <c r="P102" s="11">
-        <f t="shared" si="335"/>
+        <f t="shared" si="359"/>
         <v>-4965354</v>
       </c>
       <c r="Q102" s="38">
@@ -11692,7 +12072,7 @@
         <v>-5890316</v>
       </c>
       <c r="X102" s="11">
-        <f t="shared" si="336"/>
+        <f t="shared" si="360"/>
         <v>-5859438</v>
       </c>
       <c r="Y102" s="38">
@@ -11707,7 +12087,9 @@
       <c r="AB102" s="11">
         <v>-5649613</v>
       </c>
-      <c r="AC102" s="38"/>
+      <c r="AC102" s="38">
+        <v>-5544083</v>
+      </c>
       <c r="AL102" s="11">
         <v>-3798963</v>
       </c>
@@ -11739,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" ref="J103" si="337">SUM(J97:J102)</f>
+        <f t="shared" ref="J103" si="361">SUM(J97:J102)</f>
         <v>0</v>
       </c>
       <c r="K103" s="13">
@@ -11747,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="13">
-        <f t="shared" ref="L103" si="338">SUM(L97:L102)</f>
+        <f t="shared" ref="L103" si="362">SUM(L97:L102)</f>
         <v>0</v>
       </c>
       <c r="M103" s="44">
@@ -11755,76 +12137,85 @@
         <v>0</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" ref="N103:AD103" si="339">SUM(N97:N102)</f>
+        <f t="shared" ref="N103:AD103" si="363">SUM(N97:N102)</f>
         <v>0</v>
       </c>
       <c r="O103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>1251753</v>
       </c>
       <c r="P103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>1522550</v>
       </c>
       <c r="Q103" s="44">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>1805943</v>
       </c>
       <c r="R103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2068963</v>
       </c>
       <c r="S103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2248056</v>
       </c>
       <c r="T103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2291030</v>
       </c>
       <c r="U103" s="44">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2364746</v>
       </c>
       <c r="V103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2348824</v>
       </c>
       <c r="W103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2386615</v>
       </c>
       <c r="X103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2565326</v>
       </c>
       <c r="Y103" s="44">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2723733</v>
       </c>
       <c r="Z103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>2955474</v>
       </c>
       <c r="AA103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>3190015</v>
       </c>
       <c r="AB103" s="13">
-        <f t="shared" si="339"/>
+        <f t="shared" si="363"/>
         <v>3475561</v>
       </c>
       <c r="AC103" s="44">
-        <f t="shared" si="339"/>
-        <v>0</v>
+        <f t="shared" si="363"/>
+        <v>3775227</v>
       </c>
       <c r="AD103" s="13">
-        <f t="shared" si="339"/>
-        <v>0</v>
-      </c>
-      <c r="AE103" s="13"/>
-      <c r="AF103" s="13"/>
-      <c r="AG103" s="13"/>
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="13">
+        <f t="shared" ref="AE103:AG103" si="364">SUM(AE97:AE102)</f>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="13">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="13">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
       <c r="AH103" s="13"/>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -11842,51 +12233,51 @@
         <v>2291030</v>
       </c>
       <c r="AO103" s="13">
-        <f t="shared" ref="AO103:AZ103" si="340">SUM(AO97:AO102)</f>
+        <f t="shared" ref="AO103:AZ103" si="365">SUM(AO97:AO102)</f>
         <v>2565326</v>
       </c>
       <c r="AP103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>3475561</v>
       </c>
       <c r="AQ103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AR103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AS103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AT103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AU103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AV103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AW103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AX103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AY103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="AZ103" s="13">
-        <f t="shared" si="340"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
     </row>
@@ -11948,7 +12339,9 @@
       <c r="AB104" s="11">
         <v>85404</v>
       </c>
-      <c r="AC104" s="38"/>
+      <c r="AC104" s="38">
+        <v>85945</v>
+      </c>
       <c r="AD104" s="11"/>
       <c r="AE104" s="11"/>
       <c r="AF104" s="11"/>
@@ -11998,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" ref="J105" si="341">SUM(J103:J104)</f>
+        <f t="shared" ref="J105" si="366">SUM(J103:J104)</f>
         <v>0</v>
       </c>
       <c r="K105" s="15">
@@ -12006,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" ref="L105" si="342">SUM(L103:L104)</f>
+        <f t="shared" ref="L105" si="367">SUM(L103:L104)</f>
         <v>0</v>
       </c>
       <c r="M105" s="48">
@@ -12014,138 +12407,147 @@
         <v>0</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" ref="N105:AD105" si="343">SUM(N103:N104)</f>
+        <f t="shared" ref="N105:AD105" si="368">SUM(N103:N104)</f>
         <v>0</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>1251753</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>1522550</v>
       </c>
       <c r="Q105" s="48">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>1805943</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2068963</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2248056</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2291030</v>
       </c>
       <c r="U105" s="48">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2364746</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2348824</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2386615</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2642437</v>
       </c>
       <c r="Y105" s="48">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>2803193</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>3035138</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>3271897</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="343"/>
+        <f t="shared" si="368"/>
         <v>3560965</v>
       </c>
       <c r="AC105" s="48">
-        <f t="shared" si="343"/>
-        <v>0</v>
+        <f t="shared" si="368"/>
+        <v>3861172</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="343"/>
-        <v>0</v>
-      </c>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="15">
+        <f t="shared" ref="AE105:AG105" si="369">SUM(AE103:AE104)</f>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="15">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="15">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
       <c r="AH105" s="15"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="344">SUM(AL103:AL104)</f>
+        <f t="shared" ref="AL105" si="370">SUM(AL103:AL104)</f>
         <v>-1980642</v>
       </c>
       <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="345">SUM(AM103:AM104)</f>
+        <f t="shared" ref="AM105" si="371">SUM(AM103:AM104)</f>
         <v>1522550</v>
       </c>
       <c r="AN105" s="15">
-        <f t="shared" ref="AN105" si="346">SUM(AN103:AN104)</f>
+        <f t="shared" ref="AN105" si="372">SUM(AN103:AN104)</f>
         <v>2291030</v>
       </c>
       <c r="AO105" s="15">
-        <f t="shared" ref="AO105" si="347">SUM(AO103:AO104)</f>
+        <f t="shared" ref="AO105" si="373">SUM(AO103:AO104)</f>
         <v>2642437</v>
       </c>
       <c r="AP105" s="15">
-        <f t="shared" ref="AP105" si="348">SUM(AP103:AP104)</f>
+        <f t="shared" ref="AP105" si="374">SUM(AP103:AP104)</f>
         <v>3560965</v>
       </c>
       <c r="AQ105" s="15">
-        <f t="shared" ref="AQ105" si="349">SUM(AQ103:AQ104)</f>
+        <f t="shared" ref="AQ105" si="375">SUM(AQ103:AQ104)</f>
         <v>0</v>
       </c>
       <c r="AR105" s="15">
-        <f t="shared" ref="AR105" si="350">SUM(AR103:AR104)</f>
+        <f t="shared" ref="AR105" si="376">SUM(AR103:AR104)</f>
         <v>0</v>
       </c>
       <c r="AS105" s="15">
-        <f t="shared" ref="AS105" si="351">SUM(AS103:AS104)</f>
+        <f t="shared" ref="AS105" si="377">SUM(AS103:AS104)</f>
         <v>0</v>
       </c>
       <c r="AT105" s="15">
-        <f t="shared" ref="AT105" si="352">SUM(AT103:AT104)</f>
+        <f t="shared" ref="AT105" si="378">SUM(AT103:AT104)</f>
         <v>0</v>
       </c>
       <c r="AU105" s="15">
-        <f t="shared" ref="AU105" si="353">SUM(AU103:AU104)</f>
+        <f t="shared" ref="AU105" si="379">SUM(AU103:AU104)</f>
         <v>0</v>
       </c>
       <c r="AV105" s="15">
-        <f t="shared" ref="AV105" si="354">SUM(AV103:AV104)</f>
+        <f t="shared" ref="AV105" si="380">SUM(AV103:AV104)</f>
         <v>0</v>
       </c>
       <c r="AW105" s="15">
-        <f t="shared" ref="AW105" si="355">SUM(AW103:AW104)</f>
+        <f t="shared" ref="AW105" si="381">SUM(AW103:AW104)</f>
         <v>0</v>
       </c>
       <c r="AX105" s="15">
-        <f t="shared" ref="AX105" si="356">SUM(AX103:AX104)</f>
+        <f t="shared" ref="AX105" si="382">SUM(AX103:AX104)</f>
         <v>0</v>
       </c>
       <c r="AY105" s="15">
-        <f t="shared" ref="AY105" si="357">SUM(AY103:AY104)</f>
+        <f t="shared" ref="AY105" si="383">SUM(AY103:AY104)</f>
         <v>0</v>
       </c>
       <c r="AZ105" s="15">
-        <f t="shared" ref="AZ105" si="358">SUM(AZ103:AZ104)</f>
+        <f t="shared" ref="AZ105" si="384">SUM(AZ103:AZ104)</f>
         <v>0</v>
       </c>
     </row>
@@ -12164,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" ref="J106" si="359">J105+J93+SUM(J95:J96)</f>
+        <f t="shared" ref="J106" si="385">J105+J93+SUM(J95:J96)</f>
         <v>0</v>
       </c>
       <c r="K106" s="13">
@@ -12172,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="13">
-        <f t="shared" ref="L106" si="360">L105+L93+SUM(L95:L96)</f>
+        <f t="shared" ref="L106" si="386">L105+L93+SUM(L95:L96)</f>
         <v>0</v>
       </c>
       <c r="M106" s="44">
@@ -12180,138 +12582,147 @@
         <v>0</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" ref="N106:AD106" si="361">N105+N93+SUM(N95:N96)</f>
+        <f t="shared" ref="N106:AD106" si="387">N105+N93+SUM(N95:N96)</f>
         <v>0</v>
       </c>
       <c r="O106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>2603712</v>
       </c>
       <c r="P106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>2690504</v>
       </c>
       <c r="Q106" s="44">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3014185</v>
       </c>
       <c r="R106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3075668</v>
       </c>
       <c r="S106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3224327</v>
       </c>
       <c r="T106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3247450</v>
       </c>
       <c r="U106" s="44">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3319179</v>
       </c>
       <c r="V106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3282338</v>
       </c>
       <c r="W106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3318835</v>
       </c>
       <c r="X106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3461239</v>
       </c>
       <c r="Y106" s="44">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3683138</v>
       </c>
       <c r="Z106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>3980264</v>
       </c>
       <c r="AA106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>4193417</v>
       </c>
       <c r="AB106" s="13">
-        <f t="shared" si="361"/>
+        <f t="shared" si="387"/>
         <v>4522425</v>
       </c>
       <c r="AC106" s="44">
-        <f t="shared" si="361"/>
-        <v>0</v>
+        <f t="shared" si="387"/>
+        <v>4807079</v>
       </c>
       <c r="AD106" s="13">
-        <f t="shared" si="361"/>
-        <v>0</v>
-      </c>
-      <c r="AE106" s="13"/>
-      <c r="AF106" s="13"/>
-      <c r="AG106" s="13"/>
+        <f t="shared" si="387"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="13">
+        <f t="shared" ref="AE106:AG106" si="388">AE105+AE93+SUM(AE95:AE96)</f>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="13">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="13">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
       <c r="AH106" s="13"/>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
       <c r="AK106" s="13"/>
       <c r="AL106" s="13">
-        <f t="shared" ref="AL106" si="362">AL105+AL93+SUM(AL95:AL96)</f>
+        <f t="shared" ref="AL106" si="389">AL105+AL93+SUM(AL95:AL96)</f>
         <v>1594025</v>
       </c>
       <c r="AM106" s="13">
-        <f t="shared" ref="AM106" si="363">AM105+AM93+SUM(AM95:AM96)</f>
+        <f t="shared" ref="AM106" si="390">AM105+AM93+SUM(AM95:AM96)</f>
         <v>2690504</v>
       </c>
       <c r="AN106" s="13">
-        <f t="shared" ref="AN106" si="364">AN105+AN93+SUM(AN95:AN96)</f>
+        <f t="shared" ref="AN106" si="391">AN105+AN93+SUM(AN95:AN96)</f>
         <v>3247450</v>
       </c>
       <c r="AO106" s="13">
-        <f t="shared" ref="AO106" si="365">AO105+AO93+SUM(AO95:AO96)</f>
+        <f t="shared" ref="AO106" si="392">AO105+AO93+SUM(AO95:AO96)</f>
         <v>3461239</v>
       </c>
       <c r="AP106" s="13">
-        <f t="shared" ref="AP106" si="366">AP105+AP93+SUM(AP95:AP96)</f>
+        <f t="shared" ref="AP106" si="393">AP105+AP93+SUM(AP95:AP96)</f>
         <v>4522425</v>
       </c>
       <c r="AQ106" s="13">
-        <f t="shared" ref="AQ106" si="367">AQ105+AQ93+SUM(AQ95:AQ96)</f>
+        <f t="shared" ref="AQ106" si="394">AQ105+AQ93+SUM(AQ95:AQ96)</f>
         <v>0</v>
       </c>
       <c r="AR106" s="13">
-        <f t="shared" ref="AR106" si="368">AR105+AR93+SUM(AR95:AR96)</f>
+        <f t="shared" ref="AR106" si="395">AR105+AR93+SUM(AR95:AR96)</f>
         <v>0</v>
       </c>
       <c r="AS106" s="13">
-        <f t="shared" ref="AS106" si="369">AS105+AS93+SUM(AS95:AS96)</f>
+        <f t="shared" ref="AS106" si="396">AS105+AS93+SUM(AS95:AS96)</f>
         <v>0</v>
       </c>
       <c r="AT106" s="13">
-        <f t="shared" ref="AT106" si="370">AT105+AT93+SUM(AT95:AT96)</f>
+        <f t="shared" ref="AT106" si="397">AT105+AT93+SUM(AT95:AT96)</f>
         <v>0</v>
       </c>
       <c r="AU106" s="13">
-        <f t="shared" ref="AU106" si="371">AU105+AU93+SUM(AU95:AU96)</f>
+        <f t="shared" ref="AU106" si="398">AU105+AU93+SUM(AU95:AU96)</f>
         <v>0</v>
       </c>
       <c r="AV106" s="13">
-        <f t="shared" ref="AV106" si="372">AV105+AV93+SUM(AV95:AV96)</f>
+        <f t="shared" ref="AV106" si="399">AV105+AV93+SUM(AV95:AV96)</f>
         <v>0</v>
       </c>
       <c r="AW106" s="13">
-        <f t="shared" ref="AW106" si="373">AW105+AW93+SUM(AW95:AW96)</f>
+        <f t="shared" ref="AW106" si="400">AW105+AW93+SUM(AW95:AW96)</f>
         <v>0</v>
       </c>
       <c r="AX106" s="13">
-        <f t="shared" ref="AX106" si="374">AX105+AX93+SUM(AX95:AX96)</f>
+        <f t="shared" ref="AX106" si="401">AX105+AX93+SUM(AX95:AX96)</f>
         <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <f t="shared" ref="AY106" si="375">AY105+AY93+SUM(AY95:AY96)</f>
+        <f t="shared" ref="AY106" si="402">AY105+AY93+SUM(AY95:AY96)</f>
         <v>0</v>
       </c>
       <c r="AZ106" s="13">
-        <f t="shared" ref="AZ106" si="376">AZ105+AZ93+SUM(AZ95:AZ96)</f>
+        <f t="shared" ref="AZ106" si="403">AZ105+AZ93+SUM(AZ95:AZ96)</f>
         <v>0</v>
       </c>
     </row>
@@ -12381,59 +12792,59 @@
         <v>1.6664237343500805</v>
       </c>
       <c r="AM108" s="26">
-        <f t="shared" ref="AM108:AZ108" si="377">AM71/AM85</f>
+        <f t="shared" ref="AM108:AZ108" si="404">AM71/AM85</f>
         <v>3.7385608034142455</v>
       </c>
       <c r="AN108" s="26">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>4.33785665264271</v>
       </c>
       <c r="AO108" s="26">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>5.1732690865239883</v>
       </c>
       <c r="AP108" s="26">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>5.5476114517344088</v>
       </c>
       <c r="AQ108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ108" s="26" t="e">
-        <f t="shared" si="377"/>
+        <f t="shared" si="404"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12585,7 +12996,9 @@
       <c r="AB111" s="3">
         <v>712183</v>
       </c>
-      <c r="AC111" s="37"/>
+      <c r="AC111" s="37">
+        <v>129579</v>
+      </c>
       <c r="AK111" s="3">
         <v>-39012</v>
       </c>
@@ -12667,7 +13080,9 @@
       <c r="AB112" s="11">
         <v>-15114</v>
       </c>
-      <c r="AC112" s="38"/>
+      <c r="AC112" s="38">
+        <v>-2664</v>
+      </c>
       <c r="AK112" s="11">
         <v>-13004</v>
       </c>
@@ -12692,91 +13107,103 @@
         <v>90</v>
       </c>
       <c r="I113" s="13">
-        <f t="shared" ref="I113" si="378">SUM(I111:I112)</f>
+        <f t="shared" ref="I113" si="405">SUM(I111:I112)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" ref="J113" si="379">SUM(J111:J112)</f>
+        <f t="shared" ref="J113" si="406">SUM(J111:J112)</f>
         <v>0</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" ref="K113" si="380">SUM(K111:K112)</f>
+        <f t="shared" ref="K113" si="407">SUM(K111:K112)</f>
         <v>0</v>
       </c>
       <c r="L113" s="13">
-        <f t="shared" ref="L113" si="381">SUM(L111:L112)</f>
+        <f t="shared" ref="L113" si="408">SUM(L111:L112)</f>
         <v>0</v>
       </c>
       <c r="M113" s="44">
-        <f t="shared" ref="M113" si="382">SUM(M111:M112)</f>
+        <f t="shared" ref="M113" si="409">SUM(M111:M112)</f>
         <v>-290200</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" ref="N113" si="383">SUM(N111:N112)</f>
+        <f t="shared" ref="N113" si="410">SUM(N111:N112)</f>
         <v>-232275</v>
       </c>
       <c r="O113" s="13">
-        <f t="shared" ref="O113" si="384">SUM(O111:O112)</f>
+        <f t="shared" ref="O113" si="411">SUM(O111:O112)</f>
         <v>-285795</v>
       </c>
       <c r="P113" s="13">
-        <f t="shared" ref="P113" si="385">SUM(P111:P112)</f>
+        <f t="shared" ref="P113" si="412">SUM(P111:P112)</f>
         <v>-308844</v>
       </c>
       <c r="Q113" s="44">
-        <f t="shared" ref="Q113" si="386">SUM(Q111:Q112)</f>
+        <f t="shared" ref="Q113" si="413">SUM(Q111:Q112)</f>
         <v>116173</v>
       </c>
       <c r="R113" s="13">
-        <f t="shared" ref="R113" si="387">SUM(R111:R112)</f>
+        <f t="shared" ref="R113" si="414">SUM(R111:R112)</f>
         <v>138226</v>
       </c>
       <c r="S113" s="13">
-        <f t="shared" ref="S113" si="388">SUM(S111:S112)</f>
+        <f t="shared" ref="S113" si="415">SUM(S111:S112)</f>
         <v>233641</v>
       </c>
       <c r="T113" s="13">
-        <f t="shared" ref="T113" si="389">SUM(T111:T112)</f>
+        <f t="shared" ref="T113" si="416">SUM(T111:T112)</f>
         <v>321224</v>
       </c>
       <c r="U113" s="44">
-        <f t="shared" ref="U113" si="390">SUM(U111:U112)</f>
+        <f t="shared" ref="U113" si="417">SUM(U111:U112)</f>
         <v>20262</v>
       </c>
       <c r="V113" s="13">
-        <f t="shared" ref="V113" si="391">SUM(V111:V112)</f>
+        <f t="shared" ref="V113" si="418">SUM(V111:V112)</f>
         <v>77235</v>
       </c>
       <c r="W113" s="13">
-        <f t="shared" ref="W113" si="392">SUM(W111:W112)</f>
+        <f t="shared" ref="W113" si="419">SUM(W111:W112)</f>
         <v>109865</v>
       </c>
       <c r="X113" s="13">
-        <f t="shared" ref="X113" si="393">SUM(X111:X112)</f>
+        <f t="shared" ref="X113" si="420">SUM(X111:X112)</f>
         <v>183710</v>
       </c>
       <c r="Y113" s="44">
-        <f t="shared" ref="Y113" si="394">SUM(Y111:Y112)</f>
+        <f t="shared" ref="Y113" si="421">SUM(Y111:Y112)</f>
         <v>182621</v>
       </c>
       <c r="Z113" s="13">
-        <f t="shared" ref="Z113" si="395">SUM(Z111:Z112)</f>
+        <f t="shared" ref="Z113" si="422">SUM(Z111:Z112)</f>
         <v>268879</v>
       </c>
       <c r="AA113" s="13">
-        <f t="shared" ref="AA113" si="396">SUM(AA111:AA112)</f>
+        <f t="shared" ref="AA113" si="423">SUM(AA111:AA112)</f>
         <v>400757</v>
       </c>
       <c r="AB113" s="13">
-        <f t="shared" ref="AB113" si="397">SUM(AB111:AB112)</f>
+        <f t="shared" ref="AB113" si="424">SUM(AB111:AB112)</f>
         <v>697069</v>
       </c>
       <c r="AC113" s="44">
-        <f t="shared" ref="AC113" si="398">SUM(AC111:AC112)</f>
-        <v>0</v>
+        <f t="shared" ref="AC113" si="425">SUM(AC111:AC112)</f>
+        <v>126915</v>
       </c>
       <c r="AD113" s="13">
-        <f t="shared" ref="AD113" si="399">SUM(AD111:AD112)</f>
+        <f t="shared" ref="AD113:AG113" si="426">SUM(AD111:AD112)</f>
+        <v>0</v>
+      </c>
+      <c r="AE113" s="13">
+        <f t="shared" si="426"/>
+        <v>0</v>
+      </c>
+      <c r="AF113" s="13">
+        <f t="shared" si="426"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="13">
+        <f t="shared" si="426"/>
         <v>0</v>
       </c>
       <c r="AK113" s="13">
@@ -12796,51 +13223,51 @@
         <v>321224</v>
       </c>
       <c r="AO113" s="13">
-        <f t="shared" ref="AO113:AZ113" si="400">SUM(AO111:AO112)</f>
+        <f t="shared" ref="AO113:AZ113" si="427">SUM(AO111:AO112)</f>
         <v>183710</v>
       </c>
       <c r="AP113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>697069</v>
       </c>
       <c r="AQ113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AR113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AS113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AT113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AU113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AV113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AW113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AX113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AY113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
       <c r="AZ113" s="13">
-        <f t="shared" si="400"/>
+        <f t="shared" si="427"/>
         <v>0</v>
       </c>
     </row>
@@ -12906,7 +13333,9 @@
       <c r="AB115" s="3">
         <v>0</v>
       </c>
-      <c r="AC115" s="37"/>
+      <c r="AC115" s="37">
+        <v>0</v>
+      </c>
       <c r="AM115" s="3">
         <v>942529</v>
       </c>
@@ -12982,7 +13411,9 @@
       <c r="AB116" s="3">
         <v>475903</v>
       </c>
-      <c r="AC116" s="37"/>
+      <c r="AC116" s="37">
+        <v>125651</v>
+      </c>
       <c r="AK116" s="3">
         <v>248503</v>
       </c>
@@ -13057,7 +13488,9 @@
       <c r="AB117" s="3">
         <v>0</v>
       </c>
-      <c r="AC117" s="37"/>
+      <c r="AC117" s="37">
+        <v>0</v>
+      </c>
       <c r="AM117" s="3">
         <v>0</v>
       </c>
@@ -13126,7 +13559,9 @@
       <c r="AB118" s="3">
         <v>0</v>
       </c>
-      <c r="AC118" s="37"/>
+      <c r="AC118" s="37">
+        <v>0</v>
+      </c>
       <c r="AK118" s="3">
         <v>0</v>
       </c>
@@ -13205,51 +13640,51 @@
         <v>238768</v>
       </c>
       <c r="AO122" s="3">
-        <f t="shared" ref="AO122:AZ122" si="401">AO121-AO120</f>
+        <f t="shared" ref="AO122:AZ122" si="428">AO121-AO120</f>
         <v>260421</v>
       </c>
       <c r="AP122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>-1777228</v>
       </c>
       <c r="AQ122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AR122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AS122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AT122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AU122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AV122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AW122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AX122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AY122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
       <c r="AZ122" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="428"/>
         <v>0</v>
       </c>
     </row>
@@ -13331,12 +13766,28 @@
         <v>90192</v>
       </c>
       <c r="AA125" s="3">
-        <f>AA111-Z111-Y111</f>
-        <v>-53933</v>
+        <f>AA111-Z125-Y125</f>
+        <v>133443</v>
       </c>
       <c r="AB125" s="3">
-        <f>AB111-AA111-Z111-Y111</f>
-        <v>-163772</v>
+        <f>AB111-AA125-Z125-Y125</f>
+        <v>301172</v>
+      </c>
+      <c r="AC125" s="37">
+        <f>AC111</f>
+        <v>129579</v>
+      </c>
+      <c r="AD125" s="3">
+        <f>AD111-AC125</f>
+        <v>-129579</v>
+      </c>
+      <c r="AE125" s="3">
+        <f>AE111-AD125-AC125</f>
+        <v>0</v>
+      </c>
+      <c r="AF125" s="3">
+        <f>AF111-AE125-AD125-AC125</f>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -13355,7 +13806,7 @@
         <f>O112-N112-M112</f>
         <v>1486</v>
       </c>
-      <c r="P126" s="58">
+      <c r="P126" s="56">
         <f>P112-O112-N112-M112</f>
         <v>4200</v>
       </c>
@@ -13371,7 +13822,7 @@
         <f>S112-R112-Q112</f>
         <v>-4670</v>
       </c>
-      <c r="T126" s="58">
+      <c r="T126" s="56">
         <f>T112-S112-R112-Q112</f>
         <v>-3731</v>
       </c>
@@ -13387,7 +13838,7 @@
         <f>W112-V112-U112</f>
         <v>779</v>
       </c>
-      <c r="X126" s="58">
+      <c r="X126" s="56">
         <f>X112-W112-V112-U112</f>
         <v>30970</v>
       </c>
@@ -13407,77 +13858,107 @@
         <f>AB112-AA112-Z112-Y112</f>
         <v>8584</v>
       </c>
-      <c r="AC126" s="56"/>
+      <c r="AC126" s="38">
+        <f>AC112</f>
+        <v>-2664</v>
+      </c>
+      <c r="AD126" s="11">
+        <f>AD112-AC112</f>
+        <v>2664</v>
+      </c>
+      <c r="AE126" s="11">
+        <f>AE112-AD112-AC112</f>
+        <v>2664</v>
+      </c>
+      <c r="AF126" s="11">
+        <f>AF112-AE112-AD112-AC112</f>
+        <v>2664</v>
+      </c>
     </row>
     <row r="127" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="13" t="s">
         <v>90</v>
       </c>
       <c r="M127" s="44">
-        <f t="shared" ref="M127:AB127" si="402">SUM(M125:M126)</f>
+        <f t="shared" ref="M127:AB127" si="429">SUM(M125:M126)</f>
         <v>-290200</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>57925</v>
       </c>
       <c r="O127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>236680</v>
       </c>
       <c r="P127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>499426</v>
       </c>
-      <c r="Q127" s="59">
-        <f t="shared" si="402"/>
+      <c r="Q127" s="57">
+        <f t="shared" si="429"/>
         <v>116173</v>
       </c>
       <c r="R127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>22053</v>
       </c>
       <c r="S127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>-20758</v>
       </c>
       <c r="T127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>-166816</v>
       </c>
-      <c r="U127" s="59">
-        <f t="shared" si="402"/>
+      <c r="U127" s="57">
+        <f t="shared" si="429"/>
         <v>20262</v>
       </c>
       <c r="V127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>56973</v>
       </c>
       <c r="W127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>12368</v>
       </c>
       <c r="X127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>-23652</v>
       </c>
-      <c r="Y127" s="59">
-        <f t="shared" si="402"/>
+      <c r="Y127" s="57">
+        <f t="shared" si="429"/>
         <v>182621</v>
       </c>
       <c r="Z127" s="13">
-        <f t="shared" si="402"/>
+        <f t="shared" si="429"/>
         <v>86258</v>
       </c>
       <c r="AA127" s="13">
-        <f t="shared" si="402"/>
-        <v>-50743</v>
+        <f t="shared" si="429"/>
+        <v>136633</v>
       </c>
       <c r="AB127" s="13">
-        <f t="shared" si="402"/>
-        <v>-155188</v>
-      </c>
-      <c r="AC127" s="57"/>
+        <f t="shared" si="429"/>
+        <v>309756</v>
+      </c>
+      <c r="AC127" s="57">
+        <f t="shared" ref="AC127:AF127" si="430">SUM(AC125:AC126)</f>
+        <v>126915</v>
+      </c>
+      <c r="AD127" s="13">
+        <f t="shared" si="430"/>
+        <v>-126915</v>
+      </c>
+      <c r="AE127" s="13">
+        <f t="shared" si="430"/>
+        <v>2664</v>
+      </c>
+      <c r="AF127" s="13">
+        <f t="shared" si="430"/>
+        <v>2664</v>
+      </c>
     </row>
     <row r="129" spans="2:46" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
@@ -13540,11 +14021,27 @@
         <v>0</v>
       </c>
       <c r="AA129" s="3">
-        <f>AA115-Z115-Y115</f>
+        <f>AA115-Z129-Y129</f>
         <v>0</v>
       </c>
       <c r="AB129" s="3">
-        <f>AB115-AA115-Z115-Y115</f>
+        <f>AB115-AA129-Z129-Y129</f>
+        <v>0</v>
+      </c>
+      <c r="AC129" s="37">
+        <f>AC115</f>
+        <v>0</v>
+      </c>
+      <c r="AD129" s="3">
+        <f>AD115-AC129</f>
+        <v>0</v>
+      </c>
+      <c r="AE129" s="3">
+        <f>AE115-AD129-AC129</f>
+        <v>0</v>
+      </c>
+      <c r="AF129" s="3">
+        <f>AF115-AE129-AD129-AC129</f>
         <v>0</v>
       </c>
     </row>
@@ -13609,12 +14106,28 @@
         <v>114201</v>
       </c>
       <c r="AA130" s="3">
-        <f>AA116-Z116-Y116</f>
-        <v>-334</v>
+        <f>AA116-Z130-Y130</f>
+        <v>114380</v>
       </c>
       <c r="AB130" s="3">
-        <f>AB116-AA116-Z116-Y116</f>
-        <v>-211021</v>
+        <f>AB116-AA130-Z130-Y130</f>
+        <v>132608</v>
+      </c>
+      <c r="AC130" s="37">
+        <f>AC116</f>
+        <v>125651</v>
+      </c>
+      <c r="AD130" s="3">
+        <f>AD116-AC130</f>
+        <v>-125651</v>
+      </c>
+      <c r="AE130" s="3">
+        <f>AE116-AD130-AC130</f>
+        <v>0</v>
+      </c>
+      <c r="AF130" s="3">
+        <f>AF116-AE130-AD130-AC130</f>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:46" x14ac:dyDescent="0.35">
@@ -13678,11 +14191,27 @@
         <v>0</v>
       </c>
       <c r="AA131" s="3">
-        <f>AA117-Z117-Y117</f>
+        <f>AA117-Z131-Y131</f>
         <v>0</v>
       </c>
       <c r="AB131" s="3">
-        <f>AB117-AA117-Z117-Y117</f>
+        <f>AB117-AA131-Z131-Y131</f>
+        <v>0</v>
+      </c>
+      <c r="AC131" s="37">
+        <f>AC117</f>
+        <v>0</v>
+      </c>
+      <c r="AD131" s="3">
+        <f>AD117-AC131</f>
+        <v>0</v>
+      </c>
+      <c r="AE131" s="3">
+        <f>AE117-AD131-AC131</f>
+        <v>0</v>
+      </c>
+      <c r="AF131" s="3">
+        <f>AF117-AE131-AD131-AC131</f>
         <v>0</v>
       </c>
     </row>
@@ -13744,11 +14273,27 @@
         <v>0</v>
       </c>
       <c r="AA132" s="3">
-        <f>AA118-Z118-Y118</f>
+        <f>AA118-Z132-Y132</f>
         <v>0</v>
       </c>
       <c r="AB132" s="3">
-        <f>AB118-AA118-Z118-Y118</f>
+        <f>AB118-AA132-Z132-Y132</f>
+        <v>0</v>
+      </c>
+      <c r="AC132" s="37">
+        <f>AC118</f>
+        <v>0</v>
+      </c>
+      <c r="AD132" s="3">
+        <f>AD118-AC132</f>
+        <v>0</v>
+      </c>
+      <c r="AE132" s="3">
+        <f>AE118-AD132-AC132</f>
+        <v>0</v>
+      </c>
+      <c r="AF132" s="3">
+        <f>AF118-AE132-AD132-AC132</f>
         <v>0</v>
       </c>
     </row>
@@ -13771,47 +14316,47 @@
       </c>
       <c r="M135" s="37"/>
       <c r="P135" s="3">
-        <f t="shared" ref="P135:Z135" si="403">P7*P136</f>
+        <f t="shared" ref="P135:Z135" si="431">P7*P136</f>
         <v>32436334.800000001</v>
       </c>
       <c r="Q135" s="37">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>50063633.419999994</v>
       </c>
       <c r="R135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>43727506.479999997</v>
       </c>
       <c r="S135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>47931238</v>
       </c>
       <c r="T135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>44967091.549999997</v>
       </c>
       <c r="U135" s="37">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>27143972.309999999</v>
       </c>
       <c r="V135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>20342510.100000001</v>
       </c>
       <c r="W135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>18452058.5</v>
       </c>
       <c r="X135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>15928513.460000001</v>
       </c>
       <c r="Y135" s="37">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>16482839.600000001</v>
       </c>
       <c r="Z135" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="431"/>
         <v>24082831.200000003</v>
       </c>
       <c r="AC135" s="37"/>
@@ -13828,23 +14373,23 @@
         <v>18182016.330000002</v>
       </c>
       <c r="AP135" s="3">
-        <f t="shared" ref="AP135:AT135" si="404">AP7*AP136</f>
+        <f t="shared" ref="AP135:AT135" si="432">AP7*AP136</f>
         <v>10565434.32</v>
       </c>
       <c r="AQ135" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="432"/>
         <v>0</v>
       </c>
       <c r="AR135" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="432"/>
         <v>0</v>
       </c>
       <c r="AS135" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="432"/>
         <v>0</v>
       </c>
       <c r="AT135" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="432"/>
         <v>0</v>
       </c>
     </row>
@@ -13856,47 +14401,47 @@
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3">
-        <f t="shared" ref="P136:Z136" si="405">P60</f>
+        <f t="shared" ref="P136:Z136" si="433">P60</f>
         <v>1822266</v>
       </c>
       <c r="Q136" s="37">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>1821158</v>
       </c>
       <c r="R136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>1894606</v>
       </c>
       <c r="S136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>1964395</v>
       </c>
       <c r="T136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2030117</v>
       </c>
       <c r="U136" s="37">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2036307</v>
       </c>
       <c r="V136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2054799</v>
       </c>
       <c r="W136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2073265</v>
       </c>
       <c r="X136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2101387</v>
       </c>
       <c r="Y136" s="37">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2107780</v>
       </c>
       <c r="Z136" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="433"/>
         <v>2131224</v>
       </c>
       <c r="AK136" s="3"/>
@@ -13914,23 +14459,23 @@
         <v>2063793</v>
       </c>
       <c r="AP136" s="3">
-        <f t="shared" ref="AP136:AT136" si="406">AP60</f>
+        <f t="shared" ref="AP136:AT136" si="434">AP60</f>
         <v>2147446</v>
       </c>
       <c r="AQ136" s="3">
-        <f t="shared" si="406"/>
+        <f t="shared" si="434"/>
         <v>0</v>
       </c>
       <c r="AR136" s="3">
-        <f t="shared" si="406"/>
+        <f t="shared" si="434"/>
         <v>0</v>
       </c>
       <c r="AS136" s="3">
-        <f t="shared" si="406"/>
+        <f t="shared" si="434"/>
         <v>0</v>
       </c>
       <c r="AT136" s="3">
-        <f t="shared" si="406"/>
+        <f t="shared" si="434"/>
         <v>0</v>
       </c>
     </row>
@@ -13940,47 +14485,47 @@
       </c>
       <c r="M137" s="54"/>
       <c r="P137" s="30">
-        <f t="shared" ref="P137:Z137" si="407">P135/SUM(M37:P37)</f>
+        <f t="shared" ref="P137:Z137" si="435">P135/SUM(M37:P37)</f>
         <v>29.685308230367184</v>
       </c>
       <c r="Q137" s="54">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>41.561069767055734</v>
       </c>
       <c r="R137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>32.919084657235793</v>
       </c>
       <c r="S137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>33.492280483791284</v>
       </c>
       <c r="T137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>29.163637298145325</v>
       </c>
       <c r="U137" s="54">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>16.48073742632112</v>
       </c>
       <c r="V137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>11.661742338251987</v>
       </c>
       <c r="W137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>10.082463988582132</v>
       </c>
       <c r="X137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>8.3576031431298343</v>
       </c>
       <c r="Y137" s="54">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>8.3049526880636879</v>
       </c>
       <c r="Z137" s="30">
-        <f t="shared" si="407"/>
+        <f t="shared" si="435"/>
         <v>11.776405264138461</v>
       </c>
       <c r="AC137" s="54"/>
@@ -13997,23 +14542,23 @@
         <v>9.5400036676144406</v>
       </c>
       <c r="AP137" s="30">
-        <f t="shared" ref="AP137:AT137" si="408">AP135/AP37</f>
+        <f t="shared" ref="AP137:AT137" si="436">AP135/AP37</f>
         <v>4.7484841969391631</v>
       </c>
       <c r="AQ137" s="30" t="e">
-        <f t="shared" si="408"/>
+        <f t="shared" si="436"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR137" s="30" t="e">
-        <f t="shared" si="408"/>
+        <f t="shared" si="436"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS137" s="30" t="e">
-        <f t="shared" si="408"/>
+        <f t="shared" si="436"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT137" s="30" t="e">
-        <f t="shared" si="408"/>
+        <f t="shared" si="436"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14023,47 +14568,47 @@
       </c>
       <c r="M138" s="54"/>
       <c r="P138" s="30">
-        <f t="shared" ref="P138:Z138" si="409">P135/SUM(M56:P56)</f>
+        <f t="shared" ref="P138:Z138" si="437">P135/SUM(M56:P56)</f>
         <v>-27.809143589070903</v>
       </c>
       <c r="Q138" s="54">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-40.517965427070926</v>
       </c>
       <c r="R138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-34.60232083790978</v>
       </c>
       <c r="S138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-93.518162697499093</v>
       </c>
       <c r="T138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-86.41219486182186</v>
       </c>
       <c r="U138" s="54">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-54.47490248532965</v>
       </c>
       <c r="V138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-37.738895577821772</v>
       </c>
       <c r="W138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-32.904801603506598</v>
       </c>
       <c r="X138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-42.923123144001252</v>
       </c>
       <c r="Y138" s="54">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-65.171974552514115</v>
       </c>
       <c r="Z138" s="30">
-        <f t="shared" si="409"/>
+        <f t="shared" si="437"/>
         <v>-529.79367754141288</v>
       </c>
       <c r="AC138" s="54"/>
@@ -14080,23 +14625,23 @@
         <v>-48.995716260570106</v>
       </c>
       <c r="AP138" s="30">
-        <f t="shared" ref="AP138:AT138" si="410">AP135/AP56</f>
+        <f t="shared" ref="AP138:AT138" si="438">AP135/AP56</f>
         <v>48.60464322024152</v>
       </c>
       <c r="AQ138" s="30" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="438"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR138" s="30" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="438"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS138" s="30" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="438"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT138" s="30" t="e">
-        <f t="shared" si="410"/>
+        <f t="shared" si="438"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14106,47 +14651,47 @@
       </c>
       <c r="M139" s="54"/>
       <c r="P139" s="30">
-        <f t="shared" ref="P139:Z139" si="411">P135/P105</f>
+        <f t="shared" ref="P139:Z139" si="439">P135/P105</f>
         <v>21.303953761781223</v>
       </c>
       <c r="Q139" s="54">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>27.721602187887434</v>
       </c>
       <c r="R139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>21.134987179567734</v>
       </c>
       <c r="S139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>21.321193956022448</v>
       </c>
       <c r="T139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>19.627456449719119</v>
       </c>
       <c r="U139" s="54">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>11.478599524008075</v>
       </c>
       <c r="V139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>8.6607213226704101</v>
       </c>
       <c r="W139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>7.7314767987295818</v>
       </c>
       <c r="X139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>6.027963376231865</v>
       </c>
       <c r="Y139" s="54">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>5.88002310222664</v>
       </c>
       <c r="Z139" s="30">
-        <f t="shared" si="411"/>
+        <f t="shared" si="439"/>
         <v>7.9346742059174913</v>
       </c>
       <c r="AC139" s="54"/>
@@ -14163,23 +14708,23 @@
         <v>6.880775711965887</v>
       </c>
       <c r="AP139" s="30">
-        <f t="shared" ref="AP139:AT139" si="412">AP135/AP105</f>
+        <f t="shared" ref="AP139:AT139" si="440">AP135/AP105</f>
         <v>2.9670143682962342</v>
       </c>
       <c r="AQ139" s="30" t="e">
-        <f t="shared" si="412"/>
+        <f t="shared" si="440"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR139" s="30" t="e">
-        <f t="shared" si="412"/>
+        <f t="shared" si="440"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS139" s="30" t="e">
-        <f t="shared" si="412"/>
+        <f t="shared" si="440"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT139" s="30" t="e">
-        <f t="shared" si="412"/>
+        <f t="shared" si="440"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14189,47 +14734,47 @@
       </c>
       <c r="M140" s="54"/>
       <c r="P140" s="30">
-        <f t="shared" ref="P140:Z140" si="413">P135/SUM(M113:P113)</f>
+        <f t="shared" ref="P140:Z140" si="441">P135/SUM(M113:P113)</f>
         <v>-29.035832332241831</v>
       </c>
       <c r="Q140" s="54">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>-70.438645610707695</v>
       </c>
       <c r="R140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>-128.51959346343756</v>
       </c>
       <c r="S140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>267.47939686153711</v>
       </c>
       <c r="T140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>55.565416909685837</v>
       </c>
       <c r="U140" s="54">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>38.051248554362282</v>
       </c>
       <c r="V140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>31.182855684420616</v>
       </c>
       <c r="W140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>34.908337526911417</v>
       </c>
       <c r="X140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>40.730385862449886</v>
       </c>
       <c r="Y140" s="54">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>29.783007457117513</v>
       </c>
       <c r="Z140" s="30">
-        <f t="shared" si="413"/>
+        <f t="shared" si="441"/>
         <v>32.322693956984203</v>
       </c>
       <c r="AC140" s="54"/>
@@ -14246,23 +14791,23 @@
         <v>98.971293506069358</v>
       </c>
       <c r="AP140" s="30">
-        <f t="shared" ref="AP140:AT140" si="414">AP135/AP113</f>
+        <f t="shared" ref="AP140:AT140" si="442">AP135/AP113</f>
         <v>15.156941880932878</v>
       </c>
       <c r="AQ140" s="30" t="e">
-        <f t="shared" si="414"/>
+        <f t="shared" si="442"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR140" s="30" t="e">
-        <f t="shared" si="414"/>
+        <f t="shared" si="442"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS140" s="30" t="e">
-        <f t="shared" si="414"/>
+        <f t="shared" si="442"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT140" s="30" t="e">
-        <f t="shared" si="414"/>
+        <f t="shared" si="442"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/PLTR/PLTR.xlsx
+++ b/PLTR/PLTR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/PLTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2040" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67DA3E57-750F-4FBA-9188-2BDDF29C2AEC}"/>
+  <xr:revisionPtr revIDLastSave="2066" documentId="11_4BC08893F052735CD6438A69F9AF742BD755F7D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B41E50-F8DC-41C9-AC94-3CAECD918283}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2353,11 +2353,9 @@
     <v>4</v>
     <v>29.83</v>
     <v>13.68</v>
-    <v>2.7004999999999999</v>
-    <v>0.52</v>
-    <v>1.2272E-2</v>
-    <v>1.9719E-2</v>
-    <v>0.33</v>
+    <v>2.7042999999999999</v>
+    <v>-0.92500000000000004</v>
+    <v>-3.4398999999999999E-2</v>
     <v>USD</v>
     <v>Palantir Technologies Inc. is engaged in building software to assist in counterterrorism investigations and operations. It has built four principal software platforms, including Palantir Gotham (Gotham), Palantir Foundry (Foundry), Palantir Apollo (Apollo), and Palantir Artificial Intelligence Platform (AIP). Apollo is a cloud-agnostic, single control layer that coordinates ongoing delivery of new features, security updates, and platform configurations, helping to ensure the continuous operation of critical systems. Gotham enables users to identify patterns hidden deep within datasets, ranging from signals intelligence sources to reports from confidential informants. Foundry transforms the ways organizations operate by creating a central operating system for their data. AIP enables responsible artificial intelligence (AI)-advantage across the enterprise by using primary, core components built to effectively activate large language models (LLMs) and other AI within any organization.</v>
     <v>3678</v>
@@ -2365,25 +2363,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1200 17Th Street, Floor 15, DENVER, CO, 80202 US</v>
-    <v>27.39</v>
+    <v>27.535</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45504.977085844534</v>
+    <v>45505.771398888282</v>
     <v>3</v>
-    <v>26.88</v>
-    <v>59881233440</v>
+    <v>25.9</v>
+    <v>58723260000</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
     <v>PALANTIR TECHNOLOGIES INC.</v>
-    <v>27.02</v>
-    <v>207.88329999999999</v>
-    <v>26.37</v>
+    <v>27.01</v>
+    <v>211.98269999999999</v>
     <v>26.89</v>
-    <v>27.22</v>
+    <v>25.965</v>
     <v>2226896000</v>
     <v>PLTR</v>
     <v>PALANTIR TECHNOLOGIES INC. (XNYS:PLTR)</v>
-    <v>29074180</v>
-    <v>41532646</v>
+    <v>22322523</v>
+    <v>41510820</v>
     <v>2003</v>
   </rv>
   <rv s="4">
@@ -2423,9 +2420,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2446,7 +2441,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2463,7 +2457,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2474,16 +2468,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2549,19 +2540,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2606,9 +2591,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2616,9 +2598,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -6811,7 +6790,7 @@
       </c>
       <c r="W96" s="2" cm="1">
         <f t="array" ref="W96">_FV(V91,"Price")</f>
-        <v>26.89</v>
+        <v>25.965</v>
       </c>
     </row>
     <row r="97" spans="22:25">
@@ -6873,7 +6852,7 @@
       </c>
       <c r="W108" s="2" cm="1">
         <f t="array" ref="W108">_FV(V103,"Price")</f>
-        <v>26.89</v>
+        <v>25.965</v>
       </c>
     </row>
     <row r="109" spans="22:25">
@@ -6935,7 +6914,7 @@
       </c>
       <c r="W119" s="2" cm="1">
         <f t="array" ref="W119">_FV(V114,"Price")</f>
-        <v>26.89</v>
+        <v>25.965</v>
       </c>
     </row>
     <row r="120" spans="22:25">
